--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
@@ -638,9 +638,6 @@
     <t>sRuqkAqviBya#H</t>
   </si>
   <si>
-    <t xml:space="preserve"> jiGA(gm)#sadByaH</t>
-  </si>
-  <si>
     <t>muqShNaqtAm</t>
   </si>
   <si>
@@ -2636,9 +2633,6 @@
     <t>mIqDhuShaq iti# mIqDhuShe$</t>
   </si>
   <si>
-    <t>n(gg)</t>
-  </si>
-  <si>
     <t>raqthaqkAqreBya#H</t>
   </si>
   <si>
@@ -2706,6 +2700,12 @@
   </si>
   <si>
     <t>goShThyA#ya</t>
+  </si>
+  <si>
+    <t>n(gm)</t>
+  </si>
+  <si>
+    <t>jiGA(gm)#sadByaH</t>
   </si>
 </sst>
 </file>
@@ -3327,10 +3327,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N939" sqref="N939"/>
+      <selection pane="bottomLeft" activeCell="N405" sqref="N405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3352,9 +3352,10 @@
     <col min="18" max="18" width="6.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" style="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="1" customWidth="1"/>
-    <col min="21" max="22" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="1" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="22.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="22.28515625" style="1" customWidth="1"/>
     <col min="25" max="25" width="62.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="266" width="9.140625" style="2"/>
     <col min="267" max="267" width="9.28515625" style="2" customWidth="1"/>
@@ -3827,7 +3828,7 @@
         <v>16</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>15</v>
@@ -3872,7 +3873,7 @@
         <v>12</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3942,7 +3943,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="56"/>
@@ -4026,7 +4027,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="56"/>
@@ -4068,7 +4069,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>17</v>
@@ -4083,7 +4084,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
       <c r="Y6" s="58" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4114,7 +4115,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="56"/>
@@ -4156,7 +4157,7 @@
         <v>7</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="56"/>
@@ -4212,7 +4213,7 @@
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
       <c r="Y9" s="58" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4285,7 +4286,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="56"/>
@@ -4336,7 +4337,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
@@ -4371,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="56"/>
@@ -4413,7 +4414,7 @@
         <v>13</v>
       </c>
       <c r="N14" s="60" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>0</v>
@@ -4428,7 +4429,7 @@
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4501,7 +4502,7 @@
         <v>15</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="56"/>
@@ -4558,7 +4559,7 @@
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
       <c r="Y17" s="58" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4631,7 +4632,7 @@
         <v>18</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="56"/>
@@ -4730,7 +4731,7 @@
       <c r="W21" s="19"/>
       <c r="X21" s="19"/>
       <c r="Y21" s="24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="22" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4845,7 +4846,7 @@
         <v>23</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="56"/>
@@ -4902,7 +4903,7 @@
       <c r="W25" s="19"/>
       <c r="X25" s="19"/>
       <c r="Y25" s="58" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5239,7 +5240,7 @@
       <c r="W33" s="19"/>
       <c r="X33" s="19"/>
       <c r="Y33" s="58" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="34" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5312,7 +5313,7 @@
         <v>34</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="56"/>
@@ -5480,7 +5481,7 @@
         <v>38</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="56"/>
@@ -5536,7 +5537,7 @@
       <c r="W40" s="19"/>
       <c r="X40" s="18"/>
       <c r="Y40" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="41" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5705,7 +5706,7 @@
       <c r="W44" s="19"/>
       <c r="X44" s="19"/>
       <c r="Y44" s="18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="45" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5751,7 +5752,7 @@
       <c r="W45" s="19"/>
       <c r="X45" s="19"/>
       <c r="Y45" s="18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="46" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5841,7 +5842,7 @@
       <c r="W47" s="19"/>
       <c r="X47" s="19"/>
       <c r="Y47" s="58" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="48" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5968,7 +5969,7 @@
       <c r="W50" s="19"/>
       <c r="X50" s="19"/>
       <c r="Y50" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="51" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5996,7 +5997,7 @@
         <v>50</v>
       </c>
       <c r="N51" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="56"/>
@@ -6037,7 +6038,7 @@
         <v>51</v>
       </c>
       <c r="N52" s="18" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="56"/>
@@ -6076,7 +6077,7 @@
         <v>52</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="56" t="s">
@@ -6087,13 +6088,13 @@
       <c r="S53" s="19"/>
       <c r="T53" s="19"/>
       <c r="U53" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
       <c r="Y53" s="58" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="54" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6181,7 +6182,7 @@
       <c r="W55" s="19"/>
       <c r="X55" s="19"/>
       <c r="Y55" s="18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="56" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6434,7 +6435,7 @@
       <c r="W61" s="19"/>
       <c r="X61" s="19"/>
       <c r="Y61" s="58" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="62" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6462,7 +6463,7 @@
         <v>61</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="56"/>
@@ -6634,7 +6635,7 @@
       <c r="Q66" s="19"/>
       <c r="R66" s="19"/>
       <c r="S66" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="T66" s="19"/>
       <c r="U66" s="19"/>
@@ -6686,7 +6687,7 @@
       <c r="W67" s="19"/>
       <c r="X67" s="19"/>
       <c r="Y67" s="58" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="68" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6975,7 +6976,7 @@
       <c r="W74" s="19"/>
       <c r="X74" s="19"/>
       <c r="Y74" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="75" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7018,7 +7019,7 @@
       <c r="W75" s="19"/>
       <c r="X75" s="19"/>
       <c r="Y75" s="58" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="76" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7090,7 +7091,7 @@
         <v>76</v>
       </c>
       <c r="N77" s="18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O77" s="3"/>
       <c r="P77" s="56"/>
@@ -7139,13 +7140,13 @@
       <c r="R78" s="19"/>
       <c r="T78" s="19"/>
       <c r="U78" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V78" s="19"/>
       <c r="W78" s="19"/>
       <c r="X78" s="19"/>
       <c r="Y78" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="79" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7269,7 +7270,7 @@
       <c r="W81" s="19"/>
       <c r="X81" s="19"/>
       <c r="Y81" s="58" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="82" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7304,7 +7305,7 @@
       <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
       <c r="S82" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="T82" s="19"/>
       <c r="U82" s="19"/>
@@ -7384,7 +7385,7 @@
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
       <c r="S84" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="T84" s="19"/>
       <c r="U84" s="19"/>
@@ -7552,7 +7553,7 @@
       <c r="W88" s="19"/>
       <c r="X88" s="19"/>
       <c r="Y88" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="89" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7589,7 +7590,7 @@
       <c r="S89" s="19"/>
       <c r="T89" s="19"/>
       <c r="U89" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V89" s="19"/>
       <c r="W89" s="19"/>
@@ -7714,7 +7715,7 @@
       <c r="S92" s="19"/>
       <c r="T92" s="19"/>
       <c r="U92" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="V92" s="19"/>
       <c r="W92" s="19"/>
@@ -7841,7 +7842,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
       <c r="Y95" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="96" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7869,7 +7870,7 @@
         <v>95</v>
       </c>
       <c r="N96" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O96" s="3"/>
       <c r="P96" s="56"/>
@@ -8034,7 +8035,7 @@
       <c r="S100" s="9"/>
       <c r="T100" s="9"/>
       <c r="U100" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="V100" s="9"/>
       <c r="W100" s="9"/>
@@ -8158,7 +8159,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
       <c r="Y103" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="104" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8186,7 +8187,7 @@
         <v>103</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="56"/>
@@ -8264,7 +8265,7 @@
         <v>105</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O106" s="1"/>
       <c r="P106" s="56"/>
@@ -8303,7 +8304,7 @@
         <v>106</v>
       </c>
       <c r="N107" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="56" t="s">
@@ -8318,7 +8319,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
       <c r="Y107" s="58" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="108" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8355,7 +8356,7 @@
       <c r="S108" s="9"/>
       <c r="T108" s="9"/>
       <c r="U108" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
@@ -8441,7 +8442,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
       <c r="Y110" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="111" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8484,7 +8485,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
       <c r="Y111" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="112" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8512,7 +8513,7 @@
         <v>111</v>
       </c>
       <c r="N112" s="18" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>0</v>
@@ -8529,7 +8530,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
       <c r="Y112" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="113" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8635,7 +8636,7 @@
         <v>114</v>
       </c>
       <c r="N115" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>0</v>
@@ -8650,7 +8651,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
       <c r="Y115" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="116" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8726,7 +8727,7 @@
       <c r="S117" s="9"/>
       <c r="T117" s="9"/>
       <c r="U117" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V117" s="9"/>
       <c r="W117" s="9"/>
@@ -8775,7 +8776,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="119" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9091,7 +9092,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
       <c r="Y126" s="58" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="127" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9167,7 +9168,7 @@
       <c r="S128" s="9"/>
       <c r="T128" s="9"/>
       <c r="U128" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V128" s="9"/>
       <c r="W128" s="9"/>
@@ -9199,7 +9200,7 @@
         <v>128</v>
       </c>
       <c r="N129" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O129" s="3" t="s">
         <v>0</v>
@@ -9214,7 +9215,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
       <c r="Y129" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="130" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9257,7 +9258,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
       <c r="Y130" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="131" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9285,7 +9286,7 @@
         <v>130</v>
       </c>
       <c r="N131" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O131" s="3"/>
       <c r="P131" s="56" t="s">
@@ -9300,7 +9301,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
       <c r="Y131" s="58" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="132" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9328,7 +9329,7 @@
         <v>131</v>
       </c>
       <c r="N132" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O132" s="3" t="s">
         <v>17</v>
@@ -9339,13 +9340,13 @@
       <c r="S132" s="9"/>
       <c r="T132" s="9"/>
       <c r="U132" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="V132" s="9"/>
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
       <c r="Y132" s="18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="133" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9373,7 +9374,7 @@
         <v>132</v>
       </c>
       <c r="N133" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O133" s="1"/>
       <c r="P133" s="56"/>
@@ -9421,7 +9422,7 @@
       <c r="S134" s="9"/>
       <c r="T134" s="9"/>
       <c r="U134" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="V134" s="9"/>
       <c r="W134" s="9"/>
@@ -9531,7 +9532,7 @@
         <v>136</v>
       </c>
       <c r="N137" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O137" s="3"/>
       <c r="P137" s="56"/>
@@ -9624,7 +9625,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
       <c r="Y139" s="58" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="140" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9808,7 +9809,7 @@
         <v>143</v>
       </c>
       <c r="N144" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O144" s="3"/>
       <c r="P144" s="56"/>
@@ -9847,7 +9848,7 @@
         <v>144</v>
       </c>
       <c r="N145" s="18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O145" s="1"/>
       <c r="P145" s="56"/>
@@ -9901,7 +9902,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
       <c r="Y146" s="58" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="147" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10007,7 +10008,7 @@
         <v>148</v>
       </c>
       <c r="N149" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O149" s="3"/>
       <c r="P149" s="56"/>
@@ -10046,7 +10047,7 @@
         <v>149</v>
       </c>
       <c r="N150" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O150" s="1"/>
       <c r="P150" s="56"/>
@@ -10132,7 +10133,7 @@
       <c r="Q152" s="9"/>
       <c r="R152" s="9"/>
       <c r="S152" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="T152" s="9"/>
       <c r="U152" s="9"/>
@@ -10220,7 +10221,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
       <c r="Y154" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="155" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10263,7 +10264,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
       <c r="Y155" s="58" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="156" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10306,7 +10307,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
       <c r="Y156" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="157" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10427,7 +10428,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
       <c r="Y159" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="160" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10455,7 +10456,7 @@
         <v>159</v>
       </c>
       <c r="N160" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>0</v>
@@ -10472,7 +10473,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
       <c r="Y160" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="161" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10515,7 +10516,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
       <c r="Y161" s="58" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="162" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10714,7 +10715,7 @@
       <c r="W166" s="9"/>
       <c r="X166" s="9"/>
       <c r="Y166" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="167" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10757,7 +10758,7 @@
       <c r="W167" s="9"/>
       <c r="X167" s="9"/>
       <c r="Y167" s="58" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="168" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10800,7 +10801,7 @@
       <c r="W168" s="9"/>
       <c r="X168" s="9"/>
       <c r="Y168" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="169" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10921,7 +10922,7 @@
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
       <c r="Y171" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="172" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10961,12 +10962,12 @@
       <c r="T172" s="9"/>
       <c r="U172" s="9"/>
       <c r="V172" s="9" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
       <c r="Y172" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="173" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11009,7 +11010,7 @@
       <c r="W173" s="9"/>
       <c r="X173" s="9"/>
       <c r="Y173" s="58" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="174" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11037,7 +11038,7 @@
         <v>173</v>
       </c>
       <c r="N174" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O174" s="3"/>
       <c r="P174" s="56"/>
@@ -11085,7 +11086,7 @@
       <c r="S175" s="9"/>
       <c r="T175" s="9"/>
       <c r="U175" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V175" s="9"/>
       <c r="W175" s="9"/>
@@ -11251,7 +11252,7 @@
       <c r="W179" s="9"/>
       <c r="X179" s="9"/>
       <c r="Y179" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="180" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11318,7 +11319,7 @@
         <v>180</v>
       </c>
       <c r="N181" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O181" s="1"/>
       <c r="P181" s="56"/>
@@ -11357,7 +11358,7 @@
         <v>181</v>
       </c>
       <c r="N182" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O182" s="3"/>
       <c r="P182" s="56"/>
@@ -11411,7 +11412,7 @@
       <c r="W183" s="9"/>
       <c r="X183" s="9"/>
       <c r="Y183" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="184" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11439,7 +11440,7 @@
         <v>183</v>
       </c>
       <c r="N184" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O184" s="3"/>
       <c r="P184" s="56"/>
@@ -11517,7 +11518,7 @@
         <v>185</v>
       </c>
       <c r="N186" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O186" s="1"/>
       <c r="P186" s="56"/>
@@ -11571,7 +11572,7 @@
       <c r="W187" s="9"/>
       <c r="X187" s="9"/>
       <c r="Y187" s="62" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="188" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11647,7 +11648,7 @@
       <c r="S189" s="9"/>
       <c r="T189" s="9"/>
       <c r="U189" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V189" s="9"/>
       <c r="W189" s="9"/>
@@ -11805,7 +11806,7 @@
       <c r="Q193" s="9"/>
       <c r="R193" s="9"/>
       <c r="S193" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T193" s="9"/>
       <c r="U193" s="9"/>
@@ -11854,7 +11855,7 @@
       <c r="W194" s="9"/>
       <c r="X194" s="9"/>
       <c r="Y194" s="58" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="195" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11921,7 +11922,7 @@
         <v>195</v>
       </c>
       <c r="N196" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O196" s="3"/>
       <c r="P196" s="56"/>
@@ -11969,7 +11970,7 @@
       <c r="S197" s="9"/>
       <c r="T197" s="9"/>
       <c r="U197" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V197" s="9"/>
       <c r="W197" s="9"/>
@@ -12055,7 +12056,7 @@
       <c r="W199" s="9"/>
       <c r="X199" s="9"/>
       <c r="Y199" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="200" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12083,7 +12084,7 @@
         <v>199</v>
       </c>
       <c r="N200" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O200" s="1"/>
       <c r="P200" s="56" t="s">
@@ -12098,7 +12099,7 @@
       <c r="W200" s="9"/>
       <c r="X200" s="9"/>
       <c r="Y200" s="58" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="201" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12204,7 +12205,7 @@
         <v>202</v>
       </c>
       <c r="N203" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O203" s="3"/>
       <c r="P203" s="56"/>
@@ -12282,7 +12283,7 @@
         <v>204</v>
       </c>
       <c r="N205" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O205" s="3" t="s">
         <v>0</v>
@@ -12297,7 +12298,7 @@
       <c r="W205" s="9"/>
       <c r="X205" s="9"/>
       <c r="Y205" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="206" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12364,7 +12365,7 @@
         <v>206</v>
       </c>
       <c r="N207" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O207" s="1"/>
       <c r="P207" s="56" t="s">
@@ -12379,7 +12380,7 @@
       <c r="W207" s="9"/>
       <c r="X207" s="9"/>
       <c r="Y207" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="208" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12447,7 +12448,7 @@
         <v>208</v>
       </c>
       <c r="N209" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O209" s="1"/>
       <c r="P209" s="56"/>
@@ -12525,7 +12526,7 @@
         <v>210</v>
       </c>
       <c r="N211" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O211" s="1"/>
       <c r="P211" s="56"/>
@@ -12657,7 +12658,7 @@
       <c r="W214" s="9"/>
       <c r="X214" s="9"/>
       <c r="Y214" s="58" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="215" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12685,7 +12686,7 @@
         <v>214</v>
       </c>
       <c r="N215" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O215" s="3" t="s">
         <v>17</v>
@@ -12696,13 +12697,13 @@
       <c r="S215" s="9"/>
       <c r="T215" s="9"/>
       <c r="U215" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="V215" s="9"/>
       <c r="W215" s="9"/>
       <c r="X215" s="9"/>
       <c r="Y215" s="58" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="216" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12784,7 +12785,7 @@
       <c r="W217" s="9"/>
       <c r="X217" s="9"/>
       <c r="Y217" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="218" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12851,7 +12852,7 @@
         <v>218</v>
       </c>
       <c r="N219" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O219" s="3"/>
       <c r="P219" s="56"/>
@@ -12899,7 +12900,7 @@
       <c r="S220" s="9"/>
       <c r="T220" s="9"/>
       <c r="U220" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V220" s="9"/>
       <c r="W220" s="9"/>
@@ -12972,7 +12973,7 @@
         <v>221</v>
       </c>
       <c r="N222" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O222" s="1"/>
       <c r="P222" s="56"/>
@@ -13026,7 +13027,7 @@
       <c r="W223" s="9"/>
       <c r="X223" s="9"/>
       <c r="Y223" s="62" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="224" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13091,7 +13092,7 @@
         <v>2</v>
       </c>
       <c r="N225" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>0</v>
@@ -13106,7 +13107,7 @@
       <c r="W225" s="9"/>
       <c r="X225" s="9"/>
       <c r="Y225" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="226" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13134,7 +13135,7 @@
         <v>3</v>
       </c>
       <c r="N226" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>0</v>
@@ -13149,7 +13150,7 @@
       <c r="W226" s="9"/>
       <c r="X226" s="9"/>
       <c r="Y226" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="227" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13255,7 +13256,7 @@
         <v>6</v>
       </c>
       <c r="N229" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O229" s="1"/>
       <c r="P229" s="56"/>
@@ -13299,10 +13300,10 @@
       <c r="O230" s="1"/>
       <c r="P230" s="56"/>
       <c r="Q230" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R230" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R230" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S230" s="9"/>
       <c r="T230" s="9"/>
@@ -13376,7 +13377,7 @@
         <v>9</v>
       </c>
       <c r="N232" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O232" s="3"/>
       <c r="P232" s="56"/>
@@ -13415,7 +13416,7 @@
         <v>10</v>
       </c>
       <c r="N233" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O233" s="3" t="s">
         <v>0</v>
@@ -13430,7 +13431,7 @@
       <c r="W233" s="9"/>
       <c r="X233" s="9"/>
       <c r="Y233" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="234" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13497,7 +13498,7 @@
         <v>12</v>
       </c>
       <c r="N235" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O235" s="1"/>
       <c r="P235" s="56"/>
@@ -13541,10 +13542,10 @@
       <c r="O236" s="1"/>
       <c r="P236" s="56"/>
       <c r="Q236" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R236" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R236" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S236" s="9"/>
       <c r="T236" s="9"/>
@@ -13657,7 +13658,7 @@
         <v>16</v>
       </c>
       <c r="N239" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>0</v>
@@ -13672,7 +13673,7 @@
       <c r="W239" s="9"/>
       <c r="X239" s="9"/>
       <c r="Y239" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="240" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13739,7 +13740,7 @@
         <v>18</v>
       </c>
       <c r="N241" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O241" s="1"/>
       <c r="P241" s="56"/>
@@ -13783,10 +13784,10 @@
       <c r="O242" s="3"/>
       <c r="P242" s="56"/>
       <c r="Q242" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R242" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R242" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S242" s="9"/>
       <c r="T242" s="9"/>
@@ -13899,7 +13900,7 @@
         <v>22</v>
       </c>
       <c r="N245" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O245" s="3" t="s">
         <v>0</v>
@@ -13914,7 +13915,7 @@
       <c r="W245" s="9"/>
       <c r="X245" s="9"/>
       <c r="Y245" s="18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="246" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13981,7 +13982,7 @@
         <v>24</v>
       </c>
       <c r="N247" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O247" s="1"/>
       <c r="P247" s="56"/>
@@ -14025,10 +14026,10 @@
       <c r="O248" s="3"/>
       <c r="P248" s="56"/>
       <c r="Q248" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R248" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R248" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S248" s="9"/>
       <c r="T248" s="9"/>
@@ -14102,7 +14103,7 @@
         <v>27</v>
       </c>
       <c r="N250" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O250" s="3" t="s">
         <v>0</v>
@@ -14117,7 +14118,7 @@
       <c r="W250" s="9"/>
       <c r="X250" s="9"/>
       <c r="Y250" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="251" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14145,7 +14146,7 @@
         <v>28</v>
       </c>
       <c r="N251" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O251" s="3" t="s">
         <v>0</v>
@@ -14160,7 +14161,7 @@
       <c r="W251" s="9"/>
       <c r="X251" s="9"/>
       <c r="Y251" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="252" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14227,7 +14228,7 @@
         <v>30</v>
       </c>
       <c r="N253" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O253" s="1"/>
       <c r="P253" s="56"/>
@@ -14271,10 +14272,10 @@
       <c r="O254" s="1"/>
       <c r="P254" s="56"/>
       <c r="Q254" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R254" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R254" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S254" s="9"/>
       <c r="T254" s="9"/>
@@ -14387,7 +14388,7 @@
         <v>34</v>
       </c>
       <c r="N257" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O257" s="3"/>
       <c r="P257" s="56"/>
@@ -14465,7 +14466,7 @@
         <v>36</v>
       </c>
       <c r="N259" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O259" s="1"/>
       <c r="P259" s="56"/>
@@ -14509,10 +14510,10 @@
       <c r="O260" s="1"/>
       <c r="P260" s="56"/>
       <c r="Q260" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R260" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R260" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S260" s="9"/>
       <c r="T260" s="9"/>
@@ -14625,7 +14626,7 @@
         <v>40</v>
       </c>
       <c r="N263" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>0</v>
@@ -14640,7 +14641,7 @@
       <c r="W263" s="9"/>
       <c r="X263" s="9"/>
       <c r="Y263" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="264" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14668,7 +14669,7 @@
         <v>41</v>
       </c>
       <c r="N264" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O264" s="3"/>
       <c r="P264" s="56"/>
@@ -14707,7 +14708,7 @@
         <v>42</v>
       </c>
       <c r="N265" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O265" s="1"/>
       <c r="P265" s="56"/>
@@ -14751,10 +14752,10 @@
       <c r="O266" s="1"/>
       <c r="P266" s="56"/>
       <c r="Q266" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R266" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R266" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S266" s="9"/>
       <c r="T266" s="9"/>
@@ -14945,7 +14946,7 @@
         <v>48</v>
       </c>
       <c r="N271" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O271" s="3"/>
       <c r="P271" s="56"/>
@@ -14989,10 +14990,10 @@
       <c r="O272" s="3"/>
       <c r="P272" s="56"/>
       <c r="Q272" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R272" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R272" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S272" s="9"/>
       <c r="T272" s="9"/>
@@ -15065,7 +15066,7 @@
         <v>51</v>
       </c>
       <c r="N274" s="18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O274" s="1"/>
       <c r="P274" s="56"/>
@@ -15104,7 +15105,7 @@
         <v>52</v>
       </c>
       <c r="N275" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O275" s="1"/>
       <c r="P275" s="56"/>
@@ -15182,7 +15183,7 @@
         <v>54</v>
       </c>
       <c r="N277" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O277" s="3"/>
       <c r="P277" s="56"/>
@@ -15226,10 +15227,10 @@
       <c r="O278" s="3"/>
       <c r="P278" s="56"/>
       <c r="Q278" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R278" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R278" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S278" s="9"/>
       <c r="T278" s="9"/>
@@ -15303,7 +15304,7 @@
         <v>57</v>
       </c>
       <c r="N280" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O280" s="3"/>
       <c r="P280" s="56"/>
@@ -15420,7 +15421,7 @@
         <v>60</v>
       </c>
       <c r="N283" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O283" s="1"/>
       <c r="P283" s="56"/>
@@ -15464,10 +15465,10 @@
       <c r="O284" s="3"/>
       <c r="P284" s="56"/>
       <c r="Q284" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R284" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R284" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S284" s="9"/>
       <c r="T284" s="9"/>
@@ -15541,7 +15542,7 @@
         <v>63</v>
       </c>
       <c r="N286" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O286" s="3"/>
       <c r="P286" s="56"/>
@@ -15595,7 +15596,7 @@
       <c r="W287" s="9"/>
       <c r="X287" s="9"/>
       <c r="Y287" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="288" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15623,7 +15624,7 @@
         <v>65</v>
       </c>
       <c r="N288" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O288" s="3"/>
       <c r="P288" s="56"/>
@@ -15662,7 +15663,7 @@
         <v>66</v>
       </c>
       <c r="N289" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O289" s="3"/>
       <c r="P289" s="56"/>
@@ -15706,10 +15707,10 @@
       <c r="O290" s="3"/>
       <c r="P290" s="56"/>
       <c r="Q290" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R290" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R290" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S290" s="9"/>
       <c r="T290" s="9"/>
@@ -15783,7 +15784,7 @@
         <v>69</v>
       </c>
       <c r="N292" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O292" s="3" t="s">
         <v>0</v>
@@ -15798,7 +15799,7 @@
       <c r="W292" s="9"/>
       <c r="X292" s="9"/>
       <c r="Y292" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="293" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15826,7 +15827,7 @@
         <v>70</v>
       </c>
       <c r="N293" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O293" s="3" t="s">
         <v>0</v>
@@ -15841,7 +15842,7 @@
       <c r="W293" s="9"/>
       <c r="X293" s="9"/>
       <c r="Y293" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="294" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15908,7 +15909,7 @@
         <v>72</v>
       </c>
       <c r="N295" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O295" s="3"/>
       <c r="P295" s="56"/>
@@ -15952,10 +15953,10 @@
       <c r="O296" s="3"/>
       <c r="P296" s="56"/>
       <c r="Q296" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R296" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R296" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S296" s="9"/>
       <c r="T296" s="9"/>
@@ -16044,7 +16045,7 @@
       <c r="W298" s="9"/>
       <c r="X298" s="9"/>
       <c r="Y298" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="299" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16072,7 +16073,7 @@
         <v>76</v>
       </c>
       <c r="N299" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O299" s="1"/>
       <c r="P299" s="56"/>
@@ -16150,7 +16151,7 @@
         <v>78</v>
       </c>
       <c r="N301" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O301" s="1"/>
       <c r="P301" s="56"/>
@@ -16204,7 +16205,7 @@
       <c r="W302" s="9"/>
       <c r="X302" s="9"/>
       <c r="Y302" s="58" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="303" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16308,7 +16309,7 @@
         <v>3</v>
       </c>
       <c r="N305" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O305" s="3" t="s">
         <v>0</v>
@@ -16323,7 +16324,7 @@
       <c r="W305" s="9"/>
       <c r="X305" s="9"/>
       <c r="Y305" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="306" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16366,7 +16367,7 @@
       <c r="W306" s="9"/>
       <c r="X306" s="9"/>
       <c r="Y306" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="307" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16394,7 +16395,7 @@
         <v>5</v>
       </c>
       <c r="N307" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O307" s="3"/>
       <c r="P307" s="56"/>
@@ -16438,10 +16439,10 @@
       <c r="O308" s="3"/>
       <c r="P308" s="56"/>
       <c r="Q308" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R308" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R308" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S308" s="9"/>
       <c r="T308" s="9"/>
@@ -16554,7 +16555,7 @@
         <v>9</v>
       </c>
       <c r="N311" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O311" s="3" t="s">
         <v>0</v>
@@ -16569,7 +16570,7 @@
       <c r="W311" s="9"/>
       <c r="X311" s="9"/>
       <c r="Y311" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="312" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16597,7 +16598,7 @@
         <v>10</v>
       </c>
       <c r="N312" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O312" s="1"/>
       <c r="P312" s="56"/>
@@ -16636,7 +16637,7 @@
         <v>11</v>
       </c>
       <c r="N313" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O313" s="1"/>
       <c r="P313" s="56"/>
@@ -16680,10 +16681,10 @@
       <c r="O314" s="3"/>
       <c r="P314" s="56"/>
       <c r="Q314" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R314" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R314" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S314" s="9"/>
       <c r="T314" s="9"/>
@@ -16757,7 +16758,7 @@
         <v>14</v>
       </c>
       <c r="N316" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O316" s="3" t="s">
         <v>0</v>
@@ -16772,7 +16773,7 @@
       <c r="W316" s="9"/>
       <c r="X316" s="9"/>
       <c r="Y316" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="317" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16800,7 +16801,7 @@
         <v>15</v>
       </c>
       <c r="N317" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O317" s="3" t="s">
         <v>0</v>
@@ -16815,7 +16816,7 @@
       <c r="W317" s="9"/>
       <c r="X317" s="9"/>
       <c r="Y317" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="318" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16882,7 +16883,7 @@
         <v>17</v>
       </c>
       <c r="N319" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O319" s="1"/>
       <c r="P319" s="56"/>
@@ -16926,10 +16927,10 @@
       <c r="O320" s="1"/>
       <c r="P320" s="56"/>
       <c r="Q320" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R320" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R320" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S320" s="9"/>
       <c r="T320" s="9"/>
@@ -17003,7 +17004,7 @@
         <v>20</v>
       </c>
       <c r="N322" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O322" s="3"/>
       <c r="P322" s="56"/>
@@ -17042,7 +17043,7 @@
         <v>21</v>
       </c>
       <c r="N323" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O323" s="3" t="s">
         <v>0</v>
@@ -17057,7 +17058,7 @@
       <c r="W323" s="9"/>
       <c r="X323" s="9"/>
       <c r="Y323" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="324" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17124,7 +17125,7 @@
         <v>23</v>
       </c>
       <c r="N325" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O325" s="1"/>
       <c r="P325" s="56"/>
@@ -17168,10 +17169,10 @@
       <c r="O326" s="1"/>
       <c r="P326" s="56"/>
       <c r="Q326" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R326" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R326" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S326" s="9"/>
       <c r="T326" s="9"/>
@@ -17245,7 +17246,7 @@
         <v>26</v>
       </c>
       <c r="N328" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O328" s="3" t="s">
         <v>0</v>
@@ -17260,7 +17261,7 @@
       <c r="W328" s="9"/>
       <c r="X328" s="9"/>
       <c r="Y328" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="329" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17303,7 +17304,7 @@
       <c r="W329" s="9"/>
       <c r="X329" s="9"/>
       <c r="Y329" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="330" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17370,7 +17371,7 @@
         <v>29</v>
       </c>
       <c r="N331" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O331" s="1"/>
       <c r="P331" s="56"/>
@@ -17414,10 +17415,10 @@
       <c r="O332" s="1"/>
       <c r="P332" s="56"/>
       <c r="Q332" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R332" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R332" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S332" s="9"/>
       <c r="T332" s="9"/>
@@ -17506,7 +17507,7 @@
       <c r="W334" s="9"/>
       <c r="X334" s="9"/>
       <c r="Y334" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="335" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17534,7 +17535,7 @@
         <v>33</v>
       </c>
       <c r="N335" s="18" t="s">
-        <v>203</v>
+        <v>892</v>
       </c>
       <c r="O335" s="3" t="s">
         <v>0</v>
@@ -17549,7 +17550,7 @@
       <c r="W335" s="9"/>
       <c r="X335" s="9"/>
       <c r="Y335" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="336" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17577,7 +17578,7 @@
         <v>34</v>
       </c>
       <c r="N336" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O336" s="3"/>
       <c r="P336" s="56"/>
@@ -17616,7 +17617,7 @@
         <v>35</v>
       </c>
       <c r="N337" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O337" s="3"/>
       <c r="P337" s="56"/>
@@ -17660,10 +17661,10 @@
       <c r="O338" s="3"/>
       <c r="P338" s="56"/>
       <c r="Q338" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R338" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R338" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S338" s="9"/>
       <c r="T338" s="9"/>
@@ -17737,7 +17738,7 @@
         <v>38</v>
       </c>
       <c r="N340" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O340" s="3" t="s">
         <v>0</v>
@@ -17752,7 +17753,7 @@
       <c r="W340" s="9"/>
       <c r="X340" s="9"/>
       <c r="Y340" s="18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="341" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17780,7 +17781,7 @@
         <v>39</v>
       </c>
       <c r="N341" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O341" s="1"/>
       <c r="P341" s="56"/>
@@ -17819,7 +17820,7 @@
         <v>40</v>
       </c>
       <c r="N342" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O342" s="3" t="s">
         <v>0</v>
@@ -17834,7 +17835,7 @@
       <c r="W342" s="9"/>
       <c r="X342" s="9"/>
       <c r="Y342" s="18" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="343" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17862,7 +17863,7 @@
         <v>41</v>
       </c>
       <c r="N343" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O343" s="3" t="s">
         <v>0</v>
@@ -17877,7 +17878,7 @@
       <c r="W343" s="9"/>
       <c r="X343" s="9"/>
       <c r="Y343" s="18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="344" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17905,7 +17906,7 @@
         <v>42</v>
       </c>
       <c r="N344" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O344" s="1"/>
       <c r="P344" s="56"/>
@@ -17949,10 +17950,10 @@
       <c r="O345" s="1"/>
       <c r="P345" s="56"/>
       <c r="Q345" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R345" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R345" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S345" s="9"/>
       <c r="T345" s="9"/>
@@ -18026,7 +18027,7 @@
         <v>45</v>
       </c>
       <c r="N347" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O347" s="3"/>
       <c r="P347" s="56"/>
@@ -18065,7 +18066,7 @@
         <v>46</v>
       </c>
       <c r="N348" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O348" s="3" t="s">
         <v>0</v>
@@ -18080,7 +18081,7 @@
       <c r="W348" s="9"/>
       <c r="X348" s="9"/>
       <c r="Y348" s="18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="349" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18108,7 +18109,7 @@
         <v>47</v>
       </c>
       <c r="N349" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O349" s="1"/>
       <c r="P349" s="56"/>
@@ -18147,7 +18148,7 @@
         <v>48</v>
       </c>
       <c r="N350" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O350" s="1"/>
       <c r="P350" s="56"/>
@@ -18191,10 +18192,10 @@
       <c r="O351" s="1"/>
       <c r="P351" s="56"/>
       <c r="Q351" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R351" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R351" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S351" s="9"/>
       <c r="T351" s="9"/>
@@ -18267,7 +18268,7 @@
         <v>51</v>
       </c>
       <c r="N353" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O353" s="3" t="s">
         <v>0</v>
@@ -18282,7 +18283,7 @@
       <c r="W353" s="9"/>
       <c r="X353" s="9"/>
       <c r="Y353" s="18" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="354" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18310,7 +18311,7 @@
         <v>52</v>
       </c>
       <c r="N354" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O354" s="3" t="s">
         <v>0</v>
@@ -18325,7 +18326,7 @@
       <c r="W354" s="9"/>
       <c r="X354" s="9"/>
       <c r="Y354" s="18" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="355" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18392,7 +18393,7 @@
         <v>54</v>
       </c>
       <c r="N356" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O356" s="1"/>
       <c r="P356" s="56"/>
@@ -18436,10 +18437,10 @@
       <c r="O357" s="1"/>
       <c r="P357" s="56"/>
       <c r="Q357" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R357" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R357" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S357" s="9"/>
       <c r="T357" s="9"/>
@@ -18513,7 +18514,7 @@
         <v>57</v>
       </c>
       <c r="N359" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O359" s="3" t="s">
         <v>0</v>
@@ -18528,7 +18529,7 @@
       <c r="W359" s="9"/>
       <c r="X359" s="9"/>
       <c r="Y359" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="360" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18556,7 +18557,7 @@
         <v>58</v>
       </c>
       <c r="N360" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O360" s="3" t="s">
         <v>0</v>
@@ -18571,7 +18572,7 @@
       <c r="W360" s="9"/>
       <c r="X360" s="9"/>
       <c r="Y360" s="18" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="361" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18638,7 +18639,7 @@
         <v>60</v>
       </c>
       <c r="N362" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O362" s="1"/>
       <c r="P362" s="56"/>
@@ -18755,7 +18756,7 @@
         <v>63</v>
       </c>
       <c r="N365" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O365" s="3" t="s">
         <v>0</v>
@@ -18770,7 +18771,7 @@
       <c r="W365" s="9"/>
       <c r="X365" s="9"/>
       <c r="Y365" s="18" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="366" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18798,7 +18799,7 @@
         <v>64</v>
       </c>
       <c r="N366" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O366" s="3" t="s">
         <v>0</v>
@@ -18813,7 +18814,7 @@
       <c r="W366" s="9"/>
       <c r="X366" s="9"/>
       <c r="Y366" s="18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="367" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18880,7 +18881,7 @@
         <v>66</v>
       </c>
       <c r="N368" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O368" s="1"/>
       <c r="P368" s="56"/>
@@ -18924,10 +18925,10 @@
       <c r="O369" s="1"/>
       <c r="P369" s="56"/>
       <c r="Q369" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R369" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R369" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S369" s="9"/>
       <c r="T369" s="9"/>
@@ -19001,7 +19002,7 @@
         <v>69</v>
       </c>
       <c r="N371" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O371" s="3" t="s">
         <v>0</v>
@@ -19016,7 +19017,7 @@
       <c r="W371" s="9"/>
       <c r="X371" s="9"/>
       <c r="Y371" s="18" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="372" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19044,7 +19045,7 @@
         <v>70</v>
       </c>
       <c r="N372" s="18" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="O372" s="3" t="s">
         <v>0</v>
@@ -19059,7 +19060,7 @@
       <c r="W372" s="9"/>
       <c r="X372" s="9"/>
       <c r="Y372" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="373" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19126,7 +19127,7 @@
         <v>72</v>
       </c>
       <c r="N374" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O374" s="3"/>
       <c r="P374" s="56"/>
@@ -19170,10 +19171,10 @@
       <c r="O375" s="3"/>
       <c r="P375" s="56"/>
       <c r="Q375" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R375" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R375" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S375" s="9"/>
       <c r="T375" s="9"/>
@@ -19247,7 +19248,7 @@
         <v>75</v>
       </c>
       <c r="N377" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O377" s="1"/>
       <c r="P377" s="56"/>
@@ -19286,7 +19287,7 @@
         <v>76</v>
       </c>
       <c r="N378" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O378" s="1"/>
       <c r="P378" s="56"/>
@@ -19364,7 +19365,7 @@
         <v>78</v>
       </c>
       <c r="N380" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O380" s="3"/>
       <c r="P380" s="56"/>
@@ -19408,10 +19409,10 @@
       <c r="O381" s="3"/>
       <c r="P381" s="56"/>
       <c r="Q381" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R381" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R381" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S381" s="9"/>
       <c r="T381" s="9"/>
@@ -19485,7 +19486,7 @@
         <v>81</v>
       </c>
       <c r="N383" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O383" s="3" t="s">
         <v>0</v>
@@ -19500,7 +19501,7 @@
       <c r="W383" s="9"/>
       <c r="X383" s="9"/>
       <c r="Y383" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="384" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19528,7 +19529,7 @@
         <v>82</v>
       </c>
       <c r="N384" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O384" s="3" t="s">
         <v>0</v>
@@ -19543,7 +19544,7 @@
       <c r="W384" s="9"/>
       <c r="X384" s="9"/>
       <c r="Y384" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="385" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19610,7 +19611,7 @@
         <v>84</v>
       </c>
       <c r="N386" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O386" s="1"/>
       <c r="P386" s="56"/>
@@ -19654,10 +19655,10 @@
       <c r="O387" s="1"/>
       <c r="P387" s="56"/>
       <c r="Q387" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R387" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R387" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S387" s="9"/>
       <c r="T387" s="9"/>
@@ -19731,7 +19732,7 @@
         <v>87</v>
       </c>
       <c r="N389" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O389" s="3" t="s">
         <v>0</v>
@@ -19746,7 +19747,7 @@
       <c r="W389" s="9"/>
       <c r="X389" s="9"/>
       <c r="Y389" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="390" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19774,7 +19775,7 @@
         <v>88</v>
       </c>
       <c r="N390" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O390" s="3" t="s">
         <v>0</v>
@@ -19789,7 +19790,7 @@
       <c r="W390" s="9"/>
       <c r="X390" s="9"/>
       <c r="Y390" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="391" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19856,7 +19857,7 @@
         <v>90</v>
       </c>
       <c r="N392" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O392" s="3"/>
       <c r="P392" s="56"/>
@@ -19900,10 +19901,10 @@
       <c r="O393" s="3"/>
       <c r="P393" s="56"/>
       <c r="Q393" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R393" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R393" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S393" s="9"/>
       <c r="T393" s="9"/>
@@ -19977,7 +19978,7 @@
         <v>93</v>
       </c>
       <c r="N395" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O395" s="3"/>
       <c r="P395" s="56"/>
@@ -20016,7 +20017,7 @@
         <v>94</v>
       </c>
       <c r="N396" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O396" s="3" t="s">
         <v>0</v>
@@ -20031,7 +20032,7 @@
       <c r="W396" s="9"/>
       <c r="X396" s="9"/>
       <c r="Y396" s="18" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="397" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20098,7 +20099,7 @@
         <v>96</v>
       </c>
       <c r="N398" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O398" s="1"/>
       <c r="P398" s="56"/>
@@ -20142,10 +20143,10 @@
       <c r="O399" s="1"/>
       <c r="P399" s="56"/>
       <c r="Q399" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R399" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R399" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S399" s="9"/>
       <c r="T399" s="9"/>
@@ -20219,7 +20220,7 @@
         <v>99</v>
       </c>
       <c r="N401" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O401" s="3"/>
       <c r="P401" s="56"/>
@@ -20228,7 +20229,7 @@
       <c r="S401" s="9"/>
       <c r="T401" s="9"/>
       <c r="U401" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V401" s="9"/>
       <c r="W401" s="9"/>
@@ -20260,7 +20261,7 @@
         <v>100</v>
       </c>
       <c r="N402" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O402" s="3" t="s">
         <v>0</v>
@@ -20275,7 +20276,7 @@
       <c r="W402" s="9"/>
       <c r="X402" s="9"/>
       <c r="Y402" s="18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="403" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20342,7 +20343,7 @@
         <v>102</v>
       </c>
       <c r="N404" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O404" s="1"/>
       <c r="P404" s="56"/>
@@ -20396,7 +20397,7 @@
       <c r="W405" s="9"/>
       <c r="X405" s="9"/>
       <c r="Y405" s="59" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="406" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20461,7 +20462,7 @@
         <v>2</v>
       </c>
       <c r="N407" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O407" s="3" t="s">
         <v>0</v>
@@ -20476,7 +20477,7 @@
       <c r="W407" s="9"/>
       <c r="X407" s="9"/>
       <c r="Y407" s="18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="408" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20504,7 +20505,7 @@
         <v>3</v>
       </c>
       <c r="N408" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O408" s="3" t="s">
         <v>0</v>
@@ -20519,7 +20520,7 @@
       <c r="W408" s="9"/>
       <c r="X408" s="9"/>
       <c r="Y408" s="18" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="409" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20586,7 +20587,7 @@
         <v>5</v>
       </c>
       <c r="N410" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O410" s="3"/>
       <c r="P410" s="56"/>
@@ -20630,10 +20631,10 @@
       <c r="O411" s="1"/>
       <c r="P411" s="56"/>
       <c r="Q411" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R411" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R411" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S411" s="9"/>
       <c r="T411" s="9"/>
@@ -20707,7 +20708,7 @@
         <v>8</v>
       </c>
       <c r="N413" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O413" s="1"/>
       <c r="P413" s="56"/>
@@ -20746,7 +20747,7 @@
         <v>9</v>
       </c>
       <c r="N414" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O414" s="3"/>
       <c r="P414" s="56"/>
@@ -20824,7 +20825,7 @@
         <v>11</v>
       </c>
       <c r="N416" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O416" s="1"/>
       <c r="P416" s="56"/>
@@ -20868,10 +20869,10 @@
       <c r="O417" s="1"/>
       <c r="P417" s="56"/>
       <c r="Q417" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R417" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R417" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S417" s="9"/>
       <c r="T417" s="9"/>
@@ -20945,7 +20946,7 @@
         <v>14</v>
       </c>
       <c r="N419" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O419" s="1"/>
       <c r="P419" s="56"/>
@@ -20984,7 +20985,7 @@
         <v>15</v>
       </c>
       <c r="N420" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O420" s="3" t="s">
         <v>0</v>
@@ -20999,7 +21000,7 @@
       <c r="W420" s="9"/>
       <c r="X420" s="9"/>
       <c r="Y420" s="18" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="421" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21066,7 +21067,7 @@
         <v>17</v>
       </c>
       <c r="N422" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O422" s="3"/>
       <c r="P422" s="56"/>
@@ -21110,10 +21111,10 @@
       <c r="O423" s="3"/>
       <c r="P423" s="56"/>
       <c r="Q423" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R423" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R423" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S423" s="9"/>
       <c r="T423" s="9"/>
@@ -21187,7 +21188,7 @@
         <v>20</v>
       </c>
       <c r="N425" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O425" s="1"/>
       <c r="P425" s="56"/>
@@ -21226,7 +21227,7 @@
         <v>21</v>
       </c>
       <c r="N426" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O426" s="3" t="s">
         <v>0</v>
@@ -21241,7 +21242,7 @@
       <c r="W426" s="9"/>
       <c r="X426" s="5"/>
       <c r="Y426" s="18" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="427" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21308,7 +21309,7 @@
         <v>23</v>
       </c>
       <c r="N428" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O428" s="1"/>
       <c r="P428" s="56"/>
@@ -21352,10 +21353,10 @@
       <c r="O429" s="3"/>
       <c r="P429" s="56"/>
       <c r="Q429" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R429" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R429" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S429" s="9"/>
       <c r="T429" s="9"/>
@@ -21429,7 +21430,7 @@
         <v>26</v>
       </c>
       <c r="N431" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O431" s="3"/>
       <c r="P431" s="56"/>
@@ -21468,7 +21469,7 @@
         <v>27</v>
       </c>
       <c r="N432" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O432" s="3" t="s">
         <v>0</v>
@@ -21483,7 +21484,7 @@
       <c r="W432" s="9"/>
       <c r="X432" s="9"/>
       <c r="Y432" s="18" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="433" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21550,7 +21551,7 @@
         <v>29</v>
       </c>
       <c r="N434" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O434" s="3"/>
       <c r="P434" s="56"/>
@@ -21594,10 +21595,10 @@
       <c r="O435" s="3"/>
       <c r="P435" s="56"/>
       <c r="Q435" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R435" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R435" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S435" s="9"/>
       <c r="T435" s="9"/>
@@ -21671,7 +21672,7 @@
         <v>32</v>
       </c>
       <c r="N437" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O437" s="3" t="s">
         <v>0</v>
@@ -21686,7 +21687,7 @@
       <c r="W437" s="9"/>
       <c r="X437" s="9"/>
       <c r="Y437" s="18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="438" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21714,7 +21715,7 @@
         <v>33</v>
       </c>
       <c r="N438" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O438" s="3" t="s">
         <v>0</v>
@@ -21729,7 +21730,7 @@
       <c r="W438" s="9"/>
       <c r="X438" s="9"/>
       <c r="Y438" s="18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="439" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21796,7 +21797,7 @@
         <v>35</v>
       </c>
       <c r="N440" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O440" s="3"/>
       <c r="P440" s="56"/>
@@ -21840,10 +21841,10 @@
       <c r="O441" s="1"/>
       <c r="P441" s="56"/>
       <c r="Q441" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R441" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R441" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S441" s="9"/>
       <c r="T441" s="9"/>
@@ -21917,7 +21918,7 @@
         <v>38</v>
       </c>
       <c r="N443" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O443" s="3" t="s">
         <v>0</v>
@@ -21932,7 +21933,7 @@
       <c r="W443" s="9"/>
       <c r="X443" s="9"/>
       <c r="Y443" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="444" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21960,7 +21961,7 @@
         <v>39</v>
       </c>
       <c r="N444" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O444" s="1"/>
       <c r="P444" s="56"/>
@@ -22038,7 +22039,7 @@
         <v>41</v>
       </c>
       <c r="N446" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O446" s="3"/>
       <c r="P446" s="56"/>
@@ -22082,10 +22083,10 @@
       <c r="O447" s="3"/>
       <c r="P447" s="56"/>
       <c r="Q447" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R447" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R447" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S447" s="9"/>
       <c r="T447" s="9"/>
@@ -22159,7 +22160,7 @@
         <v>44</v>
       </c>
       <c r="N449" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O449" s="3" t="s">
         <v>0</v>
@@ -22174,7 +22175,7 @@
       <c r="W449" s="9"/>
       <c r="X449" s="9"/>
       <c r="Y449" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="450" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22202,7 +22203,7 @@
         <v>45</v>
       </c>
       <c r="N450" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O450" s="3"/>
       <c r="P450" s="56"/>
@@ -22280,7 +22281,7 @@
         <v>47</v>
       </c>
       <c r="N452" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O452" s="1"/>
       <c r="P452" s="56"/>
@@ -22324,10 +22325,10 @@
       <c r="O453" s="3"/>
       <c r="P453" s="56"/>
       <c r="Q453" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R453" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R453" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S453" s="9"/>
       <c r="T453" s="9"/>
@@ -22401,7 +22402,7 @@
         <v>50</v>
       </c>
       <c r="N455" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O455" s="3"/>
       <c r="P455" s="56"/>
@@ -22439,7 +22440,7 @@
         <v>51</v>
       </c>
       <c r="N456" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O456" s="3" t="s">
         <v>0</v>
@@ -22454,7 +22455,7 @@
       <c r="W456" s="9"/>
       <c r="X456" s="9"/>
       <c r="Y456" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="457" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22521,7 +22522,7 @@
         <v>53</v>
       </c>
       <c r="N458" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O458" s="3"/>
       <c r="P458" s="56"/>
@@ -22565,10 +22566,10 @@
       <c r="O459" s="3"/>
       <c r="P459" s="56"/>
       <c r="Q459" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R459" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R459" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S459" s="9"/>
       <c r="T459" s="9"/>
@@ -22642,7 +22643,7 @@
         <v>56</v>
       </c>
       <c r="N461" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O461" s="3"/>
       <c r="P461" s="56"/>
@@ -22681,7 +22682,7 @@
         <v>57</v>
       </c>
       <c r="N462" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O462" s="3" t="s">
         <v>0</v>
@@ -22696,7 +22697,7 @@
       <c r="W462" s="9"/>
       <c r="X462" s="9"/>
       <c r="Y462" s="18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="463" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22763,7 +22764,7 @@
         <v>59</v>
       </c>
       <c r="N464" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O464" s="1"/>
       <c r="P464" s="56"/>
@@ -22807,10 +22808,10 @@
       <c r="O465" s="3"/>
       <c r="P465" s="56"/>
       <c r="Q465" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R465" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R465" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S465" s="9"/>
       <c r="T465" s="9"/>
@@ -22884,7 +22885,7 @@
         <v>62</v>
       </c>
       <c r="N467" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O467" s="3" t="s">
         <v>0</v>
@@ -22899,7 +22900,7 @@
       <c r="W467" s="9"/>
       <c r="X467" s="9"/>
       <c r="Y467" s="18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="468" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22927,7 +22928,7 @@
         <v>63</v>
       </c>
       <c r="N468" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O468" s="3" t="s">
         <v>0</v>
@@ -22942,7 +22943,7 @@
       <c r="W468" s="9"/>
       <c r="X468" s="9"/>
       <c r="Y468" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="469" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23009,7 +23010,7 @@
         <v>65</v>
       </c>
       <c r="N470" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O470" s="1"/>
       <c r="P470" s="56"/>
@@ -23053,10 +23054,10 @@
       <c r="O471" s="3"/>
       <c r="P471" s="56"/>
       <c r="Q471" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R471" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R471" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S471" s="9"/>
       <c r="T471" s="9"/>
@@ -23130,7 +23131,7 @@
         <v>68</v>
       </c>
       <c r="N473" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O473" s="3" t="s">
         <v>0</v>
@@ -23145,7 +23146,7 @@
       <c r="W473" s="9"/>
       <c r="X473" s="9"/>
       <c r="Y473" s="18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="474" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23173,7 +23174,7 @@
         <v>69</v>
       </c>
       <c r="N474" s="18" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="O474" s="3" t="s">
         <v>0</v>
@@ -23188,7 +23189,7 @@
       <c r="W474" s="9"/>
       <c r="X474" s="9"/>
       <c r="Y474" s="18" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="475" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23255,7 +23256,7 @@
         <v>71</v>
       </c>
       <c r="N476" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O476" s="3"/>
       <c r="P476" s="56"/>
@@ -23299,10 +23300,10 @@
       <c r="O477" s="3"/>
       <c r="P477" s="56"/>
       <c r="Q477" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R477" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R477" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S477" s="9"/>
       <c r="T477" s="9"/>
@@ -23376,7 +23377,7 @@
         <v>74</v>
       </c>
       <c r="N479" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O479" s="3"/>
       <c r="P479" s="56"/>
@@ -23415,7 +23416,7 @@
         <v>75</v>
       </c>
       <c r="N480" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O480" s="1"/>
       <c r="P480" s="56"/>
@@ -23493,7 +23494,7 @@
         <v>77</v>
       </c>
       <c r="N482" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O482" s="1"/>
       <c r="P482" s="56"/>
@@ -23537,10 +23538,10 @@
       <c r="O483" s="3"/>
       <c r="P483" s="56"/>
       <c r="Q483" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R483" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R483" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S483" s="9"/>
       <c r="T483" s="9"/>
@@ -23614,7 +23615,7 @@
         <v>80</v>
       </c>
       <c r="N485" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O485" s="1"/>
       <c r="P485" s="56"/>
@@ -23653,7 +23654,7 @@
         <v>81</v>
       </c>
       <c r="N486" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O486" s="1"/>
       <c r="P486" s="56"/>
@@ -23731,7 +23732,7 @@
         <v>83</v>
       </c>
       <c r="N488" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O488" s="3"/>
       <c r="P488" s="56"/>
@@ -23775,10 +23776,10 @@
       <c r="O489" s="3"/>
       <c r="P489" s="56"/>
       <c r="Q489" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R489" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R489" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S489" s="9"/>
       <c r="T489" s="9"/>
@@ -23852,7 +23853,7 @@
         <v>86</v>
       </c>
       <c r="N491" s="18" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="O491" s="3" t="s">
         <v>0</v>
@@ -23867,7 +23868,7 @@
       <c r="W491" s="9"/>
       <c r="X491" s="9"/>
       <c r="Y491" s="18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="492" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23895,7 +23896,7 @@
         <v>87</v>
       </c>
       <c r="N492" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O492" s="3" t="s">
         <v>0</v>
@@ -23910,7 +23911,7 @@
       <c r="W492" s="9"/>
       <c r="X492" s="9"/>
       <c r="Y492" s="18" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="493" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23977,7 +23978,7 @@
         <v>89</v>
       </c>
       <c r="N494" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O494" s="1"/>
       <c r="P494" s="56"/>
@@ -24021,10 +24022,10 @@
       <c r="O495" s="1"/>
       <c r="P495" s="56"/>
       <c r="Q495" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R495" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R495" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S495" s="9"/>
       <c r="T495" s="9"/>
@@ -24098,7 +24099,7 @@
         <v>92</v>
       </c>
       <c r="N497" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O497" s="3" t="s">
         <v>0</v>
@@ -24113,7 +24114,7 @@
       <c r="W497" s="9"/>
       <c r="X497" s="9"/>
       <c r="Y497" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="498" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24141,7 +24142,7 @@
         <v>93</v>
       </c>
       <c r="N498" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O498" s="3" t="s">
         <v>0</v>
@@ -24156,7 +24157,7 @@
       <c r="W498" s="9"/>
       <c r="X498" s="9"/>
       <c r="Y498" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="499" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24223,7 +24224,7 @@
         <v>95</v>
       </c>
       <c r="N500" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O500" s="1"/>
       <c r="P500" s="56"/>
@@ -24267,10 +24268,10 @@
       <c r="O501" s="1"/>
       <c r="P501" s="56"/>
       <c r="Q501" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="R501" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="R501" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="S501" s="9"/>
       <c r="T501" s="9"/>
@@ -24344,7 +24345,7 @@
         <v>98</v>
       </c>
       <c r="N503" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O503" s="3" t="s">
         <v>0</v>
@@ -24359,7 +24360,7 @@
       <c r="W503" s="9"/>
       <c r="X503" s="9"/>
       <c r="Y503" s="18" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="504" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24387,7 +24388,7 @@
         <v>99</v>
       </c>
       <c r="N504" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O504" s="3" t="s">
         <v>0</v>
@@ -24402,7 +24403,7 @@
       <c r="W504" s="9"/>
       <c r="X504" s="9"/>
       <c r="Y504" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="505" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24469,7 +24470,7 @@
         <v>101</v>
       </c>
       <c r="N506" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O506" s="1"/>
       <c r="P506" s="56"/>
@@ -24523,7 +24524,7 @@
       <c r="W507" s="9"/>
       <c r="X507" s="9"/>
       <c r="Y507" s="58" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="508" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24588,7 +24589,7 @@
         <v>2</v>
       </c>
       <c r="N509" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O509" s="1"/>
       <c r="P509" s="56"/>
@@ -24783,7 +24784,7 @@
         <v>7</v>
       </c>
       <c r="N514" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O514" s="3"/>
       <c r="P514" s="56"/>
@@ -24861,7 +24862,7 @@
         <v>9</v>
       </c>
       <c r="N516" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O516" s="1" t="s">
         <v>0</v>
@@ -24876,7 +24877,7 @@
       <c r="W516" s="9"/>
       <c r="X516" s="9"/>
       <c r="Y516" s="18" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="517" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24982,7 +24983,7 @@
         <v>12</v>
       </c>
       <c r="N519" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O519" s="1" t="s">
         <v>0</v>
@@ -24997,7 +24998,7 @@
       <c r="W519" s="9"/>
       <c r="X519" s="9"/>
       <c r="Y519" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="520" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25064,7 +25065,7 @@
         <v>14</v>
       </c>
       <c r="N521" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O521" s="3" t="s">
         <v>0</v>
@@ -25079,7 +25080,7 @@
       <c r="W521" s="9"/>
       <c r="X521" s="9"/>
       <c r="Y521" s="18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="522" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25185,7 +25186,7 @@
         <v>17</v>
       </c>
       <c r="N524" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O524" s="1"/>
       <c r="P524" s="56"/>
@@ -25263,7 +25264,7 @@
         <v>19</v>
       </c>
       <c r="N526" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O526" s="1" t="s">
         <v>0</v>
@@ -25278,7 +25279,7 @@
       <c r="W526" s="9"/>
       <c r="X526" s="9"/>
       <c r="Y526" s="18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="527" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25399,7 +25400,7 @@
       <c r="W529" s="9"/>
       <c r="X529" s="9"/>
       <c r="Y529" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="530" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25466,7 +25467,7 @@
         <v>24</v>
       </c>
       <c r="N531" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O531" s="1" t="s">
         <v>0</v>
@@ -25481,7 +25482,7 @@
       <c r="W531" s="9"/>
       <c r="X531" s="9"/>
       <c r="Y531" s="18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="532" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25587,7 +25588,7 @@
         <v>27</v>
       </c>
       <c r="N534" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O534" s="1"/>
       <c r="P534" s="56"/>
@@ -25665,7 +25666,7 @@
         <v>29</v>
       </c>
       <c r="N536" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O536" s="1" t="s">
         <v>0</v>
@@ -25680,7 +25681,7 @@
       <c r="W536" s="9"/>
       <c r="X536" s="9"/>
       <c r="Y536" s="18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="537" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25786,7 +25787,7 @@
         <v>32</v>
       </c>
       <c r="N539" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O539" s="3" t="s">
         <v>0</v>
@@ -25801,7 +25802,7 @@
       <c r="W539" s="9"/>
       <c r="X539" s="9"/>
       <c r="Y539" s="18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="540" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25868,7 +25869,7 @@
         <v>34</v>
       </c>
       <c r="N541" s="18" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="O541" s="3"/>
       <c r="P541" s="56"/>
@@ -25985,7 +25986,7 @@
         <v>37</v>
       </c>
       <c r="N544" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O544" s="3"/>
       <c r="P544" s="56"/>
@@ -26063,7 +26064,7 @@
         <v>39</v>
       </c>
       <c r="N546" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O546" s="1"/>
       <c r="P546" s="56"/>
@@ -26180,7 +26181,7 @@
         <v>42</v>
       </c>
       <c r="N549" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O549" s="3"/>
       <c r="P549" s="56"/>
@@ -26258,7 +26259,7 @@
         <v>44</v>
       </c>
       <c r="N551" s="18" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="O551" s="1"/>
       <c r="P551" s="56"/>
@@ -26375,7 +26376,7 @@
         <v>47</v>
       </c>
       <c r="N554" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O554" s="1"/>
       <c r="P554" s="56"/>
@@ -26453,7 +26454,7 @@
         <v>49</v>
       </c>
       <c r="N556" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O556" s="1" t="s">
         <v>0</v>
@@ -26468,7 +26469,7 @@
       <c r="W556" s="9"/>
       <c r="X556" s="9"/>
       <c r="Y556" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="557" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -26573,7 +26574,7 @@
         <v>52</v>
       </c>
       <c r="N559" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O559" s="3"/>
       <c r="P559" s="56"/>
@@ -26582,7 +26583,7 @@
       <c r="S559" s="9"/>
       <c r="T559" s="9"/>
       <c r="U559" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V559" s="9"/>
       <c r="W559" s="9"/>
@@ -26653,7 +26654,7 @@
         <v>54</v>
       </c>
       <c r="N561" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O561" s="3"/>
       <c r="P561" s="56"/>
@@ -26770,7 +26771,7 @@
         <v>57</v>
       </c>
       <c r="N564" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O564" s="3"/>
       <c r="P564" s="56"/>
@@ -26848,7 +26849,7 @@
         <v>59</v>
       </c>
       <c r="N566" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O566" s="3"/>
       <c r="P566" s="56"/>
@@ -26965,7 +26966,7 @@
         <v>62</v>
       </c>
       <c r="N569" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O569" s="3"/>
       <c r="P569" s="56"/>
@@ -27043,7 +27044,7 @@
         <v>64</v>
       </c>
       <c r="N571" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O571" s="1"/>
       <c r="P571" s="56"/>
@@ -27160,7 +27161,7 @@
         <v>67</v>
       </c>
       <c r="N574" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O574" s="1"/>
       <c r="P574" s="56"/>
@@ -27238,7 +27239,7 @@
         <v>69</v>
       </c>
       <c r="N576" s="18" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="O576" s="1" t="s">
         <v>0</v>
@@ -27253,7 +27254,7 @@
       <c r="W576" s="9"/>
       <c r="X576" s="9"/>
       <c r="Y576" s="18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="577" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27359,7 +27360,7 @@
         <v>72</v>
       </c>
       <c r="N579" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O579" s="1"/>
       <c r="P579" s="56"/>
@@ -27437,7 +27438,7 @@
         <v>74</v>
       </c>
       <c r="N581" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O581" s="1"/>
       <c r="P581" s="56"/>
@@ -27491,7 +27492,7 @@
       <c r="W582" s="9"/>
       <c r="X582" s="9"/>
       <c r="Y582" s="58" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="583" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27556,7 +27557,7 @@
         <v>2</v>
       </c>
       <c r="N584" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O584" s="3"/>
       <c r="P584" s="56"/>
@@ -27634,7 +27635,7 @@
         <v>4</v>
       </c>
       <c r="N586" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O586" s="1"/>
       <c r="P586" s="56"/>
@@ -27751,7 +27752,7 @@
         <v>7</v>
       </c>
       <c r="N589" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O589" s="3"/>
       <c r="P589" s="56"/>
@@ -27764,7 +27765,7 @@
       <c r="W589" s="9"/>
       <c r="X589" s="9"/>
       <c r="Y589" s="18" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="590" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27831,7 +27832,7 @@
         <v>9</v>
       </c>
       <c r="N591" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O591" s="1" t="s">
         <v>0</v>
@@ -27846,7 +27847,7 @@
       <c r="W591" s="9"/>
       <c r="X591" s="9"/>
       <c r="Y591" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="592" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27952,7 +27953,7 @@
         <v>12</v>
       </c>
       <c r="N594" s="18" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="O594" s="3"/>
       <c r="P594" s="56"/>
@@ -28030,7 +28031,7 @@
         <v>14</v>
       </c>
       <c r="N596" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O596" s="1" t="s">
         <v>0</v>
@@ -28045,7 +28046,7 @@
       <c r="W596" s="9"/>
       <c r="X596" s="9"/>
       <c r="Y596" s="18" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="597" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -28151,7 +28152,7 @@
         <v>17</v>
       </c>
       <c r="N599" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O599" s="1"/>
       <c r="P599" s="56"/>
@@ -28229,7 +28230,7 @@
         <v>19</v>
       </c>
       <c r="N601" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="O601" s="1"/>
       <c r="P601" s="56"/>
@@ -28346,7 +28347,7 @@
         <v>22</v>
       </c>
       <c r="N604" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O604" s="1"/>
       <c r="P604" s="56"/>
@@ -28424,7 +28425,7 @@
         <v>24</v>
       </c>
       <c r="N606" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O606" s="1" t="s">
         <v>0</v>
@@ -28439,7 +28440,7 @@
       <c r="W606" s="9"/>
       <c r="X606" s="9"/>
       <c r="Y606" s="18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="607" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -28545,7 +28546,7 @@
         <v>27</v>
       </c>
       <c r="N609" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O609" s="3"/>
       <c r="P609" s="56"/>
@@ -28623,7 +28624,7 @@
         <v>29</v>
       </c>
       <c r="N611" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O611" s="3"/>
       <c r="P611" s="56"/>
@@ -28740,7 +28741,7 @@
         <v>32</v>
       </c>
       <c r="N614" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O614" s="3"/>
       <c r="P614" s="56"/>
@@ -28818,7 +28819,7 @@
         <v>34</v>
       </c>
       <c r="N616" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O616" s="1"/>
       <c r="P616" s="56"/>
@@ -28935,7 +28936,7 @@
         <v>37</v>
       </c>
       <c r="N619" s="18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O619" s="1"/>
       <c r="P619" s="56"/>
@@ -29013,7 +29014,7 @@
         <v>39</v>
       </c>
       <c r="N621" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O621" s="1" t="s">
         <v>0</v>
@@ -29028,7 +29029,7 @@
       <c r="W621" s="9"/>
       <c r="X621" s="9"/>
       <c r="Y621" s="18" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="622" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29134,7 +29135,7 @@
         <v>42</v>
       </c>
       <c r="N624" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O624" s="3"/>
       <c r="P624" s="56"/>
@@ -29212,7 +29213,7 @@
         <v>44</v>
       </c>
       <c r="N626" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O626" s="3"/>
       <c r="P626" s="56"/>
@@ -29329,7 +29330,7 @@
         <v>47</v>
       </c>
       <c r="N629" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O629" s="3"/>
       <c r="P629" s="56"/>
@@ -29407,7 +29408,7 @@
         <v>49</v>
       </c>
       <c r="N631" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O631" s="1" t="s">
         <v>0</v>
@@ -29422,7 +29423,7 @@
       <c r="W631" s="9"/>
       <c r="X631" s="9"/>
       <c r="Y631" s="18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="632" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -29529,7 +29530,7 @@
         <v>52</v>
       </c>
       <c r="N634" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O634" s="1" t="s">
         <v>0</v>
@@ -29544,7 +29545,7 @@
       <c r="W634" s="9"/>
       <c r="X634" s="9"/>
       <c r="Y634" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="635" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29611,7 +29612,7 @@
         <v>54</v>
       </c>
       <c r="N636" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O636" s="1" t="s">
         <v>0</v>
@@ -29626,7 +29627,7 @@
       <c r="W636" s="9"/>
       <c r="X636" s="9"/>
       <c r="Y636" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="637" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29732,7 +29733,7 @@
         <v>57</v>
       </c>
       <c r="N639" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O639" s="1"/>
       <c r="P639" s="56"/>
@@ -29810,7 +29811,7 @@
         <v>59</v>
       </c>
       <c r="N641" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O641" s="1" t="s">
         <v>0</v>
@@ -29825,7 +29826,7 @@
       <c r="W641" s="9"/>
       <c r="X641" s="9"/>
       <c r="Y641" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="642" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29931,7 +29932,7 @@
         <v>62</v>
       </c>
       <c r="N644" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O644" s="3"/>
       <c r="P644" s="56"/>
@@ -30009,7 +30010,7 @@
         <v>64</v>
       </c>
       <c r="N646" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O646" s="3"/>
       <c r="P646" s="56"/>
@@ -30126,7 +30127,7 @@
         <v>67</v>
       </c>
       <c r="N649" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O649" s="3"/>
       <c r="P649" s="56"/>
@@ -30204,7 +30205,7 @@
         <v>69</v>
       </c>
       <c r="N651" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O651" s="1"/>
       <c r="P651" s="56"/>
@@ -30320,7 +30321,7 @@
         <v>72</v>
       </c>
       <c r="N654" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O654" s="1"/>
       <c r="P654" s="56"/>
@@ -30398,7 +30399,7 @@
         <v>74</v>
       </c>
       <c r="N656" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O656" s="1" t="s">
         <v>0</v>
@@ -30413,7 +30414,7 @@
       <c r="W656" s="9"/>
       <c r="X656" s="9"/>
       <c r="Y656" s="18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="657" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30456,7 +30457,7 @@
       <c r="W657" s="9"/>
       <c r="X657" s="9"/>
       <c r="Y657" s="58" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="658" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30521,7 +30522,7 @@
         <v>2</v>
       </c>
       <c r="N659" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O659" s="1"/>
       <c r="P659" s="56"/>
@@ -30599,7 +30600,7 @@
         <v>4</v>
       </c>
       <c r="N661" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O661" s="1" t="s">
         <v>0</v>
@@ -30614,7 +30615,7 @@
       <c r="W661" s="9"/>
       <c r="X661" s="9"/>
       <c r="Y661" s="18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="662" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30720,7 +30721,7 @@
         <v>7</v>
       </c>
       <c r="N664" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O664" s="3"/>
       <c r="P664" s="56"/>
@@ -30798,7 +30799,7 @@
         <v>9</v>
       </c>
       <c r="N666" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O666" s="1" t="s">
         <v>0</v>
@@ -30813,7 +30814,7 @@
       <c r="W666" s="9"/>
       <c r="X666" s="9"/>
       <c r="Y666" s="18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="667" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30916,7 +30917,7 @@
         <v>12</v>
       </c>
       <c r="N669" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O669" s="1"/>
       <c r="P669" s="56"/>
@@ -30992,7 +30993,7 @@
         <v>14</v>
       </c>
       <c r="N671" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O671" s="1"/>
       <c r="P671" s="56"/>
@@ -31005,7 +31006,7 @@
       <c r="W671" s="9"/>
       <c r="X671" s="9"/>
       <c r="Y671" s="18" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="672" spans="4:25" x14ac:dyDescent="0.25">
@@ -31108,7 +31109,7 @@
         <v>17</v>
       </c>
       <c r="N674" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O674" s="1" t="s">
         <v>0</v>
@@ -31123,7 +31124,7 @@
       <c r="W674" s="9"/>
       <c r="X674" s="9"/>
       <c r="Y674" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="675" spans="5:25" x14ac:dyDescent="0.25">
@@ -31188,7 +31189,7 @@
         <v>19</v>
       </c>
       <c r="N676" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O676" s="1" t="s">
         <v>0</v>
@@ -31203,7 +31204,7 @@
       <c r="W676" s="9"/>
       <c r="X676" s="9"/>
       <c r="Y676" s="18" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="677" spans="5:25" x14ac:dyDescent="0.25">
@@ -31306,7 +31307,7 @@
         <v>22</v>
       </c>
       <c r="N679" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O679" s="1" t="s">
         <v>0</v>
@@ -31321,7 +31322,7 @@
       <c r="W679" s="9"/>
       <c r="X679" s="9"/>
       <c r="Y679" s="18" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="680" spans="5:25" x14ac:dyDescent="0.25">
@@ -31386,7 +31387,7 @@
         <v>24</v>
       </c>
       <c r="N681" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O681" s="1"/>
       <c r="P681" s="56"/>
@@ -31499,7 +31500,7 @@
         <v>27</v>
       </c>
       <c r="N684" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O684" s="1" t="s">
         <v>0</v>
@@ -31514,7 +31515,7 @@
       <c r="W684" s="9"/>
       <c r="X684" s="9"/>
       <c r="Y684" s="18" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="685" spans="5:25" x14ac:dyDescent="0.25">
@@ -31578,7 +31579,7 @@
         <v>29</v>
       </c>
       <c r="N686" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O686" s="1" t="s">
         <v>0</v>
@@ -31593,7 +31594,7 @@
       <c r="W686" s="9"/>
       <c r="X686" s="9"/>
       <c r="Y686" s="18" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="687" spans="5:25" x14ac:dyDescent="0.25">
@@ -31696,7 +31697,7 @@
         <v>32</v>
       </c>
       <c r="N689" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O689" s="1"/>
       <c r="P689" s="56"/>
@@ -31771,7 +31772,7 @@
         <v>34</v>
       </c>
       <c r="N691" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P691" s="56"/>
       <c r="Q691" s="9"/>
@@ -31884,7 +31885,7 @@
         <v>37</v>
       </c>
       <c r="N694" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O694" s="1"/>
       <c r="P694" s="56"/>
@@ -31960,7 +31961,7 @@
         <v>39</v>
       </c>
       <c r="N696" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O696" s="1"/>
       <c r="P696" s="56"/>
@@ -32074,7 +32075,7 @@
         <v>42</v>
       </c>
       <c r="N699" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O699" s="1"/>
       <c r="P699" s="56"/>
@@ -32150,7 +32151,7 @@
         <v>44</v>
       </c>
       <c r="N701" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O701" s="1"/>
       <c r="P701" s="56"/>
@@ -32264,7 +32265,7 @@
         <v>47</v>
       </c>
       <c r="N704" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P704" s="56"/>
       <c r="Q704" s="9"/>
@@ -32338,7 +32339,7 @@
         <v>49</v>
       </c>
       <c r="N706" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O706" s="1"/>
       <c r="P706" s="56"/>
@@ -32451,7 +32452,7 @@
         <v>52</v>
       </c>
       <c r="N709" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O709" s="1"/>
       <c r="P709" s="56"/>
@@ -32527,7 +32528,7 @@
         <v>54</v>
       </c>
       <c r="N711" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P711" s="56"/>
       <c r="Q711" s="9"/>
@@ -32640,7 +32641,7 @@
         <v>57</v>
       </c>
       <c r="N714" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O714" s="1"/>
       <c r="P714" s="56"/>
@@ -32716,7 +32717,7 @@
         <v>59</v>
       </c>
       <c r="N716" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P716" s="56"/>
       <c r="Q716" s="9"/>
@@ -32827,7 +32828,7 @@
         <v>62</v>
       </c>
       <c r="N719" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P719" s="56"/>
       <c r="Q719" s="9"/>
@@ -32901,7 +32902,7 @@
         <v>64</v>
       </c>
       <c r="N721" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O721" s="1" t="s">
         <v>0</v>
@@ -32916,7 +32917,7 @@
       <c r="W721" s="9"/>
       <c r="X721" s="9"/>
       <c r="Y721" s="18" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="722" spans="5:25" x14ac:dyDescent="0.25">
@@ -33017,7 +33018,7 @@
         <v>67</v>
       </c>
       <c r="N724" s="18" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="P724" s="56"/>
       <c r="Q724" s="9"/>
@@ -33091,7 +33092,7 @@
         <v>69</v>
       </c>
       <c r="N726" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O726" s="1" t="s">
         <v>0</v>
@@ -33106,7 +33107,7 @@
       <c r="W726" s="9"/>
       <c r="X726" s="9"/>
       <c r="Y726" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="727" spans="5:25" x14ac:dyDescent="0.25">
@@ -33209,7 +33210,7 @@
         <v>72</v>
       </c>
       <c r="N729" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O729" s="1"/>
       <c r="P729" s="56"/>
@@ -33284,7 +33285,7 @@
         <v>74</v>
       </c>
       <c r="N731" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P731" s="56"/>
       <c r="Q731" s="9"/>
@@ -33395,7 +33396,7 @@
         <v>77</v>
       </c>
       <c r="N734" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P734" s="56"/>
       <c r="Q734" s="9"/>
@@ -33469,7 +33470,7 @@
         <v>79</v>
       </c>
       <c r="N736" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O736" s="1" t="s">
         <v>0</v>
@@ -33484,7 +33485,7 @@
       <c r="W736" s="9"/>
       <c r="X736" s="9"/>
       <c r="Y736" s="18" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="737" spans="5:25" x14ac:dyDescent="0.25">
@@ -33526,7 +33527,7 @@
       <c r="W737" s="9"/>
       <c r="X737" s="9"/>
       <c r="Y737" s="58" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="738" spans="5:25" x14ac:dyDescent="0.25">
@@ -33588,7 +33589,7 @@
         <v>2</v>
       </c>
       <c r="N739" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P739" s="56"/>
       <c r="Q739" s="9"/>
@@ -33775,7 +33776,7 @@
         <v>7</v>
       </c>
       <c r="N744" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O744" s="1"/>
       <c r="P744" s="56"/>
@@ -33851,7 +33852,7 @@
         <v>9</v>
       </c>
       <c r="N746" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O746" s="1"/>
       <c r="P746" s="56"/>
@@ -33965,7 +33966,7 @@
         <v>12</v>
       </c>
       <c r="N749" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O749" s="1"/>
       <c r="P749" s="56"/>
@@ -34041,7 +34042,7 @@
         <v>14</v>
       </c>
       <c r="N751" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O751" s="1" t="s">
         <v>0</v>
@@ -34056,7 +34057,7 @@
       <c r="W751" s="9"/>
       <c r="X751" s="9"/>
       <c r="Y751" s="18" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="752" spans="5:25" x14ac:dyDescent="0.25">
@@ -34157,7 +34158,7 @@
         <v>17</v>
       </c>
       <c r="N754" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P754" s="56"/>
       <c r="Q754" s="9"/>
@@ -34231,7 +34232,7 @@
         <v>19</v>
       </c>
       <c r="N756" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P756" s="56"/>
       <c r="Q756" s="9"/>
@@ -34342,7 +34343,7 @@
         <v>22</v>
       </c>
       <c r="N759" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O759" s="1" t="s">
         <v>0</v>
@@ -34353,13 +34354,13 @@
       <c r="S759" s="9"/>
       <c r="T759" s="9"/>
       <c r="U759" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V759" s="9"/>
       <c r="W759" s="9"/>
       <c r="X759" s="9"/>
       <c r="Y759" s="18" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="760" spans="5:25" x14ac:dyDescent="0.25">
@@ -34423,7 +34424,7 @@
         <v>24</v>
       </c>
       <c r="N761" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O761" s="1" t="s">
         <v>0</v>
@@ -34438,7 +34439,7 @@
       <c r="W761" s="9"/>
       <c r="X761" s="9"/>
       <c r="Y761" s="18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="762" spans="5:25" x14ac:dyDescent="0.25">
@@ -34539,7 +34540,7 @@
         <v>27</v>
       </c>
       <c r="N764" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P764" s="56"/>
       <c r="Q764" s="9"/>
@@ -34613,7 +34614,7 @@
         <v>29</v>
       </c>
       <c r="N766" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P766" s="56"/>
       <c r="Q766" s="9"/>
@@ -34724,7 +34725,7 @@
         <v>32</v>
       </c>
       <c r="N769" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P769" s="56"/>
       <c r="Q769" s="9"/>
@@ -34761,7 +34762,7 @@
         <v>33</v>
       </c>
       <c r="N770" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O770" s="1" t="s">
         <v>0</v>
@@ -34776,7 +34777,7 @@
       <c r="W770" s="9"/>
       <c r="X770" s="9"/>
       <c r="Y770" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="771" spans="5:25" x14ac:dyDescent="0.25">
@@ -34841,7 +34842,7 @@
         <v>35</v>
       </c>
       <c r="N772" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O772" s="1"/>
       <c r="P772" s="56"/>
@@ -34917,7 +34918,7 @@
         <v>37</v>
       </c>
       <c r="N774" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O774" s="1" t="s">
         <v>0</v>
@@ -34932,7 +34933,7 @@
       <c r="W774" s="9"/>
       <c r="X774" s="9"/>
       <c r="Y774" s="18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="775" spans="5:25" x14ac:dyDescent="0.25">
@@ -34997,7 +34998,7 @@
         <v>39</v>
       </c>
       <c r="N776" s="18" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="O776" s="1" t="s">
         <v>0</v>
@@ -35012,7 +35013,7 @@
       <c r="W776" s="9"/>
       <c r="X776" s="9"/>
       <c r="Y776" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="777" spans="5:25" x14ac:dyDescent="0.25">
@@ -35113,7 +35114,7 @@
         <v>42</v>
       </c>
       <c r="N779" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O779" s="1" t="s">
         <v>0</v>
@@ -35128,7 +35129,7 @@
       <c r="W779" s="9"/>
       <c r="X779" s="9"/>
       <c r="Y779" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="780" spans="5:25" x14ac:dyDescent="0.25">
@@ -35192,7 +35193,7 @@
         <v>44</v>
       </c>
       <c r="N781" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O781" s="1" t="s">
         <v>0</v>
@@ -35207,7 +35208,7 @@
       <c r="W781" s="9"/>
       <c r="X781" s="9"/>
       <c r="Y781" s="18" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="782" spans="5:25" x14ac:dyDescent="0.25">
@@ -35308,7 +35309,7 @@
         <v>47</v>
       </c>
       <c r="N784" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P784" s="56"/>
       <c r="Q784" s="9"/>
@@ -35382,7 +35383,7 @@
         <v>49</v>
       </c>
       <c r="N786" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O786" s="1" t="s">
         <v>0</v>
@@ -35397,7 +35398,7 @@
       <c r="W786" s="9"/>
       <c r="X786" s="9"/>
       <c r="Y786" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="787" spans="4:25" x14ac:dyDescent="0.25">
@@ -35498,7 +35499,7 @@
         <v>52</v>
       </c>
       <c r="N789" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O789" s="1"/>
       <c r="P789" s="56"/>
@@ -35575,7 +35576,7 @@
         <v>54</v>
       </c>
       <c r="N791" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O791" s="1"/>
       <c r="P791" s="56"/>
@@ -35688,7 +35689,7 @@
         <v>57</v>
       </c>
       <c r="N794" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O794" s="1"/>
       <c r="P794" s="56"/>
@@ -35763,7 +35764,7 @@
         <v>59</v>
       </c>
       <c r="N796" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P796" s="56"/>
       <c r="Q796" s="9"/>
@@ -35874,7 +35875,7 @@
         <v>62</v>
       </c>
       <c r="N799" s="18" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="O799" s="1" t="s">
         <v>0</v>
@@ -35889,7 +35890,7 @@
       <c r="W799" s="9"/>
       <c r="X799" s="9"/>
       <c r="Y799" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="800" spans="4:25" x14ac:dyDescent="0.25">
@@ -35953,7 +35954,7 @@
         <v>64</v>
       </c>
       <c r="N801" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O801" s="1" t="s">
         <v>0</v>
@@ -35968,7 +35969,7 @@
       <c r="W801" s="9"/>
       <c r="X801" s="9"/>
       <c r="Y801" s="18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="802" spans="5:25" x14ac:dyDescent="0.25">
@@ -36069,7 +36070,7 @@
         <v>67</v>
       </c>
       <c r="N804" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O804" s="1" t="s">
         <v>0</v>
@@ -36084,7 +36085,7 @@
       <c r="W804" s="9"/>
       <c r="X804" s="9"/>
       <c r="Y804" s="18" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="805" spans="5:25" x14ac:dyDescent="0.25">
@@ -36148,7 +36149,7 @@
         <v>69</v>
       </c>
       <c r="N806" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O806" s="1" t="s">
         <v>0</v>
@@ -36163,7 +36164,7 @@
       <c r="W806" s="9"/>
       <c r="X806" s="9"/>
       <c r="Y806" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="807" spans="5:25" x14ac:dyDescent="0.25">
@@ -36264,7 +36265,7 @@
         <v>72</v>
       </c>
       <c r="N809" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P809" s="56"/>
       <c r="Q809" s="9"/>
@@ -36338,7 +36339,7 @@
         <v>74</v>
       </c>
       <c r="N811" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="P811" s="56"/>
       <c r="Q811" s="9"/>
@@ -36451,7 +36452,7 @@
         <v>77</v>
       </c>
       <c r="N814" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O814" s="1"/>
       <c r="P814" s="56"/>
@@ -36527,7 +36528,7 @@
         <v>79</v>
       </c>
       <c r="N816" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O816" s="1" t="s">
         <v>0</v>
@@ -36542,7 +36543,7 @@
       <c r="W816" s="9"/>
       <c r="X816" s="9"/>
       <c r="Y816" s="18" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="817" spans="5:25" x14ac:dyDescent="0.25">
@@ -36584,7 +36585,7 @@
       <c r="W817" s="9"/>
       <c r="X817" s="9"/>
       <c r="Y817" s="58" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="818" spans="5:25" x14ac:dyDescent="0.25">
@@ -36646,7 +36647,7 @@
         <v>2</v>
       </c>
       <c r="N819" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P819" s="56"/>
       <c r="Q819" s="9"/>
@@ -36720,7 +36721,7 @@
         <v>4</v>
       </c>
       <c r="N821" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O821" s="1" t="s">
         <v>0</v>
@@ -36735,7 +36736,7 @@
       <c r="W821" s="9"/>
       <c r="X821" s="9"/>
       <c r="Y821" s="18" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="822" spans="5:25" x14ac:dyDescent="0.25">
@@ -36836,7 +36837,7 @@
         <v>7</v>
       </c>
       <c r="N824" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P824" s="56"/>
       <c r="Q824" s="9"/>
@@ -36910,7 +36911,7 @@
         <v>9</v>
       </c>
       <c r="N826" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P826" s="56"/>
       <c r="Q826" s="9"/>
@@ -37021,7 +37022,7 @@
         <v>12</v>
       </c>
       <c r="N829" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P829" s="56"/>
       <c r="Q829" s="9"/>
@@ -37095,7 +37096,7 @@
         <v>14</v>
       </c>
       <c r="N831" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P831" s="56"/>
       <c r="Q831" s="9"/>
@@ -37208,7 +37209,7 @@
         <v>17</v>
       </c>
       <c r="N834" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="O834" s="1" t="s">
         <v>0</v>
@@ -37223,7 +37224,7 @@
       <c r="W834" s="9"/>
       <c r="X834" s="9"/>
       <c r="Y834" s="18" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="835" spans="4:25" x14ac:dyDescent="0.25">
@@ -37288,7 +37289,7 @@
         <v>19</v>
       </c>
       <c r="N836" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O836" s="1"/>
       <c r="P836" s="56"/>
@@ -37402,7 +37403,7 @@
         <v>22</v>
       </c>
       <c r="N839" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O839" s="1"/>
       <c r="P839" s="56"/>
@@ -37478,7 +37479,7 @@
         <v>24</v>
       </c>
       <c r="N841" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O841" s="1"/>
       <c r="P841" s="56"/>
@@ -37590,7 +37591,7 @@
         <v>27</v>
       </c>
       <c r="N844" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P844" s="56"/>
       <c r="Q844" s="9"/>
@@ -37664,7 +37665,7 @@
         <v>29</v>
       </c>
       <c r="N846" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O846" s="1" t="s">
         <v>0</v>
@@ -37679,7 +37680,7 @@
       <c r="W846" s="9"/>
       <c r="X846" s="9"/>
       <c r="Y846" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="847" spans="4:25" x14ac:dyDescent="0.25">
@@ -37781,7 +37782,7 @@
         <v>32</v>
       </c>
       <c r="N849" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O849" s="1"/>
       <c r="P849" s="56"/>
@@ -37857,7 +37858,7 @@
         <v>34</v>
       </c>
       <c r="N851" s="18" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="O851" s="1" t="s">
         <v>0</v>
@@ -37872,7 +37873,7 @@
       <c r="W851" s="9"/>
       <c r="X851" s="9"/>
       <c r="Y851" s="18" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="852" spans="5:25" x14ac:dyDescent="0.25">
@@ -37975,7 +37976,7 @@
         <v>37</v>
       </c>
       <c r="N854" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O854" s="1"/>
       <c r="P854" s="56"/>
@@ -38051,7 +38052,7 @@
         <v>39</v>
       </c>
       <c r="N856" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O856" s="1"/>
       <c r="P856" s="56"/>
@@ -38164,7 +38165,7 @@
         <v>42</v>
       </c>
       <c r="N859" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P859" s="56"/>
       <c r="Q859" s="9"/>
@@ -38238,7 +38239,7 @@
         <v>44</v>
       </c>
       <c r="N861" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P861" s="56"/>
       <c r="Q861" s="9"/>
@@ -38350,7 +38351,7 @@
         <v>47</v>
       </c>
       <c r="N864" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O864" s="1"/>
       <c r="P864" s="56"/>
@@ -38426,7 +38427,7 @@
         <v>49</v>
       </c>
       <c r="N866" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O866" s="1"/>
       <c r="P866" s="56"/>
@@ -38538,7 +38539,7 @@
         <v>52</v>
       </c>
       <c r="N869" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P869" s="56"/>
       <c r="Q869" s="9"/>
@@ -38612,7 +38613,7 @@
         <v>54</v>
       </c>
       <c r="N871" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P871" s="56"/>
       <c r="Q871" s="9"/>
@@ -38723,7 +38724,7 @@
         <v>57</v>
       </c>
       <c r="N874" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P874" s="56"/>
       <c r="Q874" s="9"/>
@@ -38797,7 +38798,7 @@
         <v>59</v>
       </c>
       <c r="N876" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O876" s="1" t="s">
         <v>0</v>
@@ -38812,7 +38813,7 @@
       <c r="W876" s="9"/>
       <c r="X876" s="9"/>
       <c r="Y876" s="18" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="877" spans="5:25" x14ac:dyDescent="0.25">
@@ -38915,7 +38916,7 @@
         <v>62</v>
       </c>
       <c r="N879" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O879" s="1" t="s">
         <v>0</v>
@@ -38930,7 +38931,7 @@
       <c r="W879" s="9"/>
       <c r="X879" s="9"/>
       <c r="Y879" s="18" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="880" spans="5:25" x14ac:dyDescent="0.25">
@@ -38995,7 +38996,7 @@
         <v>64</v>
       </c>
       <c r="N881" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O881" s="1" t="s">
         <v>0</v>
@@ -39010,7 +39011,7 @@
       <c r="W881" s="9"/>
       <c r="X881" s="9"/>
       <c r="Y881" s="18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="882" spans="5:25" x14ac:dyDescent="0.25">
@@ -39113,7 +39114,7 @@
         <v>67</v>
       </c>
       <c r="N884" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O884" s="1" t="s">
         <v>0</v>
@@ -39128,7 +39129,7 @@
       <c r="W884" s="9"/>
       <c r="X884" s="9"/>
       <c r="Y884" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="885" spans="5:25" x14ac:dyDescent="0.25">
@@ -39193,7 +39194,7 @@
         <v>69</v>
       </c>
       <c r="N886" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O886" s="1" t="s">
         <v>0</v>
@@ -39208,7 +39209,7 @@
       <c r="W886" s="9"/>
       <c r="X886" s="9"/>
       <c r="Y886" s="18" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="887" spans="5:25" x14ac:dyDescent="0.25">
@@ -39311,7 +39312,7 @@
         <v>72</v>
       </c>
       <c r="N889" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O889" s="1"/>
       <c r="P889" s="56"/>
@@ -39349,7 +39350,7 @@
         <v>73</v>
       </c>
       <c r="N890" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O890" s="1"/>
       <c r="P890" s="56"/>
@@ -39387,7 +39388,7 @@
         <v>74</v>
       </c>
       <c r="N891" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P891" s="56"/>
       <c r="Q891" s="9"/>
@@ -39424,7 +39425,7 @@
         <v>75</v>
       </c>
       <c r="N892" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P892" s="56"/>
       <c r="Q892" s="9"/>
@@ -39498,7 +39499,7 @@
         <v>77</v>
       </c>
       <c r="N894" s="18" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="P894" s="56"/>
       <c r="Q894" s="9"/>
@@ -39510,7 +39511,7 @@
       <c r="W894" s="9"/>
       <c r="X894" s="9"/>
       <c r="Y894" s="18" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="895" spans="5:25" x14ac:dyDescent="0.25">
@@ -39574,7 +39575,7 @@
         <v>79</v>
       </c>
       <c r="N896" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O896" s="1" t="s">
         <v>0</v>
@@ -39589,7 +39590,7 @@
       <c r="W896" s="9"/>
       <c r="X896" s="9"/>
       <c r="Y896" s="18" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="897" spans="5:25" x14ac:dyDescent="0.25">
@@ -39653,7 +39654,7 @@
         <v>81</v>
       </c>
       <c r="N898" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="O898" s="1" t="s">
         <v>0</v>
@@ -39668,7 +39669,7 @@
       <c r="W898" s="9"/>
       <c r="X898" s="9"/>
       <c r="Y898" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="899" spans="5:25" x14ac:dyDescent="0.25">
@@ -39732,7 +39733,7 @@
         <v>83</v>
       </c>
       <c r="N900" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O900" s="1" t="s">
         <v>0</v>
@@ -39749,7 +39750,7 @@
       <c r="W900" s="9"/>
       <c r="X900" s="9"/>
       <c r="Y900" s="18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="901" spans="5:25" x14ac:dyDescent="0.25">
@@ -39774,7 +39775,7 @@
         <v>1</v>
       </c>
       <c r="N901" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O901" s="1"/>
       <c r="P901" s="56"/>
@@ -39812,7 +39813,7 @@
         <v>2</v>
       </c>
       <c r="N902" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O902" s="1"/>
       <c r="P902" s="56"/>
@@ -39821,7 +39822,7 @@
       <c r="S902" s="9"/>
       <c r="T902" s="9"/>
       <c r="U902" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="V902" s="9"/>
       <c r="W902" s="9"/>
@@ -39852,7 +39853,7 @@
         <v>3</v>
       </c>
       <c r="N903" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="O903" s="1"/>
       <c r="P903" s="56"/>
@@ -39890,7 +39891,7 @@
         <v>4</v>
       </c>
       <c r="N904" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O904" s="1"/>
       <c r="P904" s="56"/>
@@ -39928,7 +39929,7 @@
         <v>5</v>
       </c>
       <c r="N905" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O905" s="1" t="s">
         <v>0</v>
@@ -39945,7 +39946,7 @@
       <c r="W905" s="9"/>
       <c r="X905" s="9"/>
       <c r="Y905" s="18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="906" spans="5:25" x14ac:dyDescent="0.25">
@@ -39972,7 +39973,7 @@
         <v>6</v>
       </c>
       <c r="N906" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O906" s="1"/>
       <c r="P906" s="56"/>
@@ -40010,7 +40011,7 @@
         <v>7</v>
       </c>
       <c r="N907" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O907" s="1"/>
       <c r="P907" s="56"/>
@@ -40048,7 +40049,7 @@
         <v>8</v>
       </c>
       <c r="N908" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O908" s="1"/>
       <c r="P908" s="56"/>
@@ -40162,7 +40163,7 @@
         <v>11</v>
       </c>
       <c r="N911" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P911" s="56"/>
       <c r="Q911" s="9"/>
@@ -40236,7 +40237,7 @@
         <v>13</v>
       </c>
       <c r="N913" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P913" s="56"/>
       <c r="Q913" s="9"/>
@@ -40244,7 +40245,7 @@
       <c r="S913" s="9"/>
       <c r="T913" s="9"/>
       <c r="U913" s="9" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="V913" s="9"/>
       <c r="W913" s="9"/>
@@ -40275,7 +40276,7 @@
         <v>14</v>
       </c>
       <c r="N914" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O914" s="3" t="s">
         <v>17</v>
@@ -40290,7 +40291,7 @@
       <c r="W914" s="9"/>
       <c r="X914" s="9"/>
       <c r="Y914" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="915" spans="5:25" x14ac:dyDescent="0.25">
@@ -40354,7 +40355,7 @@
         <v>16</v>
       </c>
       <c r="N916" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P916" s="56"/>
       <c r="Q916" s="9"/>
@@ -40391,7 +40392,7 @@
         <v>17</v>
       </c>
       <c r="N917" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P917" s="56"/>
       <c r="Q917" s="9"/>
@@ -40428,7 +40429,7 @@
         <v>18</v>
       </c>
       <c r="N918" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P918" s="56" t="s">
         <v>18</v>
@@ -40442,7 +40443,7 @@
       <c r="W918" s="9"/>
       <c r="X918" s="9"/>
       <c r="Y918" s="58" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="919" spans="5:25" x14ac:dyDescent="0.25">
@@ -40506,7 +40507,7 @@
         <v>20</v>
       </c>
       <c r="N920" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P920" s="56"/>
       <c r="Q920" s="9"/>
@@ -40693,7 +40694,7 @@
         <v>25</v>
       </c>
       <c r="N925" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O925" s="1" t="s">
         <v>0</v>
@@ -40710,7 +40711,7 @@
       <c r="W925" s="9"/>
       <c r="X925" s="9"/>
       <c r="Y925" s="18" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="926" spans="5:25" x14ac:dyDescent="0.25">
@@ -40775,7 +40776,7 @@
         <v>27</v>
       </c>
       <c r="N927" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O927" s="1"/>
       <c r="P927" s="56"/>
@@ -40813,7 +40814,7 @@
         <v>28</v>
       </c>
       <c r="N928" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O928" s="1"/>
       <c r="P928" s="56"/>
@@ -40927,7 +40928,7 @@
         <v>31</v>
       </c>
       <c r="N931" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O931" s="1"/>
       <c r="P931" s="56"/>
@@ -40965,7 +40966,7 @@
         <v>32</v>
       </c>
       <c r="N932" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O932" s="1"/>
       <c r="P932" s="56" t="s">
@@ -40980,7 +40981,7 @@
       <c r="W932" s="9"/>
       <c r="X932" s="9"/>
       <c r="Y932" s="58" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="933" spans="5:25" x14ac:dyDescent="0.25">
@@ -41082,7 +41083,7 @@
         <v>35</v>
       </c>
       <c r="N935" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="P935" s="56"/>
       <c r="Q935" s="9"/>
@@ -41119,7 +41120,7 @@
         <v>36</v>
       </c>
       <c r="N936" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P936" s="56"/>
       <c r="Q936" s="9"/>
@@ -41156,7 +41157,7 @@
         <v>37</v>
       </c>
       <c r="N937" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O937" s="1" t="s">
         <v>0</v>
@@ -41171,7 +41172,7 @@
       <c r="W937" s="9"/>
       <c r="X937" s="9"/>
       <c r="Y937" s="18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="938" spans="5:25" x14ac:dyDescent="0.25">
@@ -41238,7 +41239,7 @@
         <v>39</v>
       </c>
       <c r="N939" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P939" s="56"/>
       <c r="Q939" s="9"/>
@@ -41275,7 +41276,7 @@
         <v>40</v>
       </c>
       <c r="N940" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P940" s="56" t="s">
         <v>18</v>
@@ -41289,7 +41290,7 @@
       <c r="W940" s="9"/>
       <c r="X940" s="9"/>
       <c r="Y940" s="58" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="941" spans="5:25" x14ac:dyDescent="0.25">
@@ -41390,7 +41391,7 @@
         <v>43</v>
       </c>
       <c r="N943" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P943" s="56"/>
       <c r="Q943" s="9"/>
@@ -41435,7 +41436,7 @@
       <c r="S944" s="9"/>
       <c r="T944" s="9"/>
       <c r="U944" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V944" s="9"/>
       <c r="W944" s="9"/>
@@ -41466,7 +41467,7 @@
         <v>45</v>
       </c>
       <c r="N945" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O945" s="1" t="s">
         <v>0</v>
@@ -41481,7 +41482,7 @@
       <c r="W945" s="9"/>
       <c r="X945" s="9"/>
       <c r="Y945" s="18" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="946" spans="5:25" x14ac:dyDescent="0.25">
@@ -41508,7 +41509,7 @@
         <v>46</v>
       </c>
       <c r="N946" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O946" s="1" t="s">
         <v>0</v>
@@ -41523,7 +41524,7 @@
       <c r="W946" s="9"/>
       <c r="X946" s="9"/>
       <c r="Y946" s="18" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="947" spans="5:25" x14ac:dyDescent="0.25">
@@ -41550,7 +41551,7 @@
         <v>47</v>
       </c>
       <c r="N947" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O947" s="1"/>
       <c r="P947" s="56"/>
@@ -41588,7 +41589,7 @@
         <v>48</v>
       </c>
       <c r="N948" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O948" s="1"/>
       <c r="P948" s="56"/>
@@ -41626,7 +41627,7 @@
         <v>49</v>
       </c>
       <c r="N949" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O949" s="1"/>
       <c r="P949" s="56"/>
@@ -41664,7 +41665,7 @@
         <v>50</v>
       </c>
       <c r="N950" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O950" s="1"/>
       <c r="P950" s="56"/>
@@ -41673,7 +41674,7 @@
       <c r="S950" s="9"/>
       <c r="T950" s="9"/>
       <c r="U950" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V950" s="9"/>
       <c r="W950" s="9"/>
@@ -41703,7 +41704,7 @@
         <v>51</v>
       </c>
       <c r="N951" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O951" s="1" t="s">
         <v>0</v>
@@ -41720,7 +41721,7 @@
       <c r="W951" s="9"/>
       <c r="X951" s="9"/>
       <c r="Y951" s="18" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="952" spans="5:25" x14ac:dyDescent="0.25">
@@ -41747,14 +41748,14 @@
         <v>52</v>
       </c>
       <c r="N952" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O952" s="1"/>
       <c r="P952" s="56"/>
       <c r="Q952" s="9"/>
       <c r="R952" s="9"/>
       <c r="S952" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="T952" s="9"/>
       <c r="U952" s="9"/>
@@ -41939,7 +41940,7 @@
         <v>57</v>
       </c>
       <c r="N957" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O957" s="1"/>
       <c r="P957" s="56"/>
@@ -41977,7 +41978,7 @@
         <v>58</v>
       </c>
       <c r="N958" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O958" s="1"/>
       <c r="P958" s="56"/>
@@ -42015,7 +42016,7 @@
         <v>59</v>
       </c>
       <c r="N959" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O959" s="1" t="s">
         <v>0</v>
@@ -42030,7 +42031,7 @@
       <c r="W959" s="9"/>
       <c r="X959" s="9"/>
       <c r="Y959" s="18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="960" spans="5:25" x14ac:dyDescent="0.25">
@@ -42057,7 +42058,7 @@
         <v>60</v>
       </c>
       <c r="N960" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O960" s="1"/>
       <c r="P960" s="56"/>
@@ -42095,7 +42096,7 @@
         <v>61</v>
       </c>
       <c r="N961" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O961" s="1"/>
       <c r="P961" s="56"/>
@@ -42133,7 +42134,7 @@
         <v>62</v>
       </c>
       <c r="N962" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O962" s="1"/>
       <c r="P962" s="56" t="s">
@@ -42148,7 +42149,7 @@
       <c r="W962" s="9"/>
       <c r="X962" s="9"/>
       <c r="Y962" s="58" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="963" spans="5:25" x14ac:dyDescent="0.25">
@@ -42175,7 +42176,7 @@
         <v>63</v>
       </c>
       <c r="N963" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O963" s="1"/>
       <c r="P963" s="56"/>
@@ -42213,7 +42214,7 @@
         <v>64</v>
       </c>
       <c r="N964" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O964" s="1"/>
       <c r="P964" s="56"/>
@@ -42289,7 +42290,7 @@
         <v>66</v>
       </c>
       <c r="N966" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O966" s="1"/>
       <c r="P966" s="56"/>
@@ -42365,7 +42366,7 @@
         <v>68</v>
       </c>
       <c r="N968" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P968" s="56"/>
       <c r="Q968" s="9"/>
@@ -42402,7 +42403,7 @@
         <v>69</v>
       </c>
       <c r="N969" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O969" s="1" t="s">
         <v>0</v>
@@ -42417,7 +42418,7 @@
       <c r="W969" s="9"/>
       <c r="X969" s="9"/>
       <c r="Y969" s="18" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="970" spans="5:25" x14ac:dyDescent="0.25">
@@ -42444,7 +42445,7 @@
         <v>70</v>
       </c>
       <c r="N970" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P970" s="56"/>
       <c r="Q970" s="9"/>
@@ -42481,7 +42482,7 @@
         <v>71</v>
       </c>
       <c r="N971" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P971" s="56"/>
       <c r="Q971" s="9"/>
@@ -42518,7 +42519,7 @@
         <v>72</v>
       </c>
       <c r="N972" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P972" s="56"/>
       <c r="Q972" s="9"/>
@@ -42631,7 +42632,7 @@
         <v>75</v>
       </c>
       <c r="N975" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O975" s="1" t="s">
         <v>0</v>
@@ -42648,7 +42649,7 @@
       <c r="W975" s="9"/>
       <c r="X975" s="9"/>
       <c r="Y975" s="18" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="976" spans="5:25" x14ac:dyDescent="0.25">
@@ -42751,7 +42752,7 @@
         <v>78</v>
       </c>
       <c r="N978" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O978" s="1"/>
       <c r="P978" s="56"/>
@@ -42902,7 +42903,7 @@
         <v>82</v>
       </c>
       <c r="N982" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P982" s="56"/>
       <c r="Q982" s="9"/>
@@ -42910,7 +42911,7 @@
       <c r="S982" s="9"/>
       <c r="T982" s="9"/>
       <c r="U982" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V982" s="9"/>
       <c r="W982" s="9"/>
@@ -43015,7 +43016,7 @@
         <v>85</v>
       </c>
       <c r="N985" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P985" s="56"/>
       <c r="Q985" s="9"/>
@@ -43163,7 +43164,7 @@
         <v>89</v>
       </c>
       <c r="N989" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O989" s="1"/>
       <c r="P989" s="56" t="s">
@@ -43178,7 +43179,7 @@
       <c r="W989" s="9"/>
       <c r="X989" s="9"/>
       <c r="Y989" s="58" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="990" spans="5:25" x14ac:dyDescent="0.25">
@@ -43281,7 +43282,7 @@
         <v>92</v>
       </c>
       <c r="N992" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O992" s="1"/>
       <c r="P992" s="56"/>
@@ -43319,7 +43320,7 @@
         <v>93</v>
       </c>
       <c r="N993" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O993" s="1"/>
       <c r="P993" s="56"/>
@@ -43433,7 +43434,7 @@
         <v>96</v>
       </c>
       <c r="N996" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O996" s="1"/>
       <c r="P996" s="56"/>
@@ -43471,7 +43472,7 @@
         <v>97</v>
       </c>
       <c r="N997" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O997" s="1"/>
       <c r="P997" s="56"/>
@@ -43585,7 +43586,7 @@
         <v>100</v>
       </c>
       <c r="N1000" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O1000" s="1"/>
       <c r="P1000" s="56"/>
@@ -43659,7 +43660,7 @@
         <v>102</v>
       </c>
       <c r="N1002" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P1002" s="56" t="s">
         <v>18</v>
@@ -43673,7 +43674,7 @@
       <c r="W1002" s="9"/>
       <c r="X1002" s="9"/>
       <c r="Y1002" s="58" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1003" spans="5:25" x14ac:dyDescent="0.25">
@@ -43774,7 +43775,7 @@
         <v>105</v>
       </c>
       <c r="N1005" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P1005" s="56"/>
       <c r="Q1005" s="9"/>
@@ -43811,7 +43812,7 @@
         <v>106</v>
       </c>
       <c r="N1006" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O1006" s="1"/>
       <c r="P1006" s="56"/>
@@ -43925,7 +43926,7 @@
         <v>109</v>
       </c>
       <c r="N1009" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O1009" s="1"/>
       <c r="P1009" s="56"/>
@@ -44039,7 +44040,7 @@
         <v>112</v>
       </c>
       <c r="N1012" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O1012" s="1"/>
       <c r="P1012" s="56"/>
@@ -44153,7 +44154,7 @@
         <v>115</v>
       </c>
       <c r="N1015" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O1015" s="1"/>
       <c r="P1015" s="56"/>
@@ -44162,7 +44163,7 @@
       <c r="S1015" s="9"/>
       <c r="T1015" s="9"/>
       <c r="U1015" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="V1015" s="9"/>
       <c r="W1015" s="9"/>
@@ -44193,7 +44194,7 @@
         <v>116</v>
       </c>
       <c r="N1016" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O1016" s="1"/>
       <c r="P1016" s="56" t="s">
@@ -44208,7 +44209,7 @@
       <c r="W1016" s="9"/>
       <c r="X1016" s="9"/>
       <c r="Y1016" s="58" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1017" spans="5:25" x14ac:dyDescent="0.25">
@@ -44235,7 +44236,7 @@
         <v>117</v>
       </c>
       <c r="N1017" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O1017" s="1"/>
       <c r="P1017" s="56"/>
@@ -44386,7 +44387,7 @@
         <v>121</v>
       </c>
       <c r="N1021" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O1021" s="1"/>
       <c r="P1021" s="56"/>
@@ -44424,7 +44425,7 @@
         <v>122</v>
       </c>
       <c r="N1022" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O1022" s="1"/>
       <c r="P1022" s="56"/>
@@ -44462,7 +44463,7 @@
         <v>123</v>
       </c>
       <c r="N1023" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O1023" s="1"/>
       <c r="P1023" s="56"/>
@@ -44500,7 +44501,7 @@
         <v>124</v>
       </c>
       <c r="N1024" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O1024" s="1"/>
       <c r="P1024" s="56"/>
@@ -44538,7 +44539,7 @@
         <v>125</v>
       </c>
       <c r="N1025" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O1025" s="1"/>
       <c r="P1025" s="56"/>
@@ -44576,7 +44577,7 @@
         <v>126</v>
       </c>
       <c r="N1026" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O1026" s="1"/>
       <c r="P1026" s="56" t="s">
@@ -44591,7 +44592,7 @@
       <c r="W1026" s="9"/>
       <c r="X1026" s="9"/>
       <c r="Y1026" s="58" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1027" spans="5:25" x14ac:dyDescent="0.25">
@@ -44618,7 +44619,7 @@
         <v>127</v>
       </c>
       <c r="N1027" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O1027" s="1"/>
       <c r="P1027" s="56"/>
@@ -44656,7 +44657,7 @@
         <v>128</v>
       </c>
       <c r="N1028" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O1028" s="1"/>
       <c r="P1028" s="56"/>
@@ -44694,7 +44695,7 @@
         <v>129</v>
       </c>
       <c r="N1029" s="63" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O1029" s="1"/>
       <c r="P1029" s="56"/>
@@ -44707,7 +44708,7 @@
       <c r="W1029" s="9"/>
       <c r="X1029" s="9"/>
       <c r="Y1029" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="1030" spans="5:25" x14ac:dyDescent="0.25">
@@ -44772,7 +44773,7 @@
         <v>131</v>
       </c>
       <c r="N1031" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O1031" s="1" t="s">
         <v>0</v>
@@ -44787,7 +44788,7 @@
       <c r="W1031" s="9"/>
       <c r="X1031" s="9"/>
       <c r="Y1031" s="18" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1032" spans="5:25" x14ac:dyDescent="0.25">
@@ -44814,7 +44815,7 @@
         <v>132</v>
       </c>
       <c r="N1032" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O1032" s="1" t="s">
         <v>0</v>
@@ -44829,7 +44830,7 @@
       <c r="W1032" s="9"/>
       <c r="X1032" s="9"/>
       <c r="Y1032" s="18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1033" spans="5:25" x14ac:dyDescent="0.25">
@@ -44856,7 +44857,7 @@
         <v>133</v>
       </c>
       <c r="N1033" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P1033" s="56"/>
       <c r="Q1033" s="9"/>
@@ -44893,7 +44894,7 @@
         <v>134</v>
       </c>
       <c r="N1034" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O1034" s="3" t="s">
         <v>17</v>
@@ -44904,13 +44905,13 @@
       <c r="S1034" s="9"/>
       <c r="T1034" s="9"/>
       <c r="U1034" s="9" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="V1034" s="9"/>
       <c r="W1034" s="9"/>
       <c r="X1034" s="9"/>
       <c r="Y1034" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1035" spans="5:25" x14ac:dyDescent="0.25">
@@ -44937,7 +44938,7 @@
         <v>135</v>
       </c>
       <c r="N1035" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P1035" s="56"/>
       <c r="Q1035" s="9"/>
@@ -44984,13 +44985,13 @@
       <c r="S1036" s="9"/>
       <c r="T1036" s="9"/>
       <c r="U1036" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V1036" s="9"/>
       <c r="W1036" s="9"/>
       <c r="X1036" s="9"/>
       <c r="Y1036" s="58" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1037" spans="5:25" x14ac:dyDescent="0.25">
@@ -45017,13 +45018,13 @@
         <v>137</v>
       </c>
       <c r="N1037" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P1037" s="56"/>
       <c r="Q1037" s="9"/>
       <c r="R1037" s="9"/>
       <c r="S1037" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="T1037" s="9"/>
       <c r="U1037" s="9"/>
@@ -45133,7 +45134,7 @@
         <v>97</v>
       </c>
       <c r="O1040" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P1040" s="56"/>
       <c r="Q1040" s="9"/>
@@ -45141,7 +45142,7 @@
       <c r="S1040" s="9"/>
       <c r="T1040" s="9"/>
       <c r="U1040" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V1040" s="9"/>
       <c r="W1040" s="9"/>
@@ -45209,7 +45210,7 @@
         <v>142</v>
       </c>
       <c r="N1042" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P1042" s="56"/>
       <c r="Q1042" s="9"/>
@@ -45246,7 +45247,7 @@
         <v>143</v>
       </c>
       <c r="N1043" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P1043" s="56"/>
       <c r="Q1043" s="9"/>
@@ -45283,13 +45284,13 @@
         <v>144</v>
       </c>
       <c r="N1044" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P1044" s="56"/>
       <c r="Q1044" s="9"/>
       <c r="R1044" s="9"/>
       <c r="S1044" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="T1044" s="9"/>
       <c r="U1044" s="9"/>
@@ -45396,7 +45397,7 @@
         <v>147</v>
       </c>
       <c r="N1047" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P1047" s="56"/>
       <c r="Q1047" s="9"/>
@@ -45433,7 +45434,7 @@
         <v>148</v>
       </c>
       <c r="N1048" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O1048" s="1"/>
       <c r="P1048" s="56"/>
@@ -45471,7 +45472,7 @@
         <v>149</v>
       </c>
       <c r="N1049" s="18" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="O1049" s="1" t="s">
         <v>0</v>
@@ -45488,7 +45489,7 @@
       <c r="W1049" s="9"/>
       <c r="X1049" s="9"/>
       <c r="Y1049" s="64" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1050" spans="5:25" x14ac:dyDescent="0.25">
@@ -45515,7 +45516,7 @@
         <v>150</v>
       </c>
       <c r="N1050" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O1050" s="1"/>
       <c r="P1050" s="56"/>
@@ -45552,7 +45553,7 @@
         <v>151</v>
       </c>
       <c r="N1051" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O1051" s="1"/>
       <c r="P1051" s="56"/>
@@ -45590,7 +45591,7 @@
         <v>152</v>
       </c>
       <c r="N1052" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O1052" s="1" t="s">
         <v>0</v>
@@ -45605,7 +45606,7 @@
       <c r="W1052" s="9"/>
       <c r="X1052" s="9"/>
       <c r="Y1052" s="58" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1053" spans="5:25" x14ac:dyDescent="0.25">
@@ -45632,7 +45633,7 @@
         <v>153</v>
       </c>
       <c r="N1053" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P1053" s="56"/>
       <c r="Q1053" s="9"/>
@@ -45669,7 +45670,7 @@
         <v>154</v>
       </c>
       <c r="N1054" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P1054" s="56"/>
       <c r="Q1054" s="9"/>
@@ -45706,7 +45707,7 @@
         <v>155</v>
       </c>
       <c r="N1055" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P1055" s="56"/>
       <c r="Q1055" s="9"/>
@@ -45743,7 +45744,7 @@
         <v>156</v>
       </c>
       <c r="N1056" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P1056" s="56"/>
       <c r="Q1056" s="9"/>
@@ -45780,7 +45781,7 @@
         <v>157</v>
       </c>
       <c r="N1057" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P1057" s="56"/>
       <c r="Q1057" s="9"/>
@@ -45817,7 +45818,7 @@
         <v>158</v>
       </c>
       <c r="N1058" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P1058" s="56" t="s">
         <v>18</v>
@@ -45831,7 +45832,7 @@
       <c r="W1058" s="9"/>
       <c r="X1058" s="9"/>
       <c r="Y1058" s="58" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1059" spans="5:25" x14ac:dyDescent="0.25">
@@ -45858,13 +45859,13 @@
         <v>159</v>
       </c>
       <c r="N1059" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P1059" s="56"/>
       <c r="Q1059" s="9"/>
       <c r="R1059" s="9"/>
       <c r="S1059" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="T1059" s="9"/>
       <c r="U1059" s="9"/>
@@ -45897,7 +45898,7 @@
         <v>160</v>
       </c>
       <c r="N1060" s="18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P1060" s="56"/>
       <c r="Q1060" s="9"/>
@@ -45971,7 +45972,7 @@
         <v>162</v>
       </c>
       <c r="N1062" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P1062" s="56"/>
       <c r="Q1062" s="9"/>
@@ -46008,7 +46009,7 @@
         <v>163</v>
       </c>
       <c r="N1063" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P1063" s="56"/>
       <c r="Q1063" s="9"/>
@@ -46045,7 +46046,7 @@
         <v>164</v>
       </c>
       <c r="N1064" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P1064" s="56"/>
       <c r="Q1064" s="9"/>
@@ -46090,7 +46091,7 @@
       <c r="S1065" s="9"/>
       <c r="T1065" s="9"/>
       <c r="U1065" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V1065" s="9"/>
       <c r="W1065" s="9"/>
@@ -46124,7 +46125,7 @@
         <v>173</v>
       </c>
       <c r="O1066" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P1066" s="56"/>
       <c r="Q1066" s="9"/>
@@ -46161,7 +46162,7 @@
         <v>167</v>
       </c>
       <c r="N1067" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P1067" s="56"/>
       <c r="Q1067" s="9"/>
@@ -46198,7 +46199,7 @@
         <v>168</v>
       </c>
       <c r="N1068" s="18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P1068" s="56" t="s">
         <v>18</v>
@@ -46212,7 +46213,7 @@
       <c r="W1068" s="9"/>
       <c r="X1068" s="9"/>
       <c r="Y1068" s="58" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1069" spans="5:25" x14ac:dyDescent="0.25">
@@ -46242,7 +46243,7 @@
         <v>165</v>
       </c>
       <c r="O1069" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P1069" s="56"/>
       <c r="Q1069" s="9"/>
@@ -46285,7 +46286,7 @@
       <c r="Q1070" s="9"/>
       <c r="R1070" s="9"/>
       <c r="S1070" s="9" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="T1070" s="9"/>
       <c r="U1070" s="9"/>
@@ -46318,7 +46319,7 @@
         <v>171</v>
       </c>
       <c r="N1071" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O1071" s="1"/>
       <c r="P1071" s="56"/>
@@ -46356,7 +46357,7 @@
         <v>172</v>
       </c>
       <c r="N1072" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O1072" s="1"/>
       <c r="P1072" s="56"/>
@@ -46472,7 +46473,7 @@
         <v>175</v>
       </c>
       <c r="N1075" s="18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O1075" s="1"/>
       <c r="P1075" s="56"/>
@@ -46510,7 +46511,7 @@
         <v>176</v>
       </c>
       <c r="N1076" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O1076" s="1" t="s">
         <v>0</v>
@@ -46525,7 +46526,7 @@
       <c r="W1076" s="9"/>
       <c r="X1076" s="9"/>
       <c r="Y1076" s="18" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1077" spans="5:25" x14ac:dyDescent="0.25">
@@ -46552,7 +46553,7 @@
         <v>177</v>
       </c>
       <c r="N1077" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O1077" s="1" t="s">
         <v>0</v>
@@ -46569,7 +46570,7 @@
       <c r="W1077" s="9"/>
       <c r="X1077" s="9"/>
       <c r="Y1077" s="18" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1078" spans="5:25" x14ac:dyDescent="0.25">
@@ -46596,7 +46597,7 @@
         <v>178</v>
       </c>
       <c r="N1078" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O1078" s="1" t="s">
         <v>1</v>
@@ -46636,7 +46637,7 @@
         <v>179</v>
       </c>
       <c r="N1079" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O1079" s="1"/>
       <c r="P1079" s="56"/>
@@ -46674,7 +46675,7 @@
         <v>180</v>
       </c>
       <c r="N1080" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O1080" s="1" t="s">
         <v>0</v>
@@ -46689,7 +46690,7 @@
       <c r="W1080" s="9"/>
       <c r="X1080" s="9"/>
       <c r="Y1080" s="18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1081" spans="5:25" x14ac:dyDescent="0.25">
@@ -46716,7 +46717,7 @@
         <v>181</v>
       </c>
       <c r="N1081" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P1081" s="56"/>
       <c r="Q1081" s="9"/>
@@ -46753,7 +46754,7 @@
         <v>182</v>
       </c>
       <c r="N1082" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P1082" s="56"/>
       <c r="Q1082" s="9"/>
@@ -46790,7 +46791,7 @@
         <v>183</v>
       </c>
       <c r="N1083" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P1083" s="56"/>
       <c r="Q1083" s="9"/>
@@ -46827,7 +46828,7 @@
         <v>184</v>
       </c>
       <c r="N1084" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P1084" s="56"/>
       <c r="Q1084" s="9"/>
@@ -46878,7 +46879,7 @@
       <c r="W1085" s="9"/>
       <c r="X1085" s="9"/>
       <c r="Y1085" s="58" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1086" spans="5:25" x14ac:dyDescent="0.25">
@@ -46905,7 +46906,7 @@
         <v>186</v>
       </c>
       <c r="N1086" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O1086" s="1" t="s">
         <v>0</v>
@@ -46920,7 +46921,7 @@
       <c r="W1086" s="9"/>
       <c r="X1086" s="9"/>
       <c r="Y1086" s="18" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1087" spans="5:25" x14ac:dyDescent="0.25">
@@ -46947,7 +46948,7 @@
         <v>187</v>
       </c>
       <c r="N1087" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O1087" s="1" t="s">
         <v>0</v>
@@ -46962,7 +46963,7 @@
       <c r="W1087" s="9"/>
       <c r="X1087" s="9"/>
       <c r="Y1087" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1088" spans="5:25" x14ac:dyDescent="0.25">
@@ -47078,7 +47079,7 @@
       <c r="W1090" s="9"/>
       <c r="X1090" s="9"/>
       <c r="Y1090" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="1091" spans="5:25" x14ac:dyDescent="0.25">
@@ -47119,7 +47120,7 @@
       <c r="W1091" s="9"/>
       <c r="X1091" s="9"/>
       <c r="Y1091" s="58" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1092" spans="5:25" x14ac:dyDescent="0.25">
@@ -47146,7 +47147,7 @@
         <v>192</v>
       </c>
       <c r="N1092" s="18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P1092" s="56"/>
       <c r="Q1092" s="9"/>
@@ -47183,7 +47184,7 @@
         <v>193</v>
       </c>
       <c r="N1093" s="18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P1093" s="56"/>
       <c r="Q1093" s="9"/>
@@ -47220,7 +47221,7 @@
         <v>194</v>
       </c>
       <c r="N1094" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P1094" s="56"/>
       <c r="Q1094" s="9"/>
@@ -47257,7 +47258,7 @@
         <v>195</v>
       </c>
       <c r="N1095" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O1095" s="1" t="s">
         <v>0</v>
@@ -47272,7 +47273,7 @@
       <c r="W1095" s="9"/>
       <c r="X1095" s="9"/>
       <c r="Y1095" s="18" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1096" spans="5:25" x14ac:dyDescent="0.25">
@@ -47299,7 +47300,7 @@
         <v>196</v>
       </c>
       <c r="N1096" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P1096" s="56"/>
       <c r="Q1096" s="9"/>
@@ -47336,7 +47337,7 @@
         <v>197</v>
       </c>
       <c r="N1097" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P1097" s="56"/>
       <c r="Q1097" s="9"/>
@@ -47373,7 +47374,7 @@
         <v>198</v>
       </c>
       <c r="N1098" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O1098" s="1" t="s">
         <v>1</v>
@@ -47413,7 +47414,7 @@
         <v>199</v>
       </c>
       <c r="N1099" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O1099" s="1"/>
       <c r="P1099" s="56"/>
@@ -47451,7 +47452,7 @@
         <v>200</v>
       </c>
       <c r="N1100" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O1100" s="1"/>
       <c r="P1100" s="56"/>
@@ -47488,7 +47489,7 @@
         <v>201</v>
       </c>
       <c r="N1101" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O1101" s="1"/>
       <c r="P1101" s="56"/>
@@ -47526,7 +47527,7 @@
         <v>202</v>
       </c>
       <c r="N1102" s="54" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O1102" s="1" t="s">
         <v>1</v>
@@ -47541,7 +47542,7 @@
       <c r="W1102" s="9"/>
       <c r="X1102" s="9"/>
       <c r="Y1102" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1103" spans="5:25" x14ac:dyDescent="0.25">
@@ -47568,7 +47569,7 @@
         <v>203</v>
       </c>
       <c r="N1103" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O1103" s="1"/>
       <c r="P1103" s="56" t="s">
@@ -47608,7 +47609,7 @@
         <v>204</v>
       </c>
       <c r="N1104" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O1104" s="1" t="s">
         <v>0</v>
@@ -47623,7 +47624,7 @@
       <c r="W1104" s="9"/>
       <c r="X1104" s="9"/>
       <c r="Y1104" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1105" spans="5:25" x14ac:dyDescent="0.25">
@@ -47650,7 +47651,7 @@
         <v>205</v>
       </c>
       <c r="N1105" s="18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O1105" s="1" t="s">
         <v>0</v>
@@ -47665,7 +47666,7 @@
       <c r="W1105" s="9"/>
       <c r="X1105" s="9"/>
       <c r="Y1105" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1106" spans="5:25" x14ac:dyDescent="0.25">
@@ -47730,7 +47731,7 @@
         <v>207</v>
       </c>
       <c r="N1107" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P1107" s="56"/>
       <c r="Q1107" s="9"/>
@@ -47775,7 +47776,7 @@
       <c r="S1108" s="9"/>
       <c r="T1108" s="9"/>
       <c r="U1108" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="V1108" s="9"/>
       <c r="W1108" s="9"/>
@@ -47823,7 +47824,7 @@
       <c r="W1109" s="9"/>
       <c r="X1109" s="9"/>
       <c r="Y1109" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="1110" spans="5:25" x14ac:dyDescent="0.25">
@@ -47888,7 +47889,7 @@
         <v>211</v>
       </c>
       <c r="N1111" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O1111" s="1"/>
       <c r="P1111" s="56"/>
@@ -47926,7 +47927,7 @@
         <v>212</v>
       </c>
       <c r="N1112" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O1112" s="1"/>
       <c r="P1112" s="56"/>
@@ -47964,7 +47965,7 @@
         <v>213</v>
       </c>
       <c r="N1113" s="18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O1113" s="1"/>
       <c r="P1113" s="56"/>
@@ -48002,7 +48003,7 @@
         <v>214</v>
       </c>
       <c r="N1114" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O1114" s="1"/>
       <c r="P1114" s="56"/>
@@ -48081,7 +48082,7 @@
         <v>173</v>
       </c>
       <c r="O1116" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P1116" s="56"/>
       <c r="Q1116" s="9"/>
@@ -48118,7 +48119,7 @@
         <v>217</v>
       </c>
       <c r="N1117" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O1117" s="1"/>
       <c r="P1117" s="56"/>
@@ -48171,7 +48172,7 @@
       <c r="W1118" s="9"/>
       <c r="X1118" s="9"/>
       <c r="Y1118" s="58" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1119" spans="5:25" x14ac:dyDescent="0.25">
@@ -48198,7 +48199,7 @@
         <v>219</v>
       </c>
       <c r="N1119" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O1119" s="1"/>
       <c r="P1119" s="56"/>
@@ -48236,7 +48237,7 @@
         <v>220</v>
       </c>
       <c r="N1120" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O1120" s="1" t="s">
         <v>0</v>
@@ -48251,7 +48252,7 @@
       <c r="W1120" s="9"/>
       <c r="X1120" s="9"/>
       <c r="Y1120" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1121" spans="5:25" x14ac:dyDescent="0.25">
@@ -48278,7 +48279,7 @@
         <v>221</v>
       </c>
       <c r="N1121" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O1121" s="1"/>
       <c r="P1121" s="56"/>
@@ -48354,7 +48355,7 @@
         <v>223</v>
       </c>
       <c r="N1123" s="18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O1123" s="1"/>
       <c r="P1123" s="56" t="s">
@@ -48369,7 +48370,7 @@
       <c r="W1123" s="9"/>
       <c r="X1123" s="9"/>
       <c r="Y1123" s="58" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1124" spans="5:25" x14ac:dyDescent="0.25">
@@ -48396,7 +48397,7 @@
         <v>224</v>
       </c>
       <c r="N1124" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O1124" s="1"/>
       <c r="P1124" s="56"/>
@@ -48434,7 +48435,7 @@
         <v>225</v>
       </c>
       <c r="N1125" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O1125" s="1"/>
       <c r="P1125" s="56"/>
@@ -48487,7 +48488,7 @@
       <c r="W1126" s="9"/>
       <c r="X1126" s="9"/>
       <c r="Y1126" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="1127" spans="5:25" x14ac:dyDescent="0.25">
@@ -48514,7 +48515,7 @@
         <v>227</v>
       </c>
       <c r="N1127" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O1127" s="1"/>
       <c r="P1127" s="56"/>
@@ -48590,7 +48591,7 @@
         <v>229</v>
       </c>
       <c r="N1129" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O1129" s="1"/>
       <c r="P1129" s="56" t="s">
@@ -48605,7 +48606,7 @@
       <c r="W1129" s="9"/>
       <c r="X1129" s="9"/>
       <c r="Y1129" s="58" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1130" spans="5:25" x14ac:dyDescent="0.25">
@@ -48630,7 +48631,7 @@
         <v>1</v>
       </c>
       <c r="N1130" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P1130" s="56"/>
       <c r="Q1130" s="9"/>
@@ -48682,7 +48683,7 @@
       <c r="W1131" s="9"/>
       <c r="X1131" s="9"/>
       <c r="Y1131" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="1132" spans="5:25" x14ac:dyDescent="0.25">
@@ -48709,7 +48710,7 @@
         <v>3</v>
       </c>
       <c r="N1132" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O1132" s="1"/>
       <c r="P1132" s="56"/>
@@ -48825,7 +48826,7 @@
         <v>6</v>
       </c>
       <c r="N1135" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O1135" s="1"/>
       <c r="P1135" s="56" t="s">
@@ -48840,7 +48841,7 @@
       <c r="W1135" s="9"/>
       <c r="X1135" s="9"/>
       <c r="Y1135" s="58" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1136" spans="5:25" x14ac:dyDescent="0.25">
@@ -48867,7 +48868,7 @@
         <v>7</v>
       </c>
       <c r="N1136" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O1136" s="1"/>
       <c r="P1136" s="56"/>
@@ -48905,7 +48906,7 @@
         <v>8</v>
       </c>
       <c r="N1137" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O1137" s="1" t="s">
         <v>0</v>
@@ -48920,7 +48921,7 @@
       <c r="W1137" s="9"/>
       <c r="X1137" s="9"/>
       <c r="Y1137" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1138" spans="5:25" x14ac:dyDescent="0.25">
@@ -48947,7 +48948,7 @@
         <v>9</v>
       </c>
       <c r="N1138" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O1138" s="1" t="s">
         <v>1</v>
@@ -48962,7 +48963,7 @@
       <c r="W1138" s="9"/>
       <c r="X1138" s="9"/>
       <c r="Y1138" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1139" spans="5:25" x14ac:dyDescent="0.25">
@@ -48989,7 +48990,7 @@
         <v>10</v>
       </c>
       <c r="N1139" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O1139" s="1"/>
       <c r="P1139" s="56"/>
@@ -49027,7 +49028,7 @@
         <v>11</v>
       </c>
       <c r="N1140" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O1140" s="1"/>
       <c r="P1140" s="56" t="s">
@@ -49042,7 +49043,7 @@
       <c r="W1140" s="9"/>
       <c r="X1140" s="9"/>
       <c r="Y1140" s="58" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1141" spans="5:25" x14ac:dyDescent="0.25">
@@ -49069,7 +49070,7 @@
         <v>12</v>
       </c>
       <c r="N1141" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O1141" s="1"/>
       <c r="P1141" s="56"/>
@@ -49107,7 +49108,7 @@
         <v>13</v>
       </c>
       <c r="N1142" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O1142" s="1"/>
       <c r="P1142" s="56"/>
@@ -49145,7 +49146,7 @@
         <v>14</v>
       </c>
       <c r="N1143" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O1143" s="1"/>
       <c r="P1143" s="56"/>
@@ -49183,7 +49184,7 @@
         <v>15</v>
       </c>
       <c r="N1144" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O1144" s="1"/>
       <c r="P1144" s="56"/>
@@ -49221,7 +49222,7 @@
         <v>16</v>
       </c>
       <c r="N1145" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O1145" s="1"/>
       <c r="P1145" s="56"/>
@@ -49276,7 +49277,7 @@
       <c r="W1146" s="9"/>
       <c r="X1146" s="9"/>
       <c r="Y1146" s="58" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1147" spans="5:25" x14ac:dyDescent="0.25">
@@ -49303,7 +49304,7 @@
         <v>18</v>
       </c>
       <c r="N1147" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O1147" s="1" t="s">
         <v>0</v>
@@ -49318,7 +49319,7 @@
       <c r="W1147" s="9"/>
       <c r="X1147" s="9"/>
       <c r="Y1147" s="18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1148" spans="5:25" x14ac:dyDescent="0.25">
@@ -49345,7 +49346,7 @@
         <v>19</v>
       </c>
       <c r="N1148" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O1148" s="1" t="s">
         <v>0</v>
@@ -49360,7 +49361,7 @@
       <c r="W1148" s="9"/>
       <c r="X1148" s="9"/>
       <c r="Y1148" s="18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1149" spans="5:25" x14ac:dyDescent="0.25">
@@ -49387,7 +49388,7 @@
         <v>20</v>
       </c>
       <c r="N1149" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O1149" s="1"/>
       <c r="P1149" s="56"/>
@@ -49425,7 +49426,7 @@
         <v>21</v>
       </c>
       <c r="N1150" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O1150" s="1"/>
       <c r="P1150" s="56"/>
@@ -49463,7 +49464,7 @@
         <v>22</v>
       </c>
       <c r="N1151" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O1151" s="1"/>
       <c r="P1151" s="56" t="s">
@@ -49478,7 +49479,7 @@
       <c r="W1151" s="9"/>
       <c r="X1151" s="9"/>
       <c r="Y1151" s="58" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1152" spans="5:25" x14ac:dyDescent="0.25">
@@ -49505,7 +49506,7 @@
         <v>23</v>
       </c>
       <c r="N1152" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O1152" s="1" t="s">
         <v>0</v>
@@ -49520,7 +49521,7 @@
       <c r="W1152" s="9"/>
       <c r="X1152" s="9"/>
       <c r="Y1152" s="18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1153" spans="5:25" x14ac:dyDescent="0.25">
@@ -49547,7 +49548,7 @@
         <v>24</v>
       </c>
       <c r="N1153" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O1153" s="1" t="s">
         <v>0</v>
@@ -49561,7 +49562,7 @@
       <c r="W1153" s="9"/>
       <c r="X1153" s="9"/>
       <c r="Y1153" s="18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1154" spans="5:25" x14ac:dyDescent="0.25">
@@ -49588,7 +49589,7 @@
         <v>25</v>
       </c>
       <c r="N1154" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O1154" s="1"/>
       <c r="P1154" s="56"/>
@@ -49664,7 +49665,7 @@
         <v>27</v>
       </c>
       <c r="N1156" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O1156" s="1" t="s">
         <v>0</v>
@@ -49681,7 +49682,7 @@
       <c r="W1156" s="9"/>
       <c r="X1156" s="9"/>
       <c r="Y1156" s="18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1157" spans="5:25" x14ac:dyDescent="0.25">
@@ -49708,7 +49709,7 @@
         <v>28</v>
       </c>
       <c r="N1157" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O1157" s="1"/>
       <c r="P1157" s="56"/>
@@ -49745,7 +49746,7 @@
         <v>29</v>
       </c>
       <c r="N1158" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O1158" s="1"/>
       <c r="P1158" s="56"/>
@@ -49783,7 +49784,7 @@
         <v>30</v>
       </c>
       <c r="N1159" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P1159" s="56"/>
       <c r="Q1159" s="9"/>
@@ -49820,7 +49821,7 @@
         <v>31</v>
       </c>
       <c r="N1160" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O1160" s="1" t="s">
         <v>0</v>
@@ -49835,7 +49836,7 @@
       <c r="W1160" s="9"/>
       <c r="X1160" s="9"/>
       <c r="Y1160" s="18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1161" spans="5:25" x14ac:dyDescent="0.25">
@@ -49862,7 +49863,7 @@
         <v>32</v>
       </c>
       <c r="N1161" s="18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O1161" s="1" t="s">
         <v>0</v>
@@ -49879,7 +49880,7 @@
       <c r="W1161" s="9"/>
       <c r="X1161" s="9"/>
       <c r="Y1161" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1162" spans="5:25" x14ac:dyDescent="0.25">
@@ -49906,7 +49907,7 @@
         <v>33</v>
       </c>
       <c r="N1162" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P1162" s="56"/>
       <c r="Q1162" s="9"/>
@@ -49943,7 +49944,7 @@
         <v>34</v>
       </c>
       <c r="N1163" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P1163" s="56"/>
       <c r="Q1163" s="9"/>
@@ -49980,7 +49981,7 @@
         <v>35</v>
       </c>
       <c r="N1164" s="18" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O1164" s="1" t="s">
         <v>0</v>
@@ -49995,7 +49996,7 @@
       <c r="W1164" s="9"/>
       <c r="X1164" s="9"/>
       <c r="Y1164" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1165" spans="5:25" x14ac:dyDescent="0.25">
@@ -50022,7 +50023,7 @@
         <v>36</v>
       </c>
       <c r="N1165" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O1165" s="1" t="s">
         <v>0</v>
@@ -50037,7 +50038,7 @@
       <c r="W1165" s="9"/>
       <c r="X1165" s="9"/>
       <c r="Y1165" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1166" spans="5:25" x14ac:dyDescent="0.25">
@@ -50077,7 +50078,7 @@
       <c r="W1166" s="9"/>
       <c r="X1166" s="9"/>
       <c r="Y1166" s="58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1167" spans="5:25" x14ac:dyDescent="0.25">
@@ -50104,7 +50105,7 @@
         <v>38</v>
       </c>
       <c r="N1167" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P1167" s="56"/>
       <c r="Q1167" s="9"/>
@@ -50141,7 +50142,7 @@
         <v>39</v>
       </c>
       <c r="N1168" s="18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P1168" s="56"/>
       <c r="Q1168" s="9"/>
@@ -50149,7 +50150,7 @@
       <c r="S1168" s="9"/>
       <c r="T1168" s="9"/>
       <c r="U1168" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V1168" s="9"/>
       <c r="W1168" s="9"/>
@@ -50180,7 +50181,7 @@
         <v>40</v>
       </c>
       <c r="N1169" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O1169" s="1" t="s">
         <v>0</v>
@@ -50195,7 +50196,7 @@
       <c r="W1169" s="9"/>
       <c r="X1169" s="9"/>
       <c r="Y1169" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1170" spans="5:25" x14ac:dyDescent="0.25">
@@ -50222,7 +50223,7 @@
         <v>41</v>
       </c>
       <c r="N1170" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P1170" s="56"/>
       <c r="Q1170" s="9"/>
@@ -50259,7 +50260,7 @@
         <v>42</v>
       </c>
       <c r="N1171" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P1171" s="56"/>
       <c r="Q1171" s="9"/>
@@ -50296,7 +50297,7 @@
         <v>43</v>
       </c>
       <c r="N1172" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P1172" s="56" t="s">
         <v>18</v>
@@ -50310,7 +50311,7 @@
       <c r="W1172" s="9"/>
       <c r="X1172" s="9"/>
       <c r="Y1172" s="58" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1173" spans="5:25" x14ac:dyDescent="0.25">
@@ -50337,7 +50338,7 @@
         <v>44</v>
       </c>
       <c r="N1173" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P1173" s="56"/>
       <c r="Q1173" s="9"/>
@@ -50374,7 +50375,7 @@
         <v>45</v>
       </c>
       <c r="N1174" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P1174" s="56"/>
       <c r="Q1174" s="9"/>
@@ -50411,7 +50412,7 @@
         <v>46</v>
       </c>
       <c r="N1175" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O1175" s="1" t="s">
         <v>0</v>
@@ -50426,7 +50427,7 @@
       <c r="W1175" s="9"/>
       <c r="X1175" s="9"/>
       <c r="Y1175" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1176" spans="5:25" x14ac:dyDescent="0.25">
@@ -50453,7 +50454,7 @@
         <v>47</v>
       </c>
       <c r="N1176" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P1176" s="56"/>
       <c r="Q1176" s="9"/>
@@ -50490,7 +50491,7 @@
         <v>48</v>
       </c>
       <c r="N1177" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P1177" s="56" t="s">
         <v>18</v>
@@ -50504,7 +50505,7 @@
       <c r="W1177" s="9"/>
       <c r="X1177" s="9"/>
       <c r="Y1177" s="58" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1178" spans="5:25" x14ac:dyDescent="0.25">
@@ -50531,7 +50532,7 @@
         <v>49</v>
       </c>
       <c r="N1178" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P1178" s="56"/>
       <c r="Q1178" s="9"/>
@@ -50568,7 +50569,7 @@
         <v>50</v>
       </c>
       <c r="N1179" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P1179" s="56"/>
       <c r="Q1179" s="9"/>
@@ -50604,7 +50605,7 @@
         <v>51</v>
       </c>
       <c r="N1180" s="18" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="O1180" s="1" t="s">
         <v>0</v>
@@ -50619,7 +50620,7 @@
       <c r="W1180" s="9"/>
       <c r="X1180" s="9"/>
       <c r="Y1180" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1181" spans="5:25" x14ac:dyDescent="0.25">
@@ -50646,7 +50647,7 @@
         <v>52</v>
       </c>
       <c r="N1181" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O1181" s="1" t="s">
         <v>0</v>
@@ -50661,7 +50662,7 @@
       <c r="W1181" s="9"/>
       <c r="X1181" s="9"/>
       <c r="Y1181" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1182" spans="5:25" x14ac:dyDescent="0.25">
@@ -50688,7 +50689,7 @@
         <v>53</v>
       </c>
       <c r="N1182" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O1182" s="1" t="s">
         <v>0</v>
@@ -50705,7 +50706,7 @@
       <c r="W1182" s="9"/>
       <c r="X1182" s="9"/>
       <c r="Y1182" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1183" spans="5:25" x14ac:dyDescent="0.25">
@@ -50732,7 +50733,7 @@
         <v>54</v>
       </c>
       <c r="N1183" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O1183" s="1"/>
       <c r="P1183" s="56"/>
@@ -50770,7 +50771,7 @@
         <v>55</v>
       </c>
       <c r="N1184" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O1184" s="1"/>
       <c r="P1184" s="56"/>
@@ -50846,7 +50847,7 @@
         <v>57</v>
       </c>
       <c r="N1186" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P1186" s="56"/>
       <c r="Q1186" s="9"/>
@@ -50920,7 +50921,7 @@
         <v>59</v>
       </c>
       <c r="N1188" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P1188" s="56"/>
       <c r="Q1188" s="9"/>
@@ -50994,7 +50995,7 @@
         <v>61</v>
       </c>
       <c r="N1190" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O1190" s="1" t="s">
         <v>0</v>
@@ -51011,7 +51012,7 @@
       <c r="W1190" s="9"/>
       <c r="X1190" s="9"/>
       <c r="Y1190" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1191" spans="5:25" x14ac:dyDescent="0.25">
@@ -51038,7 +51039,7 @@
         <v>62</v>
       </c>
       <c r="N1191" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P1191" s="56"/>
       <c r="Q1191" s="9"/>
@@ -51075,7 +51076,7 @@
         <v>63</v>
       </c>
       <c r="N1192" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O1192" s="1" t="s">
         <v>0</v>
@@ -51090,7 +51091,7 @@
       <c r="W1192" s="9"/>
       <c r="X1192" s="9"/>
       <c r="Y1192" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1193" spans="5:25" x14ac:dyDescent="0.25">
@@ -51117,7 +51118,7 @@
         <v>64</v>
       </c>
       <c r="N1193" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O1193" s="3" t="s">
         <v>1</v>
@@ -51132,7 +51133,7 @@
       <c r="W1193" s="9"/>
       <c r="X1193" s="9"/>
       <c r="Y1193" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1194" spans="5:25" x14ac:dyDescent="0.25">
@@ -51159,7 +51160,7 @@
         <v>65</v>
       </c>
       <c r="N1194" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P1194" s="56"/>
       <c r="Q1194" s="9"/>
@@ -51196,7 +51197,7 @@
         <v>66</v>
       </c>
       <c r="N1195" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P1195" s="56" t="s">
         <v>18</v>
@@ -51210,7 +51211,7 @@
       <c r="W1195" s="9"/>
       <c r="X1195" s="9"/>
       <c r="Y1195" s="58" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1196" spans="5:25" x14ac:dyDescent="0.25">
@@ -51274,7 +51275,7 @@
         <v>68</v>
       </c>
       <c r="N1197" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P1197" s="56"/>
       <c r="Q1197" s="9"/>
@@ -51311,7 +51312,7 @@
         <v>69</v>
       </c>
       <c r="N1198" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P1198" s="56"/>
       <c r="Q1198" s="9"/>
@@ -51348,7 +51349,7 @@
         <v>70</v>
       </c>
       <c r="N1199" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P1199" s="56"/>
       <c r="Q1199" s="9"/>
@@ -51385,7 +51386,7 @@
         <v>71</v>
       </c>
       <c r="N1200" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P1200" s="56"/>
       <c r="Q1200" s="9"/>
@@ -51422,7 +51423,7 @@
         <v>72</v>
       </c>
       <c r="N1201" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P1201" s="56"/>
       <c r="Q1201" s="9"/>
@@ -51459,7 +51460,7 @@
         <v>73</v>
       </c>
       <c r="N1202" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P1202" s="56"/>
       <c r="Q1202" s="9"/>
@@ -51496,7 +51497,7 @@
         <v>74</v>
       </c>
       <c r="N1203" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P1203" s="56"/>
       <c r="Q1203" s="9"/>
@@ -51533,7 +51534,7 @@
         <v>75</v>
       </c>
       <c r="N1204" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P1204" s="56"/>
       <c r="Q1204" s="9"/>
@@ -51570,7 +51571,7 @@
         <v>76</v>
       </c>
       <c r="N1205" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P1205" s="56"/>
       <c r="Q1205" s="9"/>
@@ -51607,7 +51608,7 @@
         <v>77</v>
       </c>
       <c r="N1206" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O1206" s="1"/>
       <c r="P1206" s="56"/>
@@ -51645,7 +51646,7 @@
         <v>78</v>
       </c>
       <c r="N1207" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O1207" s="1"/>
       <c r="P1207" s="56"/>
@@ -51721,7 +51722,7 @@
         <v>80</v>
       </c>
       <c r="N1209" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O1209" s="1"/>
       <c r="P1209" s="56"/>
@@ -51759,7 +51760,7 @@
         <v>81</v>
       </c>
       <c r="N1210" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O1210" s="1"/>
       <c r="P1210" s="56"/>
@@ -51797,7 +51798,7 @@
         <v>82</v>
       </c>
       <c r="N1211" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O1211" s="1"/>
       <c r="P1211" s="56"/>
@@ -51835,7 +51836,7 @@
         <v>83</v>
       </c>
       <c r="N1212" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O1212" s="1"/>
       <c r="P1212" s="56"/>
@@ -51873,7 +51874,7 @@
         <v>84</v>
       </c>
       <c r="N1213" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O1213" s="1"/>
       <c r="P1213" s="56"/>
@@ -51911,7 +51912,7 @@
         <v>85</v>
       </c>
       <c r="N1214" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O1214" s="1"/>
       <c r="P1214" s="56"/>
@@ -51949,7 +51950,7 @@
         <v>86</v>
       </c>
       <c r="N1215" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O1215" s="1"/>
       <c r="P1215" s="56"/>
@@ -51987,7 +51988,7 @@
         <v>87</v>
       </c>
       <c r="N1216" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O1216" s="1"/>
       <c r="P1216" s="56"/>
@@ -52025,7 +52026,7 @@
         <v>88</v>
       </c>
       <c r="N1217" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P1217" s="56"/>
       <c r="Q1217" s="9"/>
@@ -52062,7 +52063,7 @@
         <v>89</v>
       </c>
       <c r="N1218" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P1218" s="56"/>
       <c r="Q1218" s="9"/>
@@ -52099,7 +52100,7 @@
         <v>90</v>
       </c>
       <c r="N1219" s="18" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="P1219" s="56"/>
       <c r="Q1219" s="9"/>
@@ -52136,7 +52137,7 @@
         <v>91</v>
       </c>
       <c r="N1220" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P1220" s="56"/>
       <c r="Q1220" s="9"/>
@@ -52210,7 +52211,7 @@
         <v>93</v>
       </c>
       <c r="N1222" s="18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P1222" s="56"/>
       <c r="Q1222" s="9"/>
@@ -52284,7 +52285,7 @@
         <v>95</v>
       </c>
       <c r="N1224" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P1224" s="56"/>
       <c r="Q1224" s="9"/>
@@ -52321,7 +52322,7 @@
         <v>96</v>
       </c>
       <c r="N1225" s="18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P1225" s="56"/>
       <c r="Q1225" s="9"/>
@@ -52358,7 +52359,7 @@
         <v>97</v>
       </c>
       <c r="N1226" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P1226" s="56"/>
       <c r="Q1226" s="9"/>
@@ -52395,7 +52396,7 @@
         <v>98</v>
       </c>
       <c r="N1227" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P1227" s="56"/>
       <c r="Q1227" s="9"/>
@@ -52544,7 +52545,7 @@
         <v>102</v>
       </c>
       <c r="N1231" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O1231" s="1"/>
       <c r="P1231" s="56"/>
@@ -52620,7 +52621,7 @@
         <v>104</v>
       </c>
       <c r="N1233" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O1233" s="1"/>
       <c r="P1233" s="56"/>
@@ -52658,7 +52659,7 @@
         <v>105</v>
       </c>
       <c r="N1234" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O1234" s="1"/>
       <c r="P1234" s="56"/>
@@ -52696,7 +52697,7 @@
         <v>106</v>
       </c>
       <c r="N1235" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O1235" s="1"/>
       <c r="P1235" s="56" t="s">
@@ -52711,7 +52712,7 @@
       <c r="W1235" s="9"/>
       <c r="X1235" s="9"/>
       <c r="Y1235" s="58" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1236" spans="5:25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3171" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="894">
   <si>
     <t>PS</t>
   </si>
@@ -701,9 +701,6 @@
     <t>AqvyAqdhinI$ByaH</t>
   </si>
   <si>
-    <t>viqvidhya#ntIByaH</t>
-  </si>
-  <si>
     <t>uga#NAByaH</t>
   </si>
   <si>
@@ -1883,9 +1880,6 @@
     <t>goShu#</t>
   </si>
   <si>
-    <t>goqGnaiti#go - Gne</t>
-  </si>
-  <si>
     <t>aqGAqyoH</t>
   </si>
   <si>
@@ -2321,9 +2315,6 @@
     <t>praqpaqthyA#yeti# pra - paqthyA#ya</t>
   </si>
   <si>
-    <t>goShTh^yAqyetiq go - sthyAqyaq</t>
-  </si>
-  <si>
     <t>gaqhvaqreqShThAyeti# gahvare - sthAya#</t>
   </si>
   <si>
@@ -2706,6 +2697,18 @@
   </si>
   <si>
     <t>jiGA(gm)#sadByaH</t>
+  </si>
+  <si>
+    <t>viqviddhya#ntIByaH</t>
+  </si>
+  <si>
+    <t>goShThyAqyetiq go - sthyAqyaq</t>
+  </si>
+  <si>
+    <t>pra</t>
+  </si>
+  <si>
+    <t>goqGna iti#go - Gne</t>
   </si>
 </sst>
 </file>
@@ -3328,9 +3331,9 @@
   <dimension ref="A1:Y1580"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N405" sqref="N405"/>
+      <selection pane="bottomLeft" activeCell="N1235" sqref="N1235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3354,8 +3357,8 @@
     <col min="20" max="20" width="10" style="1" customWidth="1"/>
     <col min="21" max="21" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="22.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="22.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="62.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="266" width="9.140625" style="2"/>
     <col min="267" max="267" width="9.28515625" style="2" customWidth="1"/>
@@ -3828,7 +3831,7 @@
         <v>16</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>15</v>
@@ -3873,7 +3876,7 @@
         <v>12</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3943,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="56"/>
@@ -4027,7 +4030,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="56"/>
@@ -4069,7 +4072,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>17</v>
@@ -4084,7 +4087,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
       <c r="Y6" s="58" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4115,7 +4118,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="56"/>
@@ -4157,7 +4160,7 @@
         <v>7</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="56"/>
@@ -4213,7 +4216,7 @@
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
       <c r="Y9" s="58" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4286,7 +4289,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="56"/>
@@ -4337,7 +4340,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
@@ -4372,7 +4375,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="56"/>
@@ -4414,7 +4417,7 @@
         <v>13</v>
       </c>
       <c r="N14" s="60" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>0</v>
@@ -4429,7 +4432,7 @@
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="20" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4502,7 +4505,7 @@
         <v>15</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="56"/>
@@ -4559,7 +4562,7 @@
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
       <c r="Y17" s="58" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="18" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4632,7 +4635,7 @@
         <v>18</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="56"/>
@@ -4731,7 +4734,7 @@
       <c r="W21" s="19"/>
       <c r="X21" s="19"/>
       <c r="Y21" s="24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4846,7 +4849,7 @@
         <v>23</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="56"/>
@@ -4903,7 +4906,7 @@
       <c r="W25" s="19"/>
       <c r="X25" s="19"/>
       <c r="Y25" s="58" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5240,7 +5243,7 @@
       <c r="W33" s="19"/>
       <c r="X33" s="19"/>
       <c r="Y33" s="58" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="34" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5313,7 +5316,7 @@
         <v>34</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="56"/>
@@ -5481,7 +5484,7 @@
         <v>38</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="56"/>
@@ -5537,7 +5540,7 @@
       <c r="W40" s="19"/>
       <c r="X40" s="18"/>
       <c r="Y40" s="24" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="41" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5706,7 +5709,7 @@
       <c r="W44" s="19"/>
       <c r="X44" s="19"/>
       <c r="Y44" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="45" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5752,7 +5755,7 @@
       <c r="W45" s="19"/>
       <c r="X45" s="19"/>
       <c r="Y45" s="18" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5842,7 +5845,7 @@
       <c r="W47" s="19"/>
       <c r="X47" s="19"/>
       <c r="Y47" s="58" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="48" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5969,7 +5972,7 @@
       <c r="W50" s="19"/>
       <c r="X50" s="19"/>
       <c r="Y50" s="18" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="51" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5997,7 +6000,7 @@
         <v>50</v>
       </c>
       <c r="N51" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="56"/>
@@ -6038,7 +6041,7 @@
         <v>51</v>
       </c>
       <c r="N52" s="18" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="56"/>
@@ -6077,7 +6080,7 @@
         <v>52</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="56" t="s">
@@ -6088,13 +6091,13 @@
       <c r="S53" s="19"/>
       <c r="T53" s="19"/>
       <c r="U53" s="19" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
       <c r="Y53" s="58" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="54" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6182,7 +6185,7 @@
       <c r="W55" s="19"/>
       <c r="X55" s="19"/>
       <c r="Y55" s="18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="56" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6435,7 +6438,7 @@
       <c r="W61" s="19"/>
       <c r="X61" s="19"/>
       <c r="Y61" s="58" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="62" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6463,7 +6466,7 @@
         <v>61</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="56"/>
@@ -6635,7 +6638,7 @@
       <c r="Q66" s="19"/>
       <c r="R66" s="19"/>
       <c r="S66" s="19" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="T66" s="19"/>
       <c r="U66" s="19"/>
@@ -6687,7 +6690,7 @@
       <c r="W67" s="19"/>
       <c r="X67" s="19"/>
       <c r="Y67" s="58" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="68" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6976,7 +6979,7 @@
       <c r="W74" s="19"/>
       <c r="X74" s="19"/>
       <c r="Y74" s="18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="75" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7019,7 +7022,7 @@
       <c r="W75" s="19"/>
       <c r="X75" s="19"/>
       <c r="Y75" s="58" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="76" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7091,7 +7094,7 @@
         <v>76</v>
       </c>
       <c r="N77" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="O77" s="3"/>
       <c r="P77" s="56"/>
@@ -7140,13 +7143,13 @@
       <c r="R78" s="19"/>
       <c r="T78" s="19"/>
       <c r="U78" s="19" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V78" s="19"/>
       <c r="W78" s="19"/>
       <c r="X78" s="19"/>
       <c r="Y78" s="18" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="79" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7270,7 +7273,7 @@
       <c r="W81" s="19"/>
       <c r="X81" s="19"/>
       <c r="Y81" s="58" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="82" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7305,7 +7308,7 @@
       <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
       <c r="S82" s="19" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="T82" s="19"/>
       <c r="U82" s="19"/>
@@ -7385,7 +7388,7 @@
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
       <c r="S84" s="19" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="T84" s="19"/>
       <c r="U84" s="19"/>
@@ -7553,7 +7556,7 @@
       <c r="W88" s="19"/>
       <c r="X88" s="19"/>
       <c r="Y88" s="18" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7590,7 +7593,7 @@
       <c r="S89" s="19"/>
       <c r="T89" s="19"/>
       <c r="U89" s="19" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V89" s="19"/>
       <c r="W89" s="19"/>
@@ -7715,7 +7718,7 @@
       <c r="S92" s="19"/>
       <c r="T92" s="19"/>
       <c r="U92" s="19" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="V92" s="19"/>
       <c r="W92" s="19"/>
@@ -7842,7 +7845,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
       <c r="Y95" s="18" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="96" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7870,7 +7873,7 @@
         <v>95</v>
       </c>
       <c r="N96" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O96" s="3"/>
       <c r="P96" s="56"/>
@@ -8035,7 +8038,7 @@
       <c r="S100" s="9"/>
       <c r="T100" s="9"/>
       <c r="U100" s="9" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="V100" s="9"/>
       <c r="W100" s="9"/>
@@ -8159,7 +8162,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
       <c r="Y103" s="18" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="104" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8187,7 +8190,7 @@
         <v>103</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="56"/>
@@ -8265,7 +8268,7 @@
         <v>105</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O106" s="1"/>
       <c r="P106" s="56"/>
@@ -8304,7 +8307,7 @@
         <v>106</v>
       </c>
       <c r="N107" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="56" t="s">
@@ -8319,7 +8322,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
       <c r="Y107" s="58" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="108" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8356,7 +8359,7 @@
       <c r="S108" s="9"/>
       <c r="T108" s="9"/>
       <c r="U108" s="9" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
@@ -8442,7 +8445,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
       <c r="Y110" s="18" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="111" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8485,7 +8488,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
       <c r="Y111" s="18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="112" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8513,7 +8516,7 @@
         <v>111</v>
       </c>
       <c r="N112" s="18" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>0</v>
@@ -8530,7 +8533,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
       <c r="Y112" s="18" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="113" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8636,7 +8639,7 @@
         <v>114</v>
       </c>
       <c r="N115" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>0</v>
@@ -8651,7 +8654,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
       <c r="Y115" s="18" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="116" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8727,7 +8730,7 @@
       <c r="S117" s="9"/>
       <c r="T117" s="9"/>
       <c r="U117" s="9" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V117" s="9"/>
       <c r="W117" s="9"/>
@@ -8776,7 +8779,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="119" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9092,7 +9095,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
       <c r="Y126" s="58" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="127" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9168,7 +9171,7 @@
       <c r="S128" s="9"/>
       <c r="T128" s="9"/>
       <c r="U128" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="V128" s="9"/>
       <c r="W128" s="9"/>
@@ -9200,7 +9203,7 @@
         <v>128</v>
       </c>
       <c r="N129" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O129" s="3" t="s">
         <v>0</v>
@@ -9215,7 +9218,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
       <c r="Y129" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="130" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9258,7 +9261,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
       <c r="Y130" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="131" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9286,7 +9289,7 @@
         <v>130</v>
       </c>
       <c r="N131" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O131" s="3"/>
       <c r="P131" s="56" t="s">
@@ -9301,7 +9304,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
       <c r="Y131" s="58" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="132" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9329,7 +9332,7 @@
         <v>131</v>
       </c>
       <c r="N132" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O132" s="3" t="s">
         <v>17</v>
@@ -9340,13 +9343,13 @@
       <c r="S132" s="9"/>
       <c r="T132" s="9"/>
       <c r="U132" s="9" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="V132" s="9"/>
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
       <c r="Y132" s="18" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="133" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9374,7 +9377,7 @@
         <v>132</v>
       </c>
       <c r="N133" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O133" s="1"/>
       <c r="P133" s="56"/>
@@ -9422,7 +9425,7 @@
       <c r="S134" s="9"/>
       <c r="T134" s="9"/>
       <c r="U134" s="9" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="V134" s="9"/>
       <c r="W134" s="9"/>
@@ -9532,7 +9535,7 @@
         <v>136</v>
       </c>
       <c r="N137" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O137" s="3"/>
       <c r="P137" s="56"/>
@@ -9625,7 +9628,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
       <c r="Y139" s="58" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="140" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9809,7 +9812,7 @@
         <v>143</v>
       </c>
       <c r="N144" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O144" s="3"/>
       <c r="P144" s="56"/>
@@ -9848,7 +9851,7 @@
         <v>144</v>
       </c>
       <c r="N145" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O145" s="1"/>
       <c r="P145" s="56"/>
@@ -9902,7 +9905,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
       <c r="Y146" s="58" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="147" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10008,7 +10011,7 @@
         <v>148</v>
       </c>
       <c r="N149" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O149" s="3"/>
       <c r="P149" s="56"/>
@@ -10047,7 +10050,7 @@
         <v>149</v>
       </c>
       <c r="N150" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O150" s="1"/>
       <c r="P150" s="56"/>
@@ -10133,7 +10136,7 @@
       <c r="Q152" s="9"/>
       <c r="R152" s="9"/>
       <c r="S152" s="9" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="T152" s="9"/>
       <c r="U152" s="9"/>
@@ -10221,7 +10224,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
       <c r="Y154" s="18" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="155" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10264,7 +10267,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
       <c r="Y155" s="58" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="156" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10307,7 +10310,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
       <c r="Y156" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="157" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10428,7 +10431,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
       <c r="Y159" s="18" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="160" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10456,7 +10459,7 @@
         <v>159</v>
       </c>
       <c r="N160" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>0</v>
@@ -10473,7 +10476,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
       <c r="Y160" s="18" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="161" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10516,7 +10519,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
       <c r="Y161" s="58" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="162" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10715,7 +10718,7 @@
       <c r="W166" s="9"/>
       <c r="X166" s="9"/>
       <c r="Y166" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="167" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10758,7 +10761,7 @@
       <c r="W167" s="9"/>
       <c r="X167" s="9"/>
       <c r="Y167" s="58" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="168" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10801,7 +10804,7 @@
       <c r="W168" s="9"/>
       <c r="X168" s="9"/>
       <c r="Y168" s="18" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="169" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10922,7 +10925,7 @@
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
       <c r="Y171" s="18" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="172" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10962,12 +10965,12 @@
       <c r="T172" s="9"/>
       <c r="U172" s="9"/>
       <c r="V172" s="9" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
       <c r="Y172" s="18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="173" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11010,7 +11013,7 @@
       <c r="W173" s="9"/>
       <c r="X173" s="9"/>
       <c r="Y173" s="58" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="174" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11038,7 +11041,7 @@
         <v>173</v>
       </c>
       <c r="N174" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O174" s="3"/>
       <c r="P174" s="56"/>
@@ -11086,7 +11089,7 @@
       <c r="S175" s="9"/>
       <c r="T175" s="9"/>
       <c r="U175" s="9" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V175" s="9"/>
       <c r="W175" s="9"/>
@@ -11252,7 +11255,7 @@
       <c r="W179" s="9"/>
       <c r="X179" s="9"/>
       <c r="Y179" s="18" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="180" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11319,7 +11322,7 @@
         <v>180</v>
       </c>
       <c r="N181" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O181" s="1"/>
       <c r="P181" s="56"/>
@@ -11358,7 +11361,7 @@
         <v>181</v>
       </c>
       <c r="N182" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O182" s="3"/>
       <c r="P182" s="56"/>
@@ -11412,7 +11415,7 @@
       <c r="W183" s="9"/>
       <c r="X183" s="9"/>
       <c r="Y183" s="18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="184" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11440,7 +11443,7 @@
         <v>183</v>
       </c>
       <c r="N184" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O184" s="3"/>
       <c r="P184" s="56"/>
@@ -11518,7 +11521,7 @@
         <v>185</v>
       </c>
       <c r="N186" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O186" s="1"/>
       <c r="P186" s="56"/>
@@ -11572,7 +11575,7 @@
       <c r="W187" s="9"/>
       <c r="X187" s="9"/>
       <c r="Y187" s="62" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="188" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11648,7 +11651,7 @@
       <c r="S189" s="9"/>
       <c r="T189" s="9"/>
       <c r="U189" s="9" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V189" s="9"/>
       <c r="W189" s="9"/>
@@ -11806,7 +11809,7 @@
       <c r="Q193" s="9"/>
       <c r="R193" s="9"/>
       <c r="S193" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T193" s="9"/>
       <c r="U193" s="9"/>
@@ -11855,7 +11858,7 @@
       <c r="W194" s="9"/>
       <c r="X194" s="9"/>
       <c r="Y194" s="58" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="195" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11922,7 +11925,7 @@
         <v>195</v>
       </c>
       <c r="N196" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O196" s="3"/>
       <c r="P196" s="56"/>
@@ -11970,7 +11973,7 @@
       <c r="S197" s="9"/>
       <c r="T197" s="9"/>
       <c r="U197" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="V197" s="9"/>
       <c r="W197" s="9"/>
@@ -12056,7 +12059,7 @@
       <c r="W199" s="9"/>
       <c r="X199" s="9"/>
       <c r="Y199" s="18" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="200" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12084,7 +12087,7 @@
         <v>199</v>
       </c>
       <c r="N200" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O200" s="1"/>
       <c r="P200" s="56" t="s">
@@ -12099,7 +12102,7 @@
       <c r="W200" s="9"/>
       <c r="X200" s="9"/>
       <c r="Y200" s="58" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="201" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12205,7 +12208,7 @@
         <v>202</v>
       </c>
       <c r="N203" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O203" s="3"/>
       <c r="P203" s="56"/>
@@ -12283,7 +12286,7 @@
         <v>204</v>
       </c>
       <c r="N205" s="18" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="O205" s="3" t="s">
         <v>0</v>
@@ -12298,7 +12301,7 @@
       <c r="W205" s="9"/>
       <c r="X205" s="9"/>
       <c r="Y205" s="18" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="206" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12365,7 +12368,7 @@
         <v>206</v>
       </c>
       <c r="N207" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O207" s="1"/>
       <c r="P207" s="56" t="s">
@@ -12380,7 +12383,7 @@
       <c r="W207" s="9"/>
       <c r="X207" s="9"/>
       <c r="Y207" s="18" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="208" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12448,7 +12451,7 @@
         <v>208</v>
       </c>
       <c r="N209" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O209" s="1"/>
       <c r="P209" s="56"/>
@@ -12526,7 +12529,7 @@
         <v>210</v>
       </c>
       <c r="N211" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O211" s="1"/>
       <c r="P211" s="56"/>
@@ -12658,7 +12661,7 @@
       <c r="W214" s="9"/>
       <c r="X214" s="9"/>
       <c r="Y214" s="58" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="215" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12686,7 +12689,7 @@
         <v>214</v>
       </c>
       <c r="N215" s="18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O215" s="3" t="s">
         <v>17</v>
@@ -12697,13 +12700,13 @@
       <c r="S215" s="9"/>
       <c r="T215" s="9"/>
       <c r="U215" s="9" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="V215" s="9"/>
       <c r="W215" s="9"/>
       <c r="X215" s="9"/>
       <c r="Y215" s="58" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="216" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12785,7 +12788,7 @@
       <c r="W217" s="9"/>
       <c r="X217" s="9"/>
       <c r="Y217" s="18" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="218" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12852,7 +12855,7 @@
         <v>218</v>
       </c>
       <c r="N219" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O219" s="3"/>
       <c r="P219" s="56"/>
@@ -12900,7 +12903,7 @@
       <c r="S220" s="9"/>
       <c r="T220" s="9"/>
       <c r="U220" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="V220" s="9"/>
       <c r="W220" s="9"/>
@@ -12973,7 +12976,7 @@
         <v>221</v>
       </c>
       <c r="N222" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O222" s="1"/>
       <c r="P222" s="56"/>
@@ -13027,7 +13030,7 @@
       <c r="W223" s="9"/>
       <c r="X223" s="9"/>
       <c r="Y223" s="62" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="224" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13092,7 +13095,7 @@
         <v>2</v>
       </c>
       <c r="N225" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>0</v>
@@ -13107,7 +13110,7 @@
       <c r="W225" s="9"/>
       <c r="X225" s="9"/>
       <c r="Y225" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="226" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13135,7 +13138,7 @@
         <v>3</v>
       </c>
       <c r="N226" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>0</v>
@@ -13150,7 +13153,7 @@
       <c r="W226" s="9"/>
       <c r="X226" s="9"/>
       <c r="Y226" s="18" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="227" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13256,7 +13259,7 @@
         <v>6</v>
       </c>
       <c r="N229" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O229" s="1"/>
       <c r="P229" s="56"/>
@@ -13300,10 +13303,10 @@
       <c r="O230" s="1"/>
       <c r="P230" s="56"/>
       <c r="Q230" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R230" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S230" s="9"/>
       <c r="T230" s="9"/>
@@ -13377,7 +13380,7 @@
         <v>9</v>
       </c>
       <c r="N232" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O232" s="3"/>
       <c r="P232" s="56"/>
@@ -13416,7 +13419,7 @@
         <v>10</v>
       </c>
       <c r="N233" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O233" s="3" t="s">
         <v>0</v>
@@ -13431,7 +13434,7 @@
       <c r="W233" s="9"/>
       <c r="X233" s="9"/>
       <c r="Y233" s="18" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="234" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13498,7 +13501,7 @@
         <v>12</v>
       </c>
       <c r="N235" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O235" s="1"/>
       <c r="P235" s="56"/>
@@ -13542,10 +13545,10 @@
       <c r="O236" s="1"/>
       <c r="P236" s="56"/>
       <c r="Q236" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R236" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S236" s="9"/>
       <c r="T236" s="9"/>
@@ -13658,7 +13661,7 @@
         <v>16</v>
       </c>
       <c r="N239" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>0</v>
@@ -13673,7 +13676,7 @@
       <c r="W239" s="9"/>
       <c r="X239" s="9"/>
       <c r="Y239" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="240" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13740,7 +13743,7 @@
         <v>18</v>
       </c>
       <c r="N241" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O241" s="1"/>
       <c r="P241" s="56"/>
@@ -13784,10 +13787,10 @@
       <c r="O242" s="3"/>
       <c r="P242" s="56"/>
       <c r="Q242" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R242" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S242" s="9"/>
       <c r="T242" s="9"/>
@@ -13900,7 +13903,7 @@
         <v>22</v>
       </c>
       <c r="N245" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O245" s="3" t="s">
         <v>0</v>
@@ -13915,7 +13918,7 @@
       <c r="W245" s="9"/>
       <c r="X245" s="9"/>
       <c r="Y245" s="18" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="246" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13982,7 +13985,7 @@
         <v>24</v>
       </c>
       <c r="N247" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O247" s="1"/>
       <c r="P247" s="56"/>
@@ -14026,10 +14029,10 @@
       <c r="O248" s="3"/>
       <c r="P248" s="56"/>
       <c r="Q248" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R248" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S248" s="9"/>
       <c r="T248" s="9"/>
@@ -14103,7 +14106,7 @@
         <v>27</v>
       </c>
       <c r="N250" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O250" s="3" t="s">
         <v>0</v>
@@ -14118,7 +14121,7 @@
       <c r="W250" s="9"/>
       <c r="X250" s="9"/>
       <c r="Y250" s="18" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="251" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14146,7 +14149,7 @@
         <v>28</v>
       </c>
       <c r="N251" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O251" s="3" t="s">
         <v>0</v>
@@ -14161,7 +14164,7 @@
       <c r="W251" s="9"/>
       <c r="X251" s="9"/>
       <c r="Y251" s="18" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="252" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14228,7 +14231,7 @@
         <v>30</v>
       </c>
       <c r="N253" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O253" s="1"/>
       <c r="P253" s="56"/>
@@ -14272,10 +14275,10 @@
       <c r="O254" s="1"/>
       <c r="P254" s="56"/>
       <c r="Q254" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R254" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S254" s="9"/>
       <c r="T254" s="9"/>
@@ -14388,7 +14391,7 @@
         <v>34</v>
       </c>
       <c r="N257" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O257" s="3"/>
       <c r="P257" s="56"/>
@@ -14466,7 +14469,7 @@
         <v>36</v>
       </c>
       <c r="N259" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O259" s="1"/>
       <c r="P259" s="56"/>
@@ -14510,10 +14513,10 @@
       <c r="O260" s="1"/>
       <c r="P260" s="56"/>
       <c r="Q260" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R260" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S260" s="9"/>
       <c r="T260" s="9"/>
@@ -14626,7 +14629,7 @@
         <v>40</v>
       </c>
       <c r="N263" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>0</v>
@@ -14641,7 +14644,7 @@
       <c r="W263" s="9"/>
       <c r="X263" s="9"/>
       <c r="Y263" s="18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="264" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14669,7 +14672,7 @@
         <v>41</v>
       </c>
       <c r="N264" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O264" s="3"/>
       <c r="P264" s="56"/>
@@ -14708,7 +14711,7 @@
         <v>42</v>
       </c>
       <c r="N265" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O265" s="1"/>
       <c r="P265" s="56"/>
@@ -14752,10 +14755,10 @@
       <c r="O266" s="1"/>
       <c r="P266" s="56"/>
       <c r="Q266" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R266" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S266" s="9"/>
       <c r="T266" s="9"/>
@@ -14946,7 +14949,7 @@
         <v>48</v>
       </c>
       <c r="N271" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O271" s="3"/>
       <c r="P271" s="56"/>
@@ -14990,10 +14993,10 @@
       <c r="O272" s="3"/>
       <c r="P272" s="56"/>
       <c r="Q272" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R272" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S272" s="9"/>
       <c r="T272" s="9"/>
@@ -15066,7 +15069,7 @@
         <v>51</v>
       </c>
       <c r="N274" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O274" s="1"/>
       <c r="P274" s="56"/>
@@ -15105,7 +15108,7 @@
         <v>52</v>
       </c>
       <c r="N275" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O275" s="1"/>
       <c r="P275" s="56"/>
@@ -15183,7 +15186,7 @@
         <v>54</v>
       </c>
       <c r="N277" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O277" s="3"/>
       <c r="P277" s="56"/>
@@ -15227,10 +15230,10 @@
       <c r="O278" s="3"/>
       <c r="P278" s="56"/>
       <c r="Q278" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R278" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S278" s="9"/>
       <c r="T278" s="9"/>
@@ -15304,7 +15307,7 @@
         <v>57</v>
       </c>
       <c r="N280" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O280" s="3"/>
       <c r="P280" s="56"/>
@@ -15421,7 +15424,7 @@
         <v>60</v>
       </c>
       <c r="N283" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O283" s="1"/>
       <c r="P283" s="56"/>
@@ -15465,10 +15468,10 @@
       <c r="O284" s="3"/>
       <c r="P284" s="56"/>
       <c r="Q284" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R284" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S284" s="9"/>
       <c r="T284" s="9"/>
@@ -15542,7 +15545,7 @@
         <v>63</v>
       </c>
       <c r="N286" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O286" s="3"/>
       <c r="P286" s="56"/>
@@ -15596,7 +15599,7 @@
       <c r="W287" s="9"/>
       <c r="X287" s="9"/>
       <c r="Y287" s="18" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="288" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15624,7 +15627,7 @@
         <v>65</v>
       </c>
       <c r="N288" s="18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O288" s="3"/>
       <c r="P288" s="56"/>
@@ -15663,7 +15666,7 @@
         <v>66</v>
       </c>
       <c r="N289" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O289" s="3"/>
       <c r="P289" s="56"/>
@@ -15707,10 +15710,10 @@
       <c r="O290" s="3"/>
       <c r="P290" s="56"/>
       <c r="Q290" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R290" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S290" s="9"/>
       <c r="T290" s="9"/>
@@ -15784,7 +15787,7 @@
         <v>69</v>
       </c>
       <c r="N292" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O292" s="3" t="s">
         <v>0</v>
@@ -15799,7 +15802,7 @@
       <c r="W292" s="9"/>
       <c r="X292" s="9"/>
       <c r="Y292" s="18" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="293" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15827,7 +15830,7 @@
         <v>70</v>
       </c>
       <c r="N293" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O293" s="3" t="s">
         <v>0</v>
@@ -15842,7 +15845,7 @@
       <c r="W293" s="9"/>
       <c r="X293" s="9"/>
       <c r="Y293" s="18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="294" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15909,7 +15912,7 @@
         <v>72</v>
       </c>
       <c r="N295" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O295" s="3"/>
       <c r="P295" s="56"/>
@@ -15953,10 +15956,10 @@
       <c r="O296" s="3"/>
       <c r="P296" s="56"/>
       <c r="Q296" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R296" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S296" s="9"/>
       <c r="T296" s="9"/>
@@ -16045,7 +16048,7 @@
       <c r="W298" s="9"/>
       <c r="X298" s="9"/>
       <c r="Y298" s="18" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="299" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16073,7 +16076,7 @@
         <v>76</v>
       </c>
       <c r="N299" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O299" s="1"/>
       <c r="P299" s="56"/>
@@ -16151,7 +16154,7 @@
         <v>78</v>
       </c>
       <c r="N301" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O301" s="1"/>
       <c r="P301" s="56"/>
@@ -16205,7 +16208,7 @@
       <c r="W302" s="9"/>
       <c r="X302" s="9"/>
       <c r="Y302" s="58" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="303" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16309,7 +16312,7 @@
         <v>3</v>
       </c>
       <c r="N305" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O305" s="3" t="s">
         <v>0</v>
@@ -16324,7 +16327,7 @@
       <c r="W305" s="9"/>
       <c r="X305" s="9"/>
       <c r="Y305" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="306" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16367,7 +16370,7 @@
       <c r="W306" s="9"/>
       <c r="X306" s="9"/>
       <c r="Y306" s="18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="307" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16395,7 +16398,7 @@
         <v>5</v>
       </c>
       <c r="N307" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O307" s="3"/>
       <c r="P307" s="56"/>
@@ -16439,10 +16442,10 @@
       <c r="O308" s="3"/>
       <c r="P308" s="56"/>
       <c r="Q308" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R308" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S308" s="9"/>
       <c r="T308" s="9"/>
@@ -16555,7 +16558,7 @@
         <v>9</v>
       </c>
       <c r="N311" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O311" s="3" t="s">
         <v>0</v>
@@ -16570,7 +16573,7 @@
       <c r="W311" s="9"/>
       <c r="X311" s="9"/>
       <c r="Y311" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="312" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16598,7 +16601,7 @@
         <v>10</v>
       </c>
       <c r="N312" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O312" s="1"/>
       <c r="P312" s="56"/>
@@ -16637,7 +16640,7 @@
         <v>11</v>
       </c>
       <c r="N313" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O313" s="1"/>
       <c r="P313" s="56"/>
@@ -16681,10 +16684,10 @@
       <c r="O314" s="3"/>
       <c r="P314" s="56"/>
       <c r="Q314" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R314" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S314" s="9"/>
       <c r="T314" s="9"/>
@@ -16758,7 +16761,7 @@
         <v>14</v>
       </c>
       <c r="N316" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O316" s="3" t="s">
         <v>0</v>
@@ -16773,7 +16776,7 @@
       <c r="W316" s="9"/>
       <c r="X316" s="9"/>
       <c r="Y316" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="317" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16801,7 +16804,7 @@
         <v>15</v>
       </c>
       <c r="N317" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O317" s="3" t="s">
         <v>0</v>
@@ -16816,7 +16819,7 @@
       <c r="W317" s="9"/>
       <c r="X317" s="9"/>
       <c r="Y317" s="18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="318" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16883,7 +16886,7 @@
         <v>17</v>
       </c>
       <c r="N319" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O319" s="1"/>
       <c r="P319" s="56"/>
@@ -16927,10 +16930,10 @@
       <c r="O320" s="1"/>
       <c r="P320" s="56"/>
       <c r="Q320" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R320" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S320" s="9"/>
       <c r="T320" s="9"/>
@@ -17004,7 +17007,7 @@
         <v>20</v>
       </c>
       <c r="N322" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O322" s="3"/>
       <c r="P322" s="56"/>
@@ -17043,7 +17046,7 @@
         <v>21</v>
       </c>
       <c r="N323" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O323" s="3" t="s">
         <v>0</v>
@@ -17058,7 +17061,7 @@
       <c r="W323" s="9"/>
       <c r="X323" s="9"/>
       <c r="Y323" s="18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="324" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17125,7 +17128,7 @@
         <v>23</v>
       </c>
       <c r="N325" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O325" s="1"/>
       <c r="P325" s="56"/>
@@ -17169,10 +17172,10 @@
       <c r="O326" s="1"/>
       <c r="P326" s="56"/>
       <c r="Q326" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R326" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S326" s="9"/>
       <c r="T326" s="9"/>
@@ -17246,7 +17249,7 @@
         <v>26</v>
       </c>
       <c r="N328" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O328" s="3" t="s">
         <v>0</v>
@@ -17261,7 +17264,7 @@
       <c r="W328" s="9"/>
       <c r="X328" s="9"/>
       <c r="Y328" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="329" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17304,7 +17307,7 @@
       <c r="W329" s="9"/>
       <c r="X329" s="9"/>
       <c r="Y329" s="18" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="330" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17371,7 +17374,7 @@
         <v>29</v>
       </c>
       <c r="N331" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O331" s="1"/>
       <c r="P331" s="56"/>
@@ -17415,10 +17418,10 @@
       <c r="O332" s="1"/>
       <c r="P332" s="56"/>
       <c r="Q332" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R332" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S332" s="9"/>
       <c r="T332" s="9"/>
@@ -17507,7 +17510,7 @@
       <c r="W334" s="9"/>
       <c r="X334" s="9"/>
       <c r="Y334" s="18" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="335" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17535,7 +17538,7 @@
         <v>33</v>
       </c>
       <c r="N335" s="18" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="O335" s="3" t="s">
         <v>0</v>
@@ -17550,7 +17553,7 @@
       <c r="W335" s="9"/>
       <c r="X335" s="9"/>
       <c r="Y335" s="18" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="336" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17617,7 +17620,7 @@
         <v>35</v>
       </c>
       <c r="N337" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O337" s="3"/>
       <c r="P337" s="56"/>
@@ -17661,10 +17664,10 @@
       <c r="O338" s="3"/>
       <c r="P338" s="56"/>
       <c r="Q338" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R338" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S338" s="9"/>
       <c r="T338" s="9"/>
@@ -17753,7 +17756,7 @@
       <c r="W340" s="9"/>
       <c r="X340" s="9"/>
       <c r="Y340" s="18" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="341" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17835,7 +17838,7 @@
       <c r="W342" s="9"/>
       <c r="X342" s="9"/>
       <c r="Y342" s="18" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="343" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17878,7 +17881,7 @@
       <c r="W343" s="9"/>
       <c r="X343" s="9"/>
       <c r="Y343" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="344" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17906,7 +17909,7 @@
         <v>42</v>
       </c>
       <c r="N344" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O344" s="1"/>
       <c r="P344" s="56"/>
@@ -17950,10 +17953,10 @@
       <c r="O345" s="1"/>
       <c r="P345" s="56"/>
       <c r="Q345" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R345" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S345" s="9"/>
       <c r="T345" s="9"/>
@@ -18027,7 +18030,7 @@
         <v>45</v>
       </c>
       <c r="N347" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O347" s="3"/>
       <c r="P347" s="56"/>
@@ -18081,7 +18084,7 @@
       <c r="W348" s="9"/>
       <c r="X348" s="9"/>
       <c r="Y348" s="18" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="349" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18148,7 +18151,7 @@
         <v>48</v>
       </c>
       <c r="N350" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O350" s="1"/>
       <c r="P350" s="56"/>
@@ -18192,10 +18195,10 @@
       <c r="O351" s="1"/>
       <c r="P351" s="56"/>
       <c r="Q351" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R351" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S351" s="9"/>
       <c r="T351" s="9"/>
@@ -18283,7 +18286,7 @@
       <c r="W353" s="9"/>
       <c r="X353" s="9"/>
       <c r="Y353" s="18" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="354" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18326,7 +18329,7 @@
       <c r="W354" s="9"/>
       <c r="X354" s="9"/>
       <c r="Y354" s="18" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="355" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18437,10 +18440,10 @@
       <c r="O357" s="1"/>
       <c r="P357" s="56"/>
       <c r="Q357" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R357" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S357" s="9"/>
       <c r="T357" s="9"/>
@@ -18514,7 +18517,7 @@
         <v>57</v>
       </c>
       <c r="N359" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O359" s="3" t="s">
         <v>0</v>
@@ -18529,7 +18532,7 @@
       <c r="W359" s="9"/>
       <c r="X359" s="9"/>
       <c r="Y359" s="18" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="360" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18557,7 +18560,7 @@
         <v>58</v>
       </c>
       <c r="N360" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O360" s="3" t="s">
         <v>0</v>
@@ -18572,7 +18575,7 @@
       <c r="W360" s="9"/>
       <c r="X360" s="9"/>
       <c r="Y360" s="18" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="361" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18771,7 +18774,7 @@
       <c r="W365" s="9"/>
       <c r="X365" s="9"/>
       <c r="Y365" s="18" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="366" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18814,7 +18817,7 @@
       <c r="W366" s="9"/>
       <c r="X366" s="9"/>
       <c r="Y366" s="18" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="367" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18925,10 +18928,10 @@
       <c r="O369" s="1"/>
       <c r="P369" s="56"/>
       <c r="Q369" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R369" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S369" s="9"/>
       <c r="T369" s="9"/>
@@ -19017,7 +19020,7 @@
       <c r="W371" s="9"/>
       <c r="X371" s="9"/>
       <c r="Y371" s="18" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="372" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19045,7 +19048,7 @@
         <v>70</v>
       </c>
       <c r="N372" s="18" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="O372" s="3" t="s">
         <v>0</v>
@@ -19060,7 +19063,7 @@
       <c r="W372" s="9"/>
       <c r="X372" s="9"/>
       <c r="Y372" s="18" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="373" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19171,10 +19174,10 @@
       <c r="O375" s="3"/>
       <c r="P375" s="56"/>
       <c r="Q375" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R375" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S375" s="9"/>
       <c r="T375" s="9"/>
@@ -19248,7 +19251,7 @@
         <v>75</v>
       </c>
       <c r="N377" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O377" s="1"/>
       <c r="P377" s="56"/>
@@ -19287,7 +19290,7 @@
         <v>76</v>
       </c>
       <c r="N378" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O378" s="1"/>
       <c r="P378" s="56"/>
@@ -19409,10 +19412,10 @@
       <c r="O381" s="3"/>
       <c r="P381" s="56"/>
       <c r="Q381" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R381" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S381" s="9"/>
       <c r="T381" s="9"/>
@@ -19501,7 +19504,7 @@
       <c r="W383" s="9"/>
       <c r="X383" s="9"/>
       <c r="Y383" s="18" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="384" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19544,7 +19547,7 @@
       <c r="W384" s="9"/>
       <c r="X384" s="9"/>
       <c r="Y384" s="18" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="385" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19655,10 +19658,10 @@
       <c r="O387" s="1"/>
       <c r="P387" s="56"/>
       <c r="Q387" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R387" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S387" s="9"/>
       <c r="T387" s="9"/>
@@ -19747,7 +19750,7 @@
       <c r="W389" s="9"/>
       <c r="X389" s="9"/>
       <c r="Y389" s="18" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="390" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19790,7 +19793,7 @@
       <c r="W390" s="9"/>
       <c r="X390" s="9"/>
       <c r="Y390" s="18" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="391" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19901,10 +19904,10 @@
       <c r="O393" s="3"/>
       <c r="P393" s="56"/>
       <c r="Q393" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R393" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S393" s="9"/>
       <c r="T393" s="9"/>
@@ -20032,7 +20035,7 @@
       <c r="W396" s="9"/>
       <c r="X396" s="9"/>
       <c r="Y396" s="18" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="397" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20143,10 +20146,10 @@
       <c r="O399" s="1"/>
       <c r="P399" s="56"/>
       <c r="Q399" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R399" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S399" s="9"/>
       <c r="T399" s="9"/>
@@ -20220,7 +20223,7 @@
         <v>99</v>
       </c>
       <c r="N401" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O401" s="3"/>
       <c r="P401" s="56"/>
@@ -20229,7 +20232,7 @@
       <c r="S401" s="9"/>
       <c r="T401" s="9"/>
       <c r="U401" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="V401" s="9"/>
       <c r="W401" s="9"/>
@@ -20276,7 +20279,7 @@
       <c r="W402" s="9"/>
       <c r="X402" s="9"/>
       <c r="Y402" s="18" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="403" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20397,7 +20400,7 @@
       <c r="W405" s="9"/>
       <c r="X405" s="9"/>
       <c r="Y405" s="59" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="406" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20477,7 +20480,7 @@
       <c r="W407" s="9"/>
       <c r="X407" s="9"/>
       <c r="Y407" s="18" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="408" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20505,7 +20508,7 @@
         <v>3</v>
       </c>
       <c r="N408" s="18" t="s">
-        <v>224</v>
+        <v>890</v>
       </c>
       <c r="O408" s="3" t="s">
         <v>0</v>
@@ -20520,7 +20523,7 @@
       <c r="W408" s="9"/>
       <c r="X408" s="9"/>
       <c r="Y408" s="18" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="409" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20631,10 +20634,10 @@
       <c r="O411" s="1"/>
       <c r="P411" s="56"/>
       <c r="Q411" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R411" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S411" s="9"/>
       <c r="T411" s="9"/>
@@ -20708,7 +20711,7 @@
         <v>8</v>
       </c>
       <c r="N413" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O413" s="1"/>
       <c r="P413" s="56"/>
@@ -20747,7 +20750,7 @@
         <v>9</v>
       </c>
       <c r="N414" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O414" s="3"/>
       <c r="P414" s="56"/>
@@ -20869,10 +20872,10 @@
       <c r="O417" s="1"/>
       <c r="P417" s="56"/>
       <c r="Q417" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R417" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S417" s="9"/>
       <c r="T417" s="9"/>
@@ -20946,7 +20949,7 @@
         <v>14</v>
       </c>
       <c r="N419" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O419" s="1"/>
       <c r="P419" s="56"/>
@@ -20985,7 +20988,7 @@
         <v>15</v>
       </c>
       <c r="N420" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O420" s="3" t="s">
         <v>0</v>
@@ -21000,7 +21003,7 @@
       <c r="W420" s="9"/>
       <c r="X420" s="9"/>
       <c r="Y420" s="18" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="421" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21111,10 +21114,10 @@
       <c r="O423" s="3"/>
       <c r="P423" s="56"/>
       <c r="Q423" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R423" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S423" s="9"/>
       <c r="T423" s="9"/>
@@ -21188,7 +21191,7 @@
         <v>20</v>
       </c>
       <c r="N425" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O425" s="1"/>
       <c r="P425" s="56"/>
@@ -21227,7 +21230,7 @@
         <v>21</v>
       </c>
       <c r="N426" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O426" s="3" t="s">
         <v>0</v>
@@ -21242,7 +21245,7 @@
       <c r="W426" s="9"/>
       <c r="X426" s="5"/>
       <c r="Y426" s="18" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="427" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21353,10 +21356,10 @@
       <c r="O429" s="3"/>
       <c r="P429" s="56"/>
       <c r="Q429" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R429" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S429" s="9"/>
       <c r="T429" s="9"/>
@@ -21430,7 +21433,7 @@
         <v>26</v>
       </c>
       <c r="N431" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O431" s="3"/>
       <c r="P431" s="56"/>
@@ -21469,7 +21472,7 @@
         <v>27</v>
       </c>
       <c r="N432" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O432" s="3" t="s">
         <v>0</v>
@@ -21484,7 +21487,7 @@
       <c r="W432" s="9"/>
       <c r="X432" s="9"/>
       <c r="Y432" s="18" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="433" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21595,10 +21598,10 @@
       <c r="O435" s="3"/>
       <c r="P435" s="56"/>
       <c r="Q435" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R435" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S435" s="9"/>
       <c r="T435" s="9"/>
@@ -21672,7 +21675,7 @@
         <v>32</v>
       </c>
       <c r="N437" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O437" s="3" t="s">
         <v>0</v>
@@ -21687,7 +21690,7 @@
       <c r="W437" s="9"/>
       <c r="X437" s="9"/>
       <c r="Y437" s="18" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="438" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21715,7 +21718,7 @@
         <v>33</v>
       </c>
       <c r="N438" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O438" s="3" t="s">
         <v>0</v>
@@ -21730,7 +21733,7 @@
       <c r="W438" s="9"/>
       <c r="X438" s="9"/>
       <c r="Y438" s="18" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="439" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21841,10 +21844,10 @@
       <c r="O441" s="1"/>
       <c r="P441" s="56"/>
       <c r="Q441" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R441" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S441" s="9"/>
       <c r="T441" s="9"/>
@@ -21918,7 +21921,7 @@
         <v>38</v>
       </c>
       <c r="N443" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O443" s="3" t="s">
         <v>0</v>
@@ -21933,7 +21936,7 @@
       <c r="W443" s="9"/>
       <c r="X443" s="9"/>
       <c r="Y443" s="18" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="444" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21961,7 +21964,7 @@
         <v>39</v>
       </c>
       <c r="N444" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O444" s="1"/>
       <c r="P444" s="56"/>
@@ -22083,10 +22086,10 @@
       <c r="O447" s="3"/>
       <c r="P447" s="56"/>
       <c r="Q447" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R447" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S447" s="9"/>
       <c r="T447" s="9"/>
@@ -22160,7 +22163,7 @@
         <v>44</v>
       </c>
       <c r="N449" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O449" s="3" t="s">
         <v>0</v>
@@ -22175,7 +22178,7 @@
       <c r="W449" s="9"/>
       <c r="X449" s="9"/>
       <c r="Y449" s="18" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="450" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22203,7 +22206,7 @@
         <v>45</v>
       </c>
       <c r="N450" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O450" s="3"/>
       <c r="P450" s="56"/>
@@ -22325,10 +22328,10 @@
       <c r="O453" s="3"/>
       <c r="P453" s="56"/>
       <c r="Q453" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R453" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S453" s="9"/>
       <c r="T453" s="9"/>
@@ -22402,7 +22405,7 @@
         <v>50</v>
       </c>
       <c r="N455" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O455" s="3"/>
       <c r="P455" s="56"/>
@@ -22440,7 +22443,7 @@
         <v>51</v>
       </c>
       <c r="N456" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O456" s="3" t="s">
         <v>0</v>
@@ -22455,7 +22458,7 @@
       <c r="W456" s="9"/>
       <c r="X456" s="9"/>
       <c r="Y456" s="18" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="457" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22566,10 +22569,10 @@
       <c r="O459" s="3"/>
       <c r="P459" s="56"/>
       <c r="Q459" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R459" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S459" s="9"/>
       <c r="T459" s="9"/>
@@ -22643,7 +22646,7 @@
         <v>56</v>
       </c>
       <c r="N461" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O461" s="3"/>
       <c r="P461" s="56"/>
@@ -22682,7 +22685,7 @@
         <v>57</v>
       </c>
       <c r="N462" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O462" s="3" t="s">
         <v>0</v>
@@ -22697,7 +22700,7 @@
       <c r="W462" s="9"/>
       <c r="X462" s="9"/>
       <c r="Y462" s="18" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="463" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22808,10 +22811,10 @@
       <c r="O465" s="3"/>
       <c r="P465" s="56"/>
       <c r="Q465" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R465" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S465" s="9"/>
       <c r="T465" s="9"/>
@@ -22885,7 +22888,7 @@
         <v>62</v>
       </c>
       <c r="N467" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O467" s="3" t="s">
         <v>0</v>
@@ -22900,7 +22903,7 @@
       <c r="W467" s="9"/>
       <c r="X467" s="9"/>
       <c r="Y467" s="18" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="468" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22928,7 +22931,7 @@
         <v>63</v>
       </c>
       <c r="N468" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O468" s="3" t="s">
         <v>0</v>
@@ -22943,7 +22946,7 @@
       <c r="W468" s="9"/>
       <c r="X468" s="9"/>
       <c r="Y468" s="18" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="469" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23054,10 +23057,10 @@
       <c r="O471" s="3"/>
       <c r="P471" s="56"/>
       <c r="Q471" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R471" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S471" s="9"/>
       <c r="T471" s="9"/>
@@ -23131,7 +23134,7 @@
         <v>68</v>
       </c>
       <c r="N473" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O473" s="3" t="s">
         <v>0</v>
@@ -23146,7 +23149,7 @@
       <c r="W473" s="9"/>
       <c r="X473" s="9"/>
       <c r="Y473" s="18" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="474" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23174,7 +23177,7 @@
         <v>69</v>
       </c>
       <c r="N474" s="18" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="O474" s="3" t="s">
         <v>0</v>
@@ -23189,7 +23192,7 @@
       <c r="W474" s="9"/>
       <c r="X474" s="9"/>
       <c r="Y474" s="18" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="475" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23300,10 +23303,10 @@
       <c r="O477" s="3"/>
       <c r="P477" s="56"/>
       <c r="Q477" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R477" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S477" s="9"/>
       <c r="T477" s="9"/>
@@ -23377,7 +23380,7 @@
         <v>74</v>
       </c>
       <c r="N479" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O479" s="3"/>
       <c r="P479" s="56"/>
@@ -23416,7 +23419,7 @@
         <v>75</v>
       </c>
       <c r="N480" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O480" s="1"/>
       <c r="P480" s="56"/>
@@ -23538,10 +23541,10 @@
       <c r="O483" s="3"/>
       <c r="P483" s="56"/>
       <c r="Q483" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R483" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S483" s="9"/>
       <c r="T483" s="9"/>
@@ -23615,7 +23618,7 @@
         <v>80</v>
       </c>
       <c r="N485" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O485" s="1"/>
       <c r="P485" s="56"/>
@@ -23654,7 +23657,7 @@
         <v>81</v>
       </c>
       <c r="N486" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O486" s="1"/>
       <c r="P486" s="56"/>
@@ -23776,10 +23779,10 @@
       <c r="O489" s="3"/>
       <c r="P489" s="56"/>
       <c r="Q489" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R489" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S489" s="9"/>
       <c r="T489" s="9"/>
@@ -23853,7 +23856,7 @@
         <v>86</v>
       </c>
       <c r="N491" s="18" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="O491" s="3" t="s">
         <v>0</v>
@@ -23868,7 +23871,7 @@
       <c r="W491" s="9"/>
       <c r="X491" s="9"/>
       <c r="Y491" s="18" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="492" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23896,7 +23899,7 @@
         <v>87</v>
       </c>
       <c r="N492" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O492" s="3" t="s">
         <v>0</v>
@@ -23911,7 +23914,7 @@
       <c r="W492" s="9"/>
       <c r="X492" s="9"/>
       <c r="Y492" s="18" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="493" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24022,10 +24025,10 @@
       <c r="O495" s="1"/>
       <c r="P495" s="56"/>
       <c r="Q495" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R495" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S495" s="9"/>
       <c r="T495" s="9"/>
@@ -24099,7 +24102,7 @@
         <v>92</v>
       </c>
       <c r="N497" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O497" s="3" t="s">
         <v>0</v>
@@ -24114,7 +24117,7 @@
       <c r="W497" s="9"/>
       <c r="X497" s="9"/>
       <c r="Y497" s="18" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="498" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24142,7 +24145,7 @@
         <v>93</v>
       </c>
       <c r="N498" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O498" s="3" t="s">
         <v>0</v>
@@ -24157,7 +24160,7 @@
       <c r="W498" s="9"/>
       <c r="X498" s="9"/>
       <c r="Y498" s="18" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="499" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24268,10 +24271,10 @@
       <c r="O501" s="1"/>
       <c r="P501" s="56"/>
       <c r="Q501" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R501" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="S501" s="9"/>
       <c r="T501" s="9"/>
@@ -24345,7 +24348,7 @@
         <v>98</v>
       </c>
       <c r="N503" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O503" s="3" t="s">
         <v>0</v>
@@ -24360,7 +24363,7 @@
       <c r="W503" s="9"/>
       <c r="X503" s="9"/>
       <c r="Y503" s="18" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="504" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24388,7 +24391,7 @@
         <v>99</v>
       </c>
       <c r="N504" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O504" s="3" t="s">
         <v>0</v>
@@ -24403,7 +24406,7 @@
       <c r="W504" s="9"/>
       <c r="X504" s="9"/>
       <c r="Y504" s="18" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="505" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24524,7 +24527,7 @@
       <c r="W507" s="9"/>
       <c r="X507" s="9"/>
       <c r="Y507" s="58" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="508" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24589,7 +24592,7 @@
         <v>2</v>
       </c>
       <c r="N509" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O509" s="1"/>
       <c r="P509" s="56"/>
@@ -24784,7 +24787,7 @@
         <v>7</v>
       </c>
       <c r="N514" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O514" s="3"/>
       <c r="P514" s="56"/>
@@ -24862,7 +24865,7 @@
         <v>9</v>
       </c>
       <c r="N516" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O516" s="1" t="s">
         <v>0</v>
@@ -24877,7 +24880,7 @@
       <c r="W516" s="9"/>
       <c r="X516" s="9"/>
       <c r="Y516" s="18" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="517" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24983,7 +24986,7 @@
         <v>12</v>
       </c>
       <c r="N519" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O519" s="1" t="s">
         <v>0</v>
@@ -24998,7 +25001,7 @@
       <c r="W519" s="9"/>
       <c r="X519" s="9"/>
       <c r="Y519" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="520" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25065,7 +25068,7 @@
         <v>14</v>
       </c>
       <c r="N521" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O521" s="3" t="s">
         <v>0</v>
@@ -25080,7 +25083,7 @@
       <c r="W521" s="9"/>
       <c r="X521" s="9"/>
       <c r="Y521" s="18" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="522" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25186,7 +25189,7 @@
         <v>17</v>
       </c>
       <c r="N524" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O524" s="1"/>
       <c r="P524" s="56"/>
@@ -25264,7 +25267,7 @@
         <v>19</v>
       </c>
       <c r="N526" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O526" s="1" t="s">
         <v>0</v>
@@ -25279,7 +25282,7 @@
       <c r="W526" s="9"/>
       <c r="X526" s="9"/>
       <c r="Y526" s="18" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="527" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25400,7 +25403,7 @@
       <c r="W529" s="9"/>
       <c r="X529" s="9"/>
       <c r="Y529" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="530" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25467,7 +25470,7 @@
         <v>24</v>
       </c>
       <c r="N531" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O531" s="1" t="s">
         <v>0</v>
@@ -25482,7 +25485,7 @@
       <c r="W531" s="9"/>
       <c r="X531" s="9"/>
       <c r="Y531" s="18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="532" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25588,7 +25591,7 @@
         <v>27</v>
       </c>
       <c r="N534" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O534" s="1"/>
       <c r="P534" s="56"/>
@@ -25666,7 +25669,7 @@
         <v>29</v>
       </c>
       <c r="N536" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O536" s="1" t="s">
         <v>0</v>
@@ -25681,7 +25684,7 @@
       <c r="W536" s="9"/>
       <c r="X536" s="9"/>
       <c r="Y536" s="18" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="537" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25787,7 +25790,7 @@
         <v>32</v>
       </c>
       <c r="N539" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O539" s="3" t="s">
         <v>0</v>
@@ -25802,7 +25805,7 @@
       <c r="W539" s="9"/>
       <c r="X539" s="9"/>
       <c r="Y539" s="18" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="540" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25869,7 +25872,7 @@
         <v>34</v>
       </c>
       <c r="N541" s="18" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="O541" s="3"/>
       <c r="P541" s="56"/>
@@ -25986,7 +25989,7 @@
         <v>37</v>
       </c>
       <c r="N544" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O544" s="3"/>
       <c r="P544" s="56"/>
@@ -26064,7 +26067,7 @@
         <v>39</v>
       </c>
       <c r="N546" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O546" s="1"/>
       <c r="P546" s="56"/>
@@ -26181,7 +26184,7 @@
         <v>42</v>
       </c>
       <c r="N549" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O549" s="3"/>
       <c r="P549" s="56"/>
@@ -26259,7 +26262,7 @@
         <v>44</v>
       </c>
       <c r="N551" s="18" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="O551" s="1"/>
       <c r="P551" s="56"/>
@@ -26376,7 +26379,7 @@
         <v>47</v>
       </c>
       <c r="N554" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O554" s="1"/>
       <c r="P554" s="56"/>
@@ -26454,7 +26457,7 @@
         <v>49</v>
       </c>
       <c r="N556" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O556" s="1" t="s">
         <v>0</v>
@@ -26469,7 +26472,7 @@
       <c r="W556" s="9"/>
       <c r="X556" s="9"/>
       <c r="Y556" s="18" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="557" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -26574,7 +26577,7 @@
         <v>52</v>
       </c>
       <c r="N559" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O559" s="3"/>
       <c r="P559" s="56"/>
@@ -26583,7 +26586,7 @@
       <c r="S559" s="9"/>
       <c r="T559" s="9"/>
       <c r="U559" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="V559" s="9"/>
       <c r="W559" s="9"/>
@@ -26654,7 +26657,7 @@
         <v>54</v>
       </c>
       <c r="N561" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O561" s="3"/>
       <c r="P561" s="56"/>
@@ -26771,7 +26774,7 @@
         <v>57</v>
       </c>
       <c r="N564" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O564" s="3"/>
       <c r="P564" s="56"/>
@@ -26849,7 +26852,7 @@
         <v>59</v>
       </c>
       <c r="N566" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O566" s="3"/>
       <c r="P566" s="56"/>
@@ -26966,7 +26969,7 @@
         <v>62</v>
       </c>
       <c r="N569" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O569" s="3"/>
       <c r="P569" s="56"/>
@@ -27044,7 +27047,7 @@
         <v>64</v>
       </c>
       <c r="N571" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O571" s="1"/>
       <c r="P571" s="56"/>
@@ -27161,7 +27164,7 @@
         <v>67</v>
       </c>
       <c r="N574" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O574" s="1"/>
       <c r="P574" s="56"/>
@@ -27239,7 +27242,7 @@
         <v>69</v>
       </c>
       <c r="N576" s="18" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="O576" s="1" t="s">
         <v>0</v>
@@ -27254,7 +27257,7 @@
       <c r="W576" s="9"/>
       <c r="X576" s="9"/>
       <c r="Y576" s="18" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="577" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27360,7 +27363,7 @@
         <v>72</v>
       </c>
       <c r="N579" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O579" s="1"/>
       <c r="P579" s="56"/>
@@ -27438,7 +27441,7 @@
         <v>74</v>
       </c>
       <c r="N581" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O581" s="1"/>
       <c r="P581" s="56"/>
@@ -27492,7 +27495,7 @@
       <c r="W582" s="9"/>
       <c r="X582" s="9"/>
       <c r="Y582" s="58" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="583" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27557,7 +27560,7 @@
         <v>2</v>
       </c>
       <c r="N584" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O584" s="3"/>
       <c r="P584" s="56"/>
@@ -27635,7 +27638,7 @@
         <v>4</v>
       </c>
       <c r="N586" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O586" s="1"/>
       <c r="P586" s="56"/>
@@ -27752,7 +27755,7 @@
         <v>7</v>
       </c>
       <c r="N589" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O589" s="3"/>
       <c r="P589" s="56"/>
@@ -27765,7 +27768,7 @@
       <c r="W589" s="9"/>
       <c r="X589" s="9"/>
       <c r="Y589" s="18" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="590" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27832,7 +27835,7 @@
         <v>9</v>
       </c>
       <c r="N591" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O591" s="1" t="s">
         <v>0</v>
@@ -27847,7 +27850,7 @@
       <c r="W591" s="9"/>
       <c r="X591" s="9"/>
       <c r="Y591" s="18" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="592" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27953,7 +27956,7 @@
         <v>12</v>
       </c>
       <c r="N594" s="18" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="O594" s="3"/>
       <c r="P594" s="56"/>
@@ -28031,7 +28034,7 @@
         <v>14</v>
       </c>
       <c r="N596" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O596" s="1" t="s">
         <v>0</v>
@@ -28046,7 +28049,7 @@
       <c r="W596" s="9"/>
       <c r="X596" s="9"/>
       <c r="Y596" s="18" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="597" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -28152,7 +28155,7 @@
         <v>17</v>
       </c>
       <c r="N599" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O599" s="1"/>
       <c r="P599" s="56"/>
@@ -28230,7 +28233,7 @@
         <v>19</v>
       </c>
       <c r="N601" s="18" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="O601" s="1"/>
       <c r="P601" s="56"/>
@@ -28347,7 +28350,7 @@
         <v>22</v>
       </c>
       <c r="N604" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O604" s="1"/>
       <c r="P604" s="56"/>
@@ -28425,7 +28428,7 @@
         <v>24</v>
       </c>
       <c r="N606" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O606" s="1" t="s">
         <v>0</v>
@@ -28440,7 +28443,7 @@
       <c r="W606" s="9"/>
       <c r="X606" s="9"/>
       <c r="Y606" s="18" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="607" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -28546,7 +28549,7 @@
         <v>27</v>
       </c>
       <c r="N609" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O609" s="3"/>
       <c r="P609" s="56"/>
@@ -28624,7 +28627,7 @@
         <v>29</v>
       </c>
       <c r="N611" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O611" s="3"/>
       <c r="P611" s="56"/>
@@ -28741,7 +28744,7 @@
         <v>32</v>
       </c>
       <c r="N614" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O614" s="3"/>
       <c r="P614" s="56"/>
@@ -28819,7 +28822,7 @@
         <v>34</v>
       </c>
       <c r="N616" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O616" s="1"/>
       <c r="P616" s="56"/>
@@ -28936,7 +28939,7 @@
         <v>37</v>
       </c>
       <c r="N619" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O619" s="1"/>
       <c r="P619" s="56"/>
@@ -29014,7 +29017,7 @@
         <v>39</v>
       </c>
       <c r="N621" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O621" s="1" t="s">
         <v>0</v>
@@ -29029,7 +29032,7 @@
       <c r="W621" s="9"/>
       <c r="X621" s="9"/>
       <c r="Y621" s="18" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="622" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29135,7 +29138,7 @@
         <v>42</v>
       </c>
       <c r="N624" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O624" s="3"/>
       <c r="P624" s="56"/>
@@ -29213,7 +29216,7 @@
         <v>44</v>
       </c>
       <c r="N626" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O626" s="3"/>
       <c r="P626" s="56"/>
@@ -29330,7 +29333,7 @@
         <v>47</v>
       </c>
       <c r="N629" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O629" s="3"/>
       <c r="P629" s="56"/>
@@ -29408,7 +29411,7 @@
         <v>49</v>
       </c>
       <c r="N631" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O631" s="1" t="s">
         <v>0</v>
@@ -29423,7 +29426,7 @@
       <c r="W631" s="9"/>
       <c r="X631" s="9"/>
       <c r="Y631" s="18" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="632" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -29530,7 +29533,7 @@
         <v>52</v>
       </c>
       <c r="N634" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O634" s="1" t="s">
         <v>0</v>
@@ -29545,7 +29548,7 @@
       <c r="W634" s="9"/>
       <c r="X634" s="9"/>
       <c r="Y634" s="18" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="635" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29612,7 +29615,7 @@
         <v>54</v>
       </c>
       <c r="N636" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O636" s="1" t="s">
         <v>0</v>
@@ -29627,7 +29630,7 @@
       <c r="W636" s="9"/>
       <c r="X636" s="9"/>
       <c r="Y636" s="18" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="637" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29733,7 +29736,7 @@
         <v>57</v>
       </c>
       <c r="N639" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O639" s="1"/>
       <c r="P639" s="56"/>
@@ -29811,7 +29814,7 @@
         <v>59</v>
       </c>
       <c r="N641" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O641" s="1" t="s">
         <v>0</v>
@@ -29826,7 +29829,7 @@
       <c r="W641" s="9"/>
       <c r="X641" s="9"/>
       <c r="Y641" s="18" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="642" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29932,7 +29935,7 @@
         <v>62</v>
       </c>
       <c r="N644" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O644" s="3"/>
       <c r="P644" s="56"/>
@@ -30010,7 +30013,7 @@
         <v>64</v>
       </c>
       <c r="N646" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O646" s="3"/>
       <c r="P646" s="56"/>
@@ -30127,7 +30130,7 @@
         <v>67</v>
       </c>
       <c r="N649" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O649" s="3"/>
       <c r="P649" s="56"/>
@@ -30205,7 +30208,7 @@
         <v>69</v>
       </c>
       <c r="N651" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O651" s="1"/>
       <c r="P651" s="56"/>
@@ -30321,7 +30324,7 @@
         <v>72</v>
       </c>
       <c r="N654" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O654" s="1"/>
       <c r="P654" s="56"/>
@@ -30399,7 +30402,7 @@
         <v>74</v>
       </c>
       <c r="N656" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O656" s="1" t="s">
         <v>0</v>
@@ -30414,7 +30417,7 @@
       <c r="W656" s="9"/>
       <c r="X656" s="9"/>
       <c r="Y656" s="18" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="657" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30457,7 +30460,7 @@
       <c r="W657" s="9"/>
       <c r="X657" s="9"/>
       <c r="Y657" s="58" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="658" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30522,7 +30525,7 @@
         <v>2</v>
       </c>
       <c r="N659" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O659" s="1"/>
       <c r="P659" s="56"/>
@@ -30600,7 +30603,7 @@
         <v>4</v>
       </c>
       <c r="N661" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O661" s="1" t="s">
         <v>0</v>
@@ -30615,7 +30618,7 @@
       <c r="W661" s="9"/>
       <c r="X661" s="9"/>
       <c r="Y661" s="18" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="662" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30721,7 +30724,7 @@
         <v>7</v>
       </c>
       <c r="N664" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O664" s="3"/>
       <c r="P664" s="56"/>
@@ -30799,7 +30802,7 @@
         <v>9</v>
       </c>
       <c r="N666" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O666" s="1" t="s">
         <v>0</v>
@@ -30814,7 +30817,7 @@
       <c r="W666" s="9"/>
       <c r="X666" s="9"/>
       <c r="Y666" s="18" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="667" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30917,7 +30920,7 @@
         <v>12</v>
       </c>
       <c r="N669" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O669" s="1"/>
       <c r="P669" s="56"/>
@@ -30993,7 +30996,7 @@
         <v>14</v>
       </c>
       <c r="N671" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O671" s="1"/>
       <c r="P671" s="56"/>
@@ -31006,7 +31009,7 @@
       <c r="W671" s="9"/>
       <c r="X671" s="9"/>
       <c r="Y671" s="18" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="672" spans="4:25" x14ac:dyDescent="0.25">
@@ -31109,7 +31112,7 @@
         <v>17</v>
       </c>
       <c r="N674" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O674" s="1" t="s">
         <v>0</v>
@@ -31124,7 +31127,7 @@
       <c r="W674" s="9"/>
       <c r="X674" s="9"/>
       <c r="Y674" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="675" spans="5:25" x14ac:dyDescent="0.25">
@@ -31189,7 +31192,7 @@
         <v>19</v>
       </c>
       <c r="N676" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O676" s="1" t="s">
         <v>0</v>
@@ -31204,7 +31207,7 @@
       <c r="W676" s="9"/>
       <c r="X676" s="9"/>
       <c r="Y676" s="18" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="677" spans="5:25" x14ac:dyDescent="0.25">
@@ -31307,7 +31310,7 @@
         <v>22</v>
       </c>
       <c r="N679" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O679" s="1" t="s">
         <v>0</v>
@@ -31322,7 +31325,7 @@
       <c r="W679" s="9"/>
       <c r="X679" s="9"/>
       <c r="Y679" s="18" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="680" spans="5:25" x14ac:dyDescent="0.25">
@@ -31387,7 +31390,7 @@
         <v>24</v>
       </c>
       <c r="N681" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O681" s="1"/>
       <c r="P681" s="56"/>
@@ -31500,7 +31503,7 @@
         <v>27</v>
       </c>
       <c r="N684" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O684" s="1" t="s">
         <v>0</v>
@@ -31515,7 +31518,7 @@
       <c r="W684" s="9"/>
       <c r="X684" s="9"/>
       <c r="Y684" s="18" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="685" spans="5:25" x14ac:dyDescent="0.25">
@@ -31579,7 +31582,7 @@
         <v>29</v>
       </c>
       <c r="N686" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O686" s="1" t="s">
         <v>0</v>
@@ -31594,7 +31597,7 @@
       <c r="W686" s="9"/>
       <c r="X686" s="9"/>
       <c r="Y686" s="18" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="687" spans="5:25" x14ac:dyDescent="0.25">
@@ -31697,7 +31700,7 @@
         <v>32</v>
       </c>
       <c r="N689" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O689" s="1"/>
       <c r="P689" s="56"/>
@@ -31772,7 +31775,7 @@
         <v>34</v>
       </c>
       <c r="N691" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P691" s="56"/>
       <c r="Q691" s="9"/>
@@ -31885,7 +31888,7 @@
         <v>37</v>
       </c>
       <c r="N694" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O694" s="1"/>
       <c r="P694" s="56"/>
@@ -31961,7 +31964,7 @@
         <v>39</v>
       </c>
       <c r="N696" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O696" s="1"/>
       <c r="P696" s="56"/>
@@ -32075,7 +32078,7 @@
         <v>42</v>
       </c>
       <c r="N699" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O699" s="1"/>
       <c r="P699" s="56"/>
@@ -32151,7 +32154,7 @@
         <v>44</v>
       </c>
       <c r="N701" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O701" s="1"/>
       <c r="P701" s="56"/>
@@ -32265,7 +32268,7 @@
         <v>47</v>
       </c>
       <c r="N704" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P704" s="56"/>
       <c r="Q704" s="9"/>
@@ -32339,7 +32342,7 @@
         <v>49</v>
       </c>
       <c r="N706" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O706" s="1"/>
       <c r="P706" s="56"/>
@@ -32452,7 +32455,7 @@
         <v>52</v>
       </c>
       <c r="N709" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O709" s="1"/>
       <c r="P709" s="56"/>
@@ -32528,7 +32531,7 @@
         <v>54</v>
       </c>
       <c r="N711" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P711" s="56"/>
       <c r="Q711" s="9"/>
@@ -32641,7 +32644,7 @@
         <v>57</v>
       </c>
       <c r="N714" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O714" s="1"/>
       <c r="P714" s="56"/>
@@ -32717,7 +32720,7 @@
         <v>59</v>
       </c>
       <c r="N716" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P716" s="56"/>
       <c r="Q716" s="9"/>
@@ -32828,7 +32831,7 @@
         <v>62</v>
       </c>
       <c r="N719" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P719" s="56"/>
       <c r="Q719" s="9"/>
@@ -32902,7 +32905,7 @@
         <v>64</v>
       </c>
       <c r="N721" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O721" s="1" t="s">
         <v>0</v>
@@ -32917,7 +32920,7 @@
       <c r="W721" s="9"/>
       <c r="X721" s="9"/>
       <c r="Y721" s="18" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="722" spans="5:25" x14ac:dyDescent="0.25">
@@ -33018,7 +33021,7 @@
         <v>67</v>
       </c>
       <c r="N724" s="18" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="P724" s="56"/>
       <c r="Q724" s="9"/>
@@ -33092,7 +33095,7 @@
         <v>69</v>
       </c>
       <c r="N726" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O726" s="1" t="s">
         <v>0</v>
@@ -33107,7 +33110,7 @@
       <c r="W726" s="9"/>
       <c r="X726" s="9"/>
       <c r="Y726" s="18" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="727" spans="5:25" x14ac:dyDescent="0.25">
@@ -33210,7 +33213,7 @@
         <v>72</v>
       </c>
       <c r="N729" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O729" s="1"/>
       <c r="P729" s="56"/>
@@ -33285,7 +33288,7 @@
         <v>74</v>
       </c>
       <c r="N731" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P731" s="56"/>
       <c r="Q731" s="9"/>
@@ -33396,7 +33399,7 @@
         <v>77</v>
       </c>
       <c r="N734" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P734" s="56"/>
       <c r="Q734" s="9"/>
@@ -33470,7 +33473,7 @@
         <v>79</v>
       </c>
       <c r="N736" s="18" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="O736" s="1" t="s">
         <v>0</v>
@@ -33485,7 +33488,7 @@
       <c r="W736" s="9"/>
       <c r="X736" s="9"/>
       <c r="Y736" s="18" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="737" spans="5:25" x14ac:dyDescent="0.25">
@@ -33527,7 +33530,7 @@
       <c r="W737" s="9"/>
       <c r="X737" s="9"/>
       <c r="Y737" s="58" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="738" spans="5:25" x14ac:dyDescent="0.25">
@@ -33589,7 +33592,7 @@
         <v>2</v>
       </c>
       <c r="N739" s="18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P739" s="56"/>
       <c r="Q739" s="9"/>
@@ -33776,7 +33779,7 @@
         <v>7</v>
       </c>
       <c r="N744" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O744" s="1"/>
       <c r="P744" s="56"/>
@@ -33852,7 +33855,7 @@
         <v>9</v>
       </c>
       <c r="N746" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O746" s="1"/>
       <c r="P746" s="56"/>
@@ -33966,7 +33969,7 @@
         <v>12</v>
       </c>
       <c r="N749" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O749" s="1"/>
       <c r="P749" s="56"/>
@@ -34042,7 +34045,7 @@
         <v>14</v>
       </c>
       <c r="N751" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O751" s="1" t="s">
         <v>0</v>
@@ -34057,7 +34060,7 @@
       <c r="W751" s="9"/>
       <c r="X751" s="9"/>
       <c r="Y751" s="18" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="752" spans="5:25" x14ac:dyDescent="0.25">
@@ -34158,7 +34161,7 @@
         <v>17</v>
       </c>
       <c r="N754" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P754" s="56"/>
       <c r="Q754" s="9"/>
@@ -34232,7 +34235,7 @@
         <v>19</v>
       </c>
       <c r="N756" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P756" s="56"/>
       <c r="Q756" s="9"/>
@@ -34343,7 +34346,7 @@
         <v>22</v>
       </c>
       <c r="N759" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O759" s="1" t="s">
         <v>0</v>
@@ -34354,13 +34357,13 @@
       <c r="S759" s="9"/>
       <c r="T759" s="9"/>
       <c r="U759" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="V759" s="9"/>
       <c r="W759" s="9"/>
       <c r="X759" s="9"/>
       <c r="Y759" s="18" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="760" spans="5:25" x14ac:dyDescent="0.25">
@@ -34424,7 +34427,7 @@
         <v>24</v>
       </c>
       <c r="N761" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O761" s="1" t="s">
         <v>0</v>
@@ -34439,7 +34442,7 @@
       <c r="W761" s="9"/>
       <c r="X761" s="9"/>
       <c r="Y761" s="18" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="762" spans="5:25" x14ac:dyDescent="0.25">
@@ -34540,7 +34543,7 @@
         <v>27</v>
       </c>
       <c r="N764" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="P764" s="56"/>
       <c r="Q764" s="9"/>
@@ -34614,7 +34617,7 @@
         <v>29</v>
       </c>
       <c r="N766" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P766" s="56"/>
       <c r="Q766" s="9"/>
@@ -34725,7 +34728,7 @@
         <v>32</v>
       </c>
       <c r="N769" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P769" s="56"/>
       <c r="Q769" s="9"/>
@@ -34762,7 +34765,7 @@
         <v>33</v>
       </c>
       <c r="N770" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O770" s="1" t="s">
         <v>0</v>
@@ -34777,7 +34780,7 @@
       <c r="W770" s="9"/>
       <c r="X770" s="9"/>
       <c r="Y770" s="18" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="771" spans="5:25" x14ac:dyDescent="0.25">
@@ -34842,7 +34845,7 @@
         <v>35</v>
       </c>
       <c r="N772" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O772" s="1"/>
       <c r="P772" s="56"/>
@@ -34918,7 +34921,7 @@
         <v>37</v>
       </c>
       <c r="N774" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O774" s="1" t="s">
         <v>0</v>
@@ -34933,7 +34936,7 @@
       <c r="W774" s="9"/>
       <c r="X774" s="9"/>
       <c r="Y774" s="18" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="775" spans="5:25" x14ac:dyDescent="0.25">
@@ -34998,7 +35001,7 @@
         <v>39</v>
       </c>
       <c r="N776" s="18" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="O776" s="1" t="s">
         <v>0</v>
@@ -35013,7 +35016,7 @@
       <c r="W776" s="9"/>
       <c r="X776" s="9"/>
       <c r="Y776" s="18" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="777" spans="5:25" x14ac:dyDescent="0.25">
@@ -35114,7 +35117,7 @@
         <v>42</v>
       </c>
       <c r="N779" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O779" s="1" t="s">
         <v>0</v>
@@ -35129,7 +35132,7 @@
       <c r="W779" s="9"/>
       <c r="X779" s="9"/>
       <c r="Y779" s="18" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="780" spans="5:25" x14ac:dyDescent="0.25">
@@ -35193,7 +35196,7 @@
         <v>44</v>
       </c>
       <c r="N781" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O781" s="1" t="s">
         <v>0</v>
@@ -35208,7 +35211,7 @@
       <c r="W781" s="9"/>
       <c r="X781" s="9"/>
       <c r="Y781" s="18" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="782" spans="5:25" x14ac:dyDescent="0.25">
@@ -35309,7 +35312,7 @@
         <v>47</v>
       </c>
       <c r="N784" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P784" s="56"/>
       <c r="Q784" s="9"/>
@@ -35383,7 +35386,7 @@
         <v>49</v>
       </c>
       <c r="N786" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O786" s="1" t="s">
         <v>0</v>
@@ -35398,7 +35401,7 @@
       <c r="W786" s="9"/>
       <c r="X786" s="9"/>
       <c r="Y786" s="18" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="787" spans="4:25" x14ac:dyDescent="0.25">
@@ -35499,7 +35502,7 @@
         <v>52</v>
       </c>
       <c r="N789" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O789" s="1"/>
       <c r="P789" s="56"/>
@@ -35576,7 +35579,7 @@
         <v>54</v>
       </c>
       <c r="N791" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O791" s="1"/>
       <c r="P791" s="56"/>
@@ -35689,7 +35692,7 @@
         <v>57</v>
       </c>
       <c r="N794" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O794" s="1"/>
       <c r="P794" s="56"/>
@@ -35764,7 +35767,7 @@
         <v>59</v>
       </c>
       <c r="N796" s="49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P796" s="56"/>
       <c r="Q796" s="9"/>
@@ -35875,7 +35878,7 @@
         <v>62</v>
       </c>
       <c r="N799" s="18" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="O799" s="1" t="s">
         <v>0</v>
@@ -35890,7 +35893,7 @@
       <c r="W799" s="9"/>
       <c r="X799" s="9"/>
       <c r="Y799" s="18" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="800" spans="4:25" x14ac:dyDescent="0.25">
@@ -35954,7 +35957,7 @@
         <v>64</v>
       </c>
       <c r="N801" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O801" s="1" t="s">
         <v>0</v>
@@ -35969,7 +35972,7 @@
       <c r="W801" s="9"/>
       <c r="X801" s="9"/>
       <c r="Y801" s="18" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="802" spans="5:25" x14ac:dyDescent="0.25">
@@ -36070,7 +36073,7 @@
         <v>67</v>
       </c>
       <c r="N804" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O804" s="1" t="s">
         <v>0</v>
@@ -36085,7 +36088,7 @@
       <c r="W804" s="9"/>
       <c r="X804" s="9"/>
       <c r="Y804" s="18" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="805" spans="5:25" x14ac:dyDescent="0.25">
@@ -36149,7 +36152,7 @@
         <v>69</v>
       </c>
       <c r="N806" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O806" s="1" t="s">
         <v>0</v>
@@ -36164,7 +36167,7 @@
       <c r="W806" s="9"/>
       <c r="X806" s="9"/>
       <c r="Y806" s="18" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="807" spans="5:25" x14ac:dyDescent="0.25">
@@ -36265,7 +36268,7 @@
         <v>72</v>
       </c>
       <c r="N809" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P809" s="56"/>
       <c r="Q809" s="9"/>
@@ -36339,7 +36342,7 @@
         <v>74</v>
       </c>
       <c r="N811" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="P811" s="56"/>
       <c r="Q811" s="9"/>
@@ -36452,7 +36455,7 @@
         <v>77</v>
       </c>
       <c r="N814" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O814" s="1"/>
       <c r="P814" s="56"/>
@@ -36528,7 +36531,7 @@
         <v>79</v>
       </c>
       <c r="N816" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O816" s="1" t="s">
         <v>0</v>
@@ -36543,7 +36546,7 @@
       <c r="W816" s="9"/>
       <c r="X816" s="9"/>
       <c r="Y816" s="18" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="817" spans="5:25" x14ac:dyDescent="0.25">
@@ -36585,7 +36588,7 @@
       <c r="W817" s="9"/>
       <c r="X817" s="9"/>
       <c r="Y817" s="58" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="818" spans="5:25" x14ac:dyDescent="0.25">
@@ -36647,7 +36650,7 @@
         <v>2</v>
       </c>
       <c r="N819" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P819" s="56"/>
       <c r="Q819" s="9"/>
@@ -36721,7 +36724,7 @@
         <v>4</v>
       </c>
       <c r="N821" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O821" s="1" t="s">
         <v>0</v>
@@ -36736,7 +36739,7 @@
       <c r="W821" s="9"/>
       <c r="X821" s="9"/>
       <c r="Y821" s="18" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="822" spans="5:25" x14ac:dyDescent="0.25">
@@ -36837,7 +36840,7 @@
         <v>7</v>
       </c>
       <c r="N824" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P824" s="56"/>
       <c r="Q824" s="9"/>
@@ -36911,7 +36914,7 @@
         <v>9</v>
       </c>
       <c r="N826" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P826" s="56"/>
       <c r="Q826" s="9"/>
@@ -37022,7 +37025,7 @@
         <v>12</v>
       </c>
       <c r="N829" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P829" s="56"/>
       <c r="Q829" s="9"/>
@@ -37096,7 +37099,7 @@
         <v>14</v>
       </c>
       <c r="N831" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="P831" s="56"/>
       <c r="Q831" s="9"/>
@@ -37209,7 +37212,7 @@
         <v>17</v>
       </c>
       <c r="N834" s="18" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O834" s="1" t="s">
         <v>0</v>
@@ -37224,7 +37227,7 @@
       <c r="W834" s="9"/>
       <c r="X834" s="9"/>
       <c r="Y834" s="18" t="s">
-        <v>764</v>
+        <v>891</v>
       </c>
     </row>
     <row r="835" spans="4:25" x14ac:dyDescent="0.25">
@@ -37289,7 +37292,7 @@
         <v>19</v>
       </c>
       <c r="N836" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O836" s="1"/>
       <c r="P836" s="56"/>
@@ -37403,7 +37406,7 @@
         <v>22</v>
       </c>
       <c r="N839" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O839" s="1"/>
       <c r="P839" s="56"/>
@@ -37479,7 +37482,7 @@
         <v>24</v>
       </c>
       <c r="N841" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O841" s="1"/>
       <c r="P841" s="56"/>
@@ -37591,7 +37594,7 @@
         <v>27</v>
       </c>
       <c r="N844" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P844" s="56"/>
       <c r="Q844" s="9"/>
@@ -37665,7 +37668,7 @@
         <v>29</v>
       </c>
       <c r="N846" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O846" s="1" t="s">
         <v>0</v>
@@ -37680,7 +37683,7 @@
       <c r="W846" s="9"/>
       <c r="X846" s="9"/>
       <c r="Y846" s="18" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="847" spans="4:25" x14ac:dyDescent="0.25">
@@ -37782,7 +37785,7 @@
         <v>32</v>
       </c>
       <c r="N849" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O849" s="1"/>
       <c r="P849" s="56"/>
@@ -37858,7 +37861,7 @@
         <v>34</v>
       </c>
       <c r="N851" s="18" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="O851" s="1" t="s">
         <v>0</v>
@@ -37873,7 +37876,7 @@
       <c r="W851" s="9"/>
       <c r="X851" s="9"/>
       <c r="Y851" s="18" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="852" spans="5:25" x14ac:dyDescent="0.25">
@@ -37976,7 +37979,7 @@
         <v>37</v>
       </c>
       <c r="N854" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O854" s="1"/>
       <c r="P854" s="56"/>
@@ -38052,7 +38055,7 @@
         <v>39</v>
       </c>
       <c r="N856" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O856" s="1"/>
       <c r="P856" s="56"/>
@@ -38165,7 +38168,7 @@
         <v>42</v>
       </c>
       <c r="N859" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P859" s="56"/>
       <c r="Q859" s="9"/>
@@ -38239,7 +38242,7 @@
         <v>44</v>
       </c>
       <c r="N861" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P861" s="56"/>
       <c r="Q861" s="9"/>
@@ -38351,7 +38354,7 @@
         <v>47</v>
       </c>
       <c r="N864" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O864" s="1"/>
       <c r="P864" s="56"/>
@@ -38427,7 +38430,7 @@
         <v>49</v>
       </c>
       <c r="N866" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O866" s="1"/>
       <c r="P866" s="56"/>
@@ -38539,7 +38542,7 @@
         <v>52</v>
       </c>
       <c r="N869" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P869" s="56"/>
       <c r="Q869" s="9"/>
@@ -38613,7 +38616,7 @@
         <v>54</v>
       </c>
       <c r="N871" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P871" s="56"/>
       <c r="Q871" s="9"/>
@@ -38724,7 +38727,7 @@
         <v>57</v>
       </c>
       <c r="N874" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P874" s="56"/>
       <c r="Q874" s="9"/>
@@ -38798,7 +38801,7 @@
         <v>59</v>
       </c>
       <c r="N876" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O876" s="1" t="s">
         <v>0</v>
@@ -38813,7 +38816,7 @@
       <c r="W876" s="9"/>
       <c r="X876" s="9"/>
       <c r="Y876" s="18" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="877" spans="5:25" x14ac:dyDescent="0.25">
@@ -38916,7 +38919,7 @@
         <v>62</v>
       </c>
       <c r="N879" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O879" s="1" t="s">
         <v>0</v>
@@ -38931,7 +38934,7 @@
       <c r="W879" s="9"/>
       <c r="X879" s="9"/>
       <c r="Y879" s="18" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="880" spans="5:25" x14ac:dyDescent="0.25">
@@ -38996,7 +38999,7 @@
         <v>64</v>
       </c>
       <c r="N881" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O881" s="1" t="s">
         <v>0</v>
@@ -39011,7 +39014,7 @@
       <c r="W881" s="9"/>
       <c r="X881" s="9"/>
       <c r="Y881" s="18" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="882" spans="5:25" x14ac:dyDescent="0.25">
@@ -39114,7 +39117,7 @@
         <v>67</v>
       </c>
       <c r="N884" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O884" s="1" t="s">
         <v>0</v>
@@ -39129,7 +39132,7 @@
       <c r="W884" s="9"/>
       <c r="X884" s="9"/>
       <c r="Y884" s="18" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="885" spans="5:25" x14ac:dyDescent="0.25">
@@ -39194,7 +39197,7 @@
         <v>69</v>
       </c>
       <c r="N886" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O886" s="1" t="s">
         <v>0</v>
@@ -39209,7 +39212,7 @@
       <c r="W886" s="9"/>
       <c r="X886" s="9"/>
       <c r="Y886" s="18" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="887" spans="5:25" x14ac:dyDescent="0.25">
@@ -39350,7 +39353,7 @@
         <v>73</v>
       </c>
       <c r="N890" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O890" s="1"/>
       <c r="P890" s="56"/>
@@ -39388,7 +39391,7 @@
         <v>74</v>
       </c>
       <c r="N891" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P891" s="56"/>
       <c r="Q891" s="9"/>
@@ -39425,7 +39428,7 @@
         <v>75</v>
       </c>
       <c r="N892" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P892" s="56"/>
       <c r="Q892" s="9"/>
@@ -39499,7 +39502,7 @@
         <v>77</v>
       </c>
       <c r="N894" s="18" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="P894" s="56"/>
       <c r="Q894" s="9"/>
@@ -39511,7 +39514,7 @@
       <c r="W894" s="9"/>
       <c r="X894" s="9"/>
       <c r="Y894" s="18" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="895" spans="5:25" x14ac:dyDescent="0.25">
@@ -39575,7 +39578,7 @@
         <v>79</v>
       </c>
       <c r="N896" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O896" s="1" t="s">
         <v>0</v>
@@ -39590,7 +39593,7 @@
       <c r="W896" s="9"/>
       <c r="X896" s="9"/>
       <c r="Y896" s="18" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="897" spans="5:25" x14ac:dyDescent="0.25">
@@ -39654,7 +39657,7 @@
         <v>81</v>
       </c>
       <c r="N898" s="18" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="O898" s="1" t="s">
         <v>0</v>
@@ -39669,7 +39672,7 @@
       <c r="W898" s="9"/>
       <c r="X898" s="9"/>
       <c r="Y898" s="18" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="899" spans="5:25" x14ac:dyDescent="0.25">
@@ -39733,7 +39736,7 @@
         <v>83</v>
       </c>
       <c r="N900" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O900" s="1" t="s">
         <v>0</v>
@@ -39750,7 +39753,7 @@
       <c r="W900" s="9"/>
       <c r="X900" s="9"/>
       <c r="Y900" s="18" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="901" spans="5:25" x14ac:dyDescent="0.25">
@@ -39775,7 +39778,7 @@
         <v>1</v>
       </c>
       <c r="N901" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O901" s="1"/>
       <c r="P901" s="56"/>
@@ -39813,7 +39816,7 @@
         <v>2</v>
       </c>
       <c r="N902" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O902" s="1"/>
       <c r="P902" s="56"/>
@@ -39822,7 +39825,7 @@
       <c r="S902" s="9"/>
       <c r="T902" s="9"/>
       <c r="U902" s="9" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="V902" s="9"/>
       <c r="W902" s="9"/>
@@ -39853,7 +39856,7 @@
         <v>3</v>
       </c>
       <c r="N903" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O903" s="1"/>
       <c r="P903" s="56"/>
@@ -39891,7 +39894,7 @@
         <v>4</v>
       </c>
       <c r="N904" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O904" s="1"/>
       <c r="P904" s="56"/>
@@ -39929,7 +39932,7 @@
         <v>5</v>
       </c>
       <c r="N905" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O905" s="1" t="s">
         <v>0</v>
@@ -39946,7 +39949,7 @@
       <c r="W905" s="9"/>
       <c r="X905" s="9"/>
       <c r="Y905" s="18" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="906" spans="5:25" x14ac:dyDescent="0.25">
@@ -39973,7 +39976,7 @@
         <v>6</v>
       </c>
       <c r="N906" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O906" s="1"/>
       <c r="P906" s="56"/>
@@ -40011,7 +40014,7 @@
         <v>7</v>
       </c>
       <c r="N907" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O907" s="1"/>
       <c r="P907" s="56"/>
@@ -40049,7 +40052,7 @@
         <v>8</v>
       </c>
       <c r="N908" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O908" s="1"/>
       <c r="P908" s="56"/>
@@ -40163,7 +40166,7 @@
         <v>11</v>
       </c>
       <c r="N911" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P911" s="56"/>
       <c r="Q911" s="9"/>
@@ -40237,7 +40240,7 @@
         <v>13</v>
       </c>
       <c r="N913" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P913" s="56"/>
       <c r="Q913" s="9"/>
@@ -40245,7 +40248,7 @@
       <c r="S913" s="9"/>
       <c r="T913" s="9"/>
       <c r="U913" s="9" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="V913" s="9"/>
       <c r="W913" s="9"/>
@@ -40276,7 +40279,7 @@
         <v>14</v>
       </c>
       <c r="N914" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O914" s="3" t="s">
         <v>17</v>
@@ -40291,7 +40294,7 @@
       <c r="W914" s="9"/>
       <c r="X914" s="9"/>
       <c r="Y914" s="18" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="915" spans="5:25" x14ac:dyDescent="0.25">
@@ -40355,7 +40358,7 @@
         <v>16</v>
       </c>
       <c r="N916" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P916" s="56"/>
       <c r="Q916" s="9"/>
@@ -40392,7 +40395,7 @@
         <v>17</v>
       </c>
       <c r="N917" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P917" s="56"/>
       <c r="Q917" s="9"/>
@@ -40429,7 +40432,7 @@
         <v>18</v>
       </c>
       <c r="N918" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P918" s="56" t="s">
         <v>18</v>
@@ -40443,7 +40446,7 @@
       <c r="W918" s="9"/>
       <c r="X918" s="9"/>
       <c r="Y918" s="58" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="919" spans="5:25" x14ac:dyDescent="0.25">
@@ -40507,7 +40510,7 @@
         <v>20</v>
       </c>
       <c r="N920" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P920" s="56"/>
       <c r="Q920" s="9"/>
@@ -40694,7 +40697,7 @@
         <v>25</v>
       </c>
       <c r="N925" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O925" s="1" t="s">
         <v>0</v>
@@ -40711,7 +40714,7 @@
       <c r="W925" s="9"/>
       <c r="X925" s="9"/>
       <c r="Y925" s="18" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="926" spans="5:25" x14ac:dyDescent="0.25">
@@ -40776,7 +40779,7 @@
         <v>27</v>
       </c>
       <c r="N927" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O927" s="1"/>
       <c r="P927" s="56"/>
@@ -40814,7 +40817,7 @@
         <v>28</v>
       </c>
       <c r="N928" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O928" s="1"/>
       <c r="P928" s="56"/>
@@ -40928,7 +40931,7 @@
         <v>31</v>
       </c>
       <c r="N931" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O931" s="1"/>
       <c r="P931" s="56"/>
@@ -40966,7 +40969,7 @@
         <v>32</v>
       </c>
       <c r="N932" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O932" s="1"/>
       <c r="P932" s="56" t="s">
@@ -40981,7 +40984,7 @@
       <c r="W932" s="9"/>
       <c r="X932" s="9"/>
       <c r="Y932" s="58" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="933" spans="5:25" x14ac:dyDescent="0.25">
@@ -41083,7 +41086,7 @@
         <v>35</v>
       </c>
       <c r="N935" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P935" s="56"/>
       <c r="Q935" s="9"/>
@@ -41120,7 +41123,7 @@
         <v>36</v>
       </c>
       <c r="N936" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P936" s="56"/>
       <c r="Q936" s="9"/>
@@ -41157,7 +41160,7 @@
         <v>37</v>
       </c>
       <c r="N937" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O937" s="1" t="s">
         <v>0</v>
@@ -41172,7 +41175,7 @@
       <c r="W937" s="9"/>
       <c r="X937" s="9"/>
       <c r="Y937" s="18" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="938" spans="5:25" x14ac:dyDescent="0.25">
@@ -41199,7 +41202,7 @@
         <v>38</v>
       </c>
       <c r="N938" s="18" t="s">
-        <v>137</v>
+        <v>892</v>
       </c>
       <c r="O938" s="3" t="s">
         <v>1</v>
@@ -41239,7 +41242,7 @@
         <v>39</v>
       </c>
       <c r="N939" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="P939" s="56"/>
       <c r="Q939" s="9"/>
@@ -41276,7 +41279,7 @@
         <v>40</v>
       </c>
       <c r="N940" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P940" s="56" t="s">
         <v>18</v>
@@ -41290,7 +41293,7 @@
       <c r="W940" s="9"/>
       <c r="X940" s="9"/>
       <c r="Y940" s="58" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="941" spans="5:25" x14ac:dyDescent="0.25">
@@ -41391,7 +41394,7 @@
         <v>43</v>
       </c>
       <c r="N943" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P943" s="56"/>
       <c r="Q943" s="9"/>
@@ -41436,7 +41439,7 @@
       <c r="S944" s="9"/>
       <c r="T944" s="9"/>
       <c r="U944" s="9" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V944" s="9"/>
       <c r="W944" s="9"/>
@@ -41467,7 +41470,7 @@
         <v>45</v>
       </c>
       <c r="N945" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O945" s="1" t="s">
         <v>0</v>
@@ -41482,7 +41485,7 @@
       <c r="W945" s="9"/>
       <c r="X945" s="9"/>
       <c r="Y945" s="18" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="946" spans="5:25" x14ac:dyDescent="0.25">
@@ -41509,7 +41512,7 @@
         <v>46</v>
       </c>
       <c r="N946" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O946" s="1" t="s">
         <v>0</v>
@@ -41524,7 +41527,7 @@
       <c r="W946" s="9"/>
       <c r="X946" s="9"/>
       <c r="Y946" s="18" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="947" spans="5:25" x14ac:dyDescent="0.25">
@@ -41551,7 +41554,7 @@
         <v>47</v>
       </c>
       <c r="N947" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O947" s="1"/>
       <c r="P947" s="56"/>
@@ -41589,7 +41592,7 @@
         <v>48</v>
       </c>
       <c r="N948" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O948" s="1"/>
       <c r="P948" s="56"/>
@@ -41627,7 +41630,7 @@
         <v>49</v>
       </c>
       <c r="N949" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O949" s="1"/>
       <c r="P949" s="56"/>
@@ -41665,7 +41668,7 @@
         <v>50</v>
       </c>
       <c r="N950" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O950" s="1"/>
       <c r="P950" s="56"/>
@@ -41674,7 +41677,7 @@
       <c r="S950" s="9"/>
       <c r="T950" s="9"/>
       <c r="U950" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="V950" s="9"/>
       <c r="W950" s="9"/>
@@ -41704,7 +41707,7 @@
         <v>51</v>
       </c>
       <c r="N951" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O951" s="1" t="s">
         <v>0</v>
@@ -41721,7 +41724,7 @@
       <c r="W951" s="9"/>
       <c r="X951" s="9"/>
       <c r="Y951" s="18" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="952" spans="5:25" x14ac:dyDescent="0.25">
@@ -41748,14 +41751,14 @@
         <v>52</v>
       </c>
       <c r="N952" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O952" s="1"/>
       <c r="P952" s="56"/>
       <c r="Q952" s="9"/>
       <c r="R952" s="9"/>
       <c r="S952" s="9" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="T952" s="9"/>
       <c r="U952" s="9"/>
@@ -41940,7 +41943,7 @@
         <v>57</v>
       </c>
       <c r="N957" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O957" s="1"/>
       <c r="P957" s="56"/>
@@ -41978,7 +41981,7 @@
         <v>58</v>
       </c>
       <c r="N958" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O958" s="1"/>
       <c r="P958" s="56"/>
@@ -42016,7 +42019,7 @@
         <v>59</v>
       </c>
       <c r="N959" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O959" s="1" t="s">
         <v>0</v>
@@ -42031,7 +42034,7 @@
       <c r="W959" s="9"/>
       <c r="X959" s="9"/>
       <c r="Y959" s="18" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="960" spans="5:25" x14ac:dyDescent="0.25">
@@ -42058,7 +42061,7 @@
         <v>60</v>
       </c>
       <c r="N960" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O960" s="1"/>
       <c r="P960" s="56"/>
@@ -42096,7 +42099,7 @@
         <v>61</v>
       </c>
       <c r="N961" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O961" s="1"/>
       <c r="P961" s="56"/>
@@ -42134,7 +42137,7 @@
         <v>62</v>
       </c>
       <c r="N962" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O962" s="1"/>
       <c r="P962" s="56" t="s">
@@ -42149,7 +42152,7 @@
       <c r="W962" s="9"/>
       <c r="X962" s="9"/>
       <c r="Y962" s="58" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="963" spans="5:25" x14ac:dyDescent="0.25">
@@ -42176,7 +42179,7 @@
         <v>63</v>
       </c>
       <c r="N963" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O963" s="1"/>
       <c r="P963" s="56"/>
@@ -42214,7 +42217,7 @@
         <v>64</v>
       </c>
       <c r="N964" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O964" s="1"/>
       <c r="P964" s="56"/>
@@ -42290,7 +42293,7 @@
         <v>66</v>
       </c>
       <c r="N966" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O966" s="1"/>
       <c r="P966" s="56"/>
@@ -42366,7 +42369,7 @@
         <v>68</v>
       </c>
       <c r="N968" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P968" s="56"/>
       <c r="Q968" s="9"/>
@@ -42403,7 +42406,7 @@
         <v>69</v>
       </c>
       <c r="N969" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O969" s="1" t="s">
         <v>0</v>
@@ -42418,7 +42421,7 @@
       <c r="W969" s="9"/>
       <c r="X969" s="9"/>
       <c r="Y969" s="18" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="970" spans="5:25" x14ac:dyDescent="0.25">
@@ -42445,7 +42448,7 @@
         <v>70</v>
       </c>
       <c r="N970" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P970" s="56"/>
       <c r="Q970" s="9"/>
@@ -42482,7 +42485,7 @@
         <v>71</v>
       </c>
       <c r="N971" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P971" s="56"/>
       <c r="Q971" s="9"/>
@@ -42519,7 +42522,7 @@
         <v>72</v>
       </c>
       <c r="N972" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P972" s="56"/>
       <c r="Q972" s="9"/>
@@ -42632,7 +42635,7 @@
         <v>75</v>
       </c>
       <c r="N975" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O975" s="1" t="s">
         <v>0</v>
@@ -42649,7 +42652,7 @@
       <c r="W975" s="9"/>
       <c r="X975" s="9"/>
       <c r="Y975" s="18" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="976" spans="5:25" x14ac:dyDescent="0.25">
@@ -42752,7 +42755,7 @@
         <v>78</v>
       </c>
       <c r="N978" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O978" s="1"/>
       <c r="P978" s="56"/>
@@ -42903,7 +42906,7 @@
         <v>82</v>
       </c>
       <c r="N982" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P982" s="56"/>
       <c r="Q982" s="9"/>
@@ -42911,7 +42914,7 @@
       <c r="S982" s="9"/>
       <c r="T982" s="9"/>
       <c r="U982" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="V982" s="9"/>
       <c r="W982" s="9"/>
@@ -43016,7 +43019,7 @@
         <v>85</v>
       </c>
       <c r="N985" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P985" s="56"/>
       <c r="Q985" s="9"/>
@@ -43164,7 +43167,7 @@
         <v>89</v>
       </c>
       <c r="N989" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O989" s="1"/>
       <c r="P989" s="56" t="s">
@@ -43179,7 +43182,7 @@
       <c r="W989" s="9"/>
       <c r="X989" s="9"/>
       <c r="Y989" s="58" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="990" spans="5:25" x14ac:dyDescent="0.25">
@@ -43282,7 +43285,7 @@
         <v>92</v>
       </c>
       <c r="N992" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O992" s="1"/>
       <c r="P992" s="56"/>
@@ -43320,7 +43323,7 @@
         <v>93</v>
       </c>
       <c r="N993" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O993" s="1"/>
       <c r="P993" s="56"/>
@@ -43434,7 +43437,7 @@
         <v>96</v>
       </c>
       <c r="N996" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O996" s="1"/>
       <c r="P996" s="56"/>
@@ -43472,7 +43475,7 @@
         <v>97</v>
       </c>
       <c r="N997" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O997" s="1"/>
       <c r="P997" s="56"/>
@@ -43586,7 +43589,7 @@
         <v>100</v>
       </c>
       <c r="N1000" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O1000" s="1"/>
       <c r="P1000" s="56"/>
@@ -43660,7 +43663,7 @@
         <v>102</v>
       </c>
       <c r="N1002" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P1002" s="56" t="s">
         <v>18</v>
@@ -43674,7 +43677,7 @@
       <c r="W1002" s="9"/>
       <c r="X1002" s="9"/>
       <c r="Y1002" s="58" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1003" spans="5:25" x14ac:dyDescent="0.25">
@@ -43775,7 +43778,7 @@
         <v>105</v>
       </c>
       <c r="N1005" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P1005" s="56"/>
       <c r="Q1005" s="9"/>
@@ -43812,7 +43815,7 @@
         <v>106</v>
       </c>
       <c r="N1006" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O1006" s="1"/>
       <c r="P1006" s="56"/>
@@ -43926,7 +43929,7 @@
         <v>109</v>
       </c>
       <c r="N1009" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O1009" s="1"/>
       <c r="P1009" s="56"/>
@@ -44040,7 +44043,7 @@
         <v>112</v>
       </c>
       <c r="N1012" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O1012" s="1"/>
       <c r="P1012" s="56"/>
@@ -44154,7 +44157,7 @@
         <v>115</v>
       </c>
       <c r="N1015" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O1015" s="1"/>
       <c r="P1015" s="56"/>
@@ -44163,7 +44166,7 @@
       <c r="S1015" s="9"/>
       <c r="T1015" s="9"/>
       <c r="U1015" s="9" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="V1015" s="9"/>
       <c r="W1015" s="9"/>
@@ -44194,7 +44197,7 @@
         <v>116</v>
       </c>
       <c r="N1016" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O1016" s="1"/>
       <c r="P1016" s="56" t="s">
@@ -44209,7 +44212,7 @@
       <c r="W1016" s="9"/>
       <c r="X1016" s="9"/>
       <c r="Y1016" s="58" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1017" spans="5:25" x14ac:dyDescent="0.25">
@@ -44236,7 +44239,7 @@
         <v>117</v>
       </c>
       <c r="N1017" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O1017" s="1"/>
       <c r="P1017" s="56"/>
@@ -44387,7 +44390,7 @@
         <v>121</v>
       </c>
       <c r="N1021" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O1021" s="1"/>
       <c r="P1021" s="56"/>
@@ -44425,7 +44428,7 @@
         <v>122</v>
       </c>
       <c r="N1022" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O1022" s="1"/>
       <c r="P1022" s="56"/>
@@ -44463,7 +44466,7 @@
         <v>123</v>
       </c>
       <c r="N1023" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O1023" s="1"/>
       <c r="P1023" s="56"/>
@@ -44501,7 +44504,7 @@
         <v>124</v>
       </c>
       <c r="N1024" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O1024" s="1"/>
       <c r="P1024" s="56"/>
@@ -44539,7 +44542,7 @@
         <v>125</v>
       </c>
       <c r="N1025" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O1025" s="1"/>
       <c r="P1025" s="56"/>
@@ -44577,7 +44580,7 @@
         <v>126</v>
       </c>
       <c r="N1026" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O1026" s="1"/>
       <c r="P1026" s="56" t="s">
@@ -44592,7 +44595,7 @@
       <c r="W1026" s="9"/>
       <c r="X1026" s="9"/>
       <c r="Y1026" s="58" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1027" spans="5:25" x14ac:dyDescent="0.25">
@@ -44619,7 +44622,7 @@
         <v>127</v>
       </c>
       <c r="N1027" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O1027" s="1"/>
       <c r="P1027" s="56"/>
@@ -44657,7 +44660,7 @@
         <v>128</v>
       </c>
       <c r="N1028" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O1028" s="1"/>
       <c r="P1028" s="56"/>
@@ -44695,7 +44698,7 @@
         <v>129</v>
       </c>
       <c r="N1029" s="63" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="O1029" s="1"/>
       <c r="P1029" s="56"/>
@@ -44708,7 +44711,7 @@
       <c r="W1029" s="9"/>
       <c r="X1029" s="9"/>
       <c r="Y1029" s="18" t="s">
-        <v>618</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1030" spans="5:25" x14ac:dyDescent="0.25">
@@ -44773,7 +44776,7 @@
         <v>131</v>
       </c>
       <c r="N1031" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O1031" s="1" t="s">
         <v>0</v>
@@ -44788,7 +44791,7 @@
       <c r="W1031" s="9"/>
       <c r="X1031" s="9"/>
       <c r="Y1031" s="18" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1032" spans="5:25" x14ac:dyDescent="0.25">
@@ -44815,7 +44818,7 @@
         <v>132</v>
       </c>
       <c r="N1032" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O1032" s="1" t="s">
         <v>0</v>
@@ -44830,7 +44833,7 @@
       <c r="W1032" s="9"/>
       <c r="X1032" s="9"/>
       <c r="Y1032" s="18" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1033" spans="5:25" x14ac:dyDescent="0.25">
@@ -44857,7 +44860,7 @@
         <v>133</v>
       </c>
       <c r="N1033" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P1033" s="56"/>
       <c r="Q1033" s="9"/>
@@ -44894,7 +44897,7 @@
         <v>134</v>
       </c>
       <c r="N1034" s="18" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="O1034" s="3" t="s">
         <v>17</v>
@@ -44905,13 +44908,13 @@
       <c r="S1034" s="9"/>
       <c r="T1034" s="9"/>
       <c r="U1034" s="9" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="V1034" s="9"/>
       <c r="W1034" s="9"/>
       <c r="X1034" s="9"/>
       <c r="Y1034" s="18" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1035" spans="5:25" x14ac:dyDescent="0.25">
@@ -44938,7 +44941,7 @@
         <v>135</v>
       </c>
       <c r="N1035" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P1035" s="56"/>
       <c r="Q1035" s="9"/>
@@ -44985,13 +44988,13 @@
       <c r="S1036" s="9"/>
       <c r="T1036" s="9"/>
       <c r="U1036" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="V1036" s="9"/>
       <c r="W1036" s="9"/>
       <c r="X1036" s="9"/>
       <c r="Y1036" s="58" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1037" spans="5:25" x14ac:dyDescent="0.25">
@@ -45018,13 +45021,13 @@
         <v>137</v>
       </c>
       <c r="N1037" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P1037" s="56"/>
       <c r="Q1037" s="9"/>
       <c r="R1037" s="9"/>
       <c r="S1037" s="9" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="T1037" s="9"/>
       <c r="U1037" s="9"/>
@@ -45134,7 +45137,7 @@
         <v>97</v>
       </c>
       <c r="O1040" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P1040" s="56"/>
       <c r="Q1040" s="9"/>
@@ -45142,7 +45145,7 @@
       <c r="S1040" s="9"/>
       <c r="T1040" s="9"/>
       <c r="U1040" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="V1040" s="9"/>
       <c r="W1040" s="9"/>
@@ -45210,7 +45213,7 @@
         <v>142</v>
       </c>
       <c r="N1042" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P1042" s="56"/>
       <c r="Q1042" s="9"/>
@@ -45247,7 +45250,7 @@
         <v>143</v>
       </c>
       <c r="N1043" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P1043" s="56"/>
       <c r="Q1043" s="9"/>
@@ -45284,13 +45287,13 @@
         <v>144</v>
       </c>
       <c r="N1044" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P1044" s="56"/>
       <c r="Q1044" s="9"/>
       <c r="R1044" s="9"/>
       <c r="S1044" s="9" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="T1044" s="9"/>
       <c r="U1044" s="9"/>
@@ -45397,7 +45400,7 @@
         <v>147</v>
       </c>
       <c r="N1047" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P1047" s="56"/>
       <c r="Q1047" s="9"/>
@@ -45434,7 +45437,7 @@
         <v>148</v>
       </c>
       <c r="N1048" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O1048" s="1"/>
       <c r="P1048" s="56"/>
@@ -45472,7 +45475,7 @@
         <v>149</v>
       </c>
       <c r="N1049" s="18" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="O1049" s="1" t="s">
         <v>0</v>
@@ -45489,7 +45492,7 @@
       <c r="W1049" s="9"/>
       <c r="X1049" s="9"/>
       <c r="Y1049" s="64" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1050" spans="5:25" x14ac:dyDescent="0.25">
@@ -45516,7 +45519,7 @@
         <v>150</v>
       </c>
       <c r="N1050" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O1050" s="1"/>
       <c r="P1050" s="56"/>
@@ -45553,7 +45556,7 @@
         <v>151</v>
       </c>
       <c r="N1051" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O1051" s="1"/>
       <c r="P1051" s="56"/>
@@ -45591,7 +45594,7 @@
         <v>152</v>
       </c>
       <c r="N1052" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O1052" s="1" t="s">
         <v>0</v>
@@ -45606,7 +45609,7 @@
       <c r="W1052" s="9"/>
       <c r="X1052" s="9"/>
       <c r="Y1052" s="58" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1053" spans="5:25" x14ac:dyDescent="0.25">
@@ -45633,7 +45636,7 @@
         <v>153</v>
       </c>
       <c r="N1053" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P1053" s="56"/>
       <c r="Q1053" s="9"/>
@@ -45670,7 +45673,7 @@
         <v>154</v>
       </c>
       <c r="N1054" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P1054" s="56"/>
       <c r="Q1054" s="9"/>
@@ -45707,7 +45710,7 @@
         <v>155</v>
       </c>
       <c r="N1055" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P1055" s="56"/>
       <c r="Q1055" s="9"/>
@@ -45744,7 +45747,7 @@
         <v>156</v>
       </c>
       <c r="N1056" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P1056" s="56"/>
       <c r="Q1056" s="9"/>
@@ -45781,7 +45784,7 @@
         <v>157</v>
       </c>
       <c r="N1057" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P1057" s="56"/>
       <c r="Q1057" s="9"/>
@@ -45818,7 +45821,7 @@
         <v>158</v>
       </c>
       <c r="N1058" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P1058" s="56" t="s">
         <v>18</v>
@@ -45832,7 +45835,7 @@
       <c r="W1058" s="9"/>
       <c r="X1058" s="9"/>
       <c r="Y1058" s="58" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1059" spans="5:25" x14ac:dyDescent="0.25">
@@ -45859,13 +45862,13 @@
         <v>159</v>
       </c>
       <c r="N1059" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P1059" s="56"/>
       <c r="Q1059" s="9"/>
       <c r="R1059" s="9"/>
       <c r="S1059" s="9" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="T1059" s="9"/>
       <c r="U1059" s="9"/>
@@ -45898,7 +45901,7 @@
         <v>160</v>
       </c>
       <c r="N1060" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P1060" s="56"/>
       <c r="Q1060" s="9"/>
@@ -45972,7 +45975,7 @@
         <v>162</v>
       </c>
       <c r="N1062" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P1062" s="56"/>
       <c r="Q1062" s="9"/>
@@ -46009,7 +46012,7 @@
         <v>163</v>
       </c>
       <c r="N1063" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P1063" s="56"/>
       <c r="Q1063" s="9"/>
@@ -46046,7 +46049,7 @@
         <v>164</v>
       </c>
       <c r="N1064" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P1064" s="56"/>
       <c r="Q1064" s="9"/>
@@ -46091,7 +46094,7 @@
       <c r="S1065" s="9"/>
       <c r="T1065" s="9"/>
       <c r="U1065" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="V1065" s="9"/>
       <c r="W1065" s="9"/>
@@ -46125,7 +46128,7 @@
         <v>173</v>
       </c>
       <c r="O1066" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P1066" s="56"/>
       <c r="Q1066" s="9"/>
@@ -46162,7 +46165,7 @@
         <v>167</v>
       </c>
       <c r="N1067" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P1067" s="56"/>
       <c r="Q1067" s="9"/>
@@ -46199,7 +46202,7 @@
         <v>168</v>
       </c>
       <c r="N1068" s="18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P1068" s="56" t="s">
         <v>18</v>
@@ -46213,7 +46216,7 @@
       <c r="W1068" s="9"/>
       <c r="X1068" s="9"/>
       <c r="Y1068" s="58" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1069" spans="5:25" x14ac:dyDescent="0.25">
@@ -46243,7 +46246,7 @@
         <v>165</v>
       </c>
       <c r="O1069" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P1069" s="56"/>
       <c r="Q1069" s="9"/>
@@ -46286,7 +46289,7 @@
       <c r="Q1070" s="9"/>
       <c r="R1070" s="9"/>
       <c r="S1070" s="9" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="T1070" s="9"/>
       <c r="U1070" s="9"/>
@@ -46319,7 +46322,7 @@
         <v>171</v>
       </c>
       <c r="N1071" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O1071" s="1"/>
       <c r="P1071" s="56"/>
@@ -46357,7 +46360,7 @@
         <v>172</v>
       </c>
       <c r="N1072" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O1072" s="1"/>
       <c r="P1072" s="56"/>
@@ -46473,7 +46476,7 @@
         <v>175</v>
       </c>
       <c r="N1075" s="18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O1075" s="1"/>
       <c r="P1075" s="56"/>
@@ -46511,7 +46514,7 @@
         <v>176</v>
       </c>
       <c r="N1076" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O1076" s="1" t="s">
         <v>0</v>
@@ -46526,7 +46529,7 @@
       <c r="W1076" s="9"/>
       <c r="X1076" s="9"/>
       <c r="Y1076" s="18" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1077" spans="5:25" x14ac:dyDescent="0.25">
@@ -46553,7 +46556,7 @@
         <v>177</v>
       </c>
       <c r="N1077" s="18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="O1077" s="1" t="s">
         <v>0</v>
@@ -46570,7 +46573,7 @@
       <c r="W1077" s="9"/>
       <c r="X1077" s="9"/>
       <c r="Y1077" s="18" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1078" spans="5:25" x14ac:dyDescent="0.25">
@@ -46597,7 +46600,7 @@
         <v>178</v>
       </c>
       <c r="N1078" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O1078" s="1" t="s">
         <v>1</v>
@@ -46637,7 +46640,7 @@
         <v>179</v>
       </c>
       <c r="N1079" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O1079" s="1"/>
       <c r="P1079" s="56"/>
@@ -46675,7 +46678,7 @@
         <v>180</v>
       </c>
       <c r="N1080" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O1080" s="1" t="s">
         <v>0</v>
@@ -46690,7 +46693,7 @@
       <c r="W1080" s="9"/>
       <c r="X1080" s="9"/>
       <c r="Y1080" s="18" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1081" spans="5:25" x14ac:dyDescent="0.25">
@@ -46717,7 +46720,7 @@
         <v>181</v>
       </c>
       <c r="N1081" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P1081" s="56"/>
       <c r="Q1081" s="9"/>
@@ -46754,7 +46757,7 @@
         <v>182</v>
       </c>
       <c r="N1082" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P1082" s="56"/>
       <c r="Q1082" s="9"/>
@@ -46791,7 +46794,7 @@
         <v>183</v>
       </c>
       <c r="N1083" s="18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="P1083" s="56"/>
       <c r="Q1083" s="9"/>
@@ -46828,7 +46831,7 @@
         <v>184</v>
       </c>
       <c r="N1084" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P1084" s="56"/>
       <c r="Q1084" s="9"/>
@@ -46879,7 +46882,7 @@
       <c r="W1085" s="9"/>
       <c r="X1085" s="9"/>
       <c r="Y1085" s="58" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1086" spans="5:25" x14ac:dyDescent="0.25">
@@ -46906,7 +46909,7 @@
         <v>186</v>
       </c>
       <c r="N1086" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O1086" s="1" t="s">
         <v>0</v>
@@ -46921,7 +46924,7 @@
       <c r="W1086" s="9"/>
       <c r="X1086" s="9"/>
       <c r="Y1086" s="18" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1087" spans="5:25" x14ac:dyDescent="0.25">
@@ -46948,7 +46951,7 @@
         <v>187</v>
       </c>
       <c r="N1087" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O1087" s="1" t="s">
         <v>0</v>
@@ -46963,7 +46966,7 @@
       <c r="W1087" s="9"/>
       <c r="X1087" s="9"/>
       <c r="Y1087" s="18" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1088" spans="5:25" x14ac:dyDescent="0.25">
@@ -47079,7 +47082,7 @@
       <c r="W1090" s="9"/>
       <c r="X1090" s="9"/>
       <c r="Y1090" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="1091" spans="5:25" x14ac:dyDescent="0.25">
@@ -47120,7 +47123,7 @@
       <c r="W1091" s="9"/>
       <c r="X1091" s="9"/>
       <c r="Y1091" s="58" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1092" spans="5:25" x14ac:dyDescent="0.25">
@@ -47147,7 +47150,7 @@
         <v>192</v>
       </c>
       <c r="N1092" s="18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P1092" s="56"/>
       <c r="Q1092" s="9"/>
@@ -47184,7 +47187,7 @@
         <v>193</v>
       </c>
       <c r="N1093" s="18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P1093" s="56"/>
       <c r="Q1093" s="9"/>
@@ -47221,7 +47224,7 @@
         <v>194</v>
       </c>
       <c r="N1094" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P1094" s="56"/>
       <c r="Q1094" s="9"/>
@@ -47258,7 +47261,7 @@
         <v>195</v>
       </c>
       <c r="N1095" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O1095" s="1" t="s">
         <v>0</v>
@@ -47273,7 +47276,7 @@
       <c r="W1095" s="9"/>
       <c r="X1095" s="9"/>
       <c r="Y1095" s="18" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1096" spans="5:25" x14ac:dyDescent="0.25">
@@ -47300,7 +47303,7 @@
         <v>196</v>
       </c>
       <c r="N1096" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P1096" s="56"/>
       <c r="Q1096" s="9"/>
@@ -47337,7 +47340,7 @@
         <v>197</v>
       </c>
       <c r="N1097" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P1097" s="56"/>
       <c r="Q1097" s="9"/>
@@ -47374,7 +47377,7 @@
         <v>198</v>
       </c>
       <c r="N1098" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O1098" s="1" t="s">
         <v>1</v>
@@ -47414,7 +47417,7 @@
         <v>199</v>
       </c>
       <c r="N1099" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O1099" s="1"/>
       <c r="P1099" s="56"/>
@@ -47452,7 +47455,7 @@
         <v>200</v>
       </c>
       <c r="N1100" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O1100" s="1"/>
       <c r="P1100" s="56"/>
@@ -47489,7 +47492,7 @@
         <v>201</v>
       </c>
       <c r="N1101" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O1101" s="1"/>
       <c r="P1101" s="56"/>
@@ -47527,7 +47530,7 @@
         <v>202</v>
       </c>
       <c r="N1102" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O1102" s="1" t="s">
         <v>1</v>
@@ -47542,7 +47545,7 @@
       <c r="W1102" s="9"/>
       <c r="X1102" s="9"/>
       <c r="Y1102" s="18" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1103" spans="5:25" x14ac:dyDescent="0.25">
@@ -47569,7 +47572,7 @@
         <v>203</v>
       </c>
       <c r="N1103" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O1103" s="1"/>
       <c r="P1103" s="56" t="s">
@@ -47609,7 +47612,7 @@
         <v>204</v>
       </c>
       <c r="N1104" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O1104" s="1" t="s">
         <v>0</v>
@@ -47624,7 +47627,7 @@
       <c r="W1104" s="9"/>
       <c r="X1104" s="9"/>
       <c r="Y1104" s="18" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1105" spans="5:25" x14ac:dyDescent="0.25">
@@ -47651,7 +47654,7 @@
         <v>205</v>
       </c>
       <c r="N1105" s="18" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="O1105" s="1" t="s">
         <v>0</v>
@@ -47666,7 +47669,7 @@
       <c r="W1105" s="9"/>
       <c r="X1105" s="9"/>
       <c r="Y1105" s="18" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1106" spans="5:25" x14ac:dyDescent="0.25">
@@ -47731,7 +47734,7 @@
         <v>207</v>
       </c>
       <c r="N1107" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P1107" s="56"/>
       <c r="Q1107" s="9"/>
@@ -47776,7 +47779,7 @@
       <c r="S1108" s="9"/>
       <c r="T1108" s="9"/>
       <c r="U1108" s="9" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="V1108" s="9"/>
       <c r="W1108" s="9"/>
@@ -47824,7 +47827,7 @@
       <c r="W1109" s="9"/>
       <c r="X1109" s="9"/>
       <c r="Y1109" s="18" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="1110" spans="5:25" x14ac:dyDescent="0.25">
@@ -47889,7 +47892,7 @@
         <v>211</v>
       </c>
       <c r="N1111" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O1111" s="1"/>
       <c r="P1111" s="56"/>
@@ -47927,7 +47930,7 @@
         <v>212</v>
       </c>
       <c r="N1112" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O1112" s="1"/>
       <c r="P1112" s="56"/>
@@ -47965,7 +47968,7 @@
         <v>213</v>
       </c>
       <c r="N1113" s="18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O1113" s="1"/>
       <c r="P1113" s="56"/>
@@ -48003,7 +48006,7 @@
         <v>214</v>
       </c>
       <c r="N1114" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O1114" s="1"/>
       <c r="P1114" s="56"/>
@@ -48082,7 +48085,7 @@
         <v>173</v>
       </c>
       <c r="O1116" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P1116" s="56"/>
       <c r="Q1116" s="9"/>
@@ -48119,7 +48122,7 @@
         <v>217</v>
       </c>
       <c r="N1117" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O1117" s="1"/>
       <c r="P1117" s="56"/>
@@ -48172,7 +48175,7 @@
       <c r="W1118" s="9"/>
       <c r="X1118" s="9"/>
       <c r="Y1118" s="58" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1119" spans="5:25" x14ac:dyDescent="0.25">
@@ -48199,7 +48202,7 @@
         <v>219</v>
       </c>
       <c r="N1119" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O1119" s="1"/>
       <c r="P1119" s="56"/>
@@ -48237,7 +48240,7 @@
         <v>220</v>
       </c>
       <c r="N1120" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O1120" s="1" t="s">
         <v>0</v>
@@ -48252,7 +48255,7 @@
       <c r="W1120" s="9"/>
       <c r="X1120" s="9"/>
       <c r="Y1120" s="18" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1121" spans="5:25" x14ac:dyDescent="0.25">
@@ -48279,7 +48282,7 @@
         <v>221</v>
       </c>
       <c r="N1121" s="18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O1121" s="1"/>
       <c r="P1121" s="56"/>
@@ -48355,7 +48358,7 @@
         <v>223</v>
       </c>
       <c r="N1123" s="18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O1123" s="1"/>
       <c r="P1123" s="56" t="s">
@@ -48370,7 +48373,7 @@
       <c r="W1123" s="9"/>
       <c r="X1123" s="9"/>
       <c r="Y1123" s="58" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1124" spans="5:25" x14ac:dyDescent="0.25">
@@ -48397,7 +48400,7 @@
         <v>224</v>
       </c>
       <c r="N1124" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O1124" s="1"/>
       <c r="P1124" s="56"/>
@@ -48435,7 +48438,7 @@
         <v>225</v>
       </c>
       <c r="N1125" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O1125" s="1"/>
       <c r="P1125" s="56"/>
@@ -48488,7 +48491,7 @@
       <c r="W1126" s="9"/>
       <c r="X1126" s="9"/>
       <c r="Y1126" s="18" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="1127" spans="5:25" x14ac:dyDescent="0.25">
@@ -48515,7 +48518,7 @@
         <v>227</v>
       </c>
       <c r="N1127" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O1127" s="1"/>
       <c r="P1127" s="56"/>
@@ -48591,7 +48594,7 @@
         <v>229</v>
       </c>
       <c r="N1129" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O1129" s="1"/>
       <c r="P1129" s="56" t="s">
@@ -48606,7 +48609,7 @@
       <c r="W1129" s="9"/>
       <c r="X1129" s="9"/>
       <c r="Y1129" s="58" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1130" spans="5:25" x14ac:dyDescent="0.25">
@@ -48631,7 +48634,7 @@
         <v>1</v>
       </c>
       <c r="N1130" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P1130" s="56"/>
       <c r="Q1130" s="9"/>
@@ -48683,7 +48686,7 @@
       <c r="W1131" s="9"/>
       <c r="X1131" s="9"/>
       <c r="Y1131" s="18" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1132" spans="5:25" x14ac:dyDescent="0.25">
@@ -48710,7 +48713,7 @@
         <v>3</v>
       </c>
       <c r="N1132" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O1132" s="1"/>
       <c r="P1132" s="56"/>
@@ -48826,7 +48829,7 @@
         <v>6</v>
       </c>
       <c r="N1135" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O1135" s="1"/>
       <c r="P1135" s="56" t="s">
@@ -48841,7 +48844,7 @@
       <c r="W1135" s="9"/>
       <c r="X1135" s="9"/>
       <c r="Y1135" s="58" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1136" spans="5:25" x14ac:dyDescent="0.25">
@@ -48868,7 +48871,7 @@
         <v>7</v>
       </c>
       <c r="N1136" s="18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O1136" s="1"/>
       <c r="P1136" s="56"/>
@@ -48906,7 +48909,7 @@
         <v>8</v>
       </c>
       <c r="N1137" s="18" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="O1137" s="1" t="s">
         <v>0</v>
@@ -48921,7 +48924,7 @@
       <c r="W1137" s="9"/>
       <c r="X1137" s="9"/>
       <c r="Y1137" s="18" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1138" spans="5:25" x14ac:dyDescent="0.25">
@@ -48948,7 +48951,7 @@
         <v>9</v>
       </c>
       <c r="N1138" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O1138" s="1" t="s">
         <v>1</v>
@@ -48962,9 +48965,7 @@
       <c r="V1138" s="9"/>
       <c r="W1138" s="9"/>
       <c r="X1138" s="9"/>
-      <c r="Y1138" s="18" t="s">
-        <v>469</v>
-      </c>
+      <c r="Y1138" s="18"/>
     </row>
     <row r="1139" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1139" s="30"/>
@@ -48990,7 +48991,7 @@
         <v>10</v>
       </c>
       <c r="N1139" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O1139" s="1"/>
       <c r="P1139" s="56"/>
@@ -49028,7 +49029,7 @@
         <v>11</v>
       </c>
       <c r="N1140" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O1140" s="1"/>
       <c r="P1140" s="56" t="s">
@@ -49043,7 +49044,7 @@
       <c r="W1140" s="9"/>
       <c r="X1140" s="9"/>
       <c r="Y1140" s="58" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1141" spans="5:25" x14ac:dyDescent="0.25">
@@ -49070,7 +49071,7 @@
         <v>12</v>
       </c>
       <c r="N1141" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O1141" s="1"/>
       <c r="P1141" s="56"/>
@@ -49108,7 +49109,7 @@
         <v>13</v>
       </c>
       <c r="N1142" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O1142" s="1"/>
       <c r="P1142" s="56"/>
@@ -49146,7 +49147,7 @@
         <v>14</v>
       </c>
       <c r="N1143" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O1143" s="1"/>
       <c r="P1143" s="56"/>
@@ -49184,7 +49185,7 @@
         <v>15</v>
       </c>
       <c r="N1144" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O1144" s="1"/>
       <c r="P1144" s="56"/>
@@ -49222,7 +49223,7 @@
         <v>16</v>
       </c>
       <c r="N1145" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O1145" s="1"/>
       <c r="P1145" s="56"/>
@@ -49277,7 +49278,7 @@
       <c r="W1146" s="9"/>
       <c r="X1146" s="9"/>
       <c r="Y1146" s="58" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1147" spans="5:25" x14ac:dyDescent="0.25">
@@ -49304,7 +49305,7 @@
         <v>18</v>
       </c>
       <c r="N1147" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O1147" s="1" t="s">
         <v>0</v>
@@ -49319,7 +49320,7 @@
       <c r="W1147" s="9"/>
       <c r="X1147" s="9"/>
       <c r="Y1147" s="18" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1148" spans="5:25" x14ac:dyDescent="0.25">
@@ -49346,7 +49347,7 @@
         <v>19</v>
       </c>
       <c r="N1148" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O1148" s="1" t="s">
         <v>0</v>
@@ -49361,7 +49362,7 @@
       <c r="W1148" s="9"/>
       <c r="X1148" s="9"/>
       <c r="Y1148" s="18" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1149" spans="5:25" x14ac:dyDescent="0.25">
@@ -49388,7 +49389,7 @@
         <v>20</v>
       </c>
       <c r="N1149" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O1149" s="1"/>
       <c r="P1149" s="56"/>
@@ -49426,7 +49427,7 @@
         <v>21</v>
       </c>
       <c r="N1150" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O1150" s="1"/>
       <c r="P1150" s="56"/>
@@ -49464,7 +49465,7 @@
         <v>22</v>
       </c>
       <c r="N1151" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O1151" s="1"/>
       <c r="P1151" s="56" t="s">
@@ -49479,7 +49480,7 @@
       <c r="W1151" s="9"/>
       <c r="X1151" s="9"/>
       <c r="Y1151" s="58" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1152" spans="5:25" x14ac:dyDescent="0.25">
@@ -49506,7 +49507,7 @@
         <v>23</v>
       </c>
       <c r="N1152" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O1152" s="1" t="s">
         <v>0</v>
@@ -49521,7 +49522,7 @@
       <c r="W1152" s="9"/>
       <c r="X1152" s="9"/>
       <c r="Y1152" s="18" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1153" spans="5:25" x14ac:dyDescent="0.25">
@@ -49548,7 +49549,7 @@
         <v>24</v>
       </c>
       <c r="N1153" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O1153" s="1" t="s">
         <v>0</v>
@@ -49562,7 +49563,7 @@
       <c r="W1153" s="9"/>
       <c r="X1153" s="9"/>
       <c r="Y1153" s="18" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1154" spans="5:25" x14ac:dyDescent="0.25">
@@ -49589,7 +49590,7 @@
         <v>25</v>
       </c>
       <c r="N1154" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O1154" s="1"/>
       <c r="P1154" s="56"/>
@@ -49665,7 +49666,7 @@
         <v>27</v>
       </c>
       <c r="N1156" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O1156" s="1" t="s">
         <v>0</v>
@@ -49682,7 +49683,7 @@
       <c r="W1156" s="9"/>
       <c r="X1156" s="9"/>
       <c r="Y1156" s="18" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1157" spans="5:25" x14ac:dyDescent="0.25">
@@ -49709,7 +49710,7 @@
         <v>28</v>
       </c>
       <c r="N1157" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O1157" s="1"/>
       <c r="P1157" s="56"/>
@@ -49746,7 +49747,7 @@
         <v>29</v>
       </c>
       <c r="N1158" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O1158" s="1"/>
       <c r="P1158" s="56"/>
@@ -49784,7 +49785,7 @@
         <v>30</v>
       </c>
       <c r="N1159" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P1159" s="56"/>
       <c r="Q1159" s="9"/>
@@ -49821,7 +49822,7 @@
         <v>31</v>
       </c>
       <c r="N1160" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O1160" s="1" t="s">
         <v>0</v>
@@ -49836,7 +49837,7 @@
       <c r="W1160" s="9"/>
       <c r="X1160" s="9"/>
       <c r="Y1160" s="18" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1161" spans="5:25" x14ac:dyDescent="0.25">
@@ -49863,7 +49864,7 @@
         <v>32</v>
       </c>
       <c r="N1161" s="18" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O1161" s="1" t="s">
         <v>0</v>
@@ -49880,7 +49881,7 @@
       <c r="W1161" s="9"/>
       <c r="X1161" s="9"/>
       <c r="Y1161" s="18" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1162" spans="5:25" x14ac:dyDescent="0.25">
@@ -49907,7 +49908,7 @@
         <v>33</v>
       </c>
       <c r="N1162" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P1162" s="56"/>
       <c r="Q1162" s="9"/>
@@ -49944,7 +49945,7 @@
         <v>34</v>
       </c>
       <c r="N1163" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P1163" s="56"/>
       <c r="Q1163" s="9"/>
@@ -49981,7 +49982,7 @@
         <v>35</v>
       </c>
       <c r="N1164" s="18" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="O1164" s="1" t="s">
         <v>0</v>
@@ -49996,7 +49997,7 @@
       <c r="W1164" s="9"/>
       <c r="X1164" s="9"/>
       <c r="Y1164" s="18" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1165" spans="5:25" x14ac:dyDescent="0.25">
@@ -50023,7 +50024,7 @@
         <v>36</v>
       </c>
       <c r="N1165" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O1165" s="1" t="s">
         <v>0</v>
@@ -50038,7 +50039,7 @@
       <c r="W1165" s="9"/>
       <c r="X1165" s="9"/>
       <c r="Y1165" s="18" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1166" spans="5:25" x14ac:dyDescent="0.25">
@@ -50078,7 +50079,7 @@
       <c r="W1166" s="9"/>
       <c r="X1166" s="9"/>
       <c r="Y1166" s="58" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1167" spans="5:25" x14ac:dyDescent="0.25">
@@ -50105,7 +50106,7 @@
         <v>38</v>
       </c>
       <c r="N1167" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P1167" s="56"/>
       <c r="Q1167" s="9"/>
@@ -50142,7 +50143,7 @@
         <v>39</v>
       </c>
       <c r="N1168" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P1168" s="56"/>
       <c r="Q1168" s="9"/>
@@ -50150,7 +50151,7 @@
       <c r="S1168" s="9"/>
       <c r="T1168" s="9"/>
       <c r="U1168" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="V1168" s="9"/>
       <c r="W1168" s="9"/>
@@ -50181,7 +50182,7 @@
         <v>40</v>
       </c>
       <c r="N1169" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O1169" s="1" t="s">
         <v>0</v>
@@ -50196,7 +50197,7 @@
       <c r="W1169" s="9"/>
       <c r="X1169" s="9"/>
       <c r="Y1169" s="18" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1170" spans="5:25" x14ac:dyDescent="0.25">
@@ -50223,7 +50224,7 @@
         <v>41</v>
       </c>
       <c r="N1170" s="18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P1170" s="56"/>
       <c r="Q1170" s="9"/>
@@ -50260,7 +50261,7 @@
         <v>42</v>
       </c>
       <c r="N1171" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P1171" s="56"/>
       <c r="Q1171" s="9"/>
@@ -50297,7 +50298,7 @@
         <v>43</v>
       </c>
       <c r="N1172" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P1172" s="56" t="s">
         <v>18</v>
@@ -50311,7 +50312,7 @@
       <c r="W1172" s="9"/>
       <c r="X1172" s="9"/>
       <c r="Y1172" s="58" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1173" spans="5:25" x14ac:dyDescent="0.25">
@@ -50338,7 +50339,7 @@
         <v>44</v>
       </c>
       <c r="N1173" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P1173" s="56"/>
       <c r="Q1173" s="9"/>
@@ -50375,7 +50376,7 @@
         <v>45</v>
       </c>
       <c r="N1174" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P1174" s="56"/>
       <c r="Q1174" s="9"/>
@@ -50412,7 +50413,7 @@
         <v>46</v>
       </c>
       <c r="N1175" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O1175" s="1" t="s">
         <v>0</v>
@@ -50427,7 +50428,7 @@
       <c r="W1175" s="9"/>
       <c r="X1175" s="9"/>
       <c r="Y1175" s="18" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1176" spans="5:25" x14ac:dyDescent="0.25">
@@ -50454,7 +50455,7 @@
         <v>47</v>
       </c>
       <c r="N1176" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P1176" s="56"/>
       <c r="Q1176" s="9"/>
@@ -50491,7 +50492,7 @@
         <v>48</v>
       </c>
       <c r="N1177" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P1177" s="56" t="s">
         <v>18</v>
@@ -50505,7 +50506,7 @@
       <c r="W1177" s="9"/>
       <c r="X1177" s="9"/>
       <c r="Y1177" s="58" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1178" spans="5:25" x14ac:dyDescent="0.25">
@@ -50532,7 +50533,7 @@
         <v>49</v>
       </c>
       <c r="N1178" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P1178" s="56"/>
       <c r="Q1178" s="9"/>
@@ -50569,7 +50570,7 @@
         <v>50</v>
       </c>
       <c r="N1179" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P1179" s="56"/>
       <c r="Q1179" s="9"/>
@@ -50605,7 +50606,7 @@
         <v>51</v>
       </c>
       <c r="N1180" s="18" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="O1180" s="1" t="s">
         <v>0</v>
@@ -50620,7 +50621,7 @@
       <c r="W1180" s="9"/>
       <c r="X1180" s="9"/>
       <c r="Y1180" s="18" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1181" spans="5:25" x14ac:dyDescent="0.25">
@@ -50647,7 +50648,7 @@
         <v>52</v>
       </c>
       <c r="N1181" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O1181" s="1" t="s">
         <v>0</v>
@@ -50662,7 +50663,7 @@
       <c r="W1181" s="9"/>
       <c r="X1181" s="9"/>
       <c r="Y1181" s="18" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1182" spans="5:25" x14ac:dyDescent="0.25">
@@ -50689,7 +50690,7 @@
         <v>53</v>
       </c>
       <c r="N1182" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O1182" s="1" t="s">
         <v>0</v>
@@ -50706,7 +50707,7 @@
       <c r="W1182" s="9"/>
       <c r="X1182" s="9"/>
       <c r="Y1182" s="18" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1183" spans="5:25" x14ac:dyDescent="0.25">
@@ -50733,7 +50734,7 @@
         <v>54</v>
       </c>
       <c r="N1183" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O1183" s="1"/>
       <c r="P1183" s="56"/>
@@ -50771,7 +50772,7 @@
         <v>55</v>
       </c>
       <c r="N1184" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O1184" s="1"/>
       <c r="P1184" s="56"/>
@@ -50847,7 +50848,7 @@
         <v>57</v>
       </c>
       <c r="N1186" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P1186" s="56"/>
       <c r="Q1186" s="9"/>
@@ -50921,7 +50922,7 @@
         <v>59</v>
       </c>
       <c r="N1188" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P1188" s="56"/>
       <c r="Q1188" s="9"/>
@@ -50995,7 +50996,7 @@
         <v>61</v>
       </c>
       <c r="N1190" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O1190" s="1" t="s">
         <v>0</v>
@@ -51012,7 +51013,7 @@
       <c r="W1190" s="9"/>
       <c r="X1190" s="9"/>
       <c r="Y1190" s="18" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1191" spans="5:25" x14ac:dyDescent="0.25">
@@ -51039,7 +51040,7 @@
         <v>62</v>
       </c>
       <c r="N1191" s="18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P1191" s="56"/>
       <c r="Q1191" s="9"/>
@@ -51076,7 +51077,7 @@
         <v>63</v>
       </c>
       <c r="N1192" s="18" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="O1192" s="1" t="s">
         <v>0</v>
@@ -51091,7 +51092,7 @@
       <c r="W1192" s="9"/>
       <c r="X1192" s="9"/>
       <c r="Y1192" s="18" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1193" spans="5:25" x14ac:dyDescent="0.25">
@@ -51118,7 +51119,7 @@
         <v>64</v>
       </c>
       <c r="N1193" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O1193" s="3" t="s">
         <v>1</v>
@@ -51133,7 +51134,7 @@
       <c r="W1193" s="9"/>
       <c r="X1193" s="9"/>
       <c r="Y1193" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1194" spans="5:25" x14ac:dyDescent="0.25">
@@ -51160,7 +51161,7 @@
         <v>65</v>
       </c>
       <c r="N1194" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P1194" s="56"/>
       <c r="Q1194" s="9"/>
@@ -51197,7 +51198,7 @@
         <v>66</v>
       </c>
       <c r="N1195" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P1195" s="56" t="s">
         <v>18</v>
@@ -51211,7 +51212,7 @@
       <c r="W1195" s="9"/>
       <c r="X1195" s="9"/>
       <c r="Y1195" s="58" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1196" spans="5:25" x14ac:dyDescent="0.25">
@@ -51275,7 +51276,7 @@
         <v>68</v>
       </c>
       <c r="N1197" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P1197" s="56"/>
       <c r="Q1197" s="9"/>
@@ -51312,7 +51313,7 @@
         <v>69</v>
       </c>
       <c r="N1198" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P1198" s="56"/>
       <c r="Q1198" s="9"/>
@@ -51349,7 +51350,7 @@
         <v>70</v>
       </c>
       <c r="N1199" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P1199" s="56"/>
       <c r="Q1199" s="9"/>
@@ -51386,7 +51387,7 @@
         <v>71</v>
       </c>
       <c r="N1200" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P1200" s="56"/>
       <c r="Q1200" s="9"/>
@@ -51423,7 +51424,7 @@
         <v>72</v>
       </c>
       <c r="N1201" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P1201" s="56"/>
       <c r="Q1201" s="9"/>
@@ -51460,7 +51461,7 @@
         <v>73</v>
       </c>
       <c r="N1202" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P1202" s="56"/>
       <c r="Q1202" s="9"/>
@@ -51497,7 +51498,7 @@
         <v>74</v>
       </c>
       <c r="N1203" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P1203" s="56"/>
       <c r="Q1203" s="9"/>
@@ -51534,7 +51535,7 @@
         <v>75</v>
       </c>
       <c r="N1204" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P1204" s="56"/>
       <c r="Q1204" s="9"/>
@@ -51571,7 +51572,7 @@
         <v>76</v>
       </c>
       <c r="N1205" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P1205" s="56"/>
       <c r="Q1205" s="9"/>
@@ -51608,7 +51609,7 @@
         <v>77</v>
       </c>
       <c r="N1206" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O1206" s="1"/>
       <c r="P1206" s="56"/>
@@ -51646,7 +51647,7 @@
         <v>78</v>
       </c>
       <c r="N1207" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O1207" s="1"/>
       <c r="P1207" s="56"/>
@@ -51722,7 +51723,7 @@
         <v>80</v>
       </c>
       <c r="N1209" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O1209" s="1"/>
       <c r="P1209" s="56"/>
@@ -51760,7 +51761,7 @@
         <v>81</v>
       </c>
       <c r="N1210" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O1210" s="1"/>
       <c r="P1210" s="56"/>
@@ -51798,7 +51799,7 @@
         <v>82</v>
       </c>
       <c r="N1211" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O1211" s="1"/>
       <c r="P1211" s="56"/>
@@ -51836,7 +51837,7 @@
         <v>83</v>
       </c>
       <c r="N1212" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O1212" s="1"/>
       <c r="P1212" s="56"/>
@@ -51874,7 +51875,7 @@
         <v>84</v>
       </c>
       <c r="N1213" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O1213" s="1"/>
       <c r="P1213" s="56"/>
@@ -51912,7 +51913,7 @@
         <v>85</v>
       </c>
       <c r="N1214" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O1214" s="1"/>
       <c r="P1214" s="56"/>
@@ -51950,7 +51951,7 @@
         <v>86</v>
       </c>
       <c r="N1215" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O1215" s="1"/>
       <c r="P1215" s="56"/>
@@ -51988,7 +51989,7 @@
         <v>87</v>
       </c>
       <c r="N1216" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O1216" s="1"/>
       <c r="P1216" s="56"/>
@@ -52026,7 +52027,7 @@
         <v>88</v>
       </c>
       <c r="N1217" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P1217" s="56"/>
       <c r="Q1217" s="9"/>
@@ -52063,7 +52064,7 @@
         <v>89</v>
       </c>
       <c r="N1218" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P1218" s="56"/>
       <c r="Q1218" s="9"/>
@@ -52100,7 +52101,7 @@
         <v>90</v>
       </c>
       <c r="N1219" s="18" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="P1219" s="56"/>
       <c r="Q1219" s="9"/>
@@ -52137,7 +52138,7 @@
         <v>91</v>
       </c>
       <c r="N1220" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P1220" s="56"/>
       <c r="Q1220" s="9"/>
@@ -52211,7 +52212,7 @@
         <v>93</v>
       </c>
       <c r="N1222" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P1222" s="56"/>
       <c r="Q1222" s="9"/>
@@ -52285,7 +52286,7 @@
         <v>95</v>
       </c>
       <c r="N1224" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P1224" s="56"/>
       <c r="Q1224" s="9"/>
@@ -52322,7 +52323,7 @@
         <v>96</v>
       </c>
       <c r="N1225" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P1225" s="56"/>
       <c r="Q1225" s="9"/>
@@ -52359,7 +52360,7 @@
         <v>97</v>
       </c>
       <c r="N1226" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P1226" s="56"/>
       <c r="Q1226" s="9"/>
@@ -52396,7 +52397,7 @@
         <v>98</v>
       </c>
       <c r="N1227" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P1227" s="56"/>
       <c r="Q1227" s="9"/>
@@ -52545,7 +52546,7 @@
         <v>102</v>
       </c>
       <c r="N1231" s="18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O1231" s="1"/>
       <c r="P1231" s="56"/>
@@ -52659,7 +52660,7 @@
         <v>105</v>
       </c>
       <c r="N1234" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O1234" s="1"/>
       <c r="P1234" s="56"/>
@@ -52697,7 +52698,7 @@
         <v>106</v>
       </c>
       <c r="N1235" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O1235" s="1"/>
       <c r="P1235" s="56" t="s">
@@ -52712,7 +52713,7 @@
       <c r="W1235" s="9"/>
       <c r="X1235" s="9"/>
       <c r="Y1235" s="58" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1236" spans="5:25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
@@ -15,7 +15,7 @@
     <sheet name="TS 1.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.1'!$A$1:$X$621</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.1'!$C$1:$X$1235</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -3336,10 +3336,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="X4" sqref="X4"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="898">
   <si>
     <t>PS</t>
   </si>
@@ -1376,9 +1376,6 @@
     <t>vAta#H</t>
   </si>
   <si>
-    <t>vaqrSham</t>
-  </si>
-  <si>
     <t>daSa#</t>
   </si>
   <si>
@@ -2712,6 +2709,18 @@
   </si>
   <si>
     <t>N[s]</t>
+  </si>
+  <si>
+    <t>N[S]</t>
+  </si>
+  <si>
+    <t>P[S]</t>
+  </si>
+  <si>
+    <t>N[b]</t>
+  </si>
+  <si>
+    <t>vaqr.Sham</t>
   </si>
 </sst>
 </file>
@@ -3336,10 +3345,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1223" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="N817" sqref="N817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3836,7 +3845,7 @@
         <v>16</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>15</v>
@@ -3878,7 +3887,7 @@
         <v>12</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3947,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="55"/>
@@ -4029,7 +4038,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="55"/>
@@ -4070,7 +4079,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>17</v>
@@ -4084,7 +4093,7 @@
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
       <c r="X6" s="57" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4115,7 +4124,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="55"/>
@@ -4156,7 +4165,7 @@
         <v>7</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="55"/>
@@ -4210,7 +4219,7 @@
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
       <c r="X9" s="57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4282,7 +4291,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="55"/>
@@ -4332,7 +4341,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
@@ -4366,7 +4375,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="55"/>
@@ -4407,7 +4416,7 @@
         <v>13</v>
       </c>
       <c r="N14" s="59" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>0</v>
@@ -4421,7 +4430,7 @@
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
       <c r="X14" s="20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4493,7 +4502,7 @@
         <v>15</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="55"/>
@@ -4548,7 +4557,7 @@
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4620,7 +4629,7 @@
         <v>18</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="55"/>
@@ -4716,7 +4725,7 @@
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
       <c r="X21" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4829,7 +4838,7 @@
         <v>23</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="55"/>
@@ -4884,7 +4893,7 @@
       <c r="V25" s="19"/>
       <c r="W25" s="19"/>
       <c r="X25" s="57" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="26" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5213,7 +5222,7 @@
       <c r="V33" s="19"/>
       <c r="W33" s="19"/>
       <c r="X33" s="57" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5285,7 +5294,7 @@
         <v>34</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="55"/>
@@ -5449,7 +5458,7 @@
         <v>38</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="55"/>
@@ -5503,7 +5512,7 @@
       <c r="V40" s="19"/>
       <c r="W40" s="18"/>
       <c r="X40" s="24" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5668,7 +5677,7 @@
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
       <c r="X44" s="18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="45" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5713,7 +5722,7 @@
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
       <c r="X45" s="18" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="46" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5801,7 +5810,7 @@
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
       <c r="X47" s="57" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="48" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5925,7 +5934,7 @@
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
       <c r="X50" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="51" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5953,7 +5962,7 @@
         <v>50</v>
       </c>
       <c r="N51" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="55"/>
@@ -5993,7 +6002,7 @@
         <v>51</v>
       </c>
       <c r="N52" s="18" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="55"/>
@@ -6031,7 +6040,7 @@
         <v>52</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="55" t="s">
@@ -6042,12 +6051,12 @@
       <c r="S53" s="19"/>
       <c r="T53" s="19"/>
       <c r="U53" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="57" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="54" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6133,7 +6142,7 @@
       <c r="V55" s="19"/>
       <c r="W55" s="19"/>
       <c r="X55" s="18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="56" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6380,7 +6389,7 @@
       <c r="V61" s="19"/>
       <c r="W61" s="19"/>
       <c r="X61" s="57" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="62" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6408,7 +6417,7 @@
         <v>61</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="55"/>
@@ -6576,7 +6585,7 @@
       <c r="Q66" s="19"/>
       <c r="R66" s="19"/>
       <c r="S66" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T66" s="19"/>
       <c r="U66" s="19"/>
@@ -6626,7 +6635,7 @@
       <c r="V67" s="19"/>
       <c r="W67" s="19"/>
       <c r="X67" s="57" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="68" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6908,7 +6917,7 @@
       <c r="V74" s="19"/>
       <c r="W74" s="19"/>
       <c r="X74" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="75" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6950,7 +6959,7 @@
       <c r="V75" s="19"/>
       <c r="W75" s="19"/>
       <c r="X75" s="57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="76" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7021,7 +7030,7 @@
         <v>76</v>
       </c>
       <c r="N77" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O77" s="3"/>
       <c r="P77" s="55"/>
@@ -7069,12 +7078,12 @@
       <c r="R78" s="19"/>
       <c r="T78" s="19"/>
       <c r="U78" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V78" s="19"/>
       <c r="W78" s="19"/>
       <c r="X78" s="18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="79" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7195,7 +7204,7 @@
       <c r="V81" s="19"/>
       <c r="W81" s="19"/>
       <c r="X81" s="57" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="82" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7230,10 +7239,10 @@
       <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
       <c r="S82" s="19" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="T82" s="19" t="s">
-        <v>869</v>
+        <v>894</v>
       </c>
       <c r="U82" s="19"/>
       <c r="V82" s="19"/>
@@ -7310,10 +7319,10 @@
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
       <c r="S84" s="19" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="T84" s="19" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="U84" s="19"/>
       <c r="V84" s="19"/>
@@ -7475,7 +7484,7 @@
       <c r="V88" s="19"/>
       <c r="W88" s="19"/>
       <c r="X88" s="18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="89" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7512,7 +7521,7 @@
       <c r="S89" s="19"/>
       <c r="T89" s="19"/>
       <c r="U89" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V89" s="19"/>
       <c r="W89" s="19"/>
@@ -7634,7 +7643,7 @@
       <c r="S92" s="19"/>
       <c r="T92" s="19"/>
       <c r="U92" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="V92" s="19"/>
       <c r="W92" s="19"/>
@@ -7757,7 +7766,7 @@
       <c r="V95" s="9"/>
       <c r="W95" s="9"/>
       <c r="X95" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="96" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7785,7 +7794,7 @@
         <v>95</v>
       </c>
       <c r="N96" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O96" s="3"/>
       <c r="P96" s="55"/>
@@ -7946,7 +7955,7 @@
       <c r="S100" s="9"/>
       <c r="T100" s="9"/>
       <c r="U100" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="V100" s="9"/>
       <c r="W100" s="9"/>
@@ -8066,7 +8075,7 @@
       <c r="V103" s="9"/>
       <c r="W103" s="9"/>
       <c r="X103" s="18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="104" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8170,7 +8179,7 @@
         <v>105</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O106" s="1"/>
       <c r="P106" s="55"/>
@@ -8208,7 +8217,7 @@
         <v>106</v>
       </c>
       <c r="N107" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="55" t="s">
@@ -8222,7 +8231,7 @@
       <c r="V107" s="9"/>
       <c r="W107" s="9"/>
       <c r="X107" s="57" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="108" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8259,7 +8268,7 @@
       <c r="S108" s="9"/>
       <c r="T108" s="9"/>
       <c r="U108" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
@@ -8342,7 +8351,7 @@
       <c r="V110" s="9"/>
       <c r="W110" s="9"/>
       <c r="X110" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="111" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8384,7 +8393,7 @@
       <c r="V111" s="9"/>
       <c r="W111" s="9"/>
       <c r="X111" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="112" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8412,7 +8421,7 @@
         <v>111</v>
       </c>
       <c r="N112" s="18" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>0</v>
@@ -8428,7 +8437,7 @@
       <c r="V112" s="9"/>
       <c r="W112" s="9"/>
       <c r="X112" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="113" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8532,7 +8541,7 @@
         <v>114</v>
       </c>
       <c r="N115" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>0</v>
@@ -8546,7 +8555,7 @@
       <c r="V115" s="9"/>
       <c r="W115" s="9"/>
       <c r="X115" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="116" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8621,7 +8630,7 @@
       <c r="S117" s="9"/>
       <c r="T117" s="9"/>
       <c r="U117" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V117" s="9"/>
       <c r="W117" s="9"/>
@@ -8668,7 +8677,7 @@
       <c r="V118" s="9"/>
       <c r="W118" s="9"/>
       <c r="X118" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="119" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8976,7 +8985,7 @@
       <c r="V126" s="9"/>
       <c r="W126" s="9"/>
       <c r="X126" s="57" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="127" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9051,7 +9060,7 @@
       <c r="S128" s="9"/>
       <c r="T128" s="9"/>
       <c r="U128" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V128" s="9"/>
       <c r="W128" s="9"/>
@@ -9096,7 +9105,7 @@
       <c r="V129" s="9"/>
       <c r="W129" s="9"/>
       <c r="X129" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="130" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9138,7 +9147,7 @@
       <c r="V130" s="9"/>
       <c r="W130" s="9"/>
       <c r="X130" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="131" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9166,7 +9175,7 @@
         <v>130</v>
       </c>
       <c r="N131" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O131" s="3"/>
       <c r="P131" s="55" t="s">
@@ -9180,7 +9189,7 @@
       <c r="V131" s="9"/>
       <c r="W131" s="9"/>
       <c r="X131" s="57" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="132" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9208,7 +9217,7 @@
         <v>131</v>
       </c>
       <c r="N132" s="18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O132" s="3" t="s">
         <v>17</v>
@@ -9218,13 +9227,11 @@
       <c r="R132" s="9"/>
       <c r="S132" s="9"/>
       <c r="T132" s="9"/>
-      <c r="U132" s="9" t="s">
-        <v>815</v>
-      </c>
+      <c r="U132" s="9"/>
       <c r="V132" s="9"/>
       <c r="W132" s="9"/>
       <c r="X132" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="133" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9252,7 +9259,7 @@
         <v>132</v>
       </c>
       <c r="N133" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O133" s="1"/>
       <c r="P133" s="55"/>
@@ -9299,7 +9306,7 @@
       <c r="S134" s="9"/>
       <c r="T134" s="9"/>
       <c r="U134" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V134" s="9"/>
       <c r="W134" s="9"/>
@@ -9406,7 +9413,7 @@
         <v>136</v>
       </c>
       <c r="N137" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O137" s="3"/>
       <c r="P137" s="55"/>
@@ -9496,7 +9503,7 @@
       <c r="V139" s="9"/>
       <c r="W139" s="9"/>
       <c r="X139" s="57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="140" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9676,7 +9683,7 @@
         <v>143</v>
       </c>
       <c r="N144" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O144" s="3"/>
       <c r="P144" s="55"/>
@@ -9714,7 +9721,7 @@
         <v>144</v>
       </c>
       <c r="N145" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O145" s="1"/>
       <c r="P145" s="55"/>
@@ -9766,7 +9773,7 @@
       <c r="V146" s="9"/>
       <c r="W146" s="9"/>
       <c r="X146" s="57" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="147" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9870,7 +9877,7 @@
         <v>148</v>
       </c>
       <c r="N149" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O149" s="3"/>
       <c r="P149" s="55"/>
@@ -9908,7 +9915,7 @@
         <v>149</v>
       </c>
       <c r="N150" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O150" s="1"/>
       <c r="P150" s="55"/>
@@ -9992,7 +9999,7 @@
       <c r="Q152" s="9"/>
       <c r="R152" s="9"/>
       <c r="S152" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T152" s="9"/>
       <c r="U152" s="9"/>
@@ -10077,7 +10084,7 @@
       <c r="V154" s="9"/>
       <c r="W154" s="9"/>
       <c r="X154" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10119,7 +10126,7 @@
       <c r="V155" s="9"/>
       <c r="W155" s="9"/>
       <c r="X155" s="57" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="156" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10161,7 +10168,7 @@
       <c r="V156" s="9"/>
       <c r="W156" s="9"/>
       <c r="X156" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10279,7 +10286,7 @@
       <c r="V159" s="9"/>
       <c r="W159" s="9"/>
       <c r="X159" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="160" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10307,7 +10314,7 @@
         <v>159</v>
       </c>
       <c r="N160" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>0</v>
@@ -10323,7 +10330,7 @@
       <c r="V160" s="9"/>
       <c r="W160" s="9"/>
       <c r="X160" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="161" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10365,7 +10372,7 @@
       <c r="V161" s="9"/>
       <c r="W161" s="9"/>
       <c r="X161" s="57" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="162" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10559,7 +10566,7 @@
       <c r="V166" s="9"/>
       <c r="W166" s="9"/>
       <c r="X166" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="167" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10601,7 +10608,7 @@
       <c r="V167" s="9"/>
       <c r="W167" s="9"/>
       <c r="X167" s="57" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="168" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10643,7 +10650,7 @@
       <c r="V168" s="9"/>
       <c r="W168" s="9"/>
       <c r="X168" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="169" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10761,7 +10768,7 @@
       <c r="V171" s="9"/>
       <c r="W171" s="9"/>
       <c r="X171" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="172" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10798,16 +10805,16 @@
       <c r="Q172" s="9"/>
       <c r="R172" s="9"/>
       <c r="S172" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="T172" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="U172" s="9"/>
       <c r="V172" s="9"/>
       <c r="W172" s="9"/>
       <c r="X172" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="173" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10849,7 +10856,7 @@
       <c r="V173" s="9"/>
       <c r="W173" s="9"/>
       <c r="X173" s="57" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="174" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10877,7 +10884,7 @@
         <v>173</v>
       </c>
       <c r="N174" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O174" s="3"/>
       <c r="P174" s="55"/>
@@ -10924,7 +10931,7 @@
       <c r="S175" s="9"/>
       <c r="T175" s="9"/>
       <c r="U175" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V175" s="9"/>
       <c r="W175" s="9"/>
@@ -11085,7 +11092,7 @@
       <c r="V179" s="9"/>
       <c r="W179" s="9"/>
       <c r="X179" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="180" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11151,7 +11158,7 @@
         <v>180</v>
       </c>
       <c r="N181" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O181" s="1"/>
       <c r="P181" s="55"/>
@@ -11189,7 +11196,7 @@
         <v>181</v>
       </c>
       <c r="N182" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O182" s="3"/>
       <c r="P182" s="55"/>
@@ -11241,7 +11248,7 @@
       <c r="V183" s="9"/>
       <c r="W183" s="9"/>
       <c r="X183" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="184" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11269,7 +11276,7 @@
         <v>183</v>
       </c>
       <c r="N184" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O184" s="3"/>
       <c r="P184" s="55"/>
@@ -11345,7 +11352,7 @@
         <v>185</v>
       </c>
       <c r="N186" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O186" s="1"/>
       <c r="P186" s="55"/>
@@ -11397,7 +11404,7 @@
       <c r="V187" s="9"/>
       <c r="W187" s="9"/>
       <c r="X187" s="61" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="188" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11472,7 +11479,7 @@
       <c r="S189" s="9"/>
       <c r="T189" s="9"/>
       <c r="U189" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V189" s="9"/>
       <c r="W189" s="9"/>
@@ -11629,7 +11636,7 @@
         <v>404</v>
       </c>
       <c r="T193" s="9" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="U193" s="9"/>
       <c r="V193" s="9"/>
@@ -11675,7 +11682,7 @@
       <c r="V194" s="9"/>
       <c r="W194" s="9"/>
       <c r="X194" s="57" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="195" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11741,7 +11748,7 @@
         <v>195</v>
       </c>
       <c r="N196" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O196" s="3"/>
       <c r="P196" s="55"/>
@@ -11788,7 +11795,7 @@
       <c r="S197" s="9"/>
       <c r="T197" s="9"/>
       <c r="U197" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V197" s="9"/>
       <c r="W197" s="9"/>
@@ -11871,7 +11878,7 @@
       <c r="V199" s="9"/>
       <c r="W199" s="9"/>
       <c r="X199" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="200" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11899,7 +11906,7 @@
         <v>199</v>
       </c>
       <c r="N200" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O200" s="1"/>
       <c r="P200" s="55" t="s">
@@ -11913,7 +11920,7 @@
       <c r="V200" s="9"/>
       <c r="W200" s="9"/>
       <c r="X200" s="57" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="201" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12017,7 +12024,7 @@
         <v>202</v>
       </c>
       <c r="N203" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O203" s="3"/>
       <c r="P203" s="55"/>
@@ -12093,7 +12100,7 @@
         <v>204</v>
       </c>
       <c r="N205" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="O205" s="3" t="s">
         <v>0</v>
@@ -12107,7 +12114,7 @@
       <c r="V205" s="9"/>
       <c r="W205" s="9"/>
       <c r="X205" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="206" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12173,7 +12180,7 @@
         <v>206</v>
       </c>
       <c r="N207" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O207" s="1"/>
       <c r="P207" s="55" t="s">
@@ -12187,7 +12194,7 @@
       <c r="V207" s="9"/>
       <c r="W207" s="9"/>
       <c r="X207" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="208" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12254,7 +12261,7 @@
         <v>208</v>
       </c>
       <c r="N209" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O209" s="1"/>
       <c r="P209" s="55"/>
@@ -12330,7 +12337,7 @@
         <v>210</v>
       </c>
       <c r="N211" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O211" s="1"/>
       <c r="P211" s="55"/>
@@ -12458,7 +12465,7 @@
       <c r="V214" s="9"/>
       <c r="W214" s="9"/>
       <c r="X214" s="57" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="215" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12486,7 +12493,7 @@
         <v>214</v>
       </c>
       <c r="N215" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O215" s="3" t="s">
         <v>17</v>
@@ -12496,13 +12503,11 @@
       <c r="R215" s="9"/>
       <c r="S215" s="9"/>
       <c r="T215" s="9"/>
-      <c r="U215" s="9" t="s">
-        <v>815</v>
-      </c>
+      <c r="U215" s="9"/>
       <c r="V215" s="9"/>
       <c r="W215" s="9"/>
       <c r="X215" s="57" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="216" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12582,7 +12587,7 @@
       <c r="V217" s="9"/>
       <c r="W217" s="9"/>
       <c r="X217" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="218" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12648,7 +12653,7 @@
         <v>218</v>
       </c>
       <c r="N219" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O219" s="3"/>
       <c r="P219" s="55"/>
@@ -12695,7 +12700,7 @@
       <c r="S220" s="9"/>
       <c r="T220" s="9"/>
       <c r="U220" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V220" s="9"/>
       <c r="W220" s="9"/>
@@ -12766,7 +12771,7 @@
         <v>221</v>
       </c>
       <c r="N222" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O222" s="1"/>
       <c r="P222" s="55"/>
@@ -12818,7 +12823,7 @@
       <c r="V223" s="9"/>
       <c r="W223" s="9"/>
       <c r="X223" s="61" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="224" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12882,7 +12887,7 @@
         <v>2</v>
       </c>
       <c r="N225" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>0</v>
@@ -12896,7 +12901,7 @@
       <c r="V225" s="9"/>
       <c r="W225" s="9"/>
       <c r="X225" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="226" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12924,7 +12929,7 @@
         <v>3</v>
       </c>
       <c r="N226" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>0</v>
@@ -12938,7 +12943,7 @@
       <c r="V226" s="9"/>
       <c r="W226" s="9"/>
       <c r="X226" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="227" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13042,7 +13047,7 @@
         <v>6</v>
       </c>
       <c r="N229" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O229" s="1"/>
       <c r="P229" s="55"/>
@@ -13085,13 +13090,17 @@
       <c r="O230" s="1"/>
       <c r="P230" s="55"/>
       <c r="Q230" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R230" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R230" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="S230" s="9"/>
-      <c r="T230" s="9"/>
+      <c r="S230" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T230" s="9" t="s">
+        <v>892</v>
+      </c>
       <c r="U230" s="9"/>
       <c r="V230" s="9"/>
       <c r="W230" s="9"/>
@@ -13160,7 +13169,7 @@
         <v>9</v>
       </c>
       <c r="N232" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O232" s="3"/>
       <c r="P232" s="55"/>
@@ -13198,7 +13207,7 @@
         <v>10</v>
       </c>
       <c r="N233" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O233" s="3" t="s">
         <v>0</v>
@@ -13212,7 +13221,7 @@
       <c r="V233" s="9"/>
       <c r="W233" s="9"/>
       <c r="X233" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="234" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13278,7 +13287,7 @@
         <v>12</v>
       </c>
       <c r="N235" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O235" s="1"/>
       <c r="P235" s="55"/>
@@ -13321,16 +13330,16 @@
       <c r="O236" s="1"/>
       <c r="P236" s="55"/>
       <c r="Q236" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R236" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R236" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S236" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T236" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T236" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U236" s="9"/>
       <c r="V236" s="9"/>
@@ -13438,7 +13447,7 @@
         <v>16</v>
       </c>
       <c r="N239" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>0</v>
@@ -13452,7 +13461,7 @@
       <c r="V239" s="9"/>
       <c r="W239" s="9"/>
       <c r="X239" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="240" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13518,7 +13527,7 @@
         <v>18</v>
       </c>
       <c r="N241" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O241" s="1"/>
       <c r="P241" s="55"/>
@@ -13561,16 +13570,16 @@
       <c r="O242" s="3"/>
       <c r="P242" s="55"/>
       <c r="Q242" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R242" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R242" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S242" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T242" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T242" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U242" s="9"/>
       <c r="V242" s="9"/>
@@ -13678,7 +13687,7 @@
         <v>22</v>
       </c>
       <c r="N245" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O245" s="3" t="s">
         <v>0</v>
@@ -13692,7 +13701,7 @@
       <c r="V245" s="9"/>
       <c r="W245" s="9"/>
       <c r="X245" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="246" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13758,7 +13767,7 @@
         <v>24</v>
       </c>
       <c r="N247" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O247" s="1"/>
       <c r="P247" s="55"/>
@@ -13801,16 +13810,16 @@
       <c r="O248" s="3"/>
       <c r="P248" s="55"/>
       <c r="Q248" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R248" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R248" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S248" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T248" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T248" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U248" s="9"/>
       <c r="V248" s="9"/>
@@ -13880,7 +13889,7 @@
         <v>27</v>
       </c>
       <c r="N250" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O250" s="3" t="s">
         <v>0</v>
@@ -13894,7 +13903,7 @@
       <c r="V250" s="9"/>
       <c r="W250" s="9"/>
       <c r="X250" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="251" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13922,7 +13931,7 @@
         <v>28</v>
       </c>
       <c r="N251" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O251" s="3" t="s">
         <v>0</v>
@@ -13936,7 +13945,7 @@
       <c r="V251" s="9"/>
       <c r="W251" s="9"/>
       <c r="X251" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="252" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14002,7 +14011,7 @@
         <v>30</v>
       </c>
       <c r="N253" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O253" s="1"/>
       <c r="P253" s="55"/>
@@ -14045,16 +14054,16 @@
       <c r="O254" s="1"/>
       <c r="P254" s="55"/>
       <c r="Q254" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R254" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R254" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S254" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T254" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T254" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U254" s="9"/>
       <c r="V254" s="9"/>
@@ -14162,7 +14171,7 @@
         <v>34</v>
       </c>
       <c r="N257" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O257" s="3"/>
       <c r="P257" s="55"/>
@@ -14238,7 +14247,7 @@
         <v>36</v>
       </c>
       <c r="N259" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O259" s="1"/>
       <c r="P259" s="55"/>
@@ -14281,16 +14290,16 @@
       <c r="O260" s="1"/>
       <c r="P260" s="55"/>
       <c r="Q260" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R260" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R260" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S260" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T260" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T260" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U260" s="9"/>
       <c r="V260" s="9"/>
@@ -14398,7 +14407,7 @@
         <v>40</v>
       </c>
       <c r="N263" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>0</v>
@@ -14412,7 +14421,7 @@
       <c r="V263" s="9"/>
       <c r="W263" s="9"/>
       <c r="X263" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="264" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14440,7 +14449,7 @@
         <v>41</v>
       </c>
       <c r="N264" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O264" s="3"/>
       <c r="P264" s="55"/>
@@ -14478,7 +14487,7 @@
         <v>42</v>
       </c>
       <c r="N265" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O265" s="1"/>
       <c r="P265" s="55"/>
@@ -14521,16 +14530,16 @@
       <c r="O266" s="1"/>
       <c r="P266" s="55"/>
       <c r="Q266" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R266" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R266" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S266" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T266" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T266" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U266" s="9"/>
       <c r="V266" s="9"/>
@@ -14714,7 +14723,7 @@
         <v>48</v>
       </c>
       <c r="N271" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O271" s="3"/>
       <c r="P271" s="55"/>
@@ -14757,16 +14766,16 @@
       <c r="O272" s="3"/>
       <c r="P272" s="55"/>
       <c r="Q272" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R272" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R272" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S272" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T272" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T272" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U272" s="9"/>
       <c r="V272" s="9"/>
@@ -14835,7 +14844,7 @@
         <v>51</v>
       </c>
       <c r="N274" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O274" s="1"/>
       <c r="P274" s="55"/>
@@ -14873,7 +14882,7 @@
         <v>52</v>
       </c>
       <c r="N275" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O275" s="1"/>
       <c r="P275" s="55"/>
@@ -14949,7 +14958,7 @@
         <v>54</v>
       </c>
       <c r="N277" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O277" s="3"/>
       <c r="P277" s="55"/>
@@ -14992,16 +15001,16 @@
       <c r="O278" s="3"/>
       <c r="P278" s="55"/>
       <c r="Q278" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R278" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R278" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S278" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T278" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T278" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U278" s="9"/>
       <c r="V278" s="9"/>
@@ -15071,7 +15080,7 @@
         <v>57</v>
       </c>
       <c r="N280" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O280" s="3"/>
       <c r="P280" s="55"/>
@@ -15185,7 +15194,7 @@
         <v>60</v>
       </c>
       <c r="N283" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O283" s="1"/>
       <c r="P283" s="55"/>
@@ -15228,16 +15237,16 @@
       <c r="O284" s="3"/>
       <c r="P284" s="55"/>
       <c r="Q284" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R284" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R284" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S284" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T284" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T284" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U284" s="9"/>
       <c r="V284" s="9"/>
@@ -15307,7 +15316,7 @@
         <v>63</v>
       </c>
       <c r="N286" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O286" s="3"/>
       <c r="P286" s="55"/>
@@ -15359,7 +15368,7 @@
       <c r="V287" s="9"/>
       <c r="W287" s="9"/>
       <c r="X287" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="288" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15387,7 +15396,7 @@
         <v>65</v>
       </c>
       <c r="N288" s="18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O288" s="3"/>
       <c r="P288" s="55"/>
@@ -15425,7 +15434,7 @@
         <v>66</v>
       </c>
       <c r="N289" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O289" s="3"/>
       <c r="P289" s="55"/>
@@ -15468,16 +15477,16 @@
       <c r="O290" s="3"/>
       <c r="P290" s="55"/>
       <c r="Q290" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R290" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R290" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S290" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T290" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T290" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U290" s="9"/>
       <c r="V290" s="9"/>
@@ -15547,7 +15556,7 @@
         <v>69</v>
       </c>
       <c r="N292" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O292" s="3" t="s">
         <v>0</v>
@@ -15561,7 +15570,7 @@
       <c r="V292" s="9"/>
       <c r="W292" s="9"/>
       <c r="X292" s="18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="293" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15589,7 +15598,7 @@
         <v>70</v>
       </c>
       <c r="N293" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O293" s="3" t="s">
         <v>0</v>
@@ -15603,7 +15612,7 @@
       <c r="V293" s="9"/>
       <c r="W293" s="9"/>
       <c r="X293" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="294" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15669,7 +15678,7 @@
         <v>72</v>
       </c>
       <c r="N295" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O295" s="3"/>
       <c r="P295" s="55"/>
@@ -15712,16 +15721,16 @@
       <c r="O296" s="3"/>
       <c r="P296" s="55"/>
       <c r="Q296" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R296" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R296" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S296" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T296" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T296" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U296" s="9"/>
       <c r="V296" s="9"/>
@@ -15805,7 +15814,7 @@
       <c r="V298" s="9"/>
       <c r="W298" s="9"/>
       <c r="X298" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="299" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15833,7 +15842,7 @@
         <v>76</v>
       </c>
       <c r="N299" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O299" s="1"/>
       <c r="P299" s="55"/>
@@ -15909,7 +15918,7 @@
         <v>78</v>
       </c>
       <c r="N301" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O301" s="1"/>
       <c r="P301" s="55"/>
@@ -15956,16 +15965,16 @@
       <c r="Q302" s="9"/>
       <c r="R302" s="9"/>
       <c r="S302" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T302" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T302" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U302" s="9"/>
       <c r="V302" s="9"/>
       <c r="W302" s="9"/>
       <c r="X302" s="57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="303" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16067,7 +16076,7 @@
         <v>3</v>
       </c>
       <c r="N305" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O305" s="3" t="s">
         <v>0</v>
@@ -16081,7 +16090,7 @@
       <c r="V305" s="9"/>
       <c r="W305" s="9"/>
       <c r="X305" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="306" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16123,7 +16132,7 @@
       <c r="V306" s="9"/>
       <c r="W306" s="9"/>
       <c r="X306" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="307" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16151,7 +16160,7 @@
         <v>5</v>
       </c>
       <c r="N307" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O307" s="3"/>
       <c r="P307" s="55"/>
@@ -16194,16 +16203,16 @@
       <c r="O308" s="3"/>
       <c r="P308" s="55"/>
       <c r="Q308" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R308" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R308" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S308" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T308" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T308" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U308" s="9"/>
       <c r="V308" s="9"/>
@@ -16311,7 +16320,7 @@
         <v>9</v>
       </c>
       <c r="N311" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O311" s="3" t="s">
         <v>0</v>
@@ -16325,7 +16334,7 @@
       <c r="V311" s="9"/>
       <c r="W311" s="9"/>
       <c r="X311" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="312" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16353,7 +16362,7 @@
         <v>10</v>
       </c>
       <c r="N312" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O312" s="1"/>
       <c r="P312" s="55"/>
@@ -16391,7 +16400,7 @@
         <v>11</v>
       </c>
       <c r="N313" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O313" s="1"/>
       <c r="P313" s="55"/>
@@ -16434,16 +16443,16 @@
       <c r="O314" s="3"/>
       <c r="P314" s="55"/>
       <c r="Q314" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R314" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R314" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S314" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T314" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T314" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U314" s="9"/>
       <c r="V314" s="9"/>
@@ -16513,7 +16522,7 @@
         <v>14</v>
       </c>
       <c r="N316" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O316" s="3" t="s">
         <v>0</v>
@@ -16527,7 +16536,7 @@
       <c r="V316" s="9"/>
       <c r="W316" s="9"/>
       <c r="X316" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="317" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16555,7 +16564,7 @@
         <v>15</v>
       </c>
       <c r="N317" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O317" s="3" t="s">
         <v>0</v>
@@ -16569,7 +16578,7 @@
       <c r="V317" s="9"/>
       <c r="W317" s="9"/>
       <c r="X317" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="318" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16635,7 +16644,7 @@
         <v>17</v>
       </c>
       <c r="N319" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O319" s="1"/>
       <c r="P319" s="55"/>
@@ -16678,16 +16687,16 @@
       <c r="O320" s="1"/>
       <c r="P320" s="55"/>
       <c r="Q320" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R320" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R320" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S320" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T320" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T320" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U320" s="9"/>
       <c r="V320" s="9"/>
@@ -16757,7 +16766,7 @@
         <v>20</v>
       </c>
       <c r="N322" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O322" s="3"/>
       <c r="P322" s="55"/>
@@ -16795,7 +16804,7 @@
         <v>21</v>
       </c>
       <c r="N323" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O323" s="3" t="s">
         <v>0</v>
@@ -16809,7 +16818,7 @@
       <c r="V323" s="9"/>
       <c r="W323" s="9"/>
       <c r="X323" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="324" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16875,7 +16884,7 @@
         <v>23</v>
       </c>
       <c r="N325" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O325" s="1"/>
       <c r="P325" s="55"/>
@@ -16918,16 +16927,16 @@
       <c r="O326" s="1"/>
       <c r="P326" s="55"/>
       <c r="Q326" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R326" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R326" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S326" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T326" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T326" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U326" s="9"/>
       <c r="V326" s="9"/>
@@ -16997,7 +17006,7 @@
         <v>26</v>
       </c>
       <c r="N328" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O328" s="3" t="s">
         <v>0</v>
@@ -17011,7 +17020,7 @@
       <c r="V328" s="9"/>
       <c r="W328" s="9"/>
       <c r="X328" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="329" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17053,7 +17062,7 @@
       <c r="V329" s="9"/>
       <c r="W329" s="9"/>
       <c r="X329" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="330" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17119,7 +17128,7 @@
         <v>29</v>
       </c>
       <c r="N331" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O331" s="1"/>
       <c r="P331" s="55"/>
@@ -17162,16 +17171,16 @@
       <c r="O332" s="1"/>
       <c r="P332" s="55"/>
       <c r="Q332" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R332" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R332" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S332" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T332" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T332" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U332" s="9"/>
       <c r="V332" s="9"/>
@@ -17255,7 +17264,7 @@
       <c r="V334" s="9"/>
       <c r="W334" s="9"/>
       <c r="X334" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="335" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17283,7 +17292,7 @@
         <v>33</v>
       </c>
       <c r="N335" s="18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="O335" s="3" t="s">
         <v>0</v>
@@ -17297,7 +17306,7 @@
       <c r="V335" s="9"/>
       <c r="W335" s="9"/>
       <c r="X335" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="336" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17363,7 +17372,7 @@
         <v>35</v>
       </c>
       <c r="N337" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O337" s="3"/>
       <c r="P337" s="55"/>
@@ -17406,16 +17415,16 @@
       <c r="O338" s="3"/>
       <c r="P338" s="55"/>
       <c r="Q338" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R338" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R338" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S338" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T338" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T338" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U338" s="9"/>
       <c r="V338" s="9"/>
@@ -17499,7 +17508,7 @@
       <c r="V340" s="9"/>
       <c r="W340" s="9"/>
       <c r="X340" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="341" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17579,7 +17588,7 @@
       <c r="V342" s="9"/>
       <c r="W342" s="9"/>
       <c r="X342" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="343" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17621,7 +17630,7 @@
       <c r="V343" s="9"/>
       <c r="W343" s="9"/>
       <c r="X343" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="344" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17649,7 +17658,7 @@
         <v>42</v>
       </c>
       <c r="N344" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O344" s="1"/>
       <c r="P344" s="55"/>
@@ -17692,16 +17701,16 @@
       <c r="O345" s="1"/>
       <c r="P345" s="55"/>
       <c r="Q345" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R345" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R345" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S345" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T345" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T345" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U345" s="9"/>
       <c r="V345" s="9"/>
@@ -17771,7 +17780,7 @@
         <v>45</v>
       </c>
       <c r="N347" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O347" s="3"/>
       <c r="P347" s="55"/>
@@ -17823,7 +17832,7 @@
       <c r="V348" s="9"/>
       <c r="W348" s="9"/>
       <c r="X348" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="349" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17889,7 +17898,7 @@
         <v>48</v>
       </c>
       <c r="N350" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O350" s="1"/>
       <c r="P350" s="55"/>
@@ -17932,16 +17941,16 @@
       <c r="O351" s="1"/>
       <c r="P351" s="55"/>
       <c r="Q351" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R351" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R351" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="S351" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T351" s="9" t="s">
         <v>892</v>
-      </c>
-      <c r="T351" s="9" t="s">
-        <v>893</v>
       </c>
       <c r="U351" s="9"/>
       <c r="V351" s="9"/>
@@ -18024,7 +18033,7 @@
       <c r="V353" s="9"/>
       <c r="W353" s="9"/>
       <c r="X353" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="354" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18066,7 +18075,7 @@
       <c r="V354" s="9"/>
       <c r="W354" s="9"/>
       <c r="X354" s="18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="355" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18175,17 +18184,13 @@
       <c r="O357" s="1"/>
       <c r="P357" s="55"/>
       <c r="Q357" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R357" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="R357" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="S357" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="T357" s="9" t="s">
-        <v>893</v>
-      </c>
+      <c r="S357" s="9"/>
+      <c r="T357" s="9"/>
       <c r="U357" s="9"/>
       <c r="V357" s="9"/>
       <c r="W357" s="9"/>
@@ -18254,7 +18259,7 @@
         <v>57</v>
       </c>
       <c r="N359" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O359" s="3" t="s">
         <v>0</v>
@@ -18268,7 +18273,7 @@
       <c r="V359" s="9"/>
       <c r="W359" s="9"/>
       <c r="X359" s="18" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="360" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18296,7 +18301,7 @@
         <v>58</v>
       </c>
       <c r="N360" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O360" s="3" t="s">
         <v>0</v>
@@ -18310,7 +18315,7 @@
       <c r="V360" s="9"/>
       <c r="W360" s="9"/>
       <c r="X360" s="18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="361" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18418,8 +18423,12 @@
       </c>
       <c r="O363" s="1"/>
       <c r="P363" s="55"/>
-      <c r="Q363" s="9"/>
-      <c r="R363" s="9"/>
+      <c r="Q363" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R363" s="9" t="s">
+        <v>830</v>
+      </c>
       <c r="S363" s="9"/>
       <c r="T363" s="9"/>
       <c r="U363" s="9"/>
@@ -18504,7 +18513,7 @@
       <c r="V365" s="9"/>
       <c r="W365" s="9"/>
       <c r="X365" s="18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="366" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18546,7 +18555,7 @@
       <c r="V366" s="9"/>
       <c r="W366" s="9"/>
       <c r="X366" s="18" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="367" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18655,10 +18664,10 @@
       <c r="O369" s="1"/>
       <c r="P369" s="55"/>
       <c r="Q369" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R369" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R369" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S369" s="9"/>
       <c r="T369" s="9"/>
@@ -18744,7 +18753,7 @@
       <c r="V371" s="9"/>
       <c r="W371" s="9"/>
       <c r="X371" s="18" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="372" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18772,7 +18781,7 @@
         <v>70</v>
       </c>
       <c r="N372" s="18" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O372" s="3" t="s">
         <v>0</v>
@@ -18786,7 +18795,7 @@
       <c r="V372" s="9"/>
       <c r="W372" s="9"/>
       <c r="X372" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="373" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18895,10 +18904,10 @@
       <c r="O375" s="3"/>
       <c r="P375" s="55"/>
       <c r="Q375" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R375" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R375" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S375" s="9"/>
       <c r="T375" s="9"/>
@@ -18970,7 +18979,7 @@
         <v>75</v>
       </c>
       <c r="N377" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O377" s="1"/>
       <c r="P377" s="55"/>
@@ -19008,7 +19017,7 @@
         <v>76</v>
       </c>
       <c r="N378" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O378" s="1"/>
       <c r="P378" s="55"/>
@@ -19127,10 +19136,10 @@
       <c r="O381" s="3"/>
       <c r="P381" s="55"/>
       <c r="Q381" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R381" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R381" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S381" s="9"/>
       <c r="T381" s="9"/>
@@ -19216,7 +19225,7 @@
       <c r="V383" s="9"/>
       <c r="W383" s="9"/>
       <c r="X383" s="18" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="384" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19258,7 +19267,7 @@
       <c r="V384" s="9"/>
       <c r="W384" s="9"/>
       <c r="X384" s="18" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="385" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19367,10 +19376,10 @@
       <c r="O387" s="1"/>
       <c r="P387" s="55"/>
       <c r="Q387" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R387" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R387" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S387" s="9"/>
       <c r="T387" s="9"/>
@@ -19456,7 +19465,7 @@
       <c r="V389" s="9"/>
       <c r="W389" s="9"/>
       <c r="X389" s="18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="390" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19498,7 +19507,7 @@
       <c r="V390" s="9"/>
       <c r="W390" s="9"/>
       <c r="X390" s="18" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="391" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19607,10 +19616,10 @@
       <c r="O393" s="3"/>
       <c r="P393" s="55"/>
       <c r="Q393" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R393" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R393" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S393" s="9"/>
       <c r="T393" s="9"/>
@@ -19734,7 +19743,7 @@
       <c r="V396" s="9"/>
       <c r="W396" s="9"/>
       <c r="X396" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="397" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19843,10 +19852,10 @@
       <c r="O399" s="1"/>
       <c r="P399" s="55"/>
       <c r="Q399" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R399" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R399" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S399" s="9"/>
       <c r="T399" s="9"/>
@@ -19918,7 +19927,7 @@
         <v>99</v>
       </c>
       <c r="N401" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O401" s="3"/>
       <c r="P401" s="55"/>
@@ -19927,7 +19936,7 @@
       <c r="S401" s="9"/>
       <c r="T401" s="9"/>
       <c r="U401" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V401" s="9"/>
       <c r="W401" s="9"/>
@@ -19972,7 +19981,7 @@
       <c r="V402" s="9"/>
       <c r="W402" s="9"/>
       <c r="X402" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="403" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20090,7 +20099,7 @@
       <c r="V405" s="9"/>
       <c r="W405" s="9"/>
       <c r="X405" s="58" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="406" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20168,7 +20177,7 @@
       <c r="V407" s="9"/>
       <c r="W407" s="9"/>
       <c r="X407" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="408" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20196,7 +20205,7 @@
         <v>3</v>
       </c>
       <c r="N408" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="O408" s="3" t="s">
         <v>0</v>
@@ -20210,7 +20219,7 @@
       <c r="V408" s="9"/>
       <c r="W408" s="9"/>
       <c r="X408" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="409" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20319,10 +20328,10 @@
       <c r="O411" s="1"/>
       <c r="P411" s="55"/>
       <c r="Q411" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R411" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R411" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S411" s="9"/>
       <c r="T411" s="9"/>
@@ -20551,10 +20560,10 @@
       <c r="O417" s="1"/>
       <c r="P417" s="55"/>
       <c r="Q417" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R417" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R417" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S417" s="9"/>
       <c r="T417" s="9"/>
@@ -20626,7 +20635,7 @@
         <v>14</v>
       </c>
       <c r="N419" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O419" s="1"/>
       <c r="P419" s="55"/>
@@ -20678,7 +20687,7 @@
       <c r="V420" s="9"/>
       <c r="W420" s="9"/>
       <c r="X420" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="421" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20787,10 +20796,10 @@
       <c r="O423" s="3"/>
       <c r="P423" s="55"/>
       <c r="Q423" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R423" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R423" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S423" s="9"/>
       <c r="T423" s="9"/>
@@ -20862,7 +20871,7 @@
         <v>20</v>
       </c>
       <c r="N425" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O425" s="1"/>
       <c r="P425" s="55"/>
@@ -20914,7 +20923,7 @@
       <c r="V426" s="9"/>
       <c r="W426" s="5"/>
       <c r="X426" s="18" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="427" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21023,10 +21032,10 @@
       <c r="O429" s="3"/>
       <c r="P429" s="55"/>
       <c r="Q429" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R429" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R429" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S429" s="9"/>
       <c r="T429" s="9"/>
@@ -21098,7 +21107,7 @@
         <v>26</v>
       </c>
       <c r="N431" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O431" s="3"/>
       <c r="P431" s="55"/>
@@ -21150,7 +21159,7 @@
       <c r="V432" s="9"/>
       <c r="W432" s="9"/>
       <c r="X432" s="18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="433" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21259,10 +21268,10 @@
       <c r="O435" s="3"/>
       <c r="P435" s="55"/>
       <c r="Q435" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R435" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R435" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S435" s="9"/>
       <c r="T435" s="9"/>
@@ -21334,7 +21343,7 @@
         <v>32</v>
       </c>
       <c r="N437" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O437" s="3" t="s">
         <v>0</v>
@@ -21348,7 +21357,7 @@
       <c r="V437" s="9"/>
       <c r="W437" s="9"/>
       <c r="X437" s="18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="438" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21376,7 +21385,7 @@
         <v>33</v>
       </c>
       <c r="N438" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O438" s="3" t="s">
         <v>0</v>
@@ -21390,7 +21399,7 @@
       <c r="V438" s="9"/>
       <c r="W438" s="9"/>
       <c r="X438" s="18" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="439" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21499,10 +21508,10 @@
       <c r="O441" s="1"/>
       <c r="P441" s="55"/>
       <c r="Q441" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R441" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R441" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S441" s="9"/>
       <c r="T441" s="9"/>
@@ -21588,7 +21597,7 @@
       <c r="V443" s="9"/>
       <c r="W443" s="9"/>
       <c r="X443" s="18" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="444" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21616,7 +21625,7 @@
         <v>39</v>
       </c>
       <c r="N444" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O444" s="1"/>
       <c r="P444" s="55"/>
@@ -21735,10 +21744,10 @@
       <c r="O447" s="3"/>
       <c r="P447" s="55"/>
       <c r="Q447" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R447" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R447" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S447" s="9"/>
       <c r="T447" s="9"/>
@@ -21824,7 +21833,7 @@
       <c r="V449" s="9"/>
       <c r="W449" s="9"/>
       <c r="X449" s="18" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="450" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21852,7 +21861,7 @@
         <v>45</v>
       </c>
       <c r="N450" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O450" s="3"/>
       <c r="P450" s="55"/>
@@ -21971,10 +21980,10 @@
       <c r="O453" s="3"/>
       <c r="P453" s="55"/>
       <c r="Q453" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R453" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R453" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S453" s="9"/>
       <c r="T453" s="9"/>
@@ -22046,7 +22055,7 @@
         <v>50</v>
       </c>
       <c r="N455" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O455" s="3"/>
       <c r="P455" s="55"/>
@@ -22097,7 +22106,7 @@
       <c r="V456" s="9"/>
       <c r="W456" s="9"/>
       <c r="X456" s="18" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="457" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22206,10 +22215,10 @@
       <c r="O459" s="3"/>
       <c r="P459" s="55"/>
       <c r="Q459" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R459" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R459" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S459" s="9"/>
       <c r="T459" s="9"/>
@@ -22281,7 +22290,7 @@
         <v>56</v>
       </c>
       <c r="N461" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O461" s="3"/>
       <c r="P461" s="55"/>
@@ -22319,7 +22328,7 @@
         <v>57</v>
       </c>
       <c r="N462" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O462" s="3" t="s">
         <v>0</v>
@@ -22333,7 +22342,7 @@
       <c r="V462" s="9"/>
       <c r="W462" s="9"/>
       <c r="X462" s="18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="463" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22442,10 +22451,10 @@
       <c r="O465" s="3"/>
       <c r="P465" s="55"/>
       <c r="Q465" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R465" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R465" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S465" s="9"/>
       <c r="T465" s="9"/>
@@ -22531,7 +22540,7 @@
       <c r="V467" s="9"/>
       <c r="W467" s="9"/>
       <c r="X467" s="18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="468" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22573,7 +22582,7 @@
       <c r="V468" s="9"/>
       <c r="W468" s="9"/>
       <c r="X468" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="469" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22682,10 +22691,10 @@
       <c r="O471" s="3"/>
       <c r="P471" s="55"/>
       <c r="Q471" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R471" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R471" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S471" s="9"/>
       <c r="T471" s="9"/>
@@ -22771,7 +22780,7 @@
       <c r="V473" s="9"/>
       <c r="W473" s="9"/>
       <c r="X473" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="474" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22799,7 +22808,7 @@
         <v>69</v>
       </c>
       <c r="N474" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O474" s="3" t="s">
         <v>0</v>
@@ -22813,7 +22822,7 @@
       <c r="V474" s="9"/>
       <c r="W474" s="9"/>
       <c r="X474" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="475" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22922,10 +22931,10 @@
       <c r="O477" s="3"/>
       <c r="P477" s="55"/>
       <c r="Q477" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R477" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R477" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S477" s="9"/>
       <c r="T477" s="9"/>
@@ -22997,7 +23006,7 @@
         <v>74</v>
       </c>
       <c r="N479" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O479" s="3"/>
       <c r="P479" s="55"/>
@@ -23035,7 +23044,7 @@
         <v>75</v>
       </c>
       <c r="N480" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O480" s="1"/>
       <c r="P480" s="55"/>
@@ -23154,10 +23163,10 @@
       <c r="O483" s="3"/>
       <c r="P483" s="55"/>
       <c r="Q483" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R483" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R483" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S483" s="9"/>
       <c r="T483" s="9"/>
@@ -23229,7 +23238,7 @@
         <v>80</v>
       </c>
       <c r="N485" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O485" s="1"/>
       <c r="P485" s="55"/>
@@ -23267,7 +23276,7 @@
         <v>81</v>
       </c>
       <c r="N486" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O486" s="1"/>
       <c r="P486" s="55"/>
@@ -23386,10 +23395,10 @@
       <c r="O489" s="3"/>
       <c r="P489" s="55"/>
       <c r="Q489" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R489" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R489" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S489" s="9"/>
       <c r="T489" s="9"/>
@@ -23461,7 +23470,7 @@
         <v>86</v>
       </c>
       <c r="N491" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O491" s="3" t="s">
         <v>0</v>
@@ -23475,7 +23484,7 @@
       <c r="V491" s="9"/>
       <c r="W491" s="9"/>
       <c r="X491" s="18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="492" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23517,7 +23526,7 @@
       <c r="V492" s="9"/>
       <c r="W492" s="9"/>
       <c r="X492" s="18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="493" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23626,10 +23635,10 @@
       <c r="O495" s="1"/>
       <c r="P495" s="55"/>
       <c r="Q495" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R495" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R495" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S495" s="9"/>
       <c r="T495" s="9"/>
@@ -23715,7 +23724,7 @@
       <c r="V497" s="9"/>
       <c r="W497" s="9"/>
       <c r="X497" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="498" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23757,7 +23766,7 @@
       <c r="V498" s="9"/>
       <c r="W498" s="9"/>
       <c r="X498" s="18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="499" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23866,10 +23875,10 @@
       <c r="O501" s="1"/>
       <c r="P501" s="55"/>
       <c r="Q501" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="R501" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="R501" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="S501" s="9"/>
       <c r="T501" s="9"/>
@@ -23955,7 +23964,7 @@
       <c r="V503" s="9"/>
       <c r="W503" s="9"/>
       <c r="X503" s="18" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="504" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23997,7 +24006,7 @@
       <c r="V504" s="9"/>
       <c r="W504" s="9"/>
       <c r="X504" s="18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="505" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24115,7 +24124,7 @@
       <c r="V507" s="9"/>
       <c r="W507" s="9"/>
       <c r="X507" s="57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="508" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24445,7 +24454,7 @@
         <v>9</v>
       </c>
       <c r="N516" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O516" s="1" t="s">
         <v>0</v>
@@ -24459,7 +24468,7 @@
       <c r="V516" s="9"/>
       <c r="W516" s="9"/>
       <c r="X516" s="18" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="517" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24577,7 +24586,7 @@
       <c r="V519" s="9"/>
       <c r="W519" s="9"/>
       <c r="X519" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="520" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24657,7 +24666,7 @@
       <c r="V521" s="9"/>
       <c r="W521" s="9"/>
       <c r="X521" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="522" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24761,7 +24770,7 @@
         <v>17</v>
       </c>
       <c r="N524" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O524" s="1"/>
       <c r="P524" s="55"/>
@@ -24837,7 +24846,7 @@
         <v>19</v>
       </c>
       <c r="N526" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O526" s="1" t="s">
         <v>0</v>
@@ -24851,7 +24860,7 @@
       <c r="V526" s="9"/>
       <c r="W526" s="9"/>
       <c r="X526" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="527" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24969,7 +24978,7 @@
       <c r="V529" s="9"/>
       <c r="W529" s="9"/>
       <c r="X529" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="530" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25035,7 +25044,7 @@
         <v>24</v>
       </c>
       <c r="N531" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O531" s="1" t="s">
         <v>0</v>
@@ -25049,7 +25058,7 @@
       <c r="V531" s="9"/>
       <c r="W531" s="9"/>
       <c r="X531" s="18" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="532" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25243,7 +25252,7 @@
       <c r="V536" s="9"/>
       <c r="W536" s="9"/>
       <c r="X536" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="537" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25361,7 +25370,7 @@
       <c r="V539" s="9"/>
       <c r="W539" s="9"/>
       <c r="X539" s="18" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="540" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25427,7 +25436,7 @@
         <v>34</v>
       </c>
       <c r="N541" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O541" s="3"/>
       <c r="P541" s="55"/>
@@ -25731,7 +25740,7 @@
         <v>42</v>
       </c>
       <c r="N549" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O549" s="3"/>
       <c r="P549" s="55"/>
@@ -25807,7 +25816,7 @@
         <v>44</v>
       </c>
       <c r="N551" s="18" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O551" s="1"/>
       <c r="P551" s="55"/>
@@ -25997,7 +26006,7 @@
         <v>49</v>
       </c>
       <c r="N556" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O556" s="1" t="s">
         <v>0</v>
@@ -26011,7 +26020,7 @@
       <c r="V556" s="9"/>
       <c r="W556" s="9"/>
       <c r="X556" s="18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="557" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -26123,7 +26132,7 @@
       <c r="S559" s="9"/>
       <c r="T559" s="9"/>
       <c r="U559" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V559" s="9"/>
       <c r="W559" s="9"/>
@@ -26306,7 +26315,7 @@
         <v>57</v>
       </c>
       <c r="N564" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O564" s="3"/>
       <c r="P564" s="55"/>
@@ -26762,7 +26771,7 @@
         <v>69</v>
       </c>
       <c r="N576" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="O576" s="1" t="s">
         <v>0</v>
@@ -26776,7 +26785,7 @@
       <c r="V576" s="9"/>
       <c r="W576" s="9"/>
       <c r="X576" s="18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="577" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -26880,7 +26889,7 @@
         <v>72</v>
       </c>
       <c r="N579" s="18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O579" s="1"/>
       <c r="P579" s="55"/>
@@ -27008,7 +27017,7 @@
       <c r="V582" s="9"/>
       <c r="W582" s="9"/>
       <c r="X582" s="57" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="583" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27072,7 +27081,7 @@
         <v>2</v>
       </c>
       <c r="N584" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O584" s="3"/>
       <c r="P584" s="55"/>
@@ -27274,7 +27283,7 @@
       <c r="V589" s="9"/>
       <c r="W589" s="9"/>
       <c r="X589" s="18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="590" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27354,7 +27363,7 @@
       <c r="V591" s="9"/>
       <c r="W591" s="9"/>
       <c r="X591" s="18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="592" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27458,7 +27467,7 @@
         <v>12</v>
       </c>
       <c r="N594" s="18" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="O594" s="3"/>
       <c r="P594" s="55"/>
@@ -27548,7 +27557,7 @@
       <c r="V596" s="9"/>
       <c r="W596" s="9"/>
       <c r="X596" s="18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="597" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27728,7 +27737,7 @@
         <v>19</v>
       </c>
       <c r="N601" s="18" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="O601" s="1"/>
       <c r="P601" s="55"/>
@@ -27842,7 +27851,7 @@
         <v>22</v>
       </c>
       <c r="N604" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O604" s="1"/>
       <c r="P604" s="55"/>
@@ -27932,7 +27941,7 @@
       <c r="V606" s="9"/>
       <c r="W606" s="9"/>
       <c r="X606" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="607" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -28112,7 +28121,7 @@
         <v>29</v>
       </c>
       <c r="N611" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O611" s="3"/>
       <c r="P611" s="55"/>
@@ -28416,7 +28425,7 @@
         <v>37</v>
       </c>
       <c r="N619" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O619" s="1"/>
       <c r="P619" s="55"/>
@@ -28506,7 +28515,7 @@
       <c r="V621" s="9"/>
       <c r="W621" s="9"/>
       <c r="X621" s="18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="622" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -28890,7 +28899,7 @@
       <c r="V631" s="9"/>
       <c r="W631" s="9"/>
       <c r="X631" s="18" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="632" spans="1:24" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -28995,7 +29004,7 @@
         <v>52</v>
       </c>
       <c r="N634" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O634" s="1" t="s">
         <v>0</v>
@@ -29009,7 +29018,7 @@
       <c r="V634" s="9"/>
       <c r="W634" s="9"/>
       <c r="X634" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="635" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29089,7 +29098,7 @@
       <c r="V636" s="9"/>
       <c r="W636" s="9"/>
       <c r="X636" s="18" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="637" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29269,7 +29278,7 @@
         <v>59</v>
       </c>
       <c r="N641" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O641" s="1" t="s">
         <v>0</v>
@@ -29283,7 +29292,7 @@
       <c r="V641" s="9"/>
       <c r="W641" s="9"/>
       <c r="X641" s="18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="642" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29387,7 +29396,7 @@
         <v>62</v>
       </c>
       <c r="N644" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O644" s="3"/>
       <c r="P644" s="55"/>
@@ -29463,7 +29472,7 @@
         <v>64</v>
       </c>
       <c r="N646" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O646" s="3"/>
       <c r="P646" s="55"/>
@@ -29577,7 +29586,7 @@
         <v>67</v>
       </c>
       <c r="N649" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O649" s="3"/>
       <c r="P649" s="55"/>
@@ -29653,7 +29662,7 @@
         <v>69</v>
       </c>
       <c r="N651" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O651" s="1"/>
       <c r="P651" s="55"/>
@@ -29842,7 +29851,7 @@
         <v>74</v>
       </c>
       <c r="N656" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O656" s="1" t="s">
         <v>0</v>
@@ -29856,7 +29865,7 @@
       <c r="V656" s="9"/>
       <c r="W656" s="9"/>
       <c r="X656" s="18" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="657" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29898,7 +29907,7 @@
       <c r="V657" s="9"/>
       <c r="W657" s="9"/>
       <c r="X657" s="57" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="658" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30052,7 +30061,7 @@
       <c r="V661" s="9"/>
       <c r="W661" s="9"/>
       <c r="X661" s="18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="662" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30156,7 +30165,7 @@
         <v>7</v>
       </c>
       <c r="N664" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O664" s="3"/>
       <c r="P664" s="55"/>
@@ -30246,7 +30255,7 @@
       <c r="V666" s="9"/>
       <c r="W666" s="9"/>
       <c r="X666" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="667" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30433,7 +30442,7 @@
       <c r="V671" s="9"/>
       <c r="W671" s="9"/>
       <c r="X671" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="672" spans="4:24" x14ac:dyDescent="0.25">
@@ -30534,7 +30543,7 @@
         <v>17</v>
       </c>
       <c r="N674" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O674" s="1" t="s">
         <v>0</v>
@@ -30548,7 +30557,7 @@
       <c r="V674" s="9"/>
       <c r="W674" s="9"/>
       <c r="X674" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="675" spans="5:24" x14ac:dyDescent="0.25">
@@ -30612,7 +30621,7 @@
         <v>19</v>
       </c>
       <c r="N676" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O676" s="1" t="s">
         <v>0</v>
@@ -30626,7 +30635,7 @@
       <c r="V676" s="9"/>
       <c r="W676" s="9"/>
       <c r="X676" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="677" spans="5:24" x14ac:dyDescent="0.25">
@@ -30727,7 +30736,7 @@
         <v>22</v>
       </c>
       <c r="N679" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O679" s="1" t="s">
         <v>0</v>
@@ -30741,7 +30750,7 @@
       <c r="V679" s="9"/>
       <c r="W679" s="9"/>
       <c r="X679" s="18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="680" spans="5:24" x14ac:dyDescent="0.25">
@@ -30805,7 +30814,7 @@
         <v>24</v>
       </c>
       <c r="N681" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O681" s="1"/>
       <c r="P681" s="55"/>
@@ -30929,7 +30938,7 @@
       <c r="V684" s="9"/>
       <c r="W684" s="9"/>
       <c r="X684" s="18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="685" spans="5:24" x14ac:dyDescent="0.25">
@@ -30992,7 +31001,7 @@
         <v>29</v>
       </c>
       <c r="N686" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O686" s="1" t="s">
         <v>0</v>
@@ -31006,7 +31015,7 @@
       <c r="V686" s="9"/>
       <c r="W686" s="9"/>
       <c r="X686" s="18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="687" spans="5:24" x14ac:dyDescent="0.25">
@@ -32208,7 +32217,7 @@
         <v>62</v>
       </c>
       <c r="N719" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="P719" s="55"/>
       <c r="Q719" s="9"/>
@@ -32294,7 +32303,7 @@
       <c r="V721" s="9"/>
       <c r="W721" s="9"/>
       <c r="X721" s="18" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="722" spans="5:24" x14ac:dyDescent="0.25">
@@ -32393,7 +32402,7 @@
         <v>67</v>
       </c>
       <c r="N724" s="18" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P724" s="55"/>
       <c r="Q724" s="9"/>
@@ -32479,7 +32488,7 @@
       <c r="V726" s="9"/>
       <c r="W726" s="9"/>
       <c r="X726" s="18" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="727" spans="5:24" x14ac:dyDescent="0.25">
@@ -32653,7 +32662,7 @@
         <v>74</v>
       </c>
       <c r="N731" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P731" s="55"/>
       <c r="Q731" s="9"/>
@@ -32833,7 +32842,7 @@
         <v>79</v>
       </c>
       <c r="N736" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="O736" s="1" t="s">
         <v>0</v>
@@ -32847,7 +32856,7 @@
       <c r="V736" s="9"/>
       <c r="W736" s="9"/>
       <c r="X736" s="18" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="737" spans="5:24" x14ac:dyDescent="0.25">
@@ -32888,7 +32897,7 @@
       <c r="V737" s="9"/>
       <c r="W737" s="9"/>
       <c r="X737" s="57" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="738" spans="5:24" x14ac:dyDescent="0.25">
@@ -32949,7 +32958,7 @@
         <v>2</v>
       </c>
       <c r="N739" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="P739" s="55"/>
       <c r="Q739" s="9"/>
@@ -33390,7 +33399,7 @@
         <v>14</v>
       </c>
       <c r="N751" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O751" s="1" t="s">
         <v>0</v>
@@ -33404,7 +33413,7 @@
       <c r="V751" s="9"/>
       <c r="W751" s="9"/>
       <c r="X751" s="18" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="752" spans="5:24" x14ac:dyDescent="0.25">
@@ -33683,7 +33692,7 @@
         <v>22</v>
       </c>
       <c r="N759" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O759" s="1" t="s">
         <v>0</v>
@@ -33694,12 +33703,12 @@
       <c r="S759" s="9"/>
       <c r="T759" s="9"/>
       <c r="U759" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V759" s="9"/>
       <c r="W759" s="9"/>
       <c r="X759" s="18" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="760" spans="5:24" x14ac:dyDescent="0.25">
@@ -33762,7 +33771,7 @@
         <v>24</v>
       </c>
       <c r="N761" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O761" s="1" t="s">
         <v>0</v>
@@ -33776,7 +33785,7 @@
       <c r="V761" s="9"/>
       <c r="W761" s="9"/>
       <c r="X761" s="18" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="762" spans="5:24" x14ac:dyDescent="0.25">
@@ -33875,7 +33884,7 @@
         <v>27</v>
       </c>
       <c r="N764" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P764" s="55"/>
       <c r="Q764" s="9"/>
@@ -33947,7 +33956,7 @@
         <v>29</v>
       </c>
       <c r="N766" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P766" s="55"/>
       <c r="Q766" s="9"/>
@@ -34055,7 +34064,7 @@
         <v>32</v>
       </c>
       <c r="N769" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P769" s="55"/>
       <c r="Q769" s="9"/>
@@ -34091,7 +34100,7 @@
         <v>33</v>
       </c>
       <c r="N770" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O770" s="1" t="s">
         <v>0</v>
@@ -34105,7 +34114,7 @@
       <c r="V770" s="9"/>
       <c r="W770" s="9"/>
       <c r="X770" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="771" spans="5:24" x14ac:dyDescent="0.25">
@@ -34243,7 +34252,7 @@
         <v>37</v>
       </c>
       <c r="N774" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O774" s="1" t="s">
         <v>0</v>
@@ -34257,7 +34266,7 @@
       <c r="V774" s="9"/>
       <c r="W774" s="9"/>
       <c r="X774" s="18" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="775" spans="5:24" x14ac:dyDescent="0.25">
@@ -34321,7 +34330,7 @@
         <v>39</v>
       </c>
       <c r="N776" s="18" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O776" s="1" t="s">
         <v>0</v>
@@ -34335,7 +34344,7 @@
       <c r="V776" s="9"/>
       <c r="W776" s="9"/>
       <c r="X776" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="777" spans="5:24" x14ac:dyDescent="0.25">
@@ -34448,7 +34457,7 @@
       <c r="V779" s="9"/>
       <c r="W779" s="9"/>
       <c r="X779" s="18" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="780" spans="5:24" x14ac:dyDescent="0.25">
@@ -34525,7 +34534,7 @@
       <c r="V781" s="9"/>
       <c r="W781" s="9"/>
       <c r="X781" s="18" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="782" spans="5:24" x14ac:dyDescent="0.25">
@@ -34710,7 +34719,7 @@
       <c r="V786" s="9"/>
       <c r="W786" s="9"/>
       <c r="X786" s="18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="787" spans="4:24" x14ac:dyDescent="0.25">
@@ -35175,7 +35184,7 @@
         <v>62</v>
       </c>
       <c r="N799" s="18" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="O799" s="1" t="s">
         <v>0</v>
@@ -35189,7 +35198,7 @@
       <c r="V799" s="9"/>
       <c r="W799" s="9"/>
       <c r="X799" s="18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="800" spans="4:24" x14ac:dyDescent="0.25">
@@ -35266,7 +35275,7 @@
       <c r="V801" s="9"/>
       <c r="W801" s="9"/>
       <c r="X801" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="802" spans="5:24" x14ac:dyDescent="0.25">
@@ -35379,7 +35388,7 @@
       <c r="V804" s="9"/>
       <c r="W804" s="9"/>
       <c r="X804" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="805" spans="5:24" x14ac:dyDescent="0.25">
@@ -35456,7 +35465,7 @@
       <c r="V806" s="9"/>
       <c r="W806" s="9"/>
       <c r="X806" s="18" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="807" spans="5:24" x14ac:dyDescent="0.25">
@@ -35627,7 +35636,7 @@
         <v>74</v>
       </c>
       <c r="N811" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P811" s="55"/>
       <c r="Q811" s="9"/>
@@ -35825,7 +35834,7 @@
       <c r="V816" s="9"/>
       <c r="W816" s="9"/>
       <c r="X816" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="817" spans="5:24" x14ac:dyDescent="0.25">
@@ -35866,7 +35875,7 @@
       <c r="V817" s="9"/>
       <c r="W817" s="9"/>
       <c r="X817" s="57" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="818" spans="5:24" x14ac:dyDescent="0.25">
@@ -36013,7 +36022,7 @@
       <c r="V821" s="9"/>
       <c r="W821" s="9"/>
       <c r="X821" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="822" spans="5:24" x14ac:dyDescent="0.25">
@@ -36292,7 +36301,7 @@
         <v>12</v>
       </c>
       <c r="N829" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P829" s="55"/>
       <c r="Q829" s="9"/>
@@ -36364,7 +36373,7 @@
         <v>14</v>
       </c>
       <c r="N831" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P831" s="55"/>
       <c r="Q831" s="9"/>
@@ -36474,7 +36483,7 @@
         <v>17</v>
       </c>
       <c r="N834" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O834" s="1" t="s">
         <v>0</v>
@@ -36488,7 +36497,7 @@
       <c r="V834" s="9"/>
       <c r="W834" s="9"/>
       <c r="X834" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="835" spans="4:24" x14ac:dyDescent="0.25">
@@ -36737,7 +36746,7 @@
         <v>24</v>
       </c>
       <c r="N841" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O841" s="1"/>
       <c r="P841" s="55"/>
@@ -36918,7 +36927,7 @@
         <v>29</v>
       </c>
       <c r="N846" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O846" s="1" t="s">
         <v>0</v>
@@ -36932,7 +36941,7 @@
       <c r="V846" s="9"/>
       <c r="W846" s="9"/>
       <c r="X846" s="18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="847" spans="4:24" x14ac:dyDescent="0.25">
@@ -37106,7 +37115,7 @@
         <v>34</v>
       </c>
       <c r="N851" s="18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="O851" s="1" t="s">
         <v>0</v>
@@ -37120,7 +37129,7 @@
       <c r="V851" s="9"/>
       <c r="W851" s="9"/>
       <c r="X851" s="18" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="852" spans="5:24" x14ac:dyDescent="0.25">
@@ -37586,7 +37595,7 @@
         <v>47</v>
       </c>
       <c r="N864" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O864" s="1"/>
       <c r="P864" s="55"/>
@@ -38035,7 +38044,7 @@
       <c r="V876" s="9"/>
       <c r="W876" s="9"/>
       <c r="X876" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="877" spans="5:24" x14ac:dyDescent="0.25">
@@ -38150,7 +38159,7 @@
       <c r="V879" s="9"/>
       <c r="W879" s="9"/>
       <c r="X879" s="18" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="880" spans="5:24" x14ac:dyDescent="0.25">
@@ -38214,7 +38223,7 @@
         <v>64</v>
       </c>
       <c r="N881" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O881" s="1" t="s">
         <v>0</v>
@@ -38228,7 +38237,7 @@
       <c r="V881" s="9"/>
       <c r="W881" s="9"/>
       <c r="X881" s="18" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="882" spans="5:24" x14ac:dyDescent="0.25">
@@ -38329,7 +38338,7 @@
         <v>67</v>
       </c>
       <c r="N884" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O884" s="1" t="s">
         <v>0</v>
@@ -38343,7 +38352,7 @@
       <c r="V884" s="9"/>
       <c r="W884" s="9"/>
       <c r="X884" s="18" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="885" spans="5:24" x14ac:dyDescent="0.25">
@@ -38407,7 +38416,7 @@
         <v>69</v>
       </c>
       <c r="N886" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O886" s="1" t="s">
         <v>0</v>
@@ -38421,7 +38430,7 @@
       <c r="V886" s="9"/>
       <c r="W886" s="9"/>
       <c r="X886" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="887" spans="5:24" x14ac:dyDescent="0.25">
@@ -38559,7 +38568,7 @@
         <v>73</v>
       </c>
       <c r="N890" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O890" s="1"/>
       <c r="P890" s="55"/>
@@ -38596,7 +38605,7 @@
         <v>74</v>
       </c>
       <c r="N891" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P891" s="55"/>
       <c r="Q891" s="9"/>
@@ -38632,7 +38641,7 @@
         <v>75</v>
       </c>
       <c r="N892" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P892" s="55"/>
       <c r="Q892" s="9"/>
@@ -38704,7 +38713,7 @@
         <v>77</v>
       </c>
       <c r="N894" s="18" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="P894" s="55"/>
       <c r="Q894" s="9"/>
@@ -38715,7 +38724,7 @@
       <c r="V894" s="9"/>
       <c r="W894" s="9"/>
       <c r="X894" s="18" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="895" spans="5:24" x14ac:dyDescent="0.25">
@@ -38778,7 +38787,7 @@
         <v>79</v>
       </c>
       <c r="N896" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O896" s="1" t="s">
         <v>0</v>
@@ -38792,7 +38801,7 @@
       <c r="V896" s="9"/>
       <c r="W896" s="9"/>
       <c r="X896" s="18" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="897" spans="5:24" x14ac:dyDescent="0.25">
@@ -38855,7 +38864,7 @@
         <v>81</v>
       </c>
       <c r="N898" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O898" s="1" t="s">
         <v>0</v>
@@ -38869,7 +38878,7 @@
       <c r="V898" s="9"/>
       <c r="W898" s="9"/>
       <c r="X898" s="18" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="899" spans="5:24" x14ac:dyDescent="0.25">
@@ -38932,7 +38941,7 @@
         <v>83</v>
       </c>
       <c r="N900" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O900" s="1" t="s">
         <v>0</v>
@@ -38948,7 +38957,7 @@
       <c r="V900" s="9"/>
       <c r="W900" s="9"/>
       <c r="X900" s="18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="901" spans="5:24" x14ac:dyDescent="0.25">
@@ -38973,7 +38982,7 @@
         <v>1</v>
       </c>
       <c r="N901" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O901" s="1"/>
       <c r="P901" s="55"/>
@@ -39016,10 +39025,14 @@
       <c r="P902" s="55"/>
       <c r="Q902" s="9"/>
       <c r="R902" s="9"/>
-      <c r="S902" s="9"/>
-      <c r="T902" s="9"/>
+      <c r="S902" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="T902" s="9" t="s">
+        <v>893</v>
+      </c>
       <c r="U902" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="V902" s="9"/>
       <c r="W902" s="9"/>
@@ -39049,7 +39062,7 @@
         <v>3</v>
       </c>
       <c r="N903" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O903" s="1"/>
       <c r="P903" s="55"/>
@@ -39123,7 +39136,7 @@
         <v>5</v>
       </c>
       <c r="N905" s="18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O905" s="1" t="s">
         <v>0</v>
@@ -39139,7 +39152,7 @@
       <c r="V905" s="9"/>
       <c r="W905" s="9"/>
       <c r="X905" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="906" spans="5:24" x14ac:dyDescent="0.25">
@@ -39351,7 +39364,7 @@
         <v>11</v>
       </c>
       <c r="N911" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P911" s="55"/>
       <c r="Q911" s="9"/>
@@ -39431,7 +39444,7 @@
       <c r="S913" s="9"/>
       <c r="T913" s="9"/>
       <c r="U913" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="V913" s="9"/>
       <c r="W913" s="9"/>
@@ -39461,7 +39474,7 @@
         <v>14</v>
       </c>
       <c r="N914" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O914" s="3" t="s">
         <v>17</v>
@@ -39475,7 +39488,7 @@
       <c r="V914" s="9"/>
       <c r="W914" s="9"/>
       <c r="X914" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="915" spans="5:24" x14ac:dyDescent="0.25">
@@ -39623,7 +39636,7 @@
       <c r="V918" s="9"/>
       <c r="W918" s="9"/>
       <c r="X918" s="57" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="919" spans="5:24" x14ac:dyDescent="0.25">
@@ -39686,7 +39699,7 @@
         <v>20</v>
       </c>
       <c r="N920" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P920" s="55"/>
       <c r="Q920" s="9"/>
@@ -39868,7 +39881,7 @@
         <v>25</v>
       </c>
       <c r="N925" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O925" s="1" t="s">
         <v>0</v>
@@ -39884,7 +39897,7 @@
       <c r="V925" s="9"/>
       <c r="W925" s="9"/>
       <c r="X925" s="18" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="926" spans="5:24" x14ac:dyDescent="0.25">
@@ -39985,7 +39998,7 @@
         <v>28</v>
       </c>
       <c r="N928" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="O928" s="1"/>
       <c r="P928" s="55"/>
@@ -40133,7 +40146,7 @@
         <v>32</v>
       </c>
       <c r="N932" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O932" s="1"/>
       <c r="P932" s="55" t="s">
@@ -40147,7 +40160,7 @@
       <c r="V932" s="9"/>
       <c r="W932" s="9"/>
       <c r="X932" s="57" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="933" spans="5:24" x14ac:dyDescent="0.25">
@@ -40247,7 +40260,7 @@
         <v>35</v>
       </c>
       <c r="N935" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P935" s="55"/>
       <c r="Q935" s="9"/>
@@ -40283,7 +40296,7 @@
         <v>36</v>
       </c>
       <c r="N936" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P936" s="55"/>
       <c r="Q936" s="9"/>
@@ -40333,7 +40346,7 @@
       <c r="V937" s="9"/>
       <c r="W937" s="9"/>
       <c r="X937" s="18" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="938" spans="5:24" x14ac:dyDescent="0.25">
@@ -40360,7 +40373,7 @@
         <v>38</v>
       </c>
       <c r="N938" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="O938" s="3" t="s">
         <v>1</v>
@@ -40399,7 +40412,7 @@
         <v>39</v>
       </c>
       <c r="N939" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="P939" s="55"/>
       <c r="Q939" s="9"/>
@@ -40448,7 +40461,7 @@
       <c r="V940" s="9"/>
       <c r="W940" s="9"/>
       <c r="X940" s="57" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="941" spans="5:24" x14ac:dyDescent="0.25">
@@ -40591,7 +40604,7 @@
       <c r="S944" s="9"/>
       <c r="T944" s="9"/>
       <c r="U944" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V944" s="9"/>
       <c r="W944" s="9"/>
@@ -40621,7 +40634,7 @@
         <v>45</v>
       </c>
       <c r="N945" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O945" s="1" t="s">
         <v>0</v>
@@ -40635,7 +40648,7 @@
       <c r="V945" s="9"/>
       <c r="W945" s="9"/>
       <c r="X945" s="18" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="946" spans="5:24" x14ac:dyDescent="0.25">
@@ -40662,7 +40675,7 @@
         <v>46</v>
       </c>
       <c r="N946" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O946" s="1" t="s">
         <v>0</v>
@@ -40676,7 +40689,7 @@
       <c r="V946" s="9"/>
       <c r="W946" s="9"/>
       <c r="X946" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="947" spans="5:24" x14ac:dyDescent="0.25">
@@ -40777,7 +40790,7 @@
         <v>49</v>
       </c>
       <c r="N949" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O949" s="1"/>
       <c r="P949" s="55"/>
@@ -40823,7 +40836,7 @@
       <c r="S950" s="9"/>
       <c r="T950" s="9"/>
       <c r="U950" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V950" s="9"/>
       <c r="W950" s="9"/>
@@ -40868,7 +40881,7 @@
       <c r="V951" s="9"/>
       <c r="W951" s="9"/>
       <c r="X951" s="18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="952" spans="5:24" x14ac:dyDescent="0.25">
@@ -40902,7 +40915,7 @@
       <c r="Q952" s="9"/>
       <c r="R952" s="9"/>
       <c r="S952" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T952" s="9"/>
       <c r="U952" s="9"/>
@@ -41089,10 +41102,10 @@
       <c r="Q957" s="9"/>
       <c r="R957" s="9"/>
       <c r="S957" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="T957" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="U957" s="9"/>
       <c r="V957" s="9"/>
@@ -41174,7 +41187,7 @@
       <c r="V959" s="9"/>
       <c r="W959" s="9"/>
       <c r="X959" s="18" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="960" spans="5:24" x14ac:dyDescent="0.25">
@@ -41238,7 +41251,7 @@
         <v>61</v>
       </c>
       <c r="N961" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O961" s="1"/>
       <c r="P961" s="55"/>
@@ -41275,7 +41288,7 @@
         <v>62</v>
       </c>
       <c r="N962" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O962" s="1"/>
       <c r="P962" s="55" t="s">
@@ -41289,7 +41302,7 @@
       <c r="V962" s="9"/>
       <c r="W962" s="9"/>
       <c r="X962" s="57" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="963" spans="5:24" x14ac:dyDescent="0.25">
@@ -41427,7 +41440,7 @@
         <v>66</v>
       </c>
       <c r="N966" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O966" s="1"/>
       <c r="P966" s="55"/>
@@ -41537,7 +41550,7 @@
         <v>69</v>
       </c>
       <c r="N969" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O969" s="1" t="s">
         <v>0</v>
@@ -41551,7 +41564,7 @@
       <c r="V969" s="9"/>
       <c r="W969" s="9"/>
       <c r="X969" s="18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="970" spans="5:24" x14ac:dyDescent="0.25">
@@ -41776,7 +41789,7 @@
       <c r="V975" s="9"/>
       <c r="W975" s="9"/>
       <c r="X975" s="18" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="976" spans="5:24" x14ac:dyDescent="0.25">
@@ -42032,7 +42045,7 @@
       <c r="S982" s="9"/>
       <c r="T982" s="9"/>
       <c r="U982" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V982" s="9"/>
       <c r="W982" s="9"/>
@@ -42292,7 +42305,7 @@
       <c r="V989" s="9"/>
       <c r="W989" s="9"/>
       <c r="X989" s="57" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="990" spans="5:24" x14ac:dyDescent="0.25">
@@ -42774,7 +42787,7 @@
       <c r="V1002" s="9"/>
       <c r="W1002" s="9"/>
       <c r="X1002" s="57" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1003" spans="5:24" x14ac:dyDescent="0.25">
@@ -42873,7 +42886,7 @@
         <v>105</v>
       </c>
       <c r="N1005" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P1005" s="55"/>
       <c r="Q1005" s="9"/>
@@ -42909,7 +42922,7 @@
         <v>106</v>
       </c>
       <c r="N1006" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O1006" s="1"/>
       <c r="P1006" s="55"/>
@@ -43131,7 +43144,7 @@
         <v>112</v>
       </c>
       <c r="N1012" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O1012" s="1"/>
       <c r="P1012" s="55"/>
@@ -43242,7 +43255,7 @@
         <v>115</v>
       </c>
       <c r="N1015" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O1015" s="1"/>
       <c r="P1015" s="55"/>
@@ -43251,7 +43264,7 @@
       <c r="S1015" s="9"/>
       <c r="T1015" s="9"/>
       <c r="U1015" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V1015" s="9"/>
       <c r="W1015" s="9"/>
@@ -43295,7 +43308,7 @@
       <c r="V1016" s="9"/>
       <c r="W1016" s="9"/>
       <c r="X1016" s="57" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1017" spans="5:24" x14ac:dyDescent="0.25">
@@ -43617,7 +43630,7 @@
         <v>125</v>
       </c>
       <c r="N1025" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O1025" s="1"/>
       <c r="P1025" s="55"/>
@@ -43654,7 +43667,7 @@
         <v>126</v>
       </c>
       <c r="N1026" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O1026" s="1"/>
       <c r="P1026" s="55" t="s">
@@ -43668,7 +43681,7 @@
       <c r="V1026" s="9"/>
       <c r="W1026" s="9"/>
       <c r="X1026" s="57" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1027" spans="5:24" x14ac:dyDescent="0.25">
@@ -43732,7 +43745,7 @@
         <v>128</v>
       </c>
       <c r="N1028" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O1028" s="1"/>
       <c r="P1028" s="55"/>
@@ -43769,7 +43782,7 @@
         <v>129</v>
       </c>
       <c r="N1029" s="62" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O1029" s="1"/>
       <c r="P1029" s="55"/>
@@ -43781,7 +43794,7 @@
       <c r="V1029" s="9"/>
       <c r="W1029" s="9"/>
       <c r="X1029" s="18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1030" spans="5:24" x14ac:dyDescent="0.25">
@@ -43845,7 +43858,7 @@
         <v>131</v>
       </c>
       <c r="N1031" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O1031" s="1" t="s">
         <v>0</v>
@@ -43859,7 +43872,7 @@
       <c r="V1031" s="9"/>
       <c r="W1031" s="9"/>
       <c r="X1031" s="18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1032" spans="5:24" x14ac:dyDescent="0.25">
@@ -43900,7 +43913,7 @@
       <c r="V1032" s="9"/>
       <c r="W1032" s="9"/>
       <c r="X1032" s="18" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1033" spans="5:24" x14ac:dyDescent="0.25">
@@ -43963,7 +43976,7 @@
         <v>134</v>
       </c>
       <c r="N1034" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O1034" s="3" t="s">
         <v>17</v>
@@ -43974,12 +43987,12 @@
       <c r="S1034" s="9"/>
       <c r="T1034" s="9"/>
       <c r="U1034" s="9" t="s">
-        <v>868</v>
+        <v>811</v>
       </c>
       <c r="V1034" s="9"/>
       <c r="W1034" s="9"/>
       <c r="X1034" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1035" spans="5:24" x14ac:dyDescent="0.25">
@@ -44006,7 +44019,7 @@
         <v>135</v>
       </c>
       <c r="N1035" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P1035" s="55"/>
       <c r="Q1035" s="9"/>
@@ -44052,12 +44065,12 @@
       <c r="S1036" s="9"/>
       <c r="T1036" s="9"/>
       <c r="U1036" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V1036" s="9"/>
       <c r="W1036" s="9"/>
       <c r="X1036" s="57" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1037" spans="5:24" x14ac:dyDescent="0.25">
@@ -44090,7 +44103,7 @@
       <c r="Q1037" s="9"/>
       <c r="R1037" s="9"/>
       <c r="S1037" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T1037" s="9"/>
       <c r="U1037" s="9"/>
@@ -44197,7 +44210,7 @@
         <v>96</v>
       </c>
       <c r="O1040" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P1040" s="55"/>
       <c r="Q1040" s="9"/>
@@ -44205,7 +44218,7 @@
       <c r="S1040" s="9"/>
       <c r="T1040" s="9"/>
       <c r="U1040" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V1040" s="9"/>
       <c r="W1040" s="9"/>
@@ -44271,7 +44284,7 @@
         <v>142</v>
       </c>
       <c r="N1042" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P1042" s="55"/>
       <c r="Q1042" s="9"/>
@@ -44349,7 +44362,7 @@
       <c r="Q1044" s="9"/>
       <c r="R1044" s="9"/>
       <c r="S1044" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T1044" s="9"/>
       <c r="U1044" s="9"/>
@@ -44526,7 +44539,7 @@
         <v>149</v>
       </c>
       <c r="N1049" s="18" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="O1049" s="1" t="s">
         <v>0</v>
@@ -44542,7 +44555,7 @@
       <c r="V1049" s="9"/>
       <c r="W1049" s="9"/>
       <c r="X1049" s="63" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1050" spans="5:24" x14ac:dyDescent="0.25">
@@ -44656,7 +44669,7 @@
       <c r="V1052" s="9"/>
       <c r="W1052" s="9"/>
       <c r="X1052" s="57" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1053" spans="5:24" x14ac:dyDescent="0.25">
@@ -44876,7 +44889,7 @@
       <c r="V1058" s="9"/>
       <c r="W1058" s="9"/>
       <c r="X1058" s="57" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1059" spans="5:24" x14ac:dyDescent="0.25">
@@ -44909,7 +44922,7 @@
       <c r="Q1059" s="9"/>
       <c r="R1059" s="9"/>
       <c r="S1059" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T1059" s="9"/>
       <c r="U1059" s="9"/>
@@ -44941,7 +44954,7 @@
         <v>160</v>
       </c>
       <c r="N1060" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P1060" s="55"/>
       <c r="Q1060" s="9"/>
@@ -45085,7 +45098,7 @@
         <v>164</v>
       </c>
       <c r="N1064" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P1064" s="55"/>
       <c r="Q1064" s="9"/>
@@ -45129,7 +45142,7 @@
       <c r="S1065" s="9"/>
       <c r="T1065" s="9"/>
       <c r="U1065" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V1065" s="9"/>
       <c r="W1065" s="9"/>
@@ -45162,7 +45175,7 @@
         <v>172</v>
       </c>
       <c r="O1066" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P1066" s="55"/>
       <c r="Q1066" s="9"/>
@@ -45234,7 +45247,7 @@
         <v>168</v>
       </c>
       <c r="N1068" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P1068" s="55" t="s">
         <v>18</v>
@@ -45247,7 +45260,7 @@
       <c r="V1068" s="9"/>
       <c r="W1068" s="9"/>
       <c r="X1068" s="57" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1069" spans="5:24" x14ac:dyDescent="0.25">
@@ -45277,7 +45290,7 @@
         <v>164</v>
       </c>
       <c r="O1069" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P1069" s="55"/>
       <c r="Q1069" s="9"/>
@@ -45319,10 +45332,10 @@
       <c r="Q1070" s="9"/>
       <c r="R1070" s="9"/>
       <c r="S1070" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="T1070" s="9" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
       <c r="U1070" s="9"/>
       <c r="V1070" s="9"/>
@@ -45390,7 +45403,7 @@
         <v>172</v>
       </c>
       <c r="N1072" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O1072" s="1"/>
       <c r="P1072" s="55"/>
@@ -45503,7 +45516,7 @@
         <v>175</v>
       </c>
       <c r="N1075" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O1075" s="1"/>
       <c r="P1075" s="55"/>
@@ -45554,7 +45567,7 @@
       <c r="V1076" s="9"/>
       <c r="W1076" s="9"/>
       <c r="X1076" s="18" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1077" spans="5:24" x14ac:dyDescent="0.25">
@@ -45581,7 +45594,7 @@
         <v>177</v>
       </c>
       <c r="N1077" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O1077" s="1" t="s">
         <v>0</v>
@@ -45597,7 +45610,7 @@
       <c r="V1077" s="9"/>
       <c r="W1077" s="9"/>
       <c r="X1077" s="18" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1078" spans="5:24" x14ac:dyDescent="0.25">
@@ -45714,7 +45727,7 @@
       <c r="V1080" s="9"/>
       <c r="W1080" s="9"/>
       <c r="X1080" s="18" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1081" spans="5:24" x14ac:dyDescent="0.25">
@@ -45813,7 +45826,7 @@
         <v>183</v>
       </c>
       <c r="N1083" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P1083" s="55"/>
       <c r="Q1083" s="9"/>
@@ -45898,7 +45911,7 @@
       <c r="V1085" s="9"/>
       <c r="W1085" s="9"/>
       <c r="X1085" s="57" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1086" spans="5:24" x14ac:dyDescent="0.25">
@@ -45939,7 +45952,7 @@
       <c r="V1086" s="9"/>
       <c r="W1086" s="9"/>
       <c r="X1086" s="18" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1087" spans="5:24" x14ac:dyDescent="0.25">
@@ -45980,7 +45993,7 @@
       <c r="V1087" s="9"/>
       <c r="W1087" s="9"/>
       <c r="X1087" s="18" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1088" spans="5:24" x14ac:dyDescent="0.25">
@@ -46093,7 +46106,7 @@
       <c r="V1090" s="9"/>
       <c r="W1090" s="9"/>
       <c r="X1090" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="1091" spans="5:24" x14ac:dyDescent="0.25">
@@ -46133,7 +46146,7 @@
       <c r="V1091" s="9"/>
       <c r="W1091" s="9"/>
       <c r="X1091" s="57" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1092" spans="5:24" x14ac:dyDescent="0.25">
@@ -46160,7 +46173,7 @@
         <v>192</v>
       </c>
       <c r="N1092" s="18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P1092" s="55"/>
       <c r="Q1092" s="9"/>
@@ -46196,7 +46209,7 @@
         <v>193</v>
       </c>
       <c r="N1093" s="18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P1093" s="55"/>
       <c r="Q1093" s="9"/>
@@ -46282,7 +46295,7 @@
       <c r="V1095" s="9"/>
       <c r="W1095" s="9"/>
       <c r="X1095" s="18" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1096" spans="5:24" x14ac:dyDescent="0.25">
@@ -46544,7 +46557,7 @@
       <c r="V1102" s="9"/>
       <c r="W1102" s="9"/>
       <c r="X1102" s="18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1103" spans="5:24" x14ac:dyDescent="0.25">
@@ -46624,7 +46637,7 @@
       <c r="V1104" s="9"/>
       <c r="W1104" s="9"/>
       <c r="X1104" s="18" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1105" spans="5:24" x14ac:dyDescent="0.25">
@@ -46651,7 +46664,7 @@
         <v>205</v>
       </c>
       <c r="N1105" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O1105" s="1" t="s">
         <v>0</v>
@@ -46665,7 +46678,7 @@
       <c r="V1105" s="9"/>
       <c r="W1105" s="9"/>
       <c r="X1105" s="18" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1106" spans="5:24" x14ac:dyDescent="0.25">
@@ -46729,7 +46742,7 @@
         <v>207</v>
       </c>
       <c r="N1107" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P1107" s="55"/>
       <c r="Q1107" s="9"/>
@@ -46773,7 +46786,7 @@
       <c r="S1108" s="9"/>
       <c r="T1108" s="9"/>
       <c r="U1108" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V1108" s="9"/>
       <c r="W1108" s="9"/>
@@ -46819,7 +46832,7 @@
       <c r="V1109" s="9"/>
       <c r="W1109" s="9"/>
       <c r="X1109" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="1110" spans="5:24" x14ac:dyDescent="0.25">
@@ -46883,7 +46896,7 @@
         <v>211</v>
       </c>
       <c r="N1111" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O1111" s="1"/>
       <c r="P1111" s="55"/>
@@ -46957,7 +46970,7 @@
         <v>213</v>
       </c>
       <c r="N1113" s="18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O1113" s="1"/>
       <c r="P1113" s="55"/>
@@ -47071,7 +47084,7 @@
         <v>172</v>
       </c>
       <c r="O1116" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P1116" s="55"/>
       <c r="Q1116" s="9"/>
@@ -47158,7 +47171,7 @@
       <c r="V1118" s="9"/>
       <c r="W1118" s="9"/>
       <c r="X1118" s="57" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1119" spans="5:24" x14ac:dyDescent="0.25">
@@ -47236,7 +47249,7 @@
       <c r="V1120" s="9"/>
       <c r="W1120" s="9"/>
       <c r="X1120" s="18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1121" spans="5:24" x14ac:dyDescent="0.25">
@@ -47263,7 +47276,7 @@
         <v>221</v>
       </c>
       <c r="N1121" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O1121" s="1"/>
       <c r="P1121" s="55"/>
@@ -47337,7 +47350,7 @@
         <v>223</v>
       </c>
       <c r="N1123" s="18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O1123" s="1"/>
       <c r="P1123" s="55" t="s">
@@ -47351,7 +47364,7 @@
       <c r="V1123" s="9"/>
       <c r="W1123" s="9"/>
       <c r="X1123" s="57" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1124" spans="5:24" x14ac:dyDescent="0.25">
@@ -47466,7 +47479,7 @@
       <c r="V1126" s="9"/>
       <c r="W1126" s="9"/>
       <c r="X1126" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="1127" spans="5:24" x14ac:dyDescent="0.25">
@@ -47581,7 +47594,7 @@
       <c r="V1129" s="9"/>
       <c r="W1129" s="9"/>
       <c r="X1129" s="57" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1130" spans="5:24" x14ac:dyDescent="0.25">
@@ -47656,7 +47669,7 @@
       <c r="V1131" s="9"/>
       <c r="W1131" s="9"/>
       <c r="X1131" s="18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="1132" spans="5:24" x14ac:dyDescent="0.25">
@@ -47683,7 +47696,7 @@
         <v>3</v>
       </c>
       <c r="N1132" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O1132" s="1"/>
       <c r="P1132" s="55"/>
@@ -47810,7 +47823,7 @@
       <c r="V1135" s="9"/>
       <c r="W1135" s="9"/>
       <c r="X1135" s="57" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1136" spans="5:24" x14ac:dyDescent="0.25">
@@ -47837,7 +47850,7 @@
         <v>7</v>
       </c>
       <c r="N1136" s="18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O1136" s="1"/>
       <c r="P1136" s="55"/>
@@ -47874,7 +47887,7 @@
         <v>8</v>
       </c>
       <c r="N1137" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O1137" s="1" t="s">
         <v>0</v>
@@ -47888,7 +47901,7 @@
       <c r="V1137" s="9"/>
       <c r="W1137" s="9"/>
       <c r="X1137" s="18" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1138" spans="5:24" x14ac:dyDescent="0.25">
@@ -48005,7 +48018,7 @@
       <c r="V1140" s="9"/>
       <c r="W1140" s="9"/>
       <c r="X1140" s="57" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1141" spans="5:24" x14ac:dyDescent="0.25">
@@ -48106,7 +48119,7 @@
         <v>14</v>
       </c>
       <c r="N1143" s="18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O1143" s="1"/>
       <c r="P1143" s="55"/>
@@ -48143,7 +48156,7 @@
         <v>15</v>
       </c>
       <c r="N1144" s="18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O1144" s="1"/>
       <c r="P1144" s="55"/>
@@ -48233,7 +48246,7 @@
       <c r="V1146" s="9"/>
       <c r="W1146" s="9"/>
       <c r="X1146" s="57" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1147" spans="5:24" x14ac:dyDescent="0.25">
@@ -48274,7 +48287,7 @@
       <c r="V1147" s="9"/>
       <c r="W1147" s="9"/>
       <c r="X1147" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1148" spans="5:24" x14ac:dyDescent="0.25">
@@ -48315,7 +48328,7 @@
       <c r="V1148" s="9"/>
       <c r="W1148" s="9"/>
       <c r="X1148" s="18" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1149" spans="5:24" x14ac:dyDescent="0.25">
@@ -48430,7 +48443,7 @@
       <c r="V1151" s="9"/>
       <c r="W1151" s="9"/>
       <c r="X1151" s="57" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1152" spans="5:24" x14ac:dyDescent="0.25">
@@ -48471,7 +48484,7 @@
       <c r="V1152" s="9"/>
       <c r="W1152" s="9"/>
       <c r="X1152" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1153" spans="5:24" x14ac:dyDescent="0.25">
@@ -48511,7 +48524,7 @@
       <c r="V1153" s="9"/>
       <c r="W1153" s="9"/>
       <c r="X1153" s="18" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1154" spans="5:24" x14ac:dyDescent="0.25">
@@ -48628,7 +48641,7 @@
       <c r="V1156" s="9"/>
       <c r="W1156" s="9"/>
       <c r="X1156" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1157" spans="5:24" x14ac:dyDescent="0.25">
@@ -48655,7 +48668,7 @@
         <v>28</v>
       </c>
       <c r="N1157" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O1157" s="1"/>
       <c r="P1157" s="55"/>
@@ -48691,7 +48704,7 @@
         <v>29</v>
       </c>
       <c r="N1158" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O1158" s="1"/>
       <c r="P1158" s="55"/>
@@ -48778,7 +48791,7 @@
       <c r="V1160" s="9"/>
       <c r="W1160" s="9"/>
       <c r="X1160" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1161" spans="5:24" x14ac:dyDescent="0.25">
@@ -48805,7 +48818,7 @@
         <v>32</v>
       </c>
       <c r="N1161" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O1161" s="1" t="s">
         <v>0</v>
@@ -48821,7 +48834,7 @@
       <c r="V1161" s="9"/>
       <c r="W1161" s="9"/>
       <c r="X1161" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1162" spans="5:24" x14ac:dyDescent="0.25">
@@ -48848,7 +48861,7 @@
         <v>33</v>
       </c>
       <c r="N1162" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P1162" s="55"/>
       <c r="Q1162" s="9"/>
@@ -48920,7 +48933,7 @@
         <v>35</v>
       </c>
       <c r="N1164" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O1164" s="1" t="s">
         <v>0</v>
@@ -48934,7 +48947,7 @@
       <c r="V1164" s="9"/>
       <c r="W1164" s="9"/>
       <c r="X1164" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1165" spans="5:24" x14ac:dyDescent="0.25">
@@ -48975,7 +48988,7 @@
       <c r="V1165" s="9"/>
       <c r="W1165" s="9"/>
       <c r="X1165" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1166" spans="5:24" x14ac:dyDescent="0.25">
@@ -49014,7 +49027,7 @@
       <c r="V1166" s="9"/>
       <c r="W1166" s="9"/>
       <c r="X1166" s="57" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1167" spans="5:24" x14ac:dyDescent="0.25">
@@ -49041,7 +49054,7 @@
         <v>38</v>
       </c>
       <c r="N1167" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P1167" s="55"/>
       <c r="Q1167" s="9"/>
@@ -49077,7 +49090,7 @@
         <v>39</v>
       </c>
       <c r="N1168" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P1168" s="55"/>
       <c r="Q1168" s="9"/>
@@ -49085,7 +49098,7 @@
       <c r="S1168" s="9"/>
       <c r="T1168" s="9"/>
       <c r="U1168" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V1168" s="9"/>
       <c r="W1168" s="9"/>
@@ -49129,7 +49142,7 @@
       <c r="V1169" s="9"/>
       <c r="W1169" s="9"/>
       <c r="X1169" s="18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1170" spans="5:24" x14ac:dyDescent="0.25">
@@ -49156,7 +49169,7 @@
         <v>41</v>
       </c>
       <c r="N1170" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P1170" s="55"/>
       <c r="Q1170" s="9"/>
@@ -49241,7 +49254,7 @@
       <c r="V1172" s="9"/>
       <c r="W1172" s="9"/>
       <c r="X1172" s="57" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1173" spans="5:24" x14ac:dyDescent="0.25">
@@ -49268,7 +49281,7 @@
         <v>44</v>
       </c>
       <c r="N1173" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P1173" s="55"/>
       <c r="Q1173" s="9"/>
@@ -49354,7 +49367,7 @@
       <c r="V1175" s="9"/>
       <c r="W1175" s="9"/>
       <c r="X1175" s="18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1176" spans="5:24" x14ac:dyDescent="0.25">
@@ -49430,7 +49443,7 @@
       <c r="V1177" s="9"/>
       <c r="W1177" s="9"/>
       <c r="X1177" s="57" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1178" spans="5:24" x14ac:dyDescent="0.25">
@@ -49457,7 +49470,7 @@
         <v>49</v>
       </c>
       <c r="N1178" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P1178" s="55"/>
       <c r="Q1178" s="9"/>
@@ -49528,7 +49541,7 @@
         <v>51</v>
       </c>
       <c r="N1180" s="18" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O1180" s="1" t="s">
         <v>0</v>
@@ -49542,7 +49555,7 @@
       <c r="V1180" s="9"/>
       <c r="W1180" s="9"/>
       <c r="X1180" s="18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1181" spans="5:24" x14ac:dyDescent="0.25">
@@ -49583,7 +49596,7 @@
       <c r="V1181" s="9"/>
       <c r="W1181" s="9"/>
       <c r="X1181" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1182" spans="5:24" x14ac:dyDescent="0.25">
@@ -49626,7 +49639,7 @@
       <c r="V1182" s="9"/>
       <c r="W1182" s="9"/>
       <c r="X1182" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1183" spans="5:24" x14ac:dyDescent="0.25">
@@ -49653,7 +49666,7 @@
         <v>54</v>
       </c>
       <c r="N1183" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O1183" s="1"/>
       <c r="P1183" s="55"/>
@@ -49908,7 +49921,7 @@
         <v>61</v>
       </c>
       <c r="N1190" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O1190" s="1" t="s">
         <v>0</v>
@@ -49924,7 +49937,7 @@
       <c r="V1190" s="9"/>
       <c r="W1190" s="9"/>
       <c r="X1190" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1191" spans="5:24" x14ac:dyDescent="0.25">
@@ -49951,7 +49964,7 @@
         <v>62</v>
       </c>
       <c r="N1191" s="18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P1191" s="55"/>
       <c r="Q1191" s="9"/>
@@ -49987,7 +50000,7 @@
         <v>63</v>
       </c>
       <c r="N1192" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O1192" s="1" t="s">
         <v>0</v>
@@ -50001,7 +50014,7 @@
       <c r="V1192" s="9"/>
       <c r="W1192" s="9"/>
       <c r="X1192" s="18" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1193" spans="5:24" x14ac:dyDescent="0.25">
@@ -50042,7 +50055,7 @@
       <c r="V1193" s="9"/>
       <c r="W1193" s="9"/>
       <c r="X1193" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1194" spans="5:24" x14ac:dyDescent="0.25">
@@ -50118,7 +50131,7 @@
       <c r="V1195" s="9"/>
       <c r="W1195" s="9"/>
       <c r="X1195" s="57" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1196" spans="5:24" x14ac:dyDescent="0.25">
@@ -50181,7 +50194,7 @@
         <v>68</v>
       </c>
       <c r="N1197" s="18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P1197" s="55"/>
       <c r="Q1197" s="9"/>
@@ -50217,7 +50230,7 @@
         <v>69</v>
       </c>
       <c r="N1198" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P1198" s="55"/>
       <c r="Q1198" s="9"/>
@@ -50289,7 +50302,7 @@
         <v>71</v>
       </c>
       <c r="N1200" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P1200" s="55"/>
       <c r="Q1200" s="9"/>
@@ -50325,7 +50338,7 @@
         <v>72</v>
       </c>
       <c r="N1201" s="18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P1201" s="55"/>
       <c r="Q1201" s="9"/>
@@ -50361,7 +50374,7 @@
         <v>73</v>
       </c>
       <c r="N1202" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P1202" s="55"/>
       <c r="Q1202" s="9"/>
@@ -50433,7 +50446,7 @@
         <v>75</v>
       </c>
       <c r="N1204" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P1204" s="55"/>
       <c r="Q1204" s="9"/>
@@ -50542,7 +50555,7 @@
         <v>78</v>
       </c>
       <c r="N1207" s="18" t="s">
-        <v>449</v>
+        <v>897</v>
       </c>
       <c r="O1207" s="1"/>
       <c r="P1207" s="55"/>
@@ -50616,7 +50629,7 @@
         <v>80</v>
       </c>
       <c r="N1209" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O1209" s="1"/>
       <c r="P1209" s="55"/>
@@ -50653,7 +50666,7 @@
         <v>81</v>
       </c>
       <c r="N1210" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O1210" s="1"/>
       <c r="P1210" s="55"/>
@@ -50690,7 +50703,7 @@
         <v>82</v>
       </c>
       <c r="N1211" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O1211" s="1"/>
       <c r="P1211" s="55"/>
@@ -50727,7 +50740,7 @@
         <v>83</v>
       </c>
       <c r="N1212" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O1212" s="1"/>
       <c r="P1212" s="55"/>
@@ -50764,7 +50777,7 @@
         <v>84</v>
       </c>
       <c r="N1213" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O1213" s="1"/>
       <c r="P1213" s="55"/>
@@ -50801,7 +50814,7 @@
         <v>85</v>
       </c>
       <c r="N1214" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O1214" s="1"/>
       <c r="P1214" s="55"/>
@@ -50838,7 +50851,7 @@
         <v>86</v>
       </c>
       <c r="N1215" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O1215" s="1"/>
       <c r="P1215" s="55"/>
@@ -50875,7 +50888,7 @@
         <v>87</v>
       </c>
       <c r="N1216" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O1216" s="1"/>
       <c r="P1216" s="55"/>
@@ -50912,7 +50925,7 @@
         <v>88</v>
       </c>
       <c r="N1217" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P1217" s="55"/>
       <c r="Q1217" s="9"/>
@@ -50948,7 +50961,7 @@
         <v>89</v>
       </c>
       <c r="N1218" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P1218" s="55"/>
       <c r="Q1218" s="9"/>
@@ -50984,7 +50997,7 @@
         <v>90</v>
       </c>
       <c r="N1219" s="18" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="P1219" s="55"/>
       <c r="Q1219" s="9"/>
@@ -51020,7 +51033,7 @@
         <v>91</v>
       </c>
       <c r="N1220" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P1220" s="55"/>
       <c r="Q1220" s="9"/>
@@ -51092,7 +51105,7 @@
         <v>93</v>
       </c>
       <c r="N1222" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P1222" s="55"/>
       <c r="Q1222" s="9"/>
@@ -51164,7 +51177,7 @@
         <v>95</v>
       </c>
       <c r="N1224" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P1224" s="55"/>
       <c r="Q1224" s="9"/>
@@ -51200,7 +51213,7 @@
         <v>96</v>
       </c>
       <c r="N1225" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P1225" s="55"/>
       <c r="Q1225" s="9"/>
@@ -51236,7 +51249,7 @@
         <v>97</v>
       </c>
       <c r="N1226" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P1226" s="55"/>
       <c r="Q1226" s="9"/>
@@ -51272,7 +51285,7 @@
         <v>98</v>
       </c>
       <c r="N1227" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P1227" s="55"/>
       <c r="Q1227" s="9"/>
@@ -51417,7 +51430,7 @@
         <v>102</v>
       </c>
       <c r="N1231" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O1231" s="1"/>
       <c r="P1231" s="55"/>
@@ -51528,7 +51541,7 @@
         <v>105</v>
       </c>
       <c r="N1234" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O1234" s="1"/>
       <c r="P1234" s="55"/>
@@ -51565,7 +51578,7 @@
         <v>106</v>
       </c>
       <c r="N1235" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O1235" s="1"/>
       <c r="P1235" s="55" t="s">
@@ -51579,7 +51592,7 @@
       <c r="V1235" s="9"/>
       <c r="W1235" s="9"/>
       <c r="X1235" s="57" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1236" spans="5:24" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
@@ -3346,9 +3346,9 @@
   <dimension ref="A1:X1580"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1223" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N817" sqref="N817"/>
+      <selection pane="bottomLeft" activeCell="N152" sqref="N152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="898">
   <si>
     <t>PS</t>
   </si>
@@ -2718,13 +2718,16 @@
   </si>
   <si>
     <t xml:space="preserve">iShu#mataq itIShu# - maqteq </t>
+  </si>
+  <si>
+    <t>NE + NRE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2847,6 +2850,12 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3070,10 +3079,10 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3358,10 +3367,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1219" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A863" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N1235" sqref="N1235"/>
+      <selection pane="bottomLeft" activeCell="X1064" sqref="X1064"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -45046,9 +45055,6 @@
       <c r="R1062" s="8"/>
       <c r="S1062" s="8"/>
       <c r="T1062" s="8"/>
-      <c r="U1062" s="64" t="s">
-        <v>821</v>
-      </c>
       <c r="V1062" s="8"/>
       <c r="W1062" s="8"/>
       <c r="X1062" s="51"/>
@@ -45084,7 +45090,9 @@
       <c r="R1063" s="8"/>
       <c r="S1063" s="8"/>
       <c r="T1063" s="8"/>
-      <c r="U1063" s="8"/>
+      <c r="U1063" s="64" t="s">
+        <v>897</v>
+      </c>
       <c r="V1063" s="8"/>
       <c r="W1063" s="8"/>
       <c r="X1063" s="51"/>
@@ -45120,9 +45128,7 @@
       <c r="R1064" s="8"/>
       <c r="S1064" s="8"/>
       <c r="T1064" s="8"/>
-      <c r="U1064" s="64" t="s">
-        <v>808</v>
-      </c>
+      <c r="U1064" s="8"/>
       <c r="V1064" s="8"/>
       <c r="W1064" s="8"/>
       <c r="X1064" s="51"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="897">
   <si>
     <t>PS</t>
   </si>
@@ -434,9 +434,6 @@
     <t>aqkaqraqm</t>
   </si>
   <si>
-    <t>pra#</t>
-  </si>
-  <si>
     <t>muq~jcaq</t>
   </si>
   <si>
@@ -1973,9 +1970,6 @@
     <t>viSa#lyaq itiq vi - SaqlyaqH</t>
   </si>
   <si>
-    <t>bANa#vAnitiq bANa# - vAqn</t>
-  </si>
-  <si>
     <t xml:space="preserve">niqShaq~ggathiqriti# niShaq~ggathi#H </t>
   </si>
   <si>
@@ -2207,9 +2201,6 @@
     <t>aqvaqsAqnyA#yetya#va - sAqnyA#ya</t>
   </si>
   <si>
-    <t>praqtiSravAyeti# prati - SraqvAya#</t>
-  </si>
-  <si>
     <t>AqSuShe#NAqyetyAqSu - seqnAqyaq</t>
   </si>
   <si>
@@ -2721,19 +2712,31 @@
   </si>
   <si>
     <t>Padam Split expansion</t>
+  </si>
+  <si>
+    <t>praqtiqSraqvAyeti# prati - SraqvAya#</t>
+  </si>
+  <si>
+    <t>bANa#vAqnitiq bANa# - vAqn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2860,7 +2863,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2882,6 +2885,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2913,177 +2922,184 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3367,10 +3383,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomLeft" activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3384,7 +3400,7 @@
     <col min="9" max="9" width="11.28515625" style="43" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" style="25" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="46" customWidth="1"/>
     <col min="13" max="13" width="17.140625" style="7" customWidth="1"/>
     <col min="14" max="14" width="32.85546875" style="47" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="3" customWidth="1"/>
@@ -3867,7 +3883,7 @@
         <v>16</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>15</v>
@@ -3894,7 +3910,7 @@
         <v>11</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>20</v>
@@ -3909,7 +3925,7 @@
         <v>12</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3978,7 +3994,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="49"/>
@@ -4060,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="49"/>
@@ -4101,7 +4117,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>17</v>
@@ -4115,7 +4131,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
       <c r="X6" s="51" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4146,7 +4162,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="49"/>
@@ -4187,7 +4203,7 @@
         <v>7</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="49"/>
@@ -4241,7 +4257,7 @@
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
       <c r="X9" s="51" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4313,7 +4329,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="49"/>
@@ -4363,7 +4379,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
       <c r="U12" s="18" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
@@ -4397,7 +4413,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="49"/>
@@ -4438,7 +4454,7 @@
         <v>13</v>
       </c>
       <c r="N14" s="53" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>0</v>
@@ -4452,7 +4468,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
       <c r="X14" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4524,7 +4540,7 @@
         <v>15</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="49"/>
@@ -4579,7 +4595,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
       <c r="X17" s="51" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4651,7 +4667,7 @@
         <v>18</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="49"/>
@@ -4747,7 +4763,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
       <c r="X21" s="23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4860,7 +4876,7 @@
         <v>23</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="49"/>
@@ -4915,7 +4931,7 @@
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
       <c r="X25" s="51" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="26" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5244,7 +5260,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
       <c r="X33" s="51" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="34" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5316,7 +5332,7 @@
         <v>34</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="49"/>
@@ -5480,7 +5496,7 @@
         <v>38</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="49"/>
@@ -5534,7 +5550,7 @@
       <c r="V40" s="18"/>
       <c r="W40" s="17"/>
       <c r="X40" s="23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5699,7 +5715,7 @@
       <c r="V44" s="18"/>
       <c r="W44" s="18"/>
       <c r="X44" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="45" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5744,7 +5760,7 @@
       <c r="V45" s="18"/>
       <c r="W45" s="18"/>
       <c r="X45" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="46" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5832,7 +5848,7 @@
       <c r="V47" s="18"/>
       <c r="W47" s="18"/>
       <c r="X47" s="51" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="48" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5956,7 +5972,7 @@
       <c r="V50" s="18"/>
       <c r="W50" s="18"/>
       <c r="X50" s="17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="51" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5984,7 +6000,7 @@
         <v>50</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="49"/>
@@ -6024,7 +6040,7 @@
         <v>51</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="49"/>
@@ -6062,7 +6078,7 @@
         <v>52</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="49" t="s">
@@ -6073,12 +6089,12 @@
       <c r="S53" s="18"/>
       <c r="T53" s="18"/>
       <c r="U53" s="18" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="V53" s="18"/>
       <c r="W53" s="18"/>
       <c r="X53" s="51" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="54" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6164,7 +6180,7 @@
       <c r="V55" s="18"/>
       <c r="W55" s="18"/>
       <c r="X55" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="56" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6411,7 +6427,7 @@
       <c r="V61" s="18"/>
       <c r="W61" s="18"/>
       <c r="X61" s="51" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="62" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6439,7 +6455,7 @@
         <v>61</v>
       </c>
       <c r="N62" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="49"/>
@@ -6607,7 +6623,7 @@
       <c r="Q66" s="18"/>
       <c r="R66" s="18"/>
       <c r="S66" s="18" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="T66" s="18"/>
       <c r="U66" s="18"/>
@@ -6657,7 +6673,7 @@
       <c r="V67" s="18"/>
       <c r="W67" s="18"/>
       <c r="X67" s="51" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="68" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6939,7 +6955,7 @@
       <c r="V74" s="18"/>
       <c r="W74" s="18"/>
       <c r="X74" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6981,7 +6997,7 @@
       <c r="V75" s="18"/>
       <c r="W75" s="18"/>
       <c r="X75" s="51" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="76" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7052,7 +7068,7 @@
         <v>76</v>
       </c>
       <c r="N77" s="17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O77" s="3"/>
       <c r="P77" s="49"/>
@@ -7100,12 +7116,12 @@
       <c r="R78" s="18"/>
       <c r="T78" s="18"/>
       <c r="U78" s="18" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="V78" s="18"/>
       <c r="W78" s="18"/>
       <c r="X78" s="17" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="79" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7226,7 +7242,7 @@
       <c r="V81" s="18"/>
       <c r="W81" s="18"/>
       <c r="X81" s="51" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="82" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7261,10 +7277,10 @@
       <c r="Q82" s="18"/>
       <c r="R82" s="18"/>
       <c r="S82" s="18" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="T82" s="18" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="U82" s="18"/>
       <c r="V82" s="18"/>
@@ -7341,10 +7357,10 @@
       <c r="Q84" s="18"/>
       <c r="R84" s="18"/>
       <c r="S84" s="18" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="T84" s="18" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="U84" s="18"/>
       <c r="V84" s="18"/>
@@ -7506,7 +7522,7 @@
       <c r="V88" s="18"/>
       <c r="W88" s="18"/>
       <c r="X88" s="17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="89" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7543,7 +7559,7 @@
       <c r="S89" s="18"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="V89" s="18"/>
       <c r="W89" s="18"/>
@@ -7665,7 +7681,7 @@
       <c r="S92" s="18"/>
       <c r="T92" s="18"/>
       <c r="U92" s="18" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="V92" s="18"/>
       <c r="W92" s="18"/>
@@ -7788,7 +7804,7 @@
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
       <c r="X95" s="17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="96" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7816,7 +7832,7 @@
         <v>95</v>
       </c>
       <c r="N96" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O96" s="3"/>
       <c r="P96" s="49"/>
@@ -7977,7 +7993,7 @@
       <c r="S100" s="8"/>
       <c r="T100" s="8"/>
       <c r="U100" s="8" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
@@ -8097,7 +8113,7 @@
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
       <c r="X103" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="104" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8125,7 +8141,7 @@
         <v>103</v>
       </c>
       <c r="N104" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="49"/>
@@ -8201,7 +8217,7 @@
         <v>105</v>
       </c>
       <c r="N106" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O106" s="1"/>
       <c r="P106" s="49"/>
@@ -8239,7 +8255,7 @@
         <v>106</v>
       </c>
       <c r="N107" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="49" t="s">
@@ -8253,7 +8269,7 @@
       <c r="V107" s="8"/>
       <c r="W107" s="8"/>
       <c r="X107" s="51" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="108" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8290,7 +8306,7 @@
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
       <c r="U108" s="8" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
@@ -8373,7 +8389,7 @@
       <c r="V110" s="8"/>
       <c r="W110" s="8"/>
       <c r="X110" s="17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="111" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8415,7 +8431,7 @@
       <c r="V111" s="8"/>
       <c r="W111" s="8"/>
       <c r="X111" s="17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="112" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8443,7 +8459,7 @@
         <v>111</v>
       </c>
       <c r="N112" s="17" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>0</v>
@@ -8459,7 +8475,7 @@
       <c r="V112" s="8"/>
       <c r="W112" s="8"/>
       <c r="X112" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="113" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8563,7 +8579,7 @@
         <v>114</v>
       </c>
       <c r="N115" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>0</v>
@@ -8577,7 +8593,7 @@
       <c r="V115" s="8"/>
       <c r="W115" s="8"/>
       <c r="X115" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="116" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8652,7 +8668,7 @@
       <c r="S117" s="8"/>
       <c r="T117" s="8"/>
       <c r="U117" s="8" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="V117" s="8"/>
       <c r="W117" s="8"/>
@@ -8699,7 +8715,7 @@
       <c r="V118" s="8"/>
       <c r="W118" s="8"/>
       <c r="X118" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="119" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9007,7 +9023,7 @@
       <c r="V126" s="8"/>
       <c r="W126" s="8"/>
       <c r="X126" s="51" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="127" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9082,7 +9098,7 @@
       <c r="S128" s="8"/>
       <c r="T128" s="8"/>
       <c r="U128" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V128" s="8"/>
       <c r="W128" s="8"/>
@@ -9113,7 +9129,7 @@
         <v>128</v>
       </c>
       <c r="N129" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O129" s="3" t="s">
         <v>0</v>
@@ -9127,7 +9143,7 @@
       <c r="V129" s="8"/>
       <c r="W129" s="8"/>
       <c r="X129" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="130" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9169,7 +9185,7 @@
       <c r="V130" s="8"/>
       <c r="W130" s="8"/>
       <c r="X130" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="131" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9197,7 +9213,7 @@
         <v>130</v>
       </c>
       <c r="N131" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O131" s="3"/>
       <c r="P131" s="49" t="s">
@@ -9211,7 +9227,7 @@
       <c r="V131" s="8"/>
       <c r="W131" s="8"/>
       <c r="X131" s="51" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="132" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9239,7 +9255,7 @@
         <v>131</v>
       </c>
       <c r="N132" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O132" s="3" t="s">
         <v>17</v>
@@ -9253,7 +9269,7 @@
       <c r="V132" s="8"/>
       <c r="W132" s="8"/>
       <c r="X132" s="17" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="133" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9281,7 +9297,7 @@
         <v>132</v>
       </c>
       <c r="N133" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O133" s="1"/>
       <c r="P133" s="49"/>
@@ -9328,7 +9344,7 @@
       <c r="S134" s="8"/>
       <c r="T134" s="8"/>
       <c r="U134" s="8" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="V134" s="8"/>
       <c r="W134" s="8"/>
@@ -9435,7 +9451,7 @@
         <v>136</v>
       </c>
       <c r="N137" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O137" s="3"/>
       <c r="P137" s="49"/>
@@ -9525,7 +9541,7 @@
       <c r="V139" s="8"/>
       <c r="W139" s="8"/>
       <c r="X139" s="51" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="140" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9552,10 +9568,12 @@
         <f t="shared" si="9"/>
         <v>139</v>
       </c>
-      <c r="N140" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="O140" s="3"/>
+      <c r="N140" s="65" t="s">
+        <v>878</v>
+      </c>
+      <c r="O140" s="67" t="s">
+        <v>1</v>
+      </c>
       <c r="P140" s="49"/>
       <c r="Q140" s="8"/>
       <c r="R140" s="8"/>
@@ -9591,7 +9609,7 @@
         <v>140</v>
       </c>
       <c r="N141" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O141" s="3"/>
       <c r="P141" s="49"/>
@@ -9629,7 +9647,7 @@
         <v>141</v>
       </c>
       <c r="N142" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O142" s="3"/>
       <c r="P142" s="49"/>
@@ -9667,7 +9685,7 @@
         <v>142</v>
       </c>
       <c r="N143" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O143" s="3"/>
       <c r="P143" s="49"/>
@@ -9705,7 +9723,7 @@
         <v>143</v>
       </c>
       <c r="N144" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O144" s="3"/>
       <c r="P144" s="49"/>
@@ -9743,7 +9761,7 @@
         <v>144</v>
       </c>
       <c r="N145" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O145" s="1"/>
       <c r="P145" s="49"/>
@@ -9781,7 +9799,7 @@
         <v>145</v>
       </c>
       <c r="N146" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O146" s="1"/>
       <c r="P146" s="49" t="s">
@@ -9795,7 +9813,7 @@
       <c r="V146" s="8"/>
       <c r="W146" s="8"/>
       <c r="X146" s="51" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="147" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9823,7 +9841,7 @@
         <v>146</v>
       </c>
       <c r="N147" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O147" s="3"/>
       <c r="P147" s="49"/>
@@ -9899,7 +9917,7 @@
         <v>148</v>
       </c>
       <c r="N149" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O149" s="3"/>
       <c r="P149" s="49"/>
@@ -9937,7 +9955,7 @@
         <v>149</v>
       </c>
       <c r="N150" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O150" s="1"/>
       <c r="P150" s="49"/>
@@ -9975,7 +9993,7 @@
         <v>150</v>
       </c>
       <c r="N151" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O151" s="1"/>
       <c r="P151" s="49"/>
@@ -10012,7 +10030,7 @@
         <v>151</v>
       </c>
       <c r="N152" s="62" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="O152" s="63" t="s">
         <v>1</v>
@@ -10052,7 +10070,7 @@
         <v>152</v>
       </c>
       <c r="N153" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O153" s="1"/>
       <c r="P153" s="49"/>
@@ -10090,7 +10108,7 @@
         <v>153</v>
       </c>
       <c r="N154" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O154" s="3" t="s">
         <v>0</v>
@@ -10104,7 +10122,7 @@
       <c r="V154" s="8"/>
       <c r="W154" s="8"/>
       <c r="X154" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="155" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10132,7 +10150,7 @@
         <v>154</v>
       </c>
       <c r="N155" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O155" s="3"/>
       <c r="P155" s="49" t="s">
@@ -10146,7 +10164,7 @@
       <c r="V155" s="8"/>
       <c r="W155" s="8"/>
       <c r="X155" s="51" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="156" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10174,7 +10192,7 @@
         <v>155</v>
       </c>
       <c r="N156" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O156" s="3" t="s">
         <v>0</v>
@@ -10188,7 +10206,7 @@
       <c r="V156" s="8"/>
       <c r="W156" s="8"/>
       <c r="X156" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="157" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10254,7 +10272,7 @@
         <v>157</v>
       </c>
       <c r="N158" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O158" s="3"/>
       <c r="P158" s="49"/>
@@ -10292,7 +10310,7 @@
         <v>158</v>
       </c>
       <c r="N159" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O159" s="3" t="s">
         <v>0</v>
@@ -10306,7 +10324,7 @@
       <c r="V159" s="8"/>
       <c r="W159" s="8"/>
       <c r="X159" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="160" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10334,7 +10352,7 @@
         <v>159</v>
       </c>
       <c r="N160" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>0</v>
@@ -10350,7 +10368,7 @@
       <c r="V160" s="8"/>
       <c r="W160" s="8"/>
       <c r="X160" s="17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="161" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10378,7 +10396,7 @@
         <v>160</v>
       </c>
       <c r="N161" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O161" s="3" t="s">
         <v>0</v>
@@ -10392,7 +10410,7 @@
       <c r="V161" s="8"/>
       <c r="W161" s="8"/>
       <c r="X161" s="51" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="162" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10420,7 +10438,7 @@
         <v>161</v>
       </c>
       <c r="N162" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O162" s="1"/>
       <c r="P162" s="49"/>
@@ -10458,7 +10476,7 @@
         <v>162</v>
       </c>
       <c r="N163" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O163" s="1"/>
       <c r="P163" s="49"/>
@@ -10496,7 +10514,7 @@
         <v>163</v>
       </c>
       <c r="N164" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O164" s="3"/>
       <c r="P164" s="49"/>
@@ -10586,7 +10604,7 @@
       <c r="V166" s="8"/>
       <c r="W166" s="8"/>
       <c r="X166" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="167" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10614,7 +10632,7 @@
         <v>166</v>
       </c>
       <c r="N167" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O167" s="3"/>
       <c r="P167" s="49" t="s">
@@ -10628,7 +10646,7 @@
       <c r="V167" s="8"/>
       <c r="W167" s="8"/>
       <c r="X167" s="51" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="168" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10656,7 +10674,7 @@
         <v>167</v>
       </c>
       <c r="N168" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O168" s="3" t="s">
         <v>0</v>
@@ -10670,7 +10688,7 @@
       <c r="V168" s="8"/>
       <c r="W168" s="8"/>
       <c r="X168" s="17" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="169" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10736,7 +10754,7 @@
         <v>169</v>
       </c>
       <c r="N170" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O170" s="1"/>
       <c r="P170" s="49"/>
@@ -10774,7 +10792,7 @@
         <v>170</v>
       </c>
       <c r="N171" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O171" s="3" t="s">
         <v>0</v>
@@ -10788,7 +10806,7 @@
       <c r="V171" s="8"/>
       <c r="W171" s="8"/>
       <c r="X171" s="17" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="172" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10816,7 +10834,7 @@
         <v>171</v>
       </c>
       <c r="N172" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O172" s="3" t="s">
         <v>0</v>
@@ -10825,16 +10843,16 @@
       <c r="Q172" s="8"/>
       <c r="R172" s="8"/>
       <c r="S172" s="8" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="T172" s="8" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="U172" s="8"/>
       <c r="V172" s="8"/>
       <c r="W172" s="8"/>
-      <c r="X172" s="17" t="s">
-        <v>648</v>
+      <c r="X172" s="65" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="173" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10876,7 +10894,7 @@
       <c r="V173" s="8"/>
       <c r="W173" s="8"/>
       <c r="X173" s="51" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="174" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10904,7 +10922,7 @@
         <v>173</v>
       </c>
       <c r="N174" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O174" s="3"/>
       <c r="P174" s="49"/>
@@ -10951,7 +10969,7 @@
       <c r="S175" s="8"/>
       <c r="T175" s="8"/>
       <c r="U175" s="8" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="V175" s="8"/>
       <c r="W175" s="8"/>
@@ -10982,7 +11000,7 @@
         <v>175</v>
       </c>
       <c r="N176" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O176" s="3"/>
       <c r="P176" s="49"/>
@@ -11020,7 +11038,7 @@
         <v>176</v>
       </c>
       <c r="N177" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O177" s="3"/>
       <c r="P177" s="49"/>
@@ -11096,7 +11114,7 @@
         <v>178</v>
       </c>
       <c r="N179" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O179" s="3" t="s">
         <v>0</v>
@@ -11112,7 +11130,7 @@
       <c r="V179" s="8"/>
       <c r="W179" s="8"/>
       <c r="X179" s="17" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="180" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11178,7 +11196,7 @@
         <v>180</v>
       </c>
       <c r="N181" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O181" s="1"/>
       <c r="P181" s="49"/>
@@ -11216,7 +11234,7 @@
         <v>181</v>
       </c>
       <c r="N182" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O182" s="3"/>
       <c r="P182" s="49"/>
@@ -11254,7 +11272,7 @@
         <v>182</v>
       </c>
       <c r="N183" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O183" s="3" t="s">
         <v>0</v>
@@ -11268,7 +11286,7 @@
       <c r="V183" s="8"/>
       <c r="W183" s="8"/>
       <c r="X183" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="184" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11296,7 +11314,7 @@
         <v>183</v>
       </c>
       <c r="N184" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O184" s="3"/>
       <c r="P184" s="49"/>
@@ -11372,7 +11390,7 @@
         <v>185</v>
       </c>
       <c r="N186" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O186" s="1"/>
       <c r="P186" s="49"/>
@@ -11424,7 +11442,7 @@
       <c r="V187" s="8"/>
       <c r="W187" s="8"/>
       <c r="X187" s="55" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="188" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11490,7 +11508,7 @@
         <v>188</v>
       </c>
       <c r="N189" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O189" s="3"/>
       <c r="P189" s="49"/>
@@ -11499,7 +11517,7 @@
       <c r="S189" s="8"/>
       <c r="T189" s="8"/>
       <c r="U189" s="8" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="V189" s="8"/>
       <c r="W189" s="8"/>
@@ -11530,7 +11548,7 @@
         <v>189</v>
       </c>
       <c r="N190" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O190" s="3"/>
       <c r="P190" s="49"/>
@@ -11568,7 +11586,7 @@
         <v>190</v>
       </c>
       <c r="N191" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O191" s="1"/>
       <c r="P191" s="49"/>
@@ -11606,7 +11624,7 @@
         <v>191</v>
       </c>
       <c r="N192" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O192" s="3"/>
       <c r="P192" s="49"/>
@@ -11644,7 +11662,7 @@
         <v>192</v>
       </c>
       <c r="N193" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O193" s="3" t="s">
         <v>1</v>
@@ -11653,10 +11671,10 @@
       <c r="Q193" s="8"/>
       <c r="R193" s="8"/>
       <c r="S193" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T193" s="8" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="U193" s="8"/>
       <c r="V193" s="8"/>
@@ -11688,7 +11706,7 @@
         <v>193</v>
       </c>
       <c r="N194" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O194" s="3"/>
       <c r="P194" s="49" t="s">
@@ -11702,7 +11720,7 @@
       <c r="V194" s="8"/>
       <c r="W194" s="8"/>
       <c r="X194" s="51" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="195" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11768,7 +11786,7 @@
         <v>195</v>
       </c>
       <c r="N196" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O196" s="3"/>
       <c r="P196" s="49"/>
@@ -11815,7 +11833,7 @@
       <c r="S197" s="8"/>
       <c r="T197" s="8"/>
       <c r="U197" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V197" s="8"/>
       <c r="W197" s="8"/>
@@ -11846,7 +11864,7 @@
         <v>197</v>
       </c>
       <c r="N198" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O198" s="3"/>
       <c r="P198" s="49"/>
@@ -11884,7 +11902,7 @@
         <v>198</v>
       </c>
       <c r="N199" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O199" s="3" t="s">
         <v>0</v>
@@ -11898,7 +11916,7 @@
       <c r="V199" s="8"/>
       <c r="W199" s="8"/>
       <c r="X199" s="17" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="200" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11926,7 +11944,7 @@
         <v>199</v>
       </c>
       <c r="N200" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O200" s="1"/>
       <c r="P200" s="49" t="s">
@@ -11940,7 +11958,7 @@
       <c r="V200" s="8"/>
       <c r="W200" s="8"/>
       <c r="X200" s="51" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="201" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -11968,7 +11986,7 @@
         <v>200</v>
       </c>
       <c r="N201" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O201" s="1"/>
       <c r="P201" s="49"/>
@@ -12044,7 +12062,7 @@
         <v>202</v>
       </c>
       <c r="N203" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O203" s="3"/>
       <c r="P203" s="49"/>
@@ -12120,7 +12138,7 @@
         <v>204</v>
       </c>
       <c r="N205" s="17" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="O205" s="3" t="s">
         <v>0</v>
@@ -12134,7 +12152,7 @@
       <c r="V205" s="8"/>
       <c r="W205" s="8"/>
       <c r="X205" s="17" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="206" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12200,7 +12218,7 @@
         <v>206</v>
       </c>
       <c r="N207" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O207" s="1"/>
       <c r="P207" s="49" t="s">
@@ -12214,7 +12232,7 @@
       <c r="V207" s="8"/>
       <c r="W207" s="8"/>
       <c r="X207" s="17" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="208" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12242,7 +12260,7 @@
         <v>207</v>
       </c>
       <c r="N208" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>1</v>
@@ -12281,7 +12299,7 @@
         <v>208</v>
       </c>
       <c r="N209" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O209" s="1"/>
       <c r="P209" s="49"/>
@@ -12319,7 +12337,7 @@
         <v>209</v>
       </c>
       <c r="N210" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O210" s="1"/>
       <c r="P210" s="49"/>
@@ -12357,7 +12375,7 @@
         <v>210</v>
       </c>
       <c r="N211" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O211" s="1"/>
       <c r="P211" s="49"/>
@@ -12395,7 +12413,7 @@
         <v>211</v>
       </c>
       <c r="N212" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O212" s="1"/>
       <c r="P212" s="49"/>
@@ -12433,7 +12451,7 @@
         <v>212</v>
       </c>
       <c r="N213" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O213" s="1"/>
       <c r="P213" s="49"/>
@@ -12471,7 +12489,7 @@
         <v>213</v>
       </c>
       <c r="N214" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O214" s="3"/>
       <c r="P214" s="49" t="s">
@@ -12485,7 +12503,7 @@
       <c r="V214" s="8"/>
       <c r="W214" s="8"/>
       <c r="X214" s="51" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="215" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12513,7 +12531,7 @@
         <v>214</v>
       </c>
       <c r="N215" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O215" s="3" t="s">
         <v>17</v>
@@ -12527,7 +12545,7 @@
       <c r="V215" s="8"/>
       <c r="W215" s="8"/>
       <c r="X215" s="51" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="216" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12593,7 +12611,7 @@
         <v>216</v>
       </c>
       <c r="N217" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O217" s="3" t="s">
         <v>0</v>
@@ -12607,7 +12625,7 @@
       <c r="V217" s="8"/>
       <c r="W217" s="8"/>
       <c r="X217" s="17" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="218" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12673,7 +12691,7 @@
         <v>218</v>
       </c>
       <c r="N219" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O219" s="3"/>
       <c r="P219" s="49"/>
@@ -12711,7 +12729,7 @@
         <v>219</v>
       </c>
       <c r="N220" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O220" s="3"/>
       <c r="P220" s="49"/>
@@ -12720,7 +12738,7 @@
       <c r="S220" s="8"/>
       <c r="T220" s="8"/>
       <c r="U220" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V220" s="8"/>
       <c r="W220" s="8"/>
@@ -12751,7 +12769,7 @@
         <v>220</v>
       </c>
       <c r="N221" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>1</v>
@@ -12791,7 +12809,7 @@
         <v>221</v>
       </c>
       <c r="N222" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O222" s="1"/>
       <c r="P222" s="49"/>
@@ -12829,7 +12847,7 @@
         <v>222</v>
       </c>
       <c r="N223" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O223" s="1"/>
       <c r="P223" s="49" t="s">
@@ -12843,7 +12861,7 @@
       <c r="V223" s="8"/>
       <c r="W223" s="8"/>
       <c r="X223" s="55" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="224" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12907,7 +12925,7 @@
         <v>2</v>
       </c>
       <c r="N225" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>0</v>
@@ -12921,7 +12939,7 @@
       <c r="V225" s="8"/>
       <c r="W225" s="8"/>
       <c r="X225" s="17" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="226" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12949,7 +12967,7 @@
         <v>3</v>
       </c>
       <c r="N226" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>0</v>
@@ -12963,7 +12981,7 @@
       <c r="V226" s="8"/>
       <c r="W226" s="8"/>
       <c r="X226" s="17" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="227" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12991,7 +13009,7 @@
         <v>4</v>
       </c>
       <c r="N227" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O227" s="1"/>
       <c r="P227" s="49"/>
@@ -13067,7 +13085,7 @@
         <v>6</v>
       </c>
       <c r="N229" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O229" s="1"/>
       <c r="P229" s="49"/>
@@ -13110,16 +13128,16 @@
       <c r="O230" s="1"/>
       <c r="P230" s="49"/>
       <c r="Q230" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R230" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S230" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T230" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U230" s="8"/>
       <c r="V230" s="8"/>
@@ -13189,7 +13207,7 @@
         <v>9</v>
       </c>
       <c r="N232" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O232" s="3"/>
       <c r="P232" s="49"/>
@@ -13227,7 +13245,7 @@
         <v>10</v>
       </c>
       <c r="N233" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O233" s="3" t="s">
         <v>0</v>
@@ -13241,7 +13259,7 @@
       <c r="V233" s="8"/>
       <c r="W233" s="8"/>
       <c r="X233" s="17" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="234" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13269,7 +13287,7 @@
         <v>11</v>
       </c>
       <c r="N234" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O234" s="3"/>
       <c r="P234" s="49"/>
@@ -13307,7 +13325,7 @@
         <v>12</v>
       </c>
       <c r="N235" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O235" s="1"/>
       <c r="P235" s="49"/>
@@ -13350,16 +13368,16 @@
       <c r="O236" s="1"/>
       <c r="P236" s="49"/>
       <c r="Q236" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R236" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S236" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T236" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U236" s="8"/>
       <c r="V236" s="8"/>
@@ -13429,7 +13447,7 @@
         <v>15</v>
       </c>
       <c r="N238" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O238" s="1"/>
       <c r="P238" s="49"/>
@@ -13467,7 +13485,7 @@
         <v>16</v>
       </c>
       <c r="N239" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>0</v>
@@ -13481,7 +13499,7 @@
       <c r="V239" s="8"/>
       <c r="W239" s="8"/>
       <c r="X239" s="17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="240" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13509,7 +13527,7 @@
         <v>17</v>
       </c>
       <c r="N240" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O240" s="1"/>
       <c r="P240" s="49"/>
@@ -13547,7 +13565,7 @@
         <v>18</v>
       </c>
       <c r="N241" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O241" s="1"/>
       <c r="P241" s="49"/>
@@ -13590,16 +13608,16 @@
       <c r="O242" s="3"/>
       <c r="P242" s="49"/>
       <c r="Q242" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R242" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S242" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T242" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U242" s="8"/>
       <c r="V242" s="8"/>
@@ -13669,7 +13687,7 @@
         <v>21</v>
       </c>
       <c r="N244" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O244" s="1"/>
       <c r="P244" s="49"/>
@@ -13707,7 +13725,7 @@
         <v>22</v>
       </c>
       <c r="N245" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O245" s="3" t="s">
         <v>0</v>
@@ -13721,7 +13739,7 @@
       <c r="V245" s="8"/>
       <c r="W245" s="8"/>
       <c r="X245" s="17" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="246" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13749,7 +13767,7 @@
         <v>23</v>
       </c>
       <c r="N246" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O246" s="3"/>
       <c r="P246" s="49"/>
@@ -13787,7 +13805,7 @@
         <v>24</v>
       </c>
       <c r="N247" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O247" s="1"/>
       <c r="P247" s="49"/>
@@ -13830,16 +13848,16 @@
       <c r="O248" s="3"/>
       <c r="P248" s="49"/>
       <c r="Q248" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R248" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S248" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T248" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U248" s="8"/>
       <c r="V248" s="8"/>
@@ -13909,7 +13927,7 @@
         <v>27</v>
       </c>
       <c r="N250" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O250" s="3" t="s">
         <v>0</v>
@@ -13923,7 +13941,7 @@
       <c r="V250" s="8"/>
       <c r="W250" s="8"/>
       <c r="X250" s="17" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="251" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13951,7 +13969,7 @@
         <v>28</v>
       </c>
       <c r="N251" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O251" s="3" t="s">
         <v>0</v>
@@ -13965,7 +13983,7 @@
       <c r="V251" s="8"/>
       <c r="W251" s="8"/>
       <c r="X251" s="17" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="252" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13993,7 +14011,7 @@
         <v>29</v>
       </c>
       <c r="N252" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O252" s="3"/>
       <c r="P252" s="49"/>
@@ -14031,7 +14049,7 @@
         <v>30</v>
       </c>
       <c r="N253" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O253" s="1"/>
       <c r="P253" s="49"/>
@@ -14074,16 +14092,16 @@
       <c r="O254" s="1"/>
       <c r="P254" s="49"/>
       <c r="Q254" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R254" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S254" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T254" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U254" s="8"/>
       <c r="V254" s="8"/>
@@ -14153,7 +14171,7 @@
         <v>33</v>
       </c>
       <c r="N256" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O256" s="3"/>
       <c r="P256" s="49"/>
@@ -14191,7 +14209,7 @@
         <v>34</v>
       </c>
       <c r="N257" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O257" s="3"/>
       <c r="P257" s="49"/>
@@ -14229,7 +14247,7 @@
         <v>35</v>
       </c>
       <c r="N258" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O258" s="3"/>
       <c r="P258" s="49"/>
@@ -14267,7 +14285,7 @@
         <v>36</v>
       </c>
       <c r="N259" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O259" s="1"/>
       <c r="P259" s="49"/>
@@ -14310,16 +14328,16 @@
       <c r="O260" s="1"/>
       <c r="P260" s="49"/>
       <c r="Q260" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R260" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S260" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T260" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U260" s="8"/>
       <c r="V260" s="8"/>
@@ -14389,7 +14407,7 @@
         <v>39</v>
       </c>
       <c r="N262" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O262" s="1"/>
       <c r="P262" s="49"/>
@@ -14427,7 +14445,7 @@
         <v>40</v>
       </c>
       <c r="N263" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>0</v>
@@ -14441,7 +14459,7 @@
       <c r="V263" s="8"/>
       <c r="W263" s="8"/>
       <c r="X263" s="17" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="264" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14469,7 +14487,7 @@
         <v>41</v>
       </c>
       <c r="N264" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O264" s="3"/>
       <c r="P264" s="49"/>
@@ -14507,7 +14525,7 @@
         <v>42</v>
       </c>
       <c r="N265" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O265" s="1"/>
       <c r="P265" s="49"/>
@@ -14550,16 +14568,16 @@
       <c r="O266" s="1"/>
       <c r="P266" s="49"/>
       <c r="Q266" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R266" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S266" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T266" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U266" s="8"/>
       <c r="V266" s="8"/>
@@ -14629,7 +14647,7 @@
         <v>45</v>
       </c>
       <c r="N268" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O268" s="3"/>
       <c r="P268" s="49"/>
@@ -14667,7 +14685,7 @@
         <v>46</v>
       </c>
       <c r="N269" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O269" s="3"/>
       <c r="P269" s="49"/>
@@ -14705,7 +14723,7 @@
         <v>47</v>
       </c>
       <c r="N270" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O270" s="3"/>
       <c r="P270" s="49"/>
@@ -14743,7 +14761,7 @@
         <v>48</v>
       </c>
       <c r="N271" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O271" s="3"/>
       <c r="P271" s="49"/>
@@ -14786,16 +14804,16 @@
       <c r="O272" s="3"/>
       <c r="P272" s="49"/>
       <c r="Q272" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R272" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S272" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T272" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U272" s="8"/>
       <c r="V272" s="8"/>
@@ -14864,7 +14882,7 @@
         <v>51</v>
       </c>
       <c r="N274" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O274" s="1"/>
       <c r="P274" s="49"/>
@@ -14902,7 +14920,7 @@
         <v>52</v>
       </c>
       <c r="N275" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O275" s="1"/>
       <c r="P275" s="49"/>
@@ -14940,7 +14958,7 @@
         <v>53</v>
       </c>
       <c r="N276" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O276" s="3"/>
       <c r="P276" s="49"/>
@@ -14978,7 +14996,7 @@
         <v>54</v>
       </c>
       <c r="N277" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O277" s="3"/>
       <c r="P277" s="49"/>
@@ -15021,16 +15039,16 @@
       <c r="O278" s="3"/>
       <c r="P278" s="49"/>
       <c r="Q278" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R278" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S278" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T278" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U278" s="8"/>
       <c r="V278" s="8"/>
@@ -15100,7 +15118,7 @@
         <v>57</v>
       </c>
       <c r="N280" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O280" s="3"/>
       <c r="P280" s="49"/>
@@ -15138,7 +15156,7 @@
         <v>58</v>
       </c>
       <c r="N281" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O281" s="1"/>
       <c r="P281" s="49"/>
@@ -15176,7 +15194,7 @@
         <v>59</v>
       </c>
       <c r="N282" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O282" s="1"/>
       <c r="P282" s="49"/>
@@ -15214,7 +15232,7 @@
         <v>60</v>
       </c>
       <c r="N283" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O283" s="1"/>
       <c r="P283" s="49"/>
@@ -15257,16 +15275,16 @@
       <c r="O284" s="3"/>
       <c r="P284" s="49"/>
       <c r="Q284" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R284" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S284" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T284" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U284" s="8"/>
       <c r="V284" s="8"/>
@@ -15336,7 +15354,7 @@
         <v>63</v>
       </c>
       <c r="N286" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O286" s="3"/>
       <c r="P286" s="49"/>
@@ -15374,7 +15392,7 @@
         <v>64</v>
       </c>
       <c r="N287" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O287" s="3" t="s">
         <v>0</v>
@@ -15388,7 +15406,7 @@
       <c r="V287" s="8"/>
       <c r="W287" s="8"/>
       <c r="X287" s="17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="288" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15416,7 +15434,7 @@
         <v>65</v>
       </c>
       <c r="N288" s="17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O288" s="3"/>
       <c r="P288" s="49"/>
@@ -15454,7 +15472,7 @@
         <v>66</v>
       </c>
       <c r="N289" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O289" s="3"/>
       <c r="P289" s="49"/>
@@ -15497,16 +15515,16 @@
       <c r="O290" s="3"/>
       <c r="P290" s="49"/>
       <c r="Q290" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R290" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S290" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T290" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U290" s="8"/>
       <c r="V290" s="8"/>
@@ -15576,7 +15594,7 @@
         <v>69</v>
       </c>
       <c r="N292" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O292" s="3" t="s">
         <v>0</v>
@@ -15590,7 +15608,7 @@
       <c r="V292" s="8"/>
       <c r="W292" s="8"/>
       <c r="X292" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="293" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15618,7 +15636,7 @@
         <v>70</v>
       </c>
       <c r="N293" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O293" s="3" t="s">
         <v>0</v>
@@ -15632,7 +15650,7 @@
       <c r="V293" s="8"/>
       <c r="W293" s="8"/>
       <c r="X293" s="17" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="294" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15660,7 +15678,7 @@
         <v>71</v>
       </c>
       <c r="N294" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O294" s="1"/>
       <c r="P294" s="49"/>
@@ -15698,7 +15716,7 @@
         <v>72</v>
       </c>
       <c r="N295" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O295" s="3"/>
       <c r="P295" s="49"/>
@@ -15741,16 +15759,16 @@
       <c r="O296" s="3"/>
       <c r="P296" s="49"/>
       <c r="Q296" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R296" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S296" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T296" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U296" s="8"/>
       <c r="V296" s="8"/>
@@ -15820,7 +15838,7 @@
         <v>75</v>
       </c>
       <c r="N298" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O298" s="3" t="s">
         <v>0</v>
@@ -15834,7 +15852,7 @@
       <c r="V298" s="8"/>
       <c r="W298" s="8"/>
       <c r="X298" s="17" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="299" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15862,7 +15880,7 @@
         <v>76</v>
       </c>
       <c r="N299" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O299" s="1"/>
       <c r="P299" s="49"/>
@@ -15900,7 +15918,7 @@
         <v>77</v>
       </c>
       <c r="N300" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O300" s="1"/>
       <c r="P300" s="49"/>
@@ -15938,7 +15956,7 @@
         <v>78</v>
       </c>
       <c r="N301" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O301" s="1"/>
       <c r="P301" s="49"/>
@@ -15985,16 +16003,16 @@
       <c r="Q302" s="8"/>
       <c r="R302" s="8"/>
       <c r="S302" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T302" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U302" s="8"/>
       <c r="V302" s="8"/>
       <c r="W302" s="8"/>
       <c r="X302" s="51" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="303" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16058,7 +16076,7 @@
         <v>2</v>
       </c>
       <c r="N304" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O304" s="1"/>
       <c r="P304" s="49"/>
@@ -16096,7 +16114,7 @@
         <v>3</v>
       </c>
       <c r="N305" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O305" s="3" t="s">
         <v>0</v>
@@ -16110,7 +16128,7 @@
       <c r="V305" s="8"/>
       <c r="W305" s="8"/>
       <c r="X305" s="17" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="306" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16138,7 +16156,7 @@
         <v>4</v>
       </c>
       <c r="N306" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O306" s="3" t="s">
         <v>0</v>
@@ -16152,7 +16170,7 @@
       <c r="V306" s="8"/>
       <c r="W306" s="8"/>
       <c r="X306" s="17" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="307" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16180,7 +16198,7 @@
         <v>5</v>
       </c>
       <c r="N307" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O307" s="3"/>
       <c r="P307" s="49"/>
@@ -16223,16 +16241,16 @@
       <c r="O308" s="3"/>
       <c r="P308" s="49"/>
       <c r="Q308" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R308" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S308" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T308" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U308" s="8"/>
       <c r="V308" s="8"/>
@@ -16302,7 +16320,7 @@
         <v>8</v>
       </c>
       <c r="N310" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O310" s="3"/>
       <c r="P310" s="49"/>
@@ -16340,7 +16358,7 @@
         <v>9</v>
       </c>
       <c r="N311" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O311" s="3" t="s">
         <v>0</v>
@@ -16354,7 +16372,7 @@
       <c r="V311" s="8"/>
       <c r="W311" s="8"/>
       <c r="X311" s="17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="312" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16382,7 +16400,7 @@
         <v>10</v>
       </c>
       <c r="N312" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O312" s="1"/>
       <c r="P312" s="49"/>
@@ -16420,7 +16438,7 @@
         <v>11</v>
       </c>
       <c r="N313" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O313" s="1"/>
       <c r="P313" s="49"/>
@@ -16463,16 +16481,16 @@
       <c r="O314" s="3"/>
       <c r="P314" s="49"/>
       <c r="Q314" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R314" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S314" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T314" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U314" s="8"/>
       <c r="V314" s="8"/>
@@ -16542,7 +16560,7 @@
         <v>14</v>
       </c>
       <c r="N316" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O316" s="3" t="s">
         <v>0</v>
@@ -16556,7 +16574,7 @@
       <c r="V316" s="8"/>
       <c r="W316" s="8"/>
       <c r="X316" s="17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="317" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16584,7 +16602,7 @@
         <v>15</v>
       </c>
       <c r="N317" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O317" s="3" t="s">
         <v>0</v>
@@ -16598,7 +16616,7 @@
       <c r="V317" s="8"/>
       <c r="W317" s="8"/>
       <c r="X317" s="19" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="318" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16626,7 +16644,7 @@
         <v>16</v>
       </c>
       <c r="N318" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O318" s="3"/>
       <c r="P318" s="49"/>
@@ -16664,7 +16682,7 @@
         <v>17</v>
       </c>
       <c r="N319" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O319" s="1"/>
       <c r="P319" s="49"/>
@@ -16707,16 +16725,16 @@
       <c r="O320" s="1"/>
       <c r="P320" s="49"/>
       <c r="Q320" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R320" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S320" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T320" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U320" s="8"/>
       <c r="V320" s="8"/>
@@ -16786,7 +16804,7 @@
         <v>20</v>
       </c>
       <c r="N322" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O322" s="3"/>
       <c r="P322" s="49"/>
@@ -16824,7 +16842,7 @@
         <v>21</v>
       </c>
       <c r="N323" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O323" s="3" t="s">
         <v>0</v>
@@ -16838,7 +16856,7 @@
       <c r="V323" s="8"/>
       <c r="W323" s="8"/>
       <c r="X323" s="17" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="324" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -16866,7 +16884,7 @@
         <v>22</v>
       </c>
       <c r="N324" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O324" s="1"/>
       <c r="P324" s="49"/>
@@ -16904,7 +16922,7 @@
         <v>23</v>
       </c>
       <c r="N325" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O325" s="1"/>
       <c r="P325" s="49"/>
@@ -16947,16 +16965,16 @@
       <c r="O326" s="1"/>
       <c r="P326" s="49"/>
       <c r="Q326" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R326" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S326" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T326" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U326" s="8"/>
       <c r="V326" s="8"/>
@@ -17026,7 +17044,7 @@
         <v>26</v>
       </c>
       <c r="N328" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O328" s="3" t="s">
         <v>0</v>
@@ -17040,7 +17058,7 @@
       <c r="V328" s="8"/>
       <c r="W328" s="8"/>
       <c r="X328" s="17" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="329" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17068,7 +17086,7 @@
         <v>27</v>
       </c>
       <c r="N329" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O329" s="3" t="s">
         <v>0</v>
@@ -17082,7 +17100,7 @@
       <c r="V329" s="8"/>
       <c r="W329" s="8"/>
       <c r="X329" s="17" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="330" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17110,7 +17128,7 @@
         <v>28</v>
       </c>
       <c r="N330" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O330" s="1"/>
       <c r="P330" s="49"/>
@@ -17148,7 +17166,7 @@
         <v>29</v>
       </c>
       <c r="N331" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O331" s="1"/>
       <c r="P331" s="49"/>
@@ -17191,16 +17209,16 @@
       <c r="O332" s="1"/>
       <c r="P332" s="49"/>
       <c r="Q332" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R332" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S332" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T332" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U332" s="8"/>
       <c r="V332" s="8"/>
@@ -17270,7 +17288,7 @@
         <v>32</v>
       </c>
       <c r="N334" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O334" s="3" t="s">
         <v>0</v>
@@ -17284,7 +17302,7 @@
       <c r="V334" s="8"/>
       <c r="W334" s="8"/>
       <c r="X334" s="17" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="335" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17312,7 +17330,7 @@
         <v>33</v>
       </c>
       <c r="N335" s="17" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="O335" s="3" t="s">
         <v>0</v>
@@ -17326,7 +17344,7 @@
       <c r="V335" s="8"/>
       <c r="W335" s="8"/>
       <c r="X335" s="17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="336" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17354,7 +17372,7 @@
         <v>34</v>
       </c>
       <c r="N336" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O336" s="3"/>
       <c r="P336" s="49"/>
@@ -17392,7 +17410,7 @@
         <v>35</v>
       </c>
       <c r="N337" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O337" s="3"/>
       <c r="P337" s="49"/>
@@ -17435,16 +17453,16 @@
       <c r="O338" s="3"/>
       <c r="P338" s="49"/>
       <c r="Q338" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R338" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S338" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T338" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U338" s="8"/>
       <c r="V338" s="8"/>
@@ -17514,7 +17532,7 @@
         <v>38</v>
       </c>
       <c r="N340" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O340" s="3" t="s">
         <v>0</v>
@@ -17528,7 +17546,7 @@
       <c r="V340" s="8"/>
       <c r="W340" s="8"/>
       <c r="X340" s="17" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="341" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17556,7 +17574,7 @@
         <v>39</v>
       </c>
       <c r="N341" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O341" s="1"/>
       <c r="P341" s="49"/>
@@ -17594,7 +17612,7 @@
         <v>40</v>
       </c>
       <c r="N342" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O342" s="3" t="s">
         <v>0</v>
@@ -17608,7 +17626,7 @@
       <c r="V342" s="8"/>
       <c r="W342" s="8"/>
       <c r="X342" s="17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="343" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17636,7 +17654,7 @@
         <v>41</v>
       </c>
       <c r="N343" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O343" s="3" t="s">
         <v>0</v>
@@ -17650,7 +17668,7 @@
       <c r="V343" s="8"/>
       <c r="W343" s="8"/>
       <c r="X343" s="17" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="344" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17678,7 +17696,7 @@
         <v>42</v>
       </c>
       <c r="N344" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O344" s="1"/>
       <c r="P344" s="49"/>
@@ -17721,16 +17739,16 @@
       <c r="O345" s="1"/>
       <c r="P345" s="49"/>
       <c r="Q345" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R345" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S345" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T345" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U345" s="8"/>
       <c r="V345" s="8"/>
@@ -17800,7 +17818,7 @@
         <v>45</v>
       </c>
       <c r="N347" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O347" s="3"/>
       <c r="P347" s="49"/>
@@ -17838,7 +17856,7 @@
         <v>46</v>
       </c>
       <c r="N348" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O348" s="3" t="s">
         <v>0</v>
@@ -17852,7 +17870,7 @@
       <c r="V348" s="8"/>
       <c r="W348" s="8"/>
       <c r="X348" s="17" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="349" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17880,7 +17898,7 @@
         <v>47</v>
       </c>
       <c r="N349" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O349" s="1"/>
       <c r="P349" s="49"/>
@@ -17918,7 +17936,7 @@
         <v>48</v>
       </c>
       <c r="N350" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O350" s="1"/>
       <c r="P350" s="49"/>
@@ -17961,16 +17979,16 @@
       <c r="O351" s="1"/>
       <c r="P351" s="49"/>
       <c r="Q351" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R351" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S351" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T351" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="U351" s="8"/>
       <c r="V351" s="8"/>
@@ -18039,7 +18057,7 @@
         <v>51</v>
       </c>
       <c r="N353" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O353" s="3" t="s">
         <v>0</v>
@@ -18053,7 +18071,7 @@
       <c r="V353" s="8"/>
       <c r="W353" s="8"/>
       <c r="X353" s="17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="354" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18081,7 +18099,7 @@
         <v>52</v>
       </c>
       <c r="N354" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O354" s="3" t="s">
         <v>0</v>
@@ -18095,7 +18113,7 @@
       <c r="V354" s="8"/>
       <c r="W354" s="8"/>
       <c r="X354" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="355" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18161,7 +18179,7 @@
         <v>54</v>
       </c>
       <c r="N356" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O356" s="1"/>
       <c r="P356" s="49"/>
@@ -18204,10 +18222,10 @@
       <c r="O357" s="1"/>
       <c r="P357" s="49"/>
       <c r="Q357" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R357" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S357" s="8"/>
       <c r="T357" s="8"/>
@@ -18279,7 +18297,7 @@
         <v>57</v>
       </c>
       <c r="N359" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O359" s="3" t="s">
         <v>0</v>
@@ -18293,7 +18311,7 @@
       <c r="V359" s="8"/>
       <c r="W359" s="8"/>
       <c r="X359" s="17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="360" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18321,7 +18339,7 @@
         <v>58</v>
       </c>
       <c r="N360" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O360" s="3" t="s">
         <v>0</v>
@@ -18335,7 +18353,7 @@
       <c r="V360" s="8"/>
       <c r="W360" s="8"/>
       <c r="X360" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="361" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18401,7 +18419,7 @@
         <v>60</v>
       </c>
       <c r="N362" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O362" s="1"/>
       <c r="P362" s="49"/>
@@ -18444,10 +18462,10 @@
       <c r="O363" s="1"/>
       <c r="P363" s="49"/>
       <c r="Q363" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R363" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S363" s="8"/>
       <c r="T363" s="8"/>
@@ -18519,7 +18537,7 @@
         <v>63</v>
       </c>
       <c r="N365" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O365" s="3" t="s">
         <v>0</v>
@@ -18533,7 +18551,7 @@
       <c r="V365" s="8"/>
       <c r="W365" s="8"/>
       <c r="X365" s="17" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="366" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18561,7 +18579,7 @@
         <v>64</v>
       </c>
       <c r="N366" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O366" s="3" t="s">
         <v>0</v>
@@ -18575,7 +18593,7 @@
       <c r="V366" s="8"/>
       <c r="W366" s="8"/>
       <c r="X366" s="17" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="367" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18641,7 +18659,7 @@
         <v>66</v>
       </c>
       <c r="N368" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O368" s="1"/>
       <c r="P368" s="49"/>
@@ -18684,10 +18702,10 @@
       <c r="O369" s="1"/>
       <c r="P369" s="49"/>
       <c r="Q369" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R369" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S369" s="8"/>
       <c r="T369" s="8"/>
@@ -18759,7 +18777,7 @@
         <v>69</v>
       </c>
       <c r="N371" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O371" s="3" t="s">
         <v>0</v>
@@ -18773,7 +18791,7 @@
       <c r="V371" s="8"/>
       <c r="W371" s="8"/>
       <c r="X371" s="17" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="372" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18801,7 +18819,7 @@
         <v>70</v>
       </c>
       <c r="N372" s="17" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="O372" s="3" t="s">
         <v>0</v>
@@ -18815,7 +18833,7 @@
       <c r="V372" s="8"/>
       <c r="W372" s="8"/>
       <c r="X372" s="17" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="373" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18881,7 +18899,7 @@
         <v>72</v>
       </c>
       <c r="N374" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O374" s="3"/>
       <c r="P374" s="49"/>
@@ -18924,10 +18942,10 @@
       <c r="O375" s="3"/>
       <c r="P375" s="49"/>
       <c r="Q375" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R375" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S375" s="8"/>
       <c r="T375" s="8"/>
@@ -18999,7 +19017,7 @@
         <v>75</v>
       </c>
       <c r="N377" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O377" s="1"/>
       <c r="P377" s="49"/>
@@ -19037,7 +19055,7 @@
         <v>76</v>
       </c>
       <c r="N378" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O378" s="1"/>
       <c r="P378" s="49"/>
@@ -19113,7 +19131,7 @@
         <v>78</v>
       </c>
       <c r="N380" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O380" s="3"/>
       <c r="P380" s="49"/>
@@ -19156,10 +19174,10 @@
       <c r="O381" s="3"/>
       <c r="P381" s="49"/>
       <c r="Q381" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R381" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S381" s="8"/>
       <c r="T381" s="8"/>
@@ -19231,7 +19249,7 @@
         <v>81</v>
       </c>
       <c r="N383" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O383" s="3" t="s">
         <v>0</v>
@@ -19245,7 +19263,7 @@
       <c r="V383" s="8"/>
       <c r="W383" s="8"/>
       <c r="X383" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="384" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19273,7 +19291,7 @@
         <v>82</v>
       </c>
       <c r="N384" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O384" s="3" t="s">
         <v>0</v>
@@ -19287,7 +19305,7 @@
       <c r="V384" s="8"/>
       <c r="W384" s="8"/>
       <c r="X384" s="17" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="385" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19353,7 +19371,7 @@
         <v>84</v>
       </c>
       <c r="N386" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O386" s="1"/>
       <c r="P386" s="49"/>
@@ -19396,10 +19414,10 @@
       <c r="O387" s="1"/>
       <c r="P387" s="49"/>
       <c r="Q387" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R387" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S387" s="8"/>
       <c r="T387" s="8"/>
@@ -19471,7 +19489,7 @@
         <v>87</v>
       </c>
       <c r="N389" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O389" s="3" t="s">
         <v>0</v>
@@ -19485,7 +19503,7 @@
       <c r="V389" s="8"/>
       <c r="W389" s="8"/>
       <c r="X389" s="17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="390" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19513,7 +19531,7 @@
         <v>88</v>
       </c>
       <c r="N390" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O390" s="3" t="s">
         <v>0</v>
@@ -19527,7 +19545,7 @@
       <c r="V390" s="8"/>
       <c r="W390" s="8"/>
       <c r="X390" s="17" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="391" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19593,7 +19611,7 @@
         <v>90</v>
       </c>
       <c r="N392" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O392" s="3"/>
       <c r="P392" s="49"/>
@@ -19636,10 +19654,10 @@
       <c r="O393" s="3"/>
       <c r="P393" s="49"/>
       <c r="Q393" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R393" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S393" s="8"/>
       <c r="T393" s="8"/>
@@ -19711,7 +19729,7 @@
         <v>93</v>
       </c>
       <c r="N395" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O395" s="3"/>
       <c r="P395" s="49"/>
@@ -19749,7 +19767,7 @@
         <v>94</v>
       </c>
       <c r="N396" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O396" s="3" t="s">
         <v>0</v>
@@ -19763,7 +19781,7 @@
       <c r="V396" s="8"/>
       <c r="W396" s="8"/>
       <c r="X396" s="17" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="397" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -19829,7 +19847,7 @@
         <v>96</v>
       </c>
       <c r="N398" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O398" s="1"/>
       <c r="P398" s="49"/>
@@ -19872,10 +19890,10 @@
       <c r="O399" s="1"/>
       <c r="P399" s="49"/>
       <c r="Q399" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R399" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S399" s="8"/>
       <c r="T399" s="8"/>
@@ -19947,7 +19965,7 @@
         <v>99</v>
       </c>
       <c r="N401" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O401" s="3"/>
       <c r="P401" s="49"/>
@@ -19956,7 +19974,7 @@
       <c r="S401" s="8"/>
       <c r="T401" s="8"/>
       <c r="U401" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V401" s="8"/>
       <c r="W401" s="8"/>
@@ -19987,7 +20005,7 @@
         <v>100</v>
       </c>
       <c r="N402" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O402" s="3" t="s">
         <v>0</v>
@@ -20001,7 +20019,7 @@
       <c r="V402" s="8"/>
       <c r="W402" s="8"/>
       <c r="X402" s="17" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="403" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20067,7 +20085,7 @@
         <v>102</v>
       </c>
       <c r="N404" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O404" s="1"/>
       <c r="P404" s="49"/>
@@ -20119,7 +20137,7 @@
       <c r="V405" s="8"/>
       <c r="W405" s="8"/>
       <c r="X405" s="52" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="406" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20183,7 +20201,7 @@
         <v>2</v>
       </c>
       <c r="N407" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O407" s="3" t="s">
         <v>0</v>
@@ -20197,7 +20215,7 @@
       <c r="V407" s="8"/>
       <c r="W407" s="8"/>
       <c r="X407" s="17" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="408" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20225,7 +20243,7 @@
         <v>3</v>
       </c>
       <c r="N408" s="17" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="O408" s="3" t="s">
         <v>0</v>
@@ -20239,7 +20257,7 @@
       <c r="V408" s="8"/>
       <c r="W408" s="8"/>
       <c r="X408" s="17" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="409" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20305,7 +20323,7 @@
         <v>5</v>
       </c>
       <c r="N410" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O410" s="3"/>
       <c r="P410" s="49"/>
@@ -20348,10 +20366,10 @@
       <c r="O411" s="1"/>
       <c r="P411" s="49"/>
       <c r="Q411" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R411" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S411" s="8"/>
       <c r="T411" s="8"/>
@@ -20423,7 +20441,7 @@
         <v>8</v>
       </c>
       <c r="N413" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O413" s="1"/>
       <c r="P413" s="49"/>
@@ -20461,7 +20479,7 @@
         <v>9</v>
       </c>
       <c r="N414" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O414" s="3"/>
       <c r="P414" s="49"/>
@@ -20537,7 +20555,7 @@
         <v>11</v>
       </c>
       <c r="N416" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O416" s="1"/>
       <c r="P416" s="49"/>
@@ -20580,10 +20598,10 @@
       <c r="O417" s="1"/>
       <c r="P417" s="49"/>
       <c r="Q417" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R417" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S417" s="8"/>
       <c r="T417" s="8"/>
@@ -20655,7 +20673,7 @@
         <v>14</v>
       </c>
       <c r="N419" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O419" s="1"/>
       <c r="P419" s="49"/>
@@ -20693,7 +20711,7 @@
         <v>15</v>
       </c>
       <c r="N420" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O420" s="3" t="s">
         <v>0</v>
@@ -20707,7 +20725,7 @@
       <c r="V420" s="8"/>
       <c r="W420" s="8"/>
       <c r="X420" s="17" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="421" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -20773,7 +20791,7 @@
         <v>17</v>
       </c>
       <c r="N422" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O422" s="3"/>
       <c r="P422" s="49"/>
@@ -20816,10 +20834,10 @@
       <c r="O423" s="3"/>
       <c r="P423" s="49"/>
       <c r="Q423" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R423" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S423" s="8"/>
       <c r="T423" s="8"/>
@@ -20891,7 +20909,7 @@
         <v>20</v>
       </c>
       <c r="N425" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O425" s="1"/>
       <c r="P425" s="49"/>
@@ -20929,7 +20947,7 @@
         <v>21</v>
       </c>
       <c r="N426" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O426" s="3" t="s">
         <v>0</v>
@@ -20943,7 +20961,7 @@
       <c r="V426" s="8"/>
       <c r="W426" s="5"/>
       <c r="X426" s="17" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="427" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21009,7 +21027,7 @@
         <v>23</v>
       </c>
       <c r="N428" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O428" s="1"/>
       <c r="P428" s="49"/>
@@ -21052,10 +21070,10 @@
       <c r="O429" s="3"/>
       <c r="P429" s="49"/>
       <c r="Q429" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R429" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S429" s="8"/>
       <c r="T429" s="8"/>
@@ -21127,7 +21145,7 @@
         <v>26</v>
       </c>
       <c r="N431" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O431" s="3"/>
       <c r="P431" s="49"/>
@@ -21165,7 +21183,7 @@
         <v>27</v>
       </c>
       <c r="N432" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O432" s="3" t="s">
         <v>0</v>
@@ -21179,7 +21197,7 @@
       <c r="V432" s="8"/>
       <c r="W432" s="8"/>
       <c r="X432" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="433" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21245,7 +21263,7 @@
         <v>29</v>
       </c>
       <c r="N434" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O434" s="3"/>
       <c r="P434" s="49"/>
@@ -21288,10 +21306,10 @@
       <c r="O435" s="3"/>
       <c r="P435" s="49"/>
       <c r="Q435" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R435" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S435" s="8"/>
       <c r="T435" s="8"/>
@@ -21363,7 +21381,7 @@
         <v>32</v>
       </c>
       <c r="N437" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O437" s="3" t="s">
         <v>0</v>
@@ -21377,7 +21395,7 @@
       <c r="V437" s="8"/>
       <c r="W437" s="8"/>
       <c r="X437" s="17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="438" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21405,7 +21423,7 @@
         <v>33</v>
       </c>
       <c r="N438" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O438" s="3" t="s">
         <v>0</v>
@@ -21419,7 +21437,7 @@
       <c r="V438" s="8"/>
       <c r="W438" s="8"/>
       <c r="X438" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="439" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21485,7 +21503,7 @@
         <v>35</v>
       </c>
       <c r="N440" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O440" s="3"/>
       <c r="P440" s="49"/>
@@ -21528,10 +21546,10 @@
       <c r="O441" s="1"/>
       <c r="P441" s="49"/>
       <c r="Q441" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R441" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S441" s="8"/>
       <c r="T441" s="8"/>
@@ -21603,7 +21621,7 @@
         <v>38</v>
       </c>
       <c r="N443" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O443" s="3" t="s">
         <v>0</v>
@@ -21617,7 +21635,7 @@
       <c r="V443" s="8"/>
       <c r="W443" s="8"/>
       <c r="X443" s="17" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="444" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21645,7 +21663,7 @@
         <v>39</v>
       </c>
       <c r="N444" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O444" s="1"/>
       <c r="P444" s="49"/>
@@ -21721,7 +21739,7 @@
         <v>41</v>
       </c>
       <c r="N446" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O446" s="3"/>
       <c r="P446" s="49"/>
@@ -21764,10 +21782,10 @@
       <c r="O447" s="3"/>
       <c r="P447" s="49"/>
       <c r="Q447" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R447" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S447" s="8"/>
       <c r="T447" s="8"/>
@@ -21839,7 +21857,7 @@
         <v>44</v>
       </c>
       <c r="N449" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O449" s="3" t="s">
         <v>0</v>
@@ -21853,7 +21871,7 @@
       <c r="V449" s="8"/>
       <c r="W449" s="8"/>
       <c r="X449" s="17" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="450" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21881,7 +21899,7 @@
         <v>45</v>
       </c>
       <c r="N450" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O450" s="3"/>
       <c r="P450" s="49"/>
@@ -21957,7 +21975,7 @@
         <v>47</v>
       </c>
       <c r="N452" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O452" s="1"/>
       <c r="P452" s="49"/>
@@ -22000,10 +22018,10 @@
       <c r="O453" s="3"/>
       <c r="P453" s="49"/>
       <c r="Q453" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R453" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S453" s="8"/>
       <c r="T453" s="8"/>
@@ -22075,7 +22093,7 @@
         <v>50</v>
       </c>
       <c r="N455" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O455" s="3"/>
       <c r="P455" s="49"/>
@@ -22112,7 +22130,7 @@
         <v>51</v>
       </c>
       <c r="N456" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O456" s="3" t="s">
         <v>0</v>
@@ -22126,7 +22144,7 @@
       <c r="V456" s="8"/>
       <c r="W456" s="8"/>
       <c r="X456" s="17" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="457" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22192,7 +22210,7 @@
         <v>53</v>
       </c>
       <c r="N458" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O458" s="3"/>
       <c r="P458" s="49"/>
@@ -22235,10 +22253,10 @@
       <c r="O459" s="3"/>
       <c r="P459" s="49"/>
       <c r="Q459" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R459" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S459" s="8"/>
       <c r="T459" s="8"/>
@@ -22310,7 +22328,7 @@
         <v>56</v>
       </c>
       <c r="N461" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O461" s="3"/>
       <c r="P461" s="49"/>
@@ -22348,7 +22366,7 @@
         <v>57</v>
       </c>
       <c r="N462" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O462" s="3" t="s">
         <v>0</v>
@@ -22362,7 +22380,7 @@
       <c r="V462" s="8"/>
       <c r="W462" s="8"/>
       <c r="X462" s="17" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="463" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22428,7 +22446,7 @@
         <v>59</v>
       </c>
       <c r="N464" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O464" s="1"/>
       <c r="P464" s="49"/>
@@ -22471,10 +22489,10 @@
       <c r="O465" s="3"/>
       <c r="P465" s="49"/>
       <c r="Q465" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R465" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S465" s="8"/>
       <c r="T465" s="8"/>
@@ -22546,7 +22564,7 @@
         <v>62</v>
       </c>
       <c r="N467" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O467" s="3" t="s">
         <v>0</v>
@@ -22560,7 +22578,7 @@
       <c r="V467" s="8"/>
       <c r="W467" s="8"/>
       <c r="X467" s="17" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="468" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22588,7 +22606,7 @@
         <v>63</v>
       </c>
       <c r="N468" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O468" s="3" t="s">
         <v>0</v>
@@ -22602,7 +22620,7 @@
       <c r="V468" s="8"/>
       <c r="W468" s="8"/>
       <c r="X468" s="17" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="469" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22668,7 +22686,7 @@
         <v>65</v>
       </c>
       <c r="N470" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O470" s="1"/>
       <c r="P470" s="49"/>
@@ -22711,10 +22729,10 @@
       <c r="O471" s="3"/>
       <c r="P471" s="49"/>
       <c r="Q471" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R471" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S471" s="8"/>
       <c r="T471" s="8"/>
@@ -22786,7 +22804,7 @@
         <v>68</v>
       </c>
       <c r="N473" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O473" s="3" t="s">
         <v>0</v>
@@ -22800,7 +22818,7 @@
       <c r="V473" s="8"/>
       <c r="W473" s="8"/>
       <c r="X473" s="17" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="474" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22828,7 +22846,7 @@
         <v>69</v>
       </c>
       <c r="N474" s="17" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="O474" s="3" t="s">
         <v>0</v>
@@ -22842,7 +22860,7 @@
       <c r="V474" s="8"/>
       <c r="W474" s="8"/>
       <c r="X474" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="475" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -22908,7 +22926,7 @@
         <v>71</v>
       </c>
       <c r="N476" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O476" s="3"/>
       <c r="P476" s="49"/>
@@ -22951,10 +22969,10 @@
       <c r="O477" s="3"/>
       <c r="P477" s="49"/>
       <c r="Q477" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R477" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S477" s="8"/>
       <c r="T477" s="8"/>
@@ -23026,7 +23044,7 @@
         <v>74</v>
       </c>
       <c r="N479" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O479" s="3"/>
       <c r="P479" s="49"/>
@@ -23064,7 +23082,7 @@
         <v>75</v>
       </c>
       <c r="N480" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O480" s="1"/>
       <c r="P480" s="49"/>
@@ -23140,7 +23158,7 @@
         <v>77</v>
       </c>
       <c r="N482" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O482" s="1"/>
       <c r="P482" s="49"/>
@@ -23183,10 +23201,10 @@
       <c r="O483" s="3"/>
       <c r="P483" s="49"/>
       <c r="Q483" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R483" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S483" s="8"/>
       <c r="T483" s="8"/>
@@ -23258,7 +23276,7 @@
         <v>80</v>
       </c>
       <c r="N485" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O485" s="1"/>
       <c r="P485" s="49"/>
@@ -23296,7 +23314,7 @@
         <v>81</v>
       </c>
       <c r="N486" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O486" s="1"/>
       <c r="P486" s="49"/>
@@ -23372,7 +23390,7 @@
         <v>83</v>
       </c>
       <c r="N488" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O488" s="3"/>
       <c r="P488" s="49"/>
@@ -23415,10 +23433,10 @@
       <c r="O489" s="3"/>
       <c r="P489" s="49"/>
       <c r="Q489" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R489" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S489" s="8"/>
       <c r="T489" s="8"/>
@@ -23490,7 +23508,7 @@
         <v>86</v>
       </c>
       <c r="N491" s="17" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="O491" s="3" t="s">
         <v>0</v>
@@ -23504,7 +23522,7 @@
       <c r="V491" s="8"/>
       <c r="W491" s="8"/>
       <c r="X491" s="17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="492" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23532,7 +23550,7 @@
         <v>87</v>
       </c>
       <c r="N492" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O492" s="3" t="s">
         <v>0</v>
@@ -23546,7 +23564,7 @@
       <c r="V492" s="8"/>
       <c r="W492" s="8"/>
       <c r="X492" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="493" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23612,7 +23630,7 @@
         <v>89</v>
       </c>
       <c r="N494" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O494" s="1"/>
       <c r="P494" s="49"/>
@@ -23655,10 +23673,10 @@
       <c r="O495" s="1"/>
       <c r="P495" s="49"/>
       <c r="Q495" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R495" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S495" s="8"/>
       <c r="T495" s="8"/>
@@ -23730,7 +23748,7 @@
         <v>92</v>
       </c>
       <c r="N497" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O497" s="3" t="s">
         <v>0</v>
@@ -23744,7 +23762,7 @@
       <c r="V497" s="8"/>
       <c r="W497" s="8"/>
       <c r="X497" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="498" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23772,7 +23790,7 @@
         <v>93</v>
       </c>
       <c r="N498" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O498" s="3" t="s">
         <v>0</v>
@@ -23786,7 +23804,7 @@
       <c r="V498" s="8"/>
       <c r="W498" s="8"/>
       <c r="X498" s="17" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="499" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -23852,7 +23870,7 @@
         <v>95</v>
       </c>
       <c r="N500" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O500" s="1"/>
       <c r="P500" s="49"/>
@@ -23895,10 +23913,10 @@
       <c r="O501" s="1"/>
       <c r="P501" s="49"/>
       <c r="Q501" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="R501" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S501" s="8"/>
       <c r="T501" s="8"/>
@@ -23970,7 +23988,7 @@
         <v>98</v>
       </c>
       <c r="N503" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O503" s="3" t="s">
         <v>0</v>
@@ -23984,7 +24002,7 @@
       <c r="V503" s="8"/>
       <c r="W503" s="8"/>
       <c r="X503" s="17" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="504" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24012,7 +24030,7 @@
         <v>99</v>
       </c>
       <c r="N504" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O504" s="3" t="s">
         <v>0</v>
@@ -24026,7 +24044,7 @@
       <c r="V504" s="8"/>
       <c r="W504" s="8"/>
       <c r="X504" s="17" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="505" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24092,7 +24110,7 @@
         <v>101</v>
       </c>
       <c r="N506" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O506" s="1"/>
       <c r="P506" s="49"/>
@@ -24144,7 +24162,7 @@
       <c r="V507" s="8"/>
       <c r="W507" s="8"/>
       <c r="X507" s="51" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="508" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24208,7 +24226,7 @@
         <v>2</v>
       </c>
       <c r="N509" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O509" s="1"/>
       <c r="P509" s="49"/>
@@ -24284,7 +24302,7 @@
         <v>4</v>
       </c>
       <c r="N511" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O511" s="3"/>
       <c r="P511" s="49"/>
@@ -24398,7 +24416,7 @@
         <v>7</v>
       </c>
       <c r="N514" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O514" s="3"/>
       <c r="P514" s="49"/>
@@ -24474,7 +24492,7 @@
         <v>9</v>
       </c>
       <c r="N516" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O516" s="1" t="s">
         <v>0</v>
@@ -24488,7 +24506,7 @@
       <c r="V516" s="8"/>
       <c r="W516" s="8"/>
       <c r="X516" s="17" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="517" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24592,7 +24610,7 @@
         <v>12</v>
       </c>
       <c r="N519" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O519" s="1" t="s">
         <v>0</v>
@@ -24606,7 +24624,7 @@
       <c r="V519" s="8"/>
       <c r="W519" s="8"/>
       <c r="X519" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="520" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24672,7 +24690,7 @@
         <v>14</v>
       </c>
       <c r="N521" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O521" s="3" t="s">
         <v>0</v>
@@ -24686,7 +24704,7 @@
       <c r="V521" s="8"/>
       <c r="W521" s="8"/>
       <c r="X521" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="522" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24790,7 +24808,7 @@
         <v>17</v>
       </c>
       <c r="N524" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O524" s="1"/>
       <c r="P524" s="49"/>
@@ -24866,7 +24884,7 @@
         <v>19</v>
       </c>
       <c r="N526" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O526" s="1" t="s">
         <v>0</v>
@@ -24880,7 +24898,7 @@
       <c r="V526" s="8"/>
       <c r="W526" s="8"/>
       <c r="X526" s="17" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="527" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -24998,7 +25016,7 @@
       <c r="V529" s="8"/>
       <c r="W529" s="8"/>
       <c r="X529" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="530" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25064,7 +25082,7 @@
         <v>24</v>
       </c>
       <c r="N531" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O531" s="1" t="s">
         <v>0</v>
@@ -25078,7 +25096,7 @@
       <c r="V531" s="8"/>
       <c r="W531" s="8"/>
       <c r="X531" s="17" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="532" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25182,7 +25200,7 @@
         <v>27</v>
       </c>
       <c r="N534" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O534" s="1"/>
       <c r="P534" s="49"/>
@@ -25258,7 +25276,7 @@
         <v>29</v>
       </c>
       <c r="N536" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O536" s="1" t="s">
         <v>0</v>
@@ -25272,7 +25290,7 @@
       <c r="V536" s="8"/>
       <c r="W536" s="8"/>
       <c r="X536" s="17" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="537" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25376,7 +25394,7 @@
         <v>32</v>
       </c>
       <c r="N539" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O539" s="3" t="s">
         <v>0</v>
@@ -25390,7 +25408,7 @@
       <c r="V539" s="8"/>
       <c r="W539" s="8"/>
       <c r="X539" s="17" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="540" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25456,7 +25474,7 @@
         <v>34</v>
       </c>
       <c r="N541" s="17" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="O541" s="3"/>
       <c r="P541" s="49"/>
@@ -25468,7 +25486,7 @@
       <c r="V541" s="8"/>
       <c r="W541" s="8"/>
       <c r="X541" s="51" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="542" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -25572,7 +25590,7 @@
         <v>37</v>
       </c>
       <c r="N544" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O544" s="3"/>
       <c r="P544" s="49"/>
@@ -25648,7 +25666,7 @@
         <v>39</v>
       </c>
       <c r="N546" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O546" s="1"/>
       <c r="P546" s="49"/>
@@ -25762,7 +25780,7 @@
         <v>42</v>
       </c>
       <c r="N549" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O549" s="3"/>
       <c r="P549" s="49"/>
@@ -25838,7 +25856,7 @@
         <v>44</v>
       </c>
       <c r="N551" s="17" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="O551" s="1"/>
       <c r="P551" s="49"/>
@@ -25952,7 +25970,7 @@
         <v>47</v>
       </c>
       <c r="N554" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O554" s="1"/>
       <c r="P554" s="49"/>
@@ -26028,7 +26046,7 @@
         <v>49</v>
       </c>
       <c r="N556" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O556" s="1" t="s">
         <v>0</v>
@@ -26042,7 +26060,7 @@
       <c r="V556" s="8"/>
       <c r="W556" s="8"/>
       <c r="X556" s="17" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="557" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -26145,7 +26163,7 @@
         <v>52</v>
       </c>
       <c r="N559" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O559" s="3"/>
       <c r="P559" s="49"/>
@@ -26154,7 +26172,7 @@
       <c r="S559" s="8"/>
       <c r="T559" s="8"/>
       <c r="U559" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V559" s="8"/>
       <c r="W559" s="8"/>
@@ -26223,7 +26241,7 @@
         <v>54</v>
       </c>
       <c r="N561" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O561" s="3"/>
       <c r="P561" s="49"/>
@@ -26337,7 +26355,7 @@
         <v>57</v>
       </c>
       <c r="N564" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O564" s="3"/>
       <c r="P564" s="49"/>
@@ -26413,7 +26431,7 @@
         <v>59</v>
       </c>
       <c r="N566" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O566" s="3"/>
       <c r="P566" s="49"/>
@@ -26527,7 +26545,7 @@
         <v>62</v>
       </c>
       <c r="N569" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O569" s="3"/>
       <c r="P569" s="49"/>
@@ -26603,7 +26621,7 @@
         <v>64</v>
       </c>
       <c r="N571" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O571" s="1"/>
       <c r="P571" s="49"/>
@@ -26717,7 +26735,7 @@
         <v>67</v>
       </c>
       <c r="N574" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O574" s="1"/>
       <c r="P574" s="49"/>
@@ -26793,7 +26811,7 @@
         <v>69</v>
       </c>
       <c r="N576" s="17" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="O576" s="1" t="s">
         <v>0</v>
@@ -26807,7 +26825,7 @@
       <c r="V576" s="8"/>
       <c r="W576" s="8"/>
       <c r="X576" s="17" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="577" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -26911,7 +26929,7 @@
         <v>72</v>
       </c>
       <c r="N579" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O579" s="1"/>
       <c r="P579" s="49"/>
@@ -26987,7 +27005,7 @@
         <v>74</v>
       </c>
       <c r="N581" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O581" s="1"/>
       <c r="P581" s="49"/>
@@ -27039,7 +27057,7 @@
       <c r="V582" s="8"/>
       <c r="W582" s="8"/>
       <c r="X582" s="51" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="583" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27103,7 +27121,7 @@
         <v>2</v>
       </c>
       <c r="N584" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O584" s="3"/>
       <c r="P584" s="49"/>
@@ -27179,7 +27197,7 @@
         <v>4</v>
       </c>
       <c r="N586" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O586" s="1"/>
       <c r="P586" s="49"/>
@@ -27293,7 +27311,7 @@
         <v>7</v>
       </c>
       <c r="N589" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O589" s="3"/>
       <c r="P589" s="49"/>
@@ -27305,7 +27323,7 @@
       <c r="V589" s="8"/>
       <c r="W589" s="8"/>
       <c r="X589" s="17" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="590" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27371,7 +27389,7 @@
         <v>9</v>
       </c>
       <c r="N591" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O591" s="1" t="s">
         <v>0</v>
@@ -27385,7 +27403,7 @@
       <c r="V591" s="8"/>
       <c r="W591" s="8"/>
       <c r="X591" s="17" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="592" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27489,7 +27507,7 @@
         <v>12</v>
       </c>
       <c r="N594" s="17" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="O594" s="3"/>
       <c r="P594" s="49"/>
@@ -27565,7 +27583,7 @@
         <v>14</v>
       </c>
       <c r="N596" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O596" s="1" t="s">
         <v>0</v>
@@ -27579,7 +27597,7 @@
       <c r="V596" s="8"/>
       <c r="W596" s="8"/>
       <c r="X596" s="17" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="597" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27683,7 +27701,7 @@
         <v>17</v>
       </c>
       <c r="N599" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O599" s="1"/>
       <c r="P599" s="49"/>
@@ -27759,7 +27777,7 @@
         <v>19</v>
       </c>
       <c r="N601" s="17" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="O601" s="1"/>
       <c r="P601" s="49"/>
@@ -27873,7 +27891,7 @@
         <v>22</v>
       </c>
       <c r="N604" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O604" s="1"/>
       <c r="P604" s="49"/>
@@ -27949,7 +27967,7 @@
         <v>24</v>
       </c>
       <c r="N606" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O606" s="1" t="s">
         <v>0</v>
@@ -27963,7 +27981,7 @@
       <c r="V606" s="8"/>
       <c r="W606" s="8"/>
       <c r="X606" s="17" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="607" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -28067,7 +28085,7 @@
         <v>27</v>
       </c>
       <c r="N609" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O609" s="3"/>
       <c r="P609" s="49"/>
@@ -28143,7 +28161,7 @@
         <v>29</v>
       </c>
       <c r="N611" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O611" s="3"/>
       <c r="P611" s="49"/>
@@ -28257,7 +28275,7 @@
         <v>32</v>
       </c>
       <c r="N614" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O614" s="3"/>
       <c r="P614" s="49"/>
@@ -28333,7 +28351,7 @@
         <v>34</v>
       </c>
       <c r="N616" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O616" s="1"/>
       <c r="P616" s="49"/>
@@ -28447,7 +28465,7 @@
         <v>37</v>
       </c>
       <c r="N619" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O619" s="1"/>
       <c r="P619" s="49"/>
@@ -28523,7 +28541,7 @@
         <v>39</v>
       </c>
       <c r="N621" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O621" s="1" t="s">
         <v>0</v>
@@ -28537,7 +28555,7 @@
       <c r="V621" s="8"/>
       <c r="W621" s="8"/>
       <c r="X621" s="17" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="622" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -28641,7 +28659,7 @@
         <v>42</v>
       </c>
       <c r="N624" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O624" s="3"/>
       <c r="P624" s="49"/>
@@ -28717,7 +28735,7 @@
         <v>44</v>
       </c>
       <c r="N626" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O626" s="3"/>
       <c r="P626" s="49"/>
@@ -28831,7 +28849,7 @@
         <v>47</v>
       </c>
       <c r="N629" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O629" s="3"/>
       <c r="P629" s="49"/>
@@ -28907,7 +28925,7 @@
         <v>49</v>
       </c>
       <c r="N631" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O631" s="1" t="s">
         <v>0</v>
@@ -28920,8 +28938,8 @@
       <c r="U631" s="8"/>
       <c r="V631" s="8"/>
       <c r="W631" s="8"/>
-      <c r="X631" s="17" t="s">
-        <v>726</v>
+      <c r="X631" s="65" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="632" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -29026,7 +29044,7 @@
         <v>52</v>
       </c>
       <c r="N634" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O634" s="1" t="s">
         <v>0</v>
@@ -29040,7 +29058,7 @@
       <c r="V634" s="8"/>
       <c r="W634" s="8"/>
       <c r="X634" s="17" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="635" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29106,7 +29124,7 @@
         <v>54</v>
       </c>
       <c r="N636" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O636" s="1" t="s">
         <v>0</v>
@@ -29120,7 +29138,7 @@
       <c r="V636" s="8"/>
       <c r="W636" s="8"/>
       <c r="X636" s="17" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="637" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29224,7 +29242,7 @@
         <v>57</v>
       </c>
       <c r="N639" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O639" s="1"/>
       <c r="P639" s="49"/>
@@ -29300,7 +29318,7 @@
         <v>59</v>
       </c>
       <c r="N641" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O641" s="1" t="s">
         <v>0</v>
@@ -29314,7 +29332,7 @@
       <c r="V641" s="8"/>
       <c r="W641" s="8"/>
       <c r="X641" s="17" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="642" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29418,7 +29436,7 @@
         <v>62</v>
       </c>
       <c r="N644" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O644" s="3"/>
       <c r="P644" s="49"/>
@@ -29494,7 +29512,7 @@
         <v>64</v>
       </c>
       <c r="N646" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O646" s="3"/>
       <c r="P646" s="49"/>
@@ -29608,7 +29626,7 @@
         <v>67</v>
       </c>
       <c r="N649" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O649" s="3"/>
       <c r="P649" s="49"/>
@@ -29684,7 +29702,7 @@
         <v>69</v>
       </c>
       <c r="N651" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O651" s="1"/>
       <c r="P651" s="49"/>
@@ -29797,7 +29815,7 @@
         <v>72</v>
       </c>
       <c r="N654" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O654" s="1"/>
       <c r="P654" s="49"/>
@@ -29873,7 +29891,7 @@
         <v>74</v>
       </c>
       <c r="N656" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O656" s="1" t="s">
         <v>0</v>
@@ -29887,7 +29905,7 @@
       <c r="V656" s="8"/>
       <c r="W656" s="8"/>
       <c r="X656" s="17" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="657" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29929,7 +29947,7 @@
       <c r="V657" s="8"/>
       <c r="W657" s="8"/>
       <c r="X657" s="51" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="658" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -29993,7 +30011,7 @@
         <v>2</v>
       </c>
       <c r="N659" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O659" s="1"/>
       <c r="P659" s="49"/>
@@ -30069,7 +30087,7 @@
         <v>4</v>
       </c>
       <c r="N661" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O661" s="1" t="s">
         <v>0</v>
@@ -30083,7 +30101,7 @@
       <c r="V661" s="8"/>
       <c r="W661" s="8"/>
       <c r="X661" s="17" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="662" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30187,7 +30205,7 @@
         <v>7</v>
       </c>
       <c r="N664" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O664" s="3"/>
       <c r="P664" s="49"/>
@@ -30263,7 +30281,7 @@
         <v>9</v>
       </c>
       <c r="N666" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O666" s="1" t="s">
         <v>0</v>
@@ -30277,7 +30295,7 @@
       <c r="V666" s="8"/>
       <c r="W666" s="8"/>
       <c r="X666" s="17" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="667" spans="4:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30378,7 +30396,7 @@
         <v>12</v>
       </c>
       <c r="N669" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O669" s="1"/>
       <c r="P669" s="49"/>
@@ -30452,7 +30470,7 @@
         <v>14</v>
       </c>
       <c r="N671" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O671" s="1"/>
       <c r="P671" s="49"/>
@@ -30464,7 +30482,7 @@
       <c r="V671" s="8"/>
       <c r="W671" s="8"/>
       <c r="X671" s="17" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="672" spans="4:24" x14ac:dyDescent="0.25">
@@ -30565,7 +30583,7 @@
         <v>17</v>
       </c>
       <c r="N674" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O674" s="1" t="s">
         <v>0</v>
@@ -30579,7 +30597,7 @@
       <c r="V674" s="8"/>
       <c r="W674" s="8"/>
       <c r="X674" s="17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="675" spans="5:24" x14ac:dyDescent="0.25">
@@ -30643,7 +30661,7 @@
         <v>19</v>
       </c>
       <c r="N676" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O676" s="1" t="s">
         <v>0</v>
@@ -30657,7 +30675,7 @@
       <c r="V676" s="8"/>
       <c r="W676" s="8"/>
       <c r="X676" s="17" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="677" spans="5:24" x14ac:dyDescent="0.25">
@@ -30758,7 +30776,7 @@
         <v>22</v>
       </c>
       <c r="N679" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O679" s="1" t="s">
         <v>0</v>
@@ -30772,7 +30790,7 @@
       <c r="V679" s="8"/>
       <c r="W679" s="8"/>
       <c r="X679" s="17" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="680" spans="5:24" x14ac:dyDescent="0.25">
@@ -30836,7 +30854,7 @@
         <v>24</v>
       </c>
       <c r="N681" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O681" s="1"/>
       <c r="P681" s="49"/>
@@ -30946,7 +30964,7 @@
         <v>27</v>
       </c>
       <c r="N684" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O684" s="1" t="s">
         <v>0</v>
@@ -30960,7 +30978,7 @@
       <c r="V684" s="8"/>
       <c r="W684" s="8"/>
       <c r="X684" s="17" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="685" spans="5:24" x14ac:dyDescent="0.25">
@@ -31023,7 +31041,7 @@
         <v>29</v>
       </c>
       <c r="N686" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O686" s="1" t="s">
         <v>0</v>
@@ -31037,7 +31055,7 @@
       <c r="V686" s="8"/>
       <c r="W686" s="8"/>
       <c r="X686" s="17" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="687" spans="5:24" x14ac:dyDescent="0.25">
@@ -31138,7 +31156,7 @@
         <v>32</v>
       </c>
       <c r="N689" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O689" s="1"/>
       <c r="P689" s="49"/>
@@ -31211,7 +31229,7 @@
         <v>34</v>
       </c>
       <c r="N691" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P691" s="49"/>
       <c r="Q691" s="8"/>
@@ -31321,7 +31339,7 @@
         <v>37</v>
       </c>
       <c r="N694" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O694" s="1"/>
       <c r="P694" s="49"/>
@@ -31395,7 +31413,7 @@
         <v>39</v>
       </c>
       <c r="N696" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O696" s="1"/>
       <c r="P696" s="49"/>
@@ -31506,7 +31524,7 @@
         <v>42</v>
       </c>
       <c r="N699" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O699" s="1"/>
       <c r="P699" s="49"/>
@@ -31580,7 +31598,7 @@
         <v>44</v>
       </c>
       <c r="N701" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O701" s="1"/>
       <c r="P701" s="49"/>
@@ -31691,7 +31709,7 @@
         <v>47</v>
       </c>
       <c r="N704" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P704" s="49"/>
       <c r="Q704" s="8"/>
@@ -31763,7 +31781,7 @@
         <v>49</v>
       </c>
       <c r="N706" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O706" s="1"/>
       <c r="P706" s="49"/>
@@ -31873,7 +31891,7 @@
         <v>52</v>
       </c>
       <c r="N709" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O709" s="1"/>
       <c r="P709" s="49"/>
@@ -31947,7 +31965,7 @@
         <v>54</v>
       </c>
       <c r="N711" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P711" s="49"/>
       <c r="Q711" s="8"/>
@@ -32057,7 +32075,7 @@
         <v>57</v>
       </c>
       <c r="N714" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O714" s="1"/>
       <c r="P714" s="49"/>
@@ -32131,7 +32149,7 @@
         <v>59</v>
       </c>
       <c r="N716" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P716" s="49"/>
       <c r="Q716" s="8"/>
@@ -32239,7 +32257,7 @@
         <v>62</v>
       </c>
       <c r="N719" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="P719" s="49"/>
       <c r="Q719" s="8"/>
@@ -32311,7 +32329,7 @@
         <v>64</v>
       </c>
       <c r="N721" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O721" s="1" t="s">
         <v>0</v>
@@ -32325,7 +32343,7 @@
       <c r="V721" s="8"/>
       <c r="W721" s="8"/>
       <c r="X721" s="17" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="722" spans="5:24" x14ac:dyDescent="0.25">
@@ -32424,7 +32442,7 @@
         <v>67</v>
       </c>
       <c r="N724" s="17" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="P724" s="49"/>
       <c r="Q724" s="8"/>
@@ -32496,7 +32514,7 @@
         <v>69</v>
       </c>
       <c r="N726" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O726" s="1" t="s">
         <v>0</v>
@@ -32510,7 +32528,7 @@
       <c r="V726" s="8"/>
       <c r="W726" s="8"/>
       <c r="X726" s="17" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="727" spans="5:24" x14ac:dyDescent="0.25">
@@ -32611,7 +32629,7 @@
         <v>72</v>
       </c>
       <c r="N729" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O729" s="1"/>
       <c r="P729" s="49"/>
@@ -32684,7 +32702,7 @@
         <v>74</v>
       </c>
       <c r="N731" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P731" s="49"/>
       <c r="Q731" s="8"/>
@@ -32792,7 +32810,7 @@
         <v>77</v>
       </c>
       <c r="N734" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P734" s="49"/>
       <c r="Q734" s="8"/>
@@ -32864,7 +32882,7 @@
         <v>79</v>
       </c>
       <c r="N736" s="17" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="O736" s="1" t="s">
         <v>0</v>
@@ -32878,7 +32896,7 @@
       <c r="V736" s="8"/>
       <c r="W736" s="8"/>
       <c r="X736" s="17" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="737" spans="5:24" x14ac:dyDescent="0.25">
@@ -32919,7 +32937,7 @@
       <c r="V737" s="8"/>
       <c r="W737" s="8"/>
       <c r="X737" s="51" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="738" spans="5:24" x14ac:dyDescent="0.25">
@@ -32980,7 +32998,7 @@
         <v>2</v>
       </c>
       <c r="N739" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P739" s="49"/>
       <c r="Q739" s="8"/>
@@ -33052,7 +33070,7 @@
         <v>4</v>
       </c>
       <c r="N741" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P741" s="49"/>
       <c r="Q741" s="8"/>
@@ -33162,7 +33180,7 @@
         <v>7</v>
       </c>
       <c r="N744" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O744" s="1"/>
       <c r="P744" s="49"/>
@@ -33236,7 +33254,7 @@
         <v>9</v>
       </c>
       <c r="N746" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O746" s="1"/>
       <c r="P746" s="49"/>
@@ -33347,7 +33365,7 @@
         <v>12</v>
       </c>
       <c r="N749" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O749" s="1"/>
       <c r="P749" s="49"/>
@@ -33421,7 +33439,7 @@
         <v>14</v>
       </c>
       <c r="N751" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O751" s="1" t="s">
         <v>0</v>
@@ -33435,7 +33453,7 @@
       <c r="V751" s="8"/>
       <c r="W751" s="8"/>
       <c r="X751" s="17" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="752" spans="5:24" x14ac:dyDescent="0.25">
@@ -33534,7 +33552,7 @@
         <v>17</v>
       </c>
       <c r="N754" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P754" s="49"/>
       <c r="Q754" s="8"/>
@@ -33606,7 +33624,7 @@
         <v>19</v>
       </c>
       <c r="N756" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P756" s="49"/>
       <c r="Q756" s="8"/>
@@ -33714,7 +33732,7 @@
         <v>22</v>
       </c>
       <c r="N759" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O759" s="1" t="s">
         <v>0</v>
@@ -33725,12 +33743,12 @@
       <c r="S759" s="8"/>
       <c r="T759" s="8"/>
       <c r="U759" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V759" s="8"/>
       <c r="W759" s="8"/>
       <c r="X759" s="17" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="760" spans="5:24" x14ac:dyDescent="0.25">
@@ -33793,7 +33811,7 @@
         <v>24</v>
       </c>
       <c r="N761" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O761" s="1" t="s">
         <v>0</v>
@@ -33807,7 +33825,7 @@
       <c r="V761" s="8"/>
       <c r="W761" s="8"/>
       <c r="X761" s="17" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="762" spans="5:24" x14ac:dyDescent="0.25">
@@ -33906,7 +33924,7 @@
         <v>27</v>
       </c>
       <c r="N764" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="P764" s="49"/>
       <c r="Q764" s="8"/>
@@ -33978,7 +33996,7 @@
         <v>29</v>
       </c>
       <c r="N766" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P766" s="49"/>
       <c r="Q766" s="8"/>
@@ -34086,7 +34104,7 @@
         <v>32</v>
       </c>
       <c r="N769" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P769" s="49"/>
       <c r="Q769" s="8"/>
@@ -34122,7 +34140,7 @@
         <v>33</v>
       </c>
       <c r="N770" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O770" s="1" t="s">
         <v>0</v>
@@ -34136,7 +34154,7 @@
       <c r="V770" s="8"/>
       <c r="W770" s="8"/>
       <c r="X770" s="17" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="771" spans="5:24" x14ac:dyDescent="0.25">
@@ -34200,7 +34218,7 @@
         <v>35</v>
       </c>
       <c r="N772" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O772" s="1"/>
       <c r="P772" s="49"/>
@@ -34274,7 +34292,7 @@
         <v>37</v>
       </c>
       <c r="N774" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O774" s="1" t="s">
         <v>0</v>
@@ -34288,7 +34306,7 @@
       <c r="V774" s="8"/>
       <c r="W774" s="8"/>
       <c r="X774" s="17" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="775" spans="5:24" x14ac:dyDescent="0.25">
@@ -34352,7 +34370,7 @@
         <v>39</v>
       </c>
       <c r="N776" s="17" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="O776" s="1" t="s">
         <v>0</v>
@@ -34366,7 +34384,7 @@
       <c r="V776" s="8"/>
       <c r="W776" s="8"/>
       <c r="X776" s="17" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="777" spans="5:24" x14ac:dyDescent="0.25">
@@ -34465,7 +34483,7 @@
         <v>42</v>
       </c>
       <c r="N779" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O779" s="1" t="s">
         <v>0</v>
@@ -34479,7 +34497,7 @@
       <c r="V779" s="8"/>
       <c r="W779" s="8"/>
       <c r="X779" s="17" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="780" spans="5:24" x14ac:dyDescent="0.25">
@@ -34542,7 +34560,7 @@
         <v>44</v>
       </c>
       <c r="N781" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O781" s="1" t="s">
         <v>0</v>
@@ -34556,7 +34574,7 @@
       <c r="V781" s="8"/>
       <c r="W781" s="8"/>
       <c r="X781" s="17" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="782" spans="5:24" x14ac:dyDescent="0.25">
@@ -34655,7 +34673,7 @@
         <v>47</v>
       </c>
       <c r="N784" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P784" s="49"/>
       <c r="Q784" s="8"/>
@@ -34727,7 +34745,7 @@
         <v>49</v>
       </c>
       <c r="N786" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O786" s="1" t="s">
         <v>0</v>
@@ -34741,7 +34759,7 @@
       <c r="V786" s="8"/>
       <c r="W786" s="8"/>
       <c r="X786" s="17" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="787" spans="4:24" x14ac:dyDescent="0.25">
@@ -34840,7 +34858,7 @@
         <v>52</v>
       </c>
       <c r="N789" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O789" s="1"/>
       <c r="P789" s="49"/>
@@ -34915,7 +34933,7 @@
         <v>54</v>
       </c>
       <c r="N791" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O791" s="1"/>
       <c r="P791" s="49"/>
@@ -35025,7 +35043,7 @@
         <v>57</v>
       </c>
       <c r="N794" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O794" s="1"/>
       <c r="P794" s="49"/>
@@ -35098,7 +35116,7 @@
         <v>59</v>
       </c>
       <c r="N796" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P796" s="49"/>
       <c r="Q796" s="8"/>
@@ -35206,7 +35224,7 @@
         <v>62</v>
       </c>
       <c r="N799" s="17" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="O799" s="1" t="s">
         <v>0</v>
@@ -35220,7 +35238,7 @@
       <c r="V799" s="8"/>
       <c r="W799" s="8"/>
       <c r="X799" s="17" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="800" spans="4:24" x14ac:dyDescent="0.25">
@@ -35283,7 +35301,7 @@
         <v>64</v>
       </c>
       <c r="N801" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O801" s="1" t="s">
         <v>0</v>
@@ -35297,7 +35315,7 @@
       <c r="V801" s="8"/>
       <c r="W801" s="8"/>
       <c r="X801" s="17" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="802" spans="5:24" x14ac:dyDescent="0.25">
@@ -35396,7 +35414,7 @@
         <v>67</v>
       </c>
       <c r="N804" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O804" s="1" t="s">
         <v>0</v>
@@ -35410,7 +35428,7 @@
       <c r="V804" s="8"/>
       <c r="W804" s="8"/>
       <c r="X804" s="17" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="805" spans="5:24" x14ac:dyDescent="0.25">
@@ -35473,7 +35491,7 @@
         <v>69</v>
       </c>
       <c r="N806" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O806" s="1" t="s">
         <v>0</v>
@@ -35487,7 +35505,7 @@
       <c r="V806" s="8"/>
       <c r="W806" s="8"/>
       <c r="X806" s="17" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="807" spans="5:24" x14ac:dyDescent="0.25">
@@ -35586,7 +35604,7 @@
         <v>72</v>
       </c>
       <c r="N809" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P809" s="49"/>
       <c r="Q809" s="8"/>
@@ -35658,7 +35676,7 @@
         <v>74</v>
       </c>
       <c r="N811" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P811" s="49"/>
       <c r="Q811" s="8"/>
@@ -35768,7 +35786,7 @@
         <v>77</v>
       </c>
       <c r="N814" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O814" s="1"/>
       <c r="P814" s="49"/>
@@ -35842,7 +35860,7 @@
         <v>79</v>
       </c>
       <c r="N816" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O816" s="1" t="s">
         <v>0</v>
@@ -35856,7 +35874,7 @@
       <c r="V816" s="8"/>
       <c r="W816" s="8"/>
       <c r="X816" s="17" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="817" spans="5:24" x14ac:dyDescent="0.25">
@@ -35897,7 +35915,7 @@
       <c r="V817" s="8"/>
       <c r="W817" s="8"/>
       <c r="X817" s="51" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="818" spans="5:24" x14ac:dyDescent="0.25">
@@ -35958,7 +35976,7 @@
         <v>2</v>
       </c>
       <c r="N819" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P819" s="49"/>
       <c r="Q819" s="8"/>
@@ -36030,7 +36048,7 @@
         <v>4</v>
       </c>
       <c r="N821" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O821" s="1" t="s">
         <v>0</v>
@@ -36044,7 +36062,7 @@
       <c r="V821" s="8"/>
       <c r="W821" s="8"/>
       <c r="X821" s="17" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="822" spans="5:24" x14ac:dyDescent="0.25">
@@ -36143,7 +36161,7 @@
         <v>7</v>
       </c>
       <c r="N824" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P824" s="49"/>
       <c r="Q824" s="8"/>
@@ -36215,7 +36233,7 @@
         <v>9</v>
       </c>
       <c r="N826" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P826" s="49"/>
       <c r="Q826" s="8"/>
@@ -36323,7 +36341,7 @@
         <v>12</v>
       </c>
       <c r="N829" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P829" s="49"/>
       <c r="Q829" s="8"/>
@@ -36395,7 +36413,7 @@
         <v>14</v>
       </c>
       <c r="N831" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P831" s="49"/>
       <c r="Q831" s="8"/>
@@ -36505,7 +36523,7 @@
         <v>17</v>
       </c>
       <c r="N834" s="17" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="O834" s="1" t="s">
         <v>0</v>
@@ -36519,7 +36537,7 @@
       <c r="V834" s="8"/>
       <c r="W834" s="8"/>
       <c r="X834" s="17" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="835" spans="4:24" x14ac:dyDescent="0.25">
@@ -36583,7 +36601,7 @@
         <v>19</v>
       </c>
       <c r="N836" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O836" s="1"/>
       <c r="P836" s="49"/>
@@ -36694,7 +36712,7 @@
         <v>22</v>
       </c>
       <c r="N839" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O839" s="1"/>
       <c r="P839" s="49"/>
@@ -36768,7 +36786,7 @@
         <v>24</v>
       </c>
       <c r="N841" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O841" s="1"/>
       <c r="P841" s="49"/>
@@ -36877,7 +36895,7 @@
         <v>27</v>
       </c>
       <c r="N844" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P844" s="49"/>
       <c r="Q844" s="8"/>
@@ -36949,7 +36967,7 @@
         <v>29</v>
       </c>
       <c r="N846" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O846" s="1" t="s">
         <v>0</v>
@@ -36963,7 +36981,7 @@
       <c r="V846" s="8"/>
       <c r="W846" s="8"/>
       <c r="X846" s="17" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="847" spans="4:24" x14ac:dyDescent="0.25">
@@ -37063,7 +37081,7 @@
         <v>32</v>
       </c>
       <c r="N849" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O849" s="1"/>
       <c r="P849" s="49"/>
@@ -37137,7 +37155,7 @@
         <v>34</v>
       </c>
       <c r="N851" s="17" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="O851" s="1" t="s">
         <v>0</v>
@@ -37151,7 +37169,7 @@
       <c r="V851" s="8"/>
       <c r="W851" s="8"/>
       <c r="X851" s="17" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="852" spans="5:24" x14ac:dyDescent="0.25">
@@ -37252,7 +37270,7 @@
         <v>37</v>
       </c>
       <c r="N854" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O854" s="1"/>
       <c r="P854" s="49"/>
@@ -37326,7 +37344,7 @@
         <v>39</v>
       </c>
       <c r="N856" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O856" s="1"/>
       <c r="P856" s="49"/>
@@ -37436,7 +37454,7 @@
         <v>42</v>
       </c>
       <c r="N859" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P859" s="49"/>
       <c r="Q859" s="8"/>
@@ -37508,7 +37526,7 @@
         <v>44</v>
       </c>
       <c r="N861" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P861" s="49"/>
       <c r="Q861" s="8"/>
@@ -37617,7 +37635,7 @@
         <v>47</v>
       </c>
       <c r="N864" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O864" s="1"/>
       <c r="P864" s="49"/>
@@ -37691,7 +37709,7 @@
         <v>49</v>
       </c>
       <c r="N866" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O866" s="1"/>
       <c r="P866" s="49"/>
@@ -37800,7 +37818,7 @@
         <v>52</v>
       </c>
       <c r="N869" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P869" s="49"/>
       <c r="Q869" s="8"/>
@@ -37872,7 +37890,7 @@
         <v>54</v>
       </c>
       <c r="N871" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P871" s="49"/>
       <c r="Q871" s="8"/>
@@ -37980,7 +37998,7 @@
         <v>57</v>
       </c>
       <c r="N874" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P874" s="49"/>
       <c r="Q874" s="8"/>
@@ -38052,7 +38070,7 @@
         <v>59</v>
       </c>
       <c r="N876" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O876" s="1" t="s">
         <v>0</v>
@@ -38066,7 +38084,7 @@
       <c r="V876" s="8"/>
       <c r="W876" s="8"/>
       <c r="X876" s="17" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="877" spans="5:24" x14ac:dyDescent="0.25">
@@ -38167,7 +38185,7 @@
         <v>62</v>
       </c>
       <c r="N879" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O879" s="1" t="s">
         <v>0</v>
@@ -38181,7 +38199,7 @@
       <c r="V879" s="8"/>
       <c r="W879" s="8"/>
       <c r="X879" s="17" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="880" spans="5:24" x14ac:dyDescent="0.25">
@@ -38245,7 +38263,7 @@
         <v>64</v>
       </c>
       <c r="N881" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O881" s="1" t="s">
         <v>0</v>
@@ -38259,7 +38277,7 @@
       <c r="V881" s="8"/>
       <c r="W881" s="8"/>
       <c r="X881" s="17" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="882" spans="5:24" x14ac:dyDescent="0.25">
@@ -38360,7 +38378,7 @@
         <v>67</v>
       </c>
       <c r="N884" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O884" s="1" t="s">
         <v>0</v>
@@ -38374,7 +38392,7 @@
       <c r="V884" s="8"/>
       <c r="W884" s="8"/>
       <c r="X884" s="17" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="885" spans="5:24" x14ac:dyDescent="0.25">
@@ -38438,7 +38456,7 @@
         <v>69</v>
       </c>
       <c r="N886" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O886" s="1" t="s">
         <v>0</v>
@@ -38452,7 +38470,7 @@
       <c r="V886" s="8"/>
       <c r="W886" s="8"/>
       <c r="X886" s="17" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="887" spans="5:24" x14ac:dyDescent="0.25">
@@ -38553,7 +38571,7 @@
         <v>72</v>
       </c>
       <c r="N889" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O889" s="1"/>
       <c r="P889" s="49"/>
@@ -38590,7 +38608,7 @@
         <v>73</v>
       </c>
       <c r="N890" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O890" s="1"/>
       <c r="P890" s="49"/>
@@ -38627,7 +38645,7 @@
         <v>74</v>
       </c>
       <c r="N891" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P891" s="49"/>
       <c r="Q891" s="8"/>
@@ -38663,7 +38681,7 @@
         <v>75</v>
       </c>
       <c r="N892" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="P892" s="49"/>
       <c r="Q892" s="8"/>
@@ -38735,7 +38753,7 @@
         <v>77</v>
       </c>
       <c r="N894" s="17" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="P894" s="49"/>
       <c r="Q894" s="8"/>
@@ -38746,7 +38764,7 @@
       <c r="V894" s="8"/>
       <c r="W894" s="8"/>
       <c r="X894" s="17" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="895" spans="5:24" x14ac:dyDescent="0.25">
@@ -38809,7 +38827,7 @@
         <v>79</v>
       </c>
       <c r="N896" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O896" s="1" t="s">
         <v>0</v>
@@ -38823,7 +38841,7 @@
       <c r="V896" s="8"/>
       <c r="W896" s="8"/>
       <c r="X896" s="17" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="897" spans="5:24" x14ac:dyDescent="0.25">
@@ -38886,7 +38904,7 @@
         <v>81</v>
       </c>
       <c r="N898" s="17" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="O898" s="1" t="s">
         <v>0</v>
@@ -38900,7 +38918,7 @@
       <c r="V898" s="8"/>
       <c r="W898" s="8"/>
       <c r="X898" s="17" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="899" spans="5:24" x14ac:dyDescent="0.25">
@@ -38963,7 +38981,7 @@
         <v>83</v>
       </c>
       <c r="N900" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O900" s="1" t="s">
         <v>0</v>
@@ -38979,7 +38997,7 @@
       <c r="V900" s="8"/>
       <c r="W900" s="8"/>
       <c r="X900" s="17" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="901" spans="5:24" x14ac:dyDescent="0.25">
@@ -39004,7 +39022,7 @@
         <v>1</v>
       </c>
       <c r="N901" s="17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O901" s="1"/>
       <c r="P901" s="49"/>
@@ -39041,20 +39059,20 @@
         <v>2</v>
       </c>
       <c r="N902" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O902" s="1"/>
       <c r="P902" s="49"/>
       <c r="Q902" s="8"/>
       <c r="R902" s="8"/>
       <c r="S902" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T902" s="8" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="U902" s="8" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="V902" s="8"/>
       <c r="W902" s="8"/>
@@ -39084,7 +39102,7 @@
         <v>3</v>
       </c>
       <c r="N903" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O903" s="1"/>
       <c r="P903" s="49"/>
@@ -39121,7 +39139,7 @@
         <v>4</v>
       </c>
       <c r="N904" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O904" s="1"/>
       <c r="P904" s="49"/>
@@ -39158,7 +39176,7 @@
         <v>5</v>
       </c>
       <c r="N905" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O905" s="1" t="s">
         <v>0</v>
@@ -39174,7 +39192,7 @@
       <c r="V905" s="8"/>
       <c r="W905" s="8"/>
       <c r="X905" s="17" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="906" spans="5:24" x14ac:dyDescent="0.25">
@@ -39201,7 +39219,7 @@
         <v>6</v>
       </c>
       <c r="N906" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O906" s="1"/>
       <c r="P906" s="49"/>
@@ -39238,7 +39256,7 @@
         <v>7</v>
       </c>
       <c r="N907" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O907" s="1"/>
       <c r="P907" s="49"/>
@@ -39275,7 +39293,7 @@
         <v>8</v>
       </c>
       <c r="N908" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O908" s="1"/>
       <c r="P908" s="49"/>
@@ -39312,7 +39330,7 @@
         <v>9</v>
       </c>
       <c r="N909" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O909" s="1"/>
       <c r="P909" s="49"/>
@@ -39386,7 +39404,7 @@
         <v>11</v>
       </c>
       <c r="N911" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P911" s="49"/>
       <c r="Q911" s="8"/>
@@ -39458,7 +39476,7 @@
         <v>13</v>
       </c>
       <c r="N913" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P913" s="49"/>
       <c r="Q913" s="8"/>
@@ -39466,7 +39484,7 @@
       <c r="S913" s="8"/>
       <c r="T913" s="8"/>
       <c r="U913" s="8" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="V913" s="8"/>
       <c r="W913" s="8"/>
@@ -39496,7 +39514,7 @@
         <v>14</v>
       </c>
       <c r="N914" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O914" s="3" t="s">
         <v>17</v>
@@ -39510,7 +39528,7 @@
       <c r="V914" s="8"/>
       <c r="W914" s="8"/>
       <c r="X914" s="17" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="915" spans="5:24" x14ac:dyDescent="0.25">
@@ -39573,7 +39591,7 @@
         <v>16</v>
       </c>
       <c r="N916" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P916" s="49"/>
       <c r="Q916" s="8"/>
@@ -39609,7 +39627,7 @@
         <v>17</v>
       </c>
       <c r="N917" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P917" s="49"/>
       <c r="Q917" s="8"/>
@@ -39645,7 +39663,7 @@
         <v>18</v>
       </c>
       <c r="N918" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P918" s="49" t="s">
         <v>18</v>
@@ -39658,7 +39676,7 @@
       <c r="V918" s="8"/>
       <c r="W918" s="8"/>
       <c r="X918" s="51" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="919" spans="5:24" x14ac:dyDescent="0.25">
@@ -39721,7 +39739,7 @@
         <v>20</v>
       </c>
       <c r="N920" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P920" s="49"/>
       <c r="Q920" s="8"/>
@@ -39903,7 +39921,7 @@
         <v>25</v>
       </c>
       <c r="N925" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O925" s="1" t="s">
         <v>0</v>
@@ -39919,7 +39937,7 @@
       <c r="V925" s="8"/>
       <c r="W925" s="8"/>
       <c r="X925" s="17" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="926" spans="5:24" x14ac:dyDescent="0.25">
@@ -39983,7 +40001,7 @@
         <v>27</v>
       </c>
       <c r="N927" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O927" s="1"/>
       <c r="P927" s="49"/>
@@ -40020,7 +40038,7 @@
         <v>28</v>
       </c>
       <c r="N928" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O928" s="1"/>
       <c r="P928" s="49"/>
@@ -40131,7 +40149,7 @@
         <v>31</v>
       </c>
       <c r="N931" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O931" s="1"/>
       <c r="P931" s="49"/>
@@ -40168,7 +40186,7 @@
         <v>32</v>
       </c>
       <c r="N932" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O932" s="1"/>
       <c r="P932" s="49" t="s">
@@ -40182,7 +40200,7 @@
       <c r="V932" s="8"/>
       <c r="W932" s="8"/>
       <c r="X932" s="51" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="933" spans="5:24" x14ac:dyDescent="0.25">
@@ -40246,7 +40264,7 @@
         <v>34</v>
       </c>
       <c r="N934" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P934" s="49"/>
       <c r="Q934" s="8"/>
@@ -40282,7 +40300,7 @@
         <v>35</v>
       </c>
       <c r="N935" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P935" s="49"/>
       <c r="Q935" s="8"/>
@@ -40318,7 +40336,7 @@
         <v>36</v>
       </c>
       <c r="N936" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P936" s="49"/>
       <c r="Q936" s="8"/>
@@ -40354,7 +40372,7 @@
         <v>37</v>
       </c>
       <c r="N937" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O937" s="1" t="s">
         <v>0</v>
@@ -40368,7 +40386,7 @@
       <c r="V937" s="8"/>
       <c r="W937" s="8"/>
       <c r="X937" s="17" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="938" spans="5:24" x14ac:dyDescent="0.25">
@@ -40395,7 +40413,7 @@
         <v>38</v>
       </c>
       <c r="N938" s="17" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="O938" s="3" t="s">
         <v>1</v>
@@ -40434,7 +40452,7 @@
         <v>39</v>
       </c>
       <c r="N939" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P939" s="49"/>
       <c r="Q939" s="8"/>
@@ -40470,7 +40488,7 @@
         <v>40</v>
       </c>
       <c r="N940" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P940" s="49" t="s">
         <v>18</v>
@@ -40483,7 +40501,7 @@
       <c r="V940" s="8"/>
       <c r="W940" s="8"/>
       <c r="X940" s="51" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="941" spans="5:24" x14ac:dyDescent="0.25">
@@ -40582,7 +40600,7 @@
         <v>43</v>
       </c>
       <c r="N943" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P943" s="49"/>
       <c r="Q943" s="8"/>
@@ -40626,7 +40644,7 @@
       <c r="S944" s="8"/>
       <c r="T944" s="8"/>
       <c r="U944" s="8" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="V944" s="8"/>
       <c r="W944" s="8"/>
@@ -40656,7 +40674,7 @@
         <v>45</v>
       </c>
       <c r="N945" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="O945" s="1" t="s">
         <v>0</v>
@@ -40670,7 +40688,7 @@
       <c r="V945" s="8"/>
       <c r="W945" s="8"/>
       <c r="X945" s="17" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="946" spans="5:24" x14ac:dyDescent="0.25">
@@ -40697,7 +40715,7 @@
         <v>46</v>
       </c>
       <c r="N946" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O946" s="1" t="s">
         <v>0</v>
@@ -40711,7 +40729,7 @@
       <c r="V946" s="8"/>
       <c r="W946" s="8"/>
       <c r="X946" s="17" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="947" spans="5:24" x14ac:dyDescent="0.25">
@@ -40738,7 +40756,7 @@
         <v>47</v>
       </c>
       <c r="N947" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O947" s="1"/>
       <c r="P947" s="49"/>
@@ -40775,7 +40793,7 @@
         <v>48</v>
       </c>
       <c r="N948" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O948" s="1"/>
       <c r="P948" s="49"/>
@@ -40812,7 +40830,7 @@
         <v>49</v>
       </c>
       <c r="N949" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O949" s="1"/>
       <c r="P949" s="49"/>
@@ -40849,7 +40867,7 @@
         <v>50</v>
       </c>
       <c r="N950" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O950" s="1"/>
       <c r="P950" s="49"/>
@@ -40858,7 +40876,7 @@
       <c r="S950" s="8"/>
       <c r="T950" s="8"/>
       <c r="U950" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V950" s="8"/>
       <c r="W950" s="8"/>
@@ -40887,7 +40905,7 @@
         <v>51</v>
       </c>
       <c r="N951" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O951" s="1" t="s">
         <v>0</v>
@@ -40903,7 +40921,7 @@
       <c r="V951" s="8"/>
       <c r="W951" s="8"/>
       <c r="X951" s="17" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="952" spans="5:24" x14ac:dyDescent="0.25">
@@ -40930,14 +40948,14 @@
         <v>52</v>
       </c>
       <c r="N952" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O952" s="1"/>
       <c r="P952" s="49"/>
       <c r="Q952" s="8"/>
       <c r="R952" s="8"/>
       <c r="S952" s="8" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="T952" s="8"/>
       <c r="U952" s="8"/>
@@ -41117,17 +41135,17 @@
         <v>57</v>
       </c>
       <c r="N957" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O957" s="1"/>
       <c r="P957" s="49"/>
       <c r="Q957" s="8"/>
       <c r="R957" s="8"/>
       <c r="S957" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="T957" s="8" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="U957" s="8"/>
       <c r="V957" s="8"/>
@@ -41158,7 +41176,7 @@
         <v>58</v>
       </c>
       <c r="N958" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O958" s="1"/>
       <c r="P958" s="49"/>
@@ -41195,7 +41213,7 @@
         <v>59</v>
       </c>
       <c r="N959" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O959" s="1" t="s">
         <v>0</v>
@@ -41209,7 +41227,7 @@
       <c r="V959" s="8"/>
       <c r="W959" s="8"/>
       <c r="X959" s="17" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="960" spans="5:24" x14ac:dyDescent="0.25">
@@ -41236,7 +41254,7 @@
         <v>60</v>
       </c>
       <c r="N960" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O960" s="1"/>
       <c r="P960" s="49"/>
@@ -41273,7 +41291,7 @@
         <v>61</v>
       </c>
       <c r="N961" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O961" s="1"/>
       <c r="P961" s="49"/>
@@ -41310,7 +41328,7 @@
         <v>62</v>
       </c>
       <c r="N962" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O962" s="1"/>
       <c r="P962" s="49" t="s">
@@ -41324,7 +41342,7 @@
       <c r="V962" s="8"/>
       <c r="W962" s="8"/>
       <c r="X962" s="51" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="963" spans="5:24" x14ac:dyDescent="0.25">
@@ -41351,7 +41369,7 @@
         <v>63</v>
       </c>
       <c r="N963" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O963" s="1"/>
       <c r="P963" s="49"/>
@@ -41388,7 +41406,7 @@
         <v>64</v>
       </c>
       <c r="N964" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O964" s="1"/>
       <c r="P964" s="49"/>
@@ -41462,7 +41480,7 @@
         <v>66</v>
       </c>
       <c r="N966" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O966" s="1"/>
       <c r="P966" s="49"/>
@@ -41536,7 +41554,7 @@
         <v>68</v>
       </c>
       <c r="N968" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P968" s="49"/>
       <c r="Q968" s="8"/>
@@ -41572,7 +41590,7 @@
         <v>69</v>
       </c>
       <c r="N969" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O969" s="1" t="s">
         <v>0</v>
@@ -41586,7 +41604,7 @@
       <c r="V969" s="8"/>
       <c r="W969" s="8"/>
       <c r="X969" s="17" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="970" spans="5:24" x14ac:dyDescent="0.25">
@@ -41613,7 +41631,7 @@
         <v>70</v>
       </c>
       <c r="N970" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P970" s="49"/>
       <c r="Q970" s="8"/>
@@ -41649,7 +41667,7 @@
         <v>71</v>
       </c>
       <c r="N971" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P971" s="49"/>
       <c r="Q971" s="8"/>
@@ -41685,7 +41703,7 @@
         <v>72</v>
       </c>
       <c r="N972" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P972" s="49"/>
       <c r="Q972" s="8"/>
@@ -41795,7 +41813,7 @@
         <v>75</v>
       </c>
       <c r="N975" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O975" s="1" t="s">
         <v>0</v>
@@ -41811,7 +41829,7 @@
       <c r="V975" s="8"/>
       <c r="W975" s="8"/>
       <c r="X975" s="17" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="976" spans="5:24" x14ac:dyDescent="0.25">
@@ -41912,7 +41930,7 @@
         <v>78</v>
       </c>
       <c r="N978" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O978" s="1"/>
       <c r="P978" s="49"/>
@@ -42059,7 +42077,7 @@
         <v>82</v>
       </c>
       <c r="N982" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P982" s="49"/>
       <c r="Q982" s="8"/>
@@ -42067,7 +42085,7 @@
       <c r="S982" s="8"/>
       <c r="T982" s="8"/>
       <c r="U982" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V982" s="8"/>
       <c r="W982" s="8"/>
@@ -42169,7 +42187,7 @@
         <v>85</v>
       </c>
       <c r="N985" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P985" s="49"/>
       <c r="Q985" s="8"/>
@@ -42313,7 +42331,7 @@
         <v>89</v>
       </c>
       <c r="N989" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O989" s="1"/>
       <c r="P989" s="49" t="s">
@@ -42327,7 +42345,7 @@
       <c r="V989" s="8"/>
       <c r="W989" s="8"/>
       <c r="X989" s="51" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="990" spans="5:24" x14ac:dyDescent="0.25">
@@ -42428,7 +42446,7 @@
         <v>92</v>
       </c>
       <c r="N992" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O992" s="1"/>
       <c r="P992" s="49"/>
@@ -42465,7 +42483,7 @@
         <v>93</v>
       </c>
       <c r="N993" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O993" s="1"/>
       <c r="P993" s="49"/>
@@ -42576,7 +42594,7 @@
         <v>96</v>
       </c>
       <c r="N996" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O996" s="1"/>
       <c r="P996" s="49"/>
@@ -42613,7 +42631,7 @@
         <v>97</v>
       </c>
       <c r="N997" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O997" s="1"/>
       <c r="P997" s="49"/>
@@ -42724,7 +42742,7 @@
         <v>100</v>
       </c>
       <c r="N1000" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O1000" s="1"/>
       <c r="P1000" s="49"/>
@@ -42796,7 +42814,7 @@
         <v>102</v>
       </c>
       <c r="N1002" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P1002" s="49" t="s">
         <v>18</v>
@@ -42809,7 +42827,7 @@
       <c r="V1002" s="8"/>
       <c r="W1002" s="8"/>
       <c r="X1002" s="51" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1003" spans="5:24" x14ac:dyDescent="0.25">
@@ -42908,7 +42926,7 @@
         <v>105</v>
       </c>
       <c r="N1005" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="P1005" s="49"/>
       <c r="Q1005" s="8"/>
@@ -42944,7 +42962,7 @@
         <v>106</v>
       </c>
       <c r="N1006" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O1006" s="1"/>
       <c r="P1006" s="49"/>
@@ -43055,7 +43073,7 @@
         <v>109</v>
       </c>
       <c r="N1009" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O1009" s="1"/>
       <c r="P1009" s="49"/>
@@ -43166,7 +43184,7 @@
         <v>112</v>
       </c>
       <c r="N1012" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O1012" s="1"/>
       <c r="P1012" s="49"/>
@@ -43277,7 +43295,7 @@
         <v>115</v>
       </c>
       <c r="N1015" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O1015" s="1"/>
       <c r="P1015" s="49"/>
@@ -43286,7 +43304,7 @@
       <c r="S1015" s="8"/>
       <c r="T1015" s="8"/>
       <c r="U1015" s="8" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="V1015" s="8"/>
       <c r="W1015" s="8"/>
@@ -43316,7 +43334,7 @@
         <v>116</v>
       </c>
       <c r="N1016" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O1016" s="1"/>
       <c r="P1016" s="49" t="s">
@@ -43330,7 +43348,7 @@
       <c r="V1016" s="8"/>
       <c r="W1016" s="8"/>
       <c r="X1016" s="51" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1017" spans="5:24" x14ac:dyDescent="0.25">
@@ -43357,7 +43375,7 @@
         <v>117</v>
       </c>
       <c r="N1017" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O1017" s="1"/>
       <c r="P1017" s="49"/>
@@ -43504,7 +43522,7 @@
         <v>121</v>
       </c>
       <c r="N1021" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O1021" s="1"/>
       <c r="P1021" s="49"/>
@@ -43541,7 +43559,7 @@
         <v>122</v>
       </c>
       <c r="N1022" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O1022" s="1"/>
       <c r="P1022" s="49"/>
@@ -43578,7 +43596,7 @@
         <v>123</v>
       </c>
       <c r="N1023" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O1023" s="1"/>
       <c r="P1023" s="49"/>
@@ -43615,7 +43633,7 @@
         <v>124</v>
       </c>
       <c r="N1024" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O1024" s="1"/>
       <c r="P1024" s="49"/>
@@ -43652,7 +43670,7 @@
         <v>125</v>
       </c>
       <c r="N1025" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O1025" s="1"/>
       <c r="P1025" s="49"/>
@@ -43689,7 +43707,7 @@
         <v>126</v>
       </c>
       <c r="N1026" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O1026" s="1"/>
       <c r="P1026" s="49" t="s">
@@ -43703,7 +43721,7 @@
       <c r="V1026" s="8"/>
       <c r="W1026" s="8"/>
       <c r="X1026" s="51" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1027" spans="5:24" x14ac:dyDescent="0.25">
@@ -43730,7 +43748,7 @@
         <v>127</v>
       </c>
       <c r="N1027" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O1027" s="1"/>
       <c r="P1027" s="49"/>
@@ -43767,7 +43785,7 @@
         <v>128</v>
       </c>
       <c r="N1028" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O1028" s="1"/>
       <c r="P1028" s="49"/>
@@ -43804,7 +43822,7 @@
         <v>129</v>
       </c>
       <c r="N1029" s="56" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="O1029" s="1"/>
       <c r="P1029" s="49"/>
@@ -43816,7 +43834,7 @@
       <c r="V1029" s="8"/>
       <c r="W1029" s="8"/>
       <c r="X1029" s="17" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1030" spans="5:24" x14ac:dyDescent="0.25">
@@ -43880,7 +43898,7 @@
         <v>131</v>
       </c>
       <c r="N1031" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O1031" s="1" t="s">
         <v>0</v>
@@ -43894,7 +43912,7 @@
       <c r="V1031" s="8"/>
       <c r="W1031" s="8"/>
       <c r="X1031" s="17" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1032" spans="5:24" x14ac:dyDescent="0.25">
@@ -43921,7 +43939,7 @@
         <v>132</v>
       </c>
       <c r="N1032" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O1032" s="1" t="s">
         <v>0</v>
@@ -43935,7 +43953,7 @@
       <c r="V1032" s="8"/>
       <c r="W1032" s="8"/>
       <c r="X1032" s="17" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1033" spans="5:24" x14ac:dyDescent="0.25">
@@ -43962,7 +43980,7 @@
         <v>133</v>
       </c>
       <c r="N1033" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P1033" s="49"/>
       <c r="Q1033" s="8"/>
@@ -43998,7 +44016,7 @@
         <v>134</v>
       </c>
       <c r="N1034" s="17" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="O1034" s="3" t="s">
         <v>17</v>
@@ -44009,12 +44027,12 @@
       <c r="S1034" s="8"/>
       <c r="T1034" s="8"/>
       <c r="U1034" s="8" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="V1034" s="8"/>
       <c r="W1034" s="8"/>
       <c r="X1034" s="17" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1035" spans="5:24" x14ac:dyDescent="0.25">
@@ -44041,7 +44059,7 @@
         <v>135</v>
       </c>
       <c r="N1035" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P1035" s="49"/>
       <c r="Q1035" s="8"/>
@@ -44087,12 +44105,12 @@
       <c r="S1036" s="8"/>
       <c r="T1036" s="8"/>
       <c r="U1036" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V1036" s="8"/>
       <c r="W1036" s="8"/>
       <c r="X1036" s="51" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1037" spans="5:24" x14ac:dyDescent="0.25">
@@ -44119,13 +44137,13 @@
         <v>137</v>
       </c>
       <c r="N1037" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P1037" s="49"/>
       <c r="Q1037" s="8"/>
       <c r="R1037" s="8"/>
       <c r="S1037" s="8" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="T1037" s="8"/>
       <c r="U1037" s="8"/>
@@ -44232,7 +44250,7 @@
         <v>95</v>
       </c>
       <c r="O1040" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P1040" s="49"/>
       <c r="Q1040" s="8"/>
@@ -44240,7 +44258,7 @@
       <c r="S1040" s="8"/>
       <c r="T1040" s="8"/>
       <c r="U1040" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V1040" s="8"/>
       <c r="W1040" s="8"/>
@@ -44306,7 +44324,7 @@
         <v>142</v>
       </c>
       <c r="N1042" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P1042" s="49"/>
       <c r="Q1042" s="8"/>
@@ -44342,7 +44360,7 @@
         <v>143</v>
       </c>
       <c r="N1043" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P1043" s="49"/>
       <c r="Q1043" s="8"/>
@@ -44378,13 +44396,13 @@
         <v>144</v>
       </c>
       <c r="N1044" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P1044" s="49"/>
       <c r="Q1044" s="8"/>
       <c r="R1044" s="8"/>
       <c r="S1044" s="8" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="T1044" s="8"/>
       <c r="U1044" s="8"/>
@@ -44488,7 +44506,7 @@
         <v>147</v>
       </c>
       <c r="N1047" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P1047" s="49"/>
       <c r="Q1047" s="8"/>
@@ -44524,7 +44542,7 @@
         <v>148</v>
       </c>
       <c r="N1048" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O1048" s="1"/>
       <c r="P1048" s="49"/>
@@ -44561,7 +44579,7 @@
         <v>149</v>
       </c>
       <c r="N1049" s="17" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="O1049" s="1" t="s">
         <v>0</v>
@@ -44577,7 +44595,7 @@
       <c r="V1049" s="8"/>
       <c r="W1049" s="8"/>
       <c r="X1049" s="57" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1050" spans="5:24" x14ac:dyDescent="0.25">
@@ -44604,7 +44622,7 @@
         <v>150</v>
       </c>
       <c r="N1050" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O1050" s="1"/>
       <c r="P1050" s="49"/>
@@ -44640,7 +44658,7 @@
         <v>151</v>
       </c>
       <c r="N1051" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O1051" s="1"/>
       <c r="P1051" s="49"/>
@@ -44677,7 +44695,7 @@
         <v>152</v>
       </c>
       <c r="N1052" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O1052" s="1" t="s">
         <v>0</v>
@@ -44691,7 +44709,7 @@
       <c r="V1052" s="8"/>
       <c r="W1052" s="8"/>
       <c r="X1052" s="51" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1053" spans="5:24" x14ac:dyDescent="0.25">
@@ -44718,7 +44736,7 @@
         <v>153</v>
       </c>
       <c r="N1053" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P1053" s="49"/>
       <c r="Q1053" s="8"/>
@@ -44754,7 +44772,7 @@
         <v>154</v>
       </c>
       <c r="N1054" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P1054" s="49"/>
       <c r="Q1054" s="8"/>
@@ -44790,7 +44808,7 @@
         <v>155</v>
       </c>
       <c r="N1055" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P1055" s="49"/>
       <c r="Q1055" s="8"/>
@@ -44826,7 +44844,7 @@
         <v>156</v>
       </c>
       <c r="N1056" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P1056" s="49"/>
       <c r="Q1056" s="8"/>
@@ -44862,7 +44880,7 @@
         <v>157</v>
       </c>
       <c r="N1057" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P1057" s="49"/>
       <c r="Q1057" s="8"/>
@@ -44898,7 +44916,7 @@
         <v>158</v>
       </c>
       <c r="N1058" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P1058" s="49" t="s">
         <v>18</v>
@@ -44911,7 +44929,7 @@
       <c r="V1058" s="8"/>
       <c r="W1058" s="8"/>
       <c r="X1058" s="51" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1059" spans="5:24" x14ac:dyDescent="0.25">
@@ -44938,13 +44956,13 @@
         <v>159</v>
       </c>
       <c r="N1059" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P1059" s="49"/>
       <c r="Q1059" s="8"/>
       <c r="R1059" s="8"/>
       <c r="S1059" s="8" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="T1059" s="8"/>
       <c r="U1059" s="8"/>
@@ -44976,7 +44994,7 @@
         <v>160</v>
       </c>
       <c r="N1060" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P1060" s="49"/>
       <c r="Q1060" s="8"/>
@@ -45048,7 +45066,7 @@
         <v>162</v>
       </c>
       <c r="N1062" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P1062" s="49"/>
       <c r="Q1062" s="8"/>
@@ -45083,7 +45101,7 @@
         <v>163</v>
       </c>
       <c r="N1063" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P1063" s="49"/>
       <c r="Q1063" s="8"/>
@@ -45091,7 +45109,7 @@
       <c r="S1063" s="8"/>
       <c r="T1063" s="8"/>
       <c r="U1063" s="64" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="V1063" s="8"/>
       <c r="W1063" s="8"/>
@@ -45121,7 +45139,7 @@
         <v>164</v>
       </c>
       <c r="N1064" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P1064" s="49"/>
       <c r="Q1064" s="8"/>
@@ -45157,7 +45175,7 @@
         <v>165</v>
       </c>
       <c r="N1065" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P1065" s="49"/>
       <c r="Q1065" s="8"/>
@@ -45165,7 +45183,7 @@
       <c r="S1065" s="8"/>
       <c r="T1065" s="8"/>
       <c r="U1065" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V1065" s="8"/>
       <c r="W1065" s="8"/>
@@ -45195,10 +45213,10 @@
         <v>166</v>
       </c>
       <c r="N1066" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O1066" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P1066" s="49"/>
       <c r="Q1066" s="8"/>
@@ -45234,7 +45252,7 @@
         <v>167</v>
       </c>
       <c r="N1067" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P1067" s="49"/>
       <c r="Q1067" s="8"/>
@@ -45270,7 +45288,7 @@
         <v>168</v>
       </c>
       <c r="N1068" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P1068" s="49" t="s">
         <v>18</v>
@@ -45283,7 +45301,7 @@
       <c r="V1068" s="8"/>
       <c r="W1068" s="8"/>
       <c r="X1068" s="51" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1069" spans="5:24" x14ac:dyDescent="0.25">
@@ -45310,10 +45328,10 @@
         <v>169</v>
       </c>
       <c r="N1069" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O1069" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P1069" s="49"/>
       <c r="Q1069" s="8"/>
@@ -45355,10 +45373,10 @@
       <c r="Q1070" s="8"/>
       <c r="R1070" s="8"/>
       <c r="S1070" s="8" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="T1070" s="8" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="U1070" s="8"/>
       <c r="V1070" s="8"/>
@@ -45389,7 +45407,7 @@
         <v>171</v>
       </c>
       <c r="N1071" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O1071" s="1"/>
       <c r="P1071" s="49"/>
@@ -45426,7 +45444,7 @@
         <v>172</v>
       </c>
       <c r="N1072" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O1072" s="1"/>
       <c r="P1072" s="49"/>
@@ -45463,7 +45481,7 @@
         <v>173</v>
       </c>
       <c r="N1073" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O1073" s="1"/>
       <c r="P1073" s="49"/>
@@ -45500,7 +45518,7 @@
         <v>174</v>
       </c>
       <c r="N1074" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O1074" s="1" t="s">
         <v>1</v>
@@ -45539,7 +45557,7 @@
         <v>175</v>
       </c>
       <c r="N1075" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O1075" s="1"/>
       <c r="P1075" s="49"/>
@@ -45576,7 +45594,7 @@
         <v>176</v>
       </c>
       <c r="N1076" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O1076" s="1" t="s">
         <v>0</v>
@@ -45590,7 +45608,7 @@
       <c r="V1076" s="8"/>
       <c r="W1076" s="8"/>
       <c r="X1076" s="17" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1077" spans="5:24" x14ac:dyDescent="0.25">
@@ -45617,7 +45635,7 @@
         <v>177</v>
       </c>
       <c r="N1077" s="17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O1077" s="1" t="s">
         <v>0</v>
@@ -45633,7 +45651,7 @@
       <c r="V1077" s="8"/>
       <c r="W1077" s="8"/>
       <c r="X1077" s="17" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1078" spans="5:24" x14ac:dyDescent="0.25">
@@ -45660,7 +45678,7 @@
         <v>178</v>
       </c>
       <c r="N1078" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O1078" s="1" t="s">
         <v>1</v>
@@ -45699,7 +45717,7 @@
         <v>179</v>
       </c>
       <c r="N1079" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O1079" s="1"/>
       <c r="P1079" s="49"/>
@@ -45736,7 +45754,7 @@
         <v>180</v>
       </c>
       <c r="N1080" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O1080" s="1" t="s">
         <v>0</v>
@@ -45750,7 +45768,7 @@
       <c r="V1080" s="8"/>
       <c r="W1080" s="8"/>
       <c r="X1080" s="17" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1081" spans="5:24" x14ac:dyDescent="0.25">
@@ -45777,7 +45795,7 @@
         <v>181</v>
       </c>
       <c r="N1081" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P1081" s="49"/>
       <c r="Q1081" s="8"/>
@@ -45813,7 +45831,7 @@
         <v>182</v>
       </c>
       <c r="N1082" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P1082" s="49"/>
       <c r="Q1082" s="8"/>
@@ -45849,7 +45867,7 @@
         <v>183</v>
       </c>
       <c r="N1083" s="17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P1083" s="49"/>
       <c r="Q1083" s="8"/>
@@ -45885,7 +45903,7 @@
         <v>184</v>
       </c>
       <c r="N1084" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P1084" s="49"/>
       <c r="Q1084" s="8"/>
@@ -45934,7 +45952,7 @@
       <c r="V1085" s="8"/>
       <c r="W1085" s="8"/>
       <c r="X1085" s="51" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1086" spans="5:24" x14ac:dyDescent="0.25">
@@ -45961,7 +45979,7 @@
         <v>186</v>
       </c>
       <c r="N1086" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O1086" s="1" t="s">
         <v>0</v>
@@ -45975,7 +45993,7 @@
       <c r="V1086" s="8"/>
       <c r="W1086" s="8"/>
       <c r="X1086" s="17" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1087" spans="5:24" x14ac:dyDescent="0.25">
@@ -46002,7 +46020,7 @@
         <v>187</v>
       </c>
       <c r="N1087" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O1087" s="1" t="s">
         <v>0</v>
@@ -46016,7 +46034,7 @@
       <c r="V1087" s="8"/>
       <c r="W1087" s="8"/>
       <c r="X1087" s="17" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1088" spans="5:24" x14ac:dyDescent="0.25">
@@ -46043,7 +46061,7 @@
         <v>188</v>
       </c>
       <c r="N1088" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P1088" s="49"/>
       <c r="Q1088" s="8"/>
@@ -46129,7 +46147,7 @@
       <c r="V1090" s="8"/>
       <c r="W1090" s="8"/>
       <c r="X1090" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="1091" spans="5:24" x14ac:dyDescent="0.25">
@@ -46156,7 +46174,7 @@
         <v>191</v>
       </c>
       <c r="N1091" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P1091" s="49" t="s">
         <v>18</v>
@@ -46169,7 +46187,7 @@
       <c r="V1091" s="8"/>
       <c r="W1091" s="8"/>
       <c r="X1091" s="51" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1092" spans="5:24" x14ac:dyDescent="0.25">
@@ -46196,7 +46214,7 @@
         <v>192</v>
       </c>
       <c r="N1092" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P1092" s="49"/>
       <c r="Q1092" s="8"/>
@@ -46232,7 +46250,7 @@
         <v>193</v>
       </c>
       <c r="N1093" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P1093" s="49"/>
       <c r="Q1093" s="8"/>
@@ -46268,7 +46286,7 @@
         <v>194</v>
       </c>
       <c r="N1094" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P1094" s="49"/>
       <c r="Q1094" s="8"/>
@@ -46304,7 +46322,7 @@
         <v>195</v>
       </c>
       <c r="N1095" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O1095" s="1" t="s">
         <v>0</v>
@@ -46318,7 +46336,7 @@
       <c r="V1095" s="8"/>
       <c r="W1095" s="8"/>
       <c r="X1095" s="17" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1096" spans="5:24" x14ac:dyDescent="0.25">
@@ -46345,7 +46363,7 @@
         <v>196</v>
       </c>
       <c r="N1096" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P1096" s="49"/>
       <c r="Q1096" s="8"/>
@@ -46381,7 +46399,7 @@
         <v>197</v>
       </c>
       <c r="N1097" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P1097" s="49"/>
       <c r="Q1097" s="8"/>
@@ -46417,7 +46435,7 @@
         <v>198</v>
       </c>
       <c r="N1098" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O1098" s="1" t="s">
         <v>1</v>
@@ -46456,7 +46474,7 @@
         <v>199</v>
       </c>
       <c r="N1099" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O1099" s="1"/>
       <c r="P1099" s="49"/>
@@ -46493,7 +46511,7 @@
         <v>200</v>
       </c>
       <c r="N1100" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O1100" s="1"/>
       <c r="P1100" s="49"/>
@@ -46529,7 +46547,7 @@
         <v>201</v>
       </c>
       <c r="N1101" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O1101" s="1"/>
       <c r="P1101" s="49"/>
@@ -46566,7 +46584,7 @@
         <v>202</v>
       </c>
       <c r="N1102" s="47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O1102" s="1" t="s">
         <v>1</v>
@@ -46579,9 +46597,6 @@
       <c r="U1102" s="8"/>
       <c r="V1102" s="8"/>
       <c r="W1102" s="8"/>
-      <c r="X1102" s="17" t="s">
-        <v>841</v>
-      </c>
     </row>
     <row r="1103" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E1103" s="26"/>
@@ -46607,7 +46622,7 @@
         <v>203</v>
       </c>
       <c r="N1103" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O1103" s="1"/>
       <c r="P1103" s="49" t="s">
@@ -46620,7 +46635,9 @@
       <c r="U1103" s="8"/>
       <c r="V1103" s="8"/>
       <c r="W1103" s="8"/>
-      <c r="X1103" s="51"/>
+      <c r="X1103" s="65" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="1104" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E1104" s="26"/>
@@ -46646,7 +46663,7 @@
         <v>204</v>
       </c>
       <c r="N1104" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O1104" s="1" t="s">
         <v>0</v>
@@ -46660,7 +46677,7 @@
       <c r="V1104" s="8"/>
       <c r="W1104" s="8"/>
       <c r="X1104" s="17" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1105" spans="5:24" x14ac:dyDescent="0.25">
@@ -46687,7 +46704,7 @@
         <v>205</v>
       </c>
       <c r="N1105" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O1105" s="1" t="s">
         <v>0</v>
@@ -46701,7 +46718,7 @@
       <c r="V1105" s="8"/>
       <c r="W1105" s="8"/>
       <c r="X1105" s="17" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1106" spans="5:24" x14ac:dyDescent="0.25">
@@ -46765,7 +46782,7 @@
         <v>207</v>
       </c>
       <c r="N1107" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P1107" s="49"/>
       <c r="Q1107" s="8"/>
@@ -46809,7 +46826,7 @@
       <c r="S1108" s="8"/>
       <c r="T1108" s="8"/>
       <c r="U1108" s="8" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="V1108" s="8"/>
       <c r="W1108" s="8"/>
@@ -46839,7 +46856,7 @@
         <v>209</v>
       </c>
       <c r="N1109" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O1109" s="1" t="s">
         <v>0</v>
@@ -46855,7 +46872,7 @@
       <c r="V1109" s="8"/>
       <c r="W1109" s="8"/>
       <c r="X1109" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1110" spans="5:24" x14ac:dyDescent="0.25">
@@ -46882,7 +46899,7 @@
         <v>210</v>
       </c>
       <c r="N1110" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O1110" s="1"/>
       <c r="P1110" s="49"/>
@@ -46919,7 +46936,7 @@
         <v>211</v>
       </c>
       <c r="N1111" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O1111" s="1"/>
       <c r="P1111" s="49"/>
@@ -46956,7 +46973,7 @@
         <v>212</v>
       </c>
       <c r="N1112" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O1112" s="1"/>
       <c r="P1112" s="49"/>
@@ -46993,7 +47010,7 @@
         <v>213</v>
       </c>
       <c r="N1113" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O1113" s="1"/>
       <c r="P1113" s="49"/>
@@ -47030,7 +47047,7 @@
         <v>214</v>
       </c>
       <c r="N1114" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O1114" s="1"/>
       <c r="P1114" s="49"/>
@@ -47067,7 +47084,7 @@
         <v>215</v>
       </c>
       <c r="N1115" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O1115" s="1"/>
       <c r="P1115" s="49"/>
@@ -47104,10 +47121,10 @@
         <v>216</v>
       </c>
       <c r="N1116" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O1116" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P1116" s="49"/>
       <c r="Q1116" s="8"/>
@@ -47143,7 +47160,7 @@
         <v>217</v>
       </c>
       <c r="N1117" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O1117" s="1"/>
       <c r="P1117" s="49"/>
@@ -47180,7 +47197,7 @@
         <v>218</v>
       </c>
       <c r="N1118" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O1118" s="1"/>
       <c r="P1118" s="49" t="s">
@@ -47194,7 +47211,7 @@
       <c r="V1118" s="8"/>
       <c r="W1118" s="8"/>
       <c r="X1118" s="51" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1119" spans="5:24" x14ac:dyDescent="0.25">
@@ -47221,7 +47238,7 @@
         <v>219</v>
       </c>
       <c r="N1119" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O1119" s="1"/>
       <c r="P1119" s="49"/>
@@ -47258,7 +47275,7 @@
         <v>220</v>
       </c>
       <c r="N1120" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O1120" s="1" t="s">
         <v>0</v>
@@ -47272,7 +47289,7 @@
       <c r="V1120" s="8"/>
       <c r="W1120" s="8"/>
       <c r="X1120" s="17" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1121" spans="5:24" x14ac:dyDescent="0.25">
@@ -47299,7 +47316,7 @@
         <v>221</v>
       </c>
       <c r="N1121" s="17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O1121" s="1"/>
       <c r="P1121" s="49"/>
@@ -47373,7 +47390,7 @@
         <v>223</v>
       </c>
       <c r="N1123" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O1123" s="1"/>
       <c r="P1123" s="49" t="s">
@@ -47387,7 +47404,7 @@
       <c r="V1123" s="8"/>
       <c r="W1123" s="8"/>
       <c r="X1123" s="51" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1124" spans="5:24" x14ac:dyDescent="0.25">
@@ -47414,7 +47431,7 @@
         <v>224</v>
       </c>
       <c r="N1124" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O1124" s="1"/>
       <c r="P1124" s="49"/>
@@ -47451,7 +47468,7 @@
         <v>225</v>
       </c>
       <c r="N1125" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O1125" s="1"/>
       <c r="P1125" s="49"/>
@@ -47488,7 +47505,7 @@
         <v>226</v>
       </c>
       <c r="N1126" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O1126" s="1" t="s">
         <v>0</v>
@@ -47502,7 +47519,7 @@
       <c r="V1126" s="8"/>
       <c r="W1126" s="8"/>
       <c r="X1126" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1127" spans="5:24" x14ac:dyDescent="0.25">
@@ -47529,7 +47546,7 @@
         <v>227</v>
       </c>
       <c r="N1127" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O1127" s="1"/>
       <c r="P1127" s="49"/>
@@ -47566,7 +47583,7 @@
         <v>228</v>
       </c>
       <c r="N1128" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O1128" s="1"/>
       <c r="P1128" s="49"/>
@@ -47603,7 +47620,7 @@
         <v>229</v>
       </c>
       <c r="N1129" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O1129" s="1"/>
       <c r="P1129" s="49" t="s">
@@ -47617,7 +47634,7 @@
       <c r="V1129" s="8"/>
       <c r="W1129" s="8"/>
       <c r="X1129" s="51" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1130" spans="5:24" x14ac:dyDescent="0.25">
@@ -47642,7 +47659,7 @@
         <v>1</v>
       </c>
       <c r="N1130" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P1130" s="49"/>
       <c r="Q1130" s="8"/>
@@ -47692,7 +47709,7 @@
       <c r="V1131" s="8"/>
       <c r="W1131" s="8"/>
       <c r="X1131" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="1132" spans="5:24" x14ac:dyDescent="0.25">
@@ -47719,7 +47736,7 @@
         <v>3</v>
       </c>
       <c r="N1132" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O1132" s="1"/>
       <c r="P1132" s="49"/>
@@ -47832,7 +47849,7 @@
         <v>6</v>
       </c>
       <c r="N1135" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O1135" s="1"/>
       <c r="P1135" s="49" t="s">
@@ -47846,7 +47863,7 @@
       <c r="V1135" s="8"/>
       <c r="W1135" s="8"/>
       <c r="X1135" s="51" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1136" spans="5:24" x14ac:dyDescent="0.25">
@@ -47873,7 +47890,7 @@
         <v>7</v>
       </c>
       <c r="N1136" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O1136" s="1"/>
       <c r="P1136" s="49"/>
@@ -47910,7 +47927,7 @@
         <v>8</v>
       </c>
       <c r="N1137" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O1137" s="1" t="s">
         <v>0</v>
@@ -47924,7 +47941,7 @@
       <c r="V1137" s="8"/>
       <c r="W1137" s="8"/>
       <c r="X1137" s="17" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1138" spans="5:24" x14ac:dyDescent="0.25">
@@ -47951,7 +47968,7 @@
         <v>9</v>
       </c>
       <c r="N1138" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O1138" s="1" t="s">
         <v>1</v>
@@ -47990,7 +48007,7 @@
         <v>10</v>
       </c>
       <c r="N1139" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O1139" s="1"/>
       <c r="P1139" s="49"/>
@@ -48027,7 +48044,7 @@
         <v>11</v>
       </c>
       <c r="N1140" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O1140" s="1"/>
       <c r="P1140" s="49" t="s">
@@ -48041,7 +48058,7 @@
       <c r="V1140" s="8"/>
       <c r="W1140" s="8"/>
       <c r="X1140" s="51" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1141" spans="5:24" x14ac:dyDescent="0.25">
@@ -48068,7 +48085,7 @@
         <v>12</v>
       </c>
       <c r="N1141" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O1141" s="1"/>
       <c r="P1141" s="49"/>
@@ -48105,7 +48122,7 @@
         <v>13</v>
       </c>
       <c r="N1142" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O1142" s="1"/>
       <c r="P1142" s="49"/>
@@ -48142,7 +48159,7 @@
         <v>14</v>
       </c>
       <c r="N1143" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O1143" s="1"/>
       <c r="P1143" s="49"/>
@@ -48179,7 +48196,7 @@
         <v>15</v>
       </c>
       <c r="N1144" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O1144" s="1"/>
       <c r="P1144" s="49"/>
@@ -48216,7 +48233,7 @@
         <v>16</v>
       </c>
       <c r="N1145" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O1145" s="1"/>
       <c r="P1145" s="49"/>
@@ -48269,7 +48286,7 @@
       <c r="V1146" s="8"/>
       <c r="W1146" s="8"/>
       <c r="X1146" s="51" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1147" spans="5:24" x14ac:dyDescent="0.25">
@@ -48296,7 +48313,7 @@
         <v>18</v>
       </c>
       <c r="N1147" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O1147" s="1" t="s">
         <v>0</v>
@@ -48310,7 +48327,7 @@
       <c r="V1147" s="8"/>
       <c r="W1147" s="8"/>
       <c r="X1147" s="17" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1148" spans="5:24" x14ac:dyDescent="0.25">
@@ -48337,7 +48354,7 @@
         <v>19</v>
       </c>
       <c r="N1148" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O1148" s="1" t="s">
         <v>0</v>
@@ -48351,7 +48368,7 @@
       <c r="V1148" s="8"/>
       <c r="W1148" s="8"/>
       <c r="X1148" s="17" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1149" spans="5:24" x14ac:dyDescent="0.25">
@@ -48378,7 +48395,7 @@
         <v>20</v>
       </c>
       <c r="N1149" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O1149" s="1"/>
       <c r="P1149" s="49"/>
@@ -48415,7 +48432,7 @@
         <v>21</v>
       </c>
       <c r="N1150" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O1150" s="1"/>
       <c r="P1150" s="49"/>
@@ -48452,7 +48469,7 @@
         <v>22</v>
       </c>
       <c r="N1151" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O1151" s="1"/>
       <c r="P1151" s="49" t="s">
@@ -48466,7 +48483,7 @@
       <c r="V1151" s="8"/>
       <c r="W1151" s="8"/>
       <c r="X1151" s="51" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1152" spans="5:24" x14ac:dyDescent="0.25">
@@ -48493,7 +48510,7 @@
         <v>23</v>
       </c>
       <c r="N1152" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O1152" s="1" t="s">
         <v>0</v>
@@ -48507,7 +48524,7 @@
       <c r="V1152" s="8"/>
       <c r="W1152" s="8"/>
       <c r="X1152" s="17" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1153" spans="5:24" x14ac:dyDescent="0.25">
@@ -48534,7 +48551,7 @@
         <v>24</v>
       </c>
       <c r="N1153" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O1153" s="1" t="s">
         <v>0</v>
@@ -48547,7 +48564,7 @@
       <c r="V1153" s="8"/>
       <c r="W1153" s="8"/>
       <c r="X1153" s="17" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1154" spans="5:24" x14ac:dyDescent="0.25">
@@ -48574,7 +48591,7 @@
         <v>25</v>
       </c>
       <c r="N1154" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O1154" s="1"/>
       <c r="P1154" s="49"/>
@@ -48648,7 +48665,7 @@
         <v>27</v>
       </c>
       <c r="N1156" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O1156" s="1" t="s">
         <v>0</v>
@@ -48664,7 +48681,7 @@
       <c r="V1156" s="8"/>
       <c r="W1156" s="8"/>
       <c r="X1156" s="17" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1157" spans="5:24" x14ac:dyDescent="0.25">
@@ -48691,7 +48708,7 @@
         <v>28</v>
       </c>
       <c r="N1157" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O1157" s="1"/>
       <c r="P1157" s="49"/>
@@ -48727,7 +48744,7 @@
         <v>29</v>
       </c>
       <c r="N1158" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O1158" s="1"/>
       <c r="P1158" s="49"/>
@@ -48764,7 +48781,7 @@
         <v>30</v>
       </c>
       <c r="N1159" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P1159" s="49"/>
       <c r="Q1159" s="8"/>
@@ -48800,7 +48817,7 @@
         <v>31</v>
       </c>
       <c r="N1160" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O1160" s="1" t="s">
         <v>0</v>
@@ -48814,7 +48831,7 @@
       <c r="V1160" s="8"/>
       <c r="W1160" s="8"/>
       <c r="X1160" s="17" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1161" spans="5:24" x14ac:dyDescent="0.25">
@@ -48841,7 +48858,7 @@
         <v>32</v>
       </c>
       <c r="N1161" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O1161" s="1" t="s">
         <v>0</v>
@@ -48857,7 +48874,7 @@
       <c r="V1161" s="8"/>
       <c r="W1161" s="8"/>
       <c r="X1161" s="17" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1162" spans="5:24" x14ac:dyDescent="0.25">
@@ -48884,7 +48901,7 @@
         <v>33</v>
       </c>
       <c r="N1162" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P1162" s="49"/>
       <c r="Q1162" s="8"/>
@@ -48920,7 +48937,7 @@
         <v>34</v>
       </c>
       <c r="N1163" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P1163" s="49"/>
       <c r="Q1163" s="8"/>
@@ -48956,7 +48973,7 @@
         <v>35</v>
       </c>
       <c r="N1164" s="17" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="O1164" s="1" t="s">
         <v>0</v>
@@ -48970,7 +48987,7 @@
       <c r="V1164" s="8"/>
       <c r="W1164" s="8"/>
       <c r="X1164" s="17" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1165" spans="5:24" x14ac:dyDescent="0.25">
@@ -48997,7 +49014,7 @@
         <v>36</v>
       </c>
       <c r="N1165" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O1165" s="1" t="s">
         <v>0</v>
@@ -49011,7 +49028,7 @@
       <c r="V1165" s="8"/>
       <c r="W1165" s="8"/>
       <c r="X1165" s="17" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1166" spans="5:24" x14ac:dyDescent="0.25">
@@ -49038,7 +49055,7 @@
         <v>37</v>
       </c>
       <c r="N1166" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P1166" s="49" t="s">
         <v>18</v>
@@ -49050,7 +49067,7 @@
       <c r="V1166" s="8"/>
       <c r="W1166" s="8"/>
       <c r="X1166" s="51" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1167" spans="5:24" x14ac:dyDescent="0.25">
@@ -49077,7 +49094,7 @@
         <v>38</v>
       </c>
       <c r="N1167" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P1167" s="49"/>
       <c r="Q1167" s="8"/>
@@ -49113,7 +49130,7 @@
         <v>39</v>
       </c>
       <c r="N1168" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P1168" s="49"/>
       <c r="Q1168" s="8"/>
@@ -49121,7 +49138,7 @@
       <c r="S1168" s="8"/>
       <c r="T1168" s="8"/>
       <c r="U1168" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V1168" s="8"/>
       <c r="W1168" s="8"/>
@@ -49151,7 +49168,7 @@
         <v>40</v>
       </c>
       <c r="N1169" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O1169" s="1" t="s">
         <v>0</v>
@@ -49165,7 +49182,7 @@
       <c r="V1169" s="8"/>
       <c r="W1169" s="8"/>
       <c r="X1169" s="17" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1170" spans="5:24" x14ac:dyDescent="0.25">
@@ -49192,7 +49209,7 @@
         <v>41</v>
       </c>
       <c r="N1170" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P1170" s="49"/>
       <c r="Q1170" s="8"/>
@@ -49228,7 +49245,7 @@
         <v>42</v>
       </c>
       <c r="N1171" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P1171" s="49"/>
       <c r="Q1171" s="8"/>
@@ -49264,7 +49281,7 @@
         <v>43</v>
       </c>
       <c r="N1172" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P1172" s="49" t="s">
         <v>18</v>
@@ -49277,7 +49294,7 @@
       <c r="V1172" s="8"/>
       <c r="W1172" s="8"/>
       <c r="X1172" s="51" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1173" spans="5:24" x14ac:dyDescent="0.25">
@@ -49304,7 +49321,7 @@
         <v>44</v>
       </c>
       <c r="N1173" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P1173" s="49"/>
       <c r="Q1173" s="8"/>
@@ -49340,7 +49357,7 @@
         <v>45</v>
       </c>
       <c r="N1174" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P1174" s="49"/>
       <c r="Q1174" s="8"/>
@@ -49376,7 +49393,7 @@
         <v>46</v>
       </c>
       <c r="N1175" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O1175" s="1" t="s">
         <v>0</v>
@@ -49390,7 +49407,7 @@
       <c r="V1175" s="8"/>
       <c r="W1175" s="8"/>
       <c r="X1175" s="17" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1176" spans="5:24" x14ac:dyDescent="0.25">
@@ -49417,7 +49434,7 @@
         <v>47</v>
       </c>
       <c r="N1176" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P1176" s="49"/>
       <c r="Q1176" s="8"/>
@@ -49453,7 +49470,7 @@
         <v>48</v>
       </c>
       <c r="N1177" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P1177" s="49" t="s">
         <v>18</v>
@@ -49466,7 +49483,7 @@
       <c r="V1177" s="8"/>
       <c r="W1177" s="8"/>
       <c r="X1177" s="51" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1178" spans="5:24" x14ac:dyDescent="0.25">
@@ -49493,7 +49510,7 @@
         <v>49</v>
       </c>
       <c r="N1178" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P1178" s="49"/>
       <c r="Q1178" s="8"/>
@@ -49529,7 +49546,7 @@
         <v>50</v>
       </c>
       <c r="N1179" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P1179" s="49"/>
       <c r="Q1179" s="8"/>
@@ -49564,7 +49581,7 @@
         <v>51</v>
       </c>
       <c r="N1180" s="17" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="O1180" s="1" t="s">
         <v>0</v>
@@ -49578,7 +49595,7 @@
       <c r="V1180" s="8"/>
       <c r="W1180" s="8"/>
       <c r="X1180" s="17" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1181" spans="5:24" x14ac:dyDescent="0.25">
@@ -49605,7 +49622,7 @@
         <v>52</v>
       </c>
       <c r="N1181" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O1181" s="1" t="s">
         <v>0</v>
@@ -49619,7 +49636,7 @@
       <c r="V1181" s="8"/>
       <c r="W1181" s="8"/>
       <c r="X1181" s="17" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1182" spans="5:24" x14ac:dyDescent="0.25">
@@ -49646,7 +49663,7 @@
         <v>53</v>
       </c>
       <c r="N1182" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O1182" s="1" t="s">
         <v>0</v>
@@ -49662,7 +49679,7 @@
       <c r="V1182" s="8"/>
       <c r="W1182" s="8"/>
       <c r="X1182" s="17" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1183" spans="5:24" x14ac:dyDescent="0.25">
@@ -49689,7 +49706,7 @@
         <v>54</v>
       </c>
       <c r="N1183" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O1183" s="1"/>
       <c r="P1183" s="49"/>
@@ -49726,7 +49743,7 @@
         <v>55</v>
       </c>
       <c r="N1184" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O1184" s="1"/>
       <c r="P1184" s="49"/>
@@ -49800,7 +49817,7 @@
         <v>57</v>
       </c>
       <c r="N1186" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P1186" s="49"/>
       <c r="Q1186" s="8"/>
@@ -49872,7 +49889,7 @@
         <v>59</v>
       </c>
       <c r="N1188" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P1188" s="49"/>
       <c r="Q1188" s="8"/>
@@ -49944,7 +49961,7 @@
         <v>61</v>
       </c>
       <c r="N1190" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O1190" s="1" t="s">
         <v>0</v>
@@ -49960,7 +49977,7 @@
       <c r="V1190" s="8"/>
       <c r="W1190" s="8"/>
       <c r="X1190" s="17" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1191" spans="5:24" x14ac:dyDescent="0.25">
@@ -49987,7 +50004,7 @@
         <v>62</v>
       </c>
       <c r="N1191" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P1191" s="49"/>
       <c r="Q1191" s="8"/>
@@ -50023,7 +50040,7 @@
         <v>63</v>
       </c>
       <c r="N1192" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O1192" s="1" t="s">
         <v>0</v>
@@ -50037,7 +50054,7 @@
       <c r="V1192" s="8"/>
       <c r="W1192" s="8"/>
       <c r="X1192" s="17" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1193" spans="5:24" x14ac:dyDescent="0.25">
@@ -50064,7 +50081,7 @@
         <v>64</v>
       </c>
       <c r="N1193" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O1193" s="3" t="s">
         <v>1</v>
@@ -50103,7 +50120,7 @@
         <v>65</v>
       </c>
       <c r="N1194" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P1194" s="49"/>
       <c r="Q1194" s="8"/>
@@ -50139,7 +50156,7 @@
         <v>66</v>
       </c>
       <c r="N1195" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P1195" s="49" t="s">
         <v>18</v>
@@ -50151,8 +50168,8 @@
       <c r="U1195" s="8"/>
       <c r="V1195" s="8"/>
       <c r="W1195" s="8"/>
-      <c r="X1195" s="51" t="s">
-        <v>796</v>
+      <c r="X1195" s="66" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="1196" spans="5:24" x14ac:dyDescent="0.25">
@@ -50215,7 +50232,7 @@
         <v>68</v>
       </c>
       <c r="N1197" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P1197" s="49"/>
       <c r="Q1197" s="8"/>
@@ -50251,7 +50268,7 @@
         <v>69</v>
       </c>
       <c r="N1198" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P1198" s="49"/>
       <c r="Q1198" s="8"/>
@@ -50287,7 +50304,7 @@
         <v>70</v>
       </c>
       <c r="N1199" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P1199" s="49"/>
       <c r="Q1199" s="8"/>
@@ -50323,7 +50340,7 @@
         <v>71</v>
       </c>
       <c r="N1200" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P1200" s="49"/>
       <c r="Q1200" s="8"/>
@@ -50359,7 +50376,7 @@
         <v>72</v>
       </c>
       <c r="N1201" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P1201" s="49"/>
       <c r="Q1201" s="8"/>
@@ -50395,7 +50412,7 @@
         <v>73</v>
       </c>
       <c r="N1202" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P1202" s="49"/>
       <c r="Q1202" s="8"/>
@@ -50431,7 +50448,7 @@
         <v>74</v>
       </c>
       <c r="N1203" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P1203" s="49"/>
       <c r="Q1203" s="8"/>
@@ -50467,7 +50484,7 @@
         <v>75</v>
       </c>
       <c r="N1204" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P1204" s="49"/>
       <c r="Q1204" s="8"/>
@@ -50503,7 +50520,7 @@
         <v>76</v>
       </c>
       <c r="N1205" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P1205" s="49"/>
       <c r="Q1205" s="8"/>
@@ -50539,7 +50556,7 @@
         <v>77</v>
       </c>
       <c r="N1206" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O1206" s="1"/>
       <c r="P1206" s="49"/>
@@ -50576,7 +50593,7 @@
         <v>78</v>
       </c>
       <c r="N1207" s="17" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="O1207" s="1"/>
       <c r="P1207" s="49"/>
@@ -50613,7 +50630,7 @@
         <v>79</v>
       </c>
       <c r="N1208" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O1208" s="1"/>
       <c r="P1208" s="49"/>
@@ -50650,7 +50667,7 @@
         <v>80</v>
       </c>
       <c r="N1209" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O1209" s="1"/>
       <c r="P1209" s="49"/>
@@ -50687,7 +50704,7 @@
         <v>81</v>
       </c>
       <c r="N1210" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O1210" s="1"/>
       <c r="P1210" s="49"/>
@@ -50724,7 +50741,7 @@
         <v>82</v>
       </c>
       <c r="N1211" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O1211" s="1"/>
       <c r="P1211" s="49"/>
@@ -50761,7 +50778,7 @@
         <v>83</v>
       </c>
       <c r="N1212" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O1212" s="1"/>
       <c r="P1212" s="49"/>
@@ -50798,7 +50815,7 @@
         <v>84</v>
       </c>
       <c r="N1213" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O1213" s="1"/>
       <c r="P1213" s="49"/>
@@ -50835,7 +50852,7 @@
         <v>85</v>
       </c>
       <c r="N1214" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O1214" s="1"/>
       <c r="P1214" s="49"/>
@@ -50872,7 +50889,7 @@
         <v>86</v>
       </c>
       <c r="N1215" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O1215" s="1"/>
       <c r="P1215" s="49"/>
@@ -50909,7 +50926,7 @@
         <v>87</v>
       </c>
       <c r="N1216" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O1216" s="1"/>
       <c r="P1216" s="49"/>
@@ -50946,7 +50963,7 @@
         <v>88</v>
       </c>
       <c r="N1217" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P1217" s="49"/>
       <c r="Q1217" s="8"/>
@@ -50982,7 +50999,7 @@
         <v>89</v>
       </c>
       <c r="N1218" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P1218" s="49"/>
       <c r="Q1218" s="8"/>
@@ -51018,7 +51035,7 @@
         <v>90</v>
       </c>
       <c r="N1219" s="17" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="P1219" s="49"/>
       <c r="Q1219" s="8"/>
@@ -51054,7 +51071,7 @@
         <v>91</v>
       </c>
       <c r="N1220" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P1220" s="49"/>
       <c r="Q1220" s="8"/>
@@ -51126,7 +51143,7 @@
         <v>93</v>
       </c>
       <c r="N1222" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P1222" s="49"/>
       <c r="Q1222" s="8"/>
@@ -51198,7 +51215,7 @@
         <v>95</v>
       </c>
       <c r="N1224" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P1224" s="49"/>
       <c r="Q1224" s="8"/>
@@ -51234,7 +51251,7 @@
         <v>96</v>
       </c>
       <c r="N1225" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P1225" s="49"/>
       <c r="Q1225" s="8"/>
@@ -51270,7 +51287,7 @@
         <v>97</v>
       </c>
       <c r="N1226" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P1226" s="49"/>
       <c r="Q1226" s="8"/>
@@ -51306,7 +51323,7 @@
         <v>98</v>
       </c>
       <c r="N1227" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P1227" s="49"/>
       <c r="Q1227" s="8"/>
@@ -51451,7 +51468,7 @@
         <v>102</v>
       </c>
       <c r="N1231" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O1231" s="1"/>
       <c r="P1231" s="49"/>
@@ -51488,7 +51505,7 @@
         <v>103</v>
       </c>
       <c r="N1232" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O1232" s="1"/>
       <c r="P1232" s="49"/>
@@ -51525,7 +51542,7 @@
         <v>104</v>
       </c>
       <c r="N1233" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O1233" s="1"/>
       <c r="P1233" s="49"/>
@@ -51562,7 +51579,7 @@
         <v>105</v>
       </c>
       <c r="N1234" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O1234" s="1"/>
       <c r="P1234" s="49"/>
@@ -51599,7 +51616,7 @@
         <v>106</v>
       </c>
       <c r="N1235" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O1235" s="1"/>
       <c r="P1235" s="49" t="s">
@@ -51613,7 +51630,7 @@
       <c r="V1235" s="8"/>
       <c r="W1235" s="8"/>
       <c r="X1235" s="51" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="897">
   <si>
     <t>PS</t>
   </si>
@@ -3383,10 +3383,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="L54" sqref="L54"/>
+      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -25476,7 +25476,9 @@
       <c r="N541" s="17" t="s">
         <v>861</v>
       </c>
-      <c r="O541" s="3"/>
+      <c r="O541" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="P541" s="49"/>
       <c r="Q541" s="8"/>
       <c r="R541" s="8"/>
@@ -27313,7 +27315,9 @@
       <c r="N589" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="O589" s="3"/>
+      <c r="O589" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="P589" s="49"/>
       <c r="Q589" s="8"/>
       <c r="R589" s="8"/>
@@ -30472,7 +30476,9 @@
       <c r="N671" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="O671" s="1"/>
+      <c r="O671" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="P671" s="49"/>
       <c r="Q671" s="8"/>
       <c r="R671" s="8"/>
@@ -38755,6 +38761,9 @@
       <c r="N894" s="17" t="s">
         <v>857</v>
       </c>
+      <c r="O894" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="P894" s="49"/>
       <c r="Q894" s="8"/>
       <c r="R894" s="8"/>
@@ -43824,7 +43833,9 @@
       <c r="N1029" s="56" t="s">
         <v>832</v>
       </c>
-      <c r="O1029" s="1"/>
+      <c r="O1029" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="P1029" s="49"/>
       <c r="Q1029" s="8"/>
       <c r="R1029" s="8"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
@@ -3530,10 +3530,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="I582" sqref="I582"/>
+      <selection pane="bottomLeft" activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4148" uniqueCount="926">
   <si>
     <t>PS</t>
   </si>
@@ -2811,13 +2811,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -3026,212 +3032,215 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3515,10 +3524,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="R152" sqref="R152"/>
+      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6292,7 +6301,9 @@
       <c r="B52" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C52" s="9"/>
+      <c r="C52" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D52" s="29"/>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
@@ -6331,6 +6342,9 @@
       <c r="B53" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C53" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D53" s="30"/>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
@@ -6380,7 +6394,9 @@
       <c r="B54" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C54" s="9"/>
+      <c r="C54" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D54" s="29"/>
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
@@ -6421,7 +6437,9 @@
       <c r="B55" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C55" s="9"/>
+      <c r="C55" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D55" s="29"/>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
@@ -6466,7 +6484,9 @@
       <c r="B56" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C56" s="9"/>
+      <c r="C56" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D56" s="29"/>
       <c r="E56" s="26"/>
       <c r="F56" s="26"/>
@@ -6507,7 +6527,9 @@
       <c r="B57" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D57" s="29"/>
       <c r="E57" s="26"/>
       <c r="F57" s="26"/>
@@ -6548,7 +6570,9 @@
       <c r="B58" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D58" s="29"/>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
@@ -6589,7 +6613,9 @@
       <c r="B59" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C59" s="9"/>
+      <c r="C59" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D59" s="29"/>
       <c r="E59" s="26"/>
       <c r="F59" s="26"/>
@@ -6630,7 +6656,9 @@
       <c r="B60" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D60" s="29"/>
       <c r="E60" s="26"/>
       <c r="F60" s="26"/>
@@ -6670,6 +6698,9 @@
       <c r="B61" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C61" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D61" s="30"/>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
@@ -6715,6 +6746,9 @@
     <row r="62" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C62" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="25"/>
@@ -6758,6 +6792,9 @@
       <c r="B63" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C63" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D63" s="30"/>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
@@ -6801,7 +6838,9 @@
       <c r="B64" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C64" s="9"/>
+      <c r="C64" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D64" s="29"/>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
@@ -6842,7 +6881,9 @@
       <c r="B65" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D65" s="29"/>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
@@ -6883,7 +6924,9 @@
       <c r="B66" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C66" s="9"/>
+      <c r="C66" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D66" s="63" t="s">
         <v>884</v>
       </c>
@@ -6928,7 +6971,9 @@
       <c r="B67" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C67" s="9"/>
+      <c r="C67" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D67" s="29"/>
       <c r="E67" s="26"/>
       <c r="F67" s="26"/>
@@ -6973,7 +7018,9 @@
       <c r="B68" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C68" s="9"/>
+      <c r="C68" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D68" s="29"/>
       <c r="E68" s="26"/>
       <c r="F68" s="26"/>
@@ -7014,7 +7061,9 @@
       <c r="B69" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C69" s="9"/>
+      <c r="C69" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D69" s="29"/>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
@@ -7055,7 +7104,9 @@
       <c r="B70" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C70" s="9"/>
+      <c r="C70" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D70" s="29"/>
       <c r="E70" s="26"/>
       <c r="F70" s="26"/>
@@ -7094,6 +7145,9 @@
     <row r="71" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C71" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="25"/>
@@ -7137,6 +7191,9 @@
       <c r="B72" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C72" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D72" s="30"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -7180,7 +7237,9 @@
       <c r="B73" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C73" s="9"/>
+      <c r="C73" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D73" s="29"/>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
@@ -7220,6 +7279,9 @@
       <c r="B74" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C74" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D74" s="30"/>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
@@ -7266,6 +7328,9 @@
       <c r="B75" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C75" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D75" s="30"/>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
@@ -7313,7 +7378,9 @@
       <c r="B76" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C76" s="9"/>
+      <c r="C76" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D76" s="29"/>
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
@@ -7356,6 +7423,9 @@
     <row r="77" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C77" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="25"/>
@@ -7401,6 +7471,9 @@
       <c r="B78" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C78" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D78" s="30"/>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
@@ -7451,7 +7524,9 @@
       <c r="B79" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C79" s="9"/>
+      <c r="C79" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D79" s="29"/>
       <c r="E79" s="26"/>
       <c r="F79" s="26"/>
@@ -7492,6 +7567,9 @@
     <row r="80" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C80" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D80" s="30"/>
       <c r="E80" s="25"/>
@@ -7537,6 +7615,9 @@
       <c r="B81" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C81" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D81" s="30"/>
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
@@ -7583,6 +7664,9 @@
       <c r="B82" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C82" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D82" s="30"/>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
@@ -7630,6 +7714,9 @@
     <row r="83" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C83" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="25"/>
@@ -7675,6 +7762,9 @@
       <c r="B84" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C84" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D84" s="30"/>
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
@@ -7722,6 +7812,9 @@
     <row r="85" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C85" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="25"/>
@@ -7767,6 +7860,9 @@
       <c r="B86" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C86" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D86" s="30"/>
       <c r="E86" s="25"/>
       <c r="F86" s="25"/>
@@ -7809,6 +7905,9 @@
       <c r="B87" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C87" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D87" s="30"/>
       <c r="E87" s="25"/>
       <c r="F87" s="25"/>
@@ -7851,6 +7950,9 @@
       <c r="B88" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C88" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D88" s="30"/>
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
@@ -7898,6 +8000,9 @@
     <row r="89" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C89" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D89" s="30"/>
       <c r="E89" s="25"/>
@@ -7942,6 +8047,9 @@
     <row r="90" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C90" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="25"/>
@@ -7986,7 +8094,9 @@
       <c r="B91" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D91" s="29"/>
       <c r="E91" s="26"/>
       <c r="F91" s="26"/>
@@ -8027,7 +8137,9 @@
       <c r="B92" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="C92" s="9"/>
+      <c r="C92" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D92" s="29"/>
       <c r="E92" s="26"/>
       <c r="F92" s="26"/>
@@ -8068,6 +8180,9 @@
     <row r="93" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C93" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="25"/>
@@ -8111,6 +8226,9 @@
       <c r="B94" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C94" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D94" s="30"/>
       <c r="E94" s="25"/>
       <c r="F94" s="25"/>
@@ -8153,6 +8271,9 @@
       <c r="B95" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C95" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D95" s="30"/>
       <c r="E95" s="25"/>
       <c r="F95" s="25"/>
@@ -8200,6 +8321,9 @@
     <row r="96" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C96" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D96" s="30"/>
       <c r="E96" s="25"/>
@@ -8243,6 +8367,9 @@
       <c r="B97" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C97" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D97" s="30"/>
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
@@ -8285,6 +8412,9 @@
       <c r="B98" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C98" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D98" s="30"/>
       <c r="E98" s="25"/>
       <c r="F98" s="25"/>
@@ -8327,6 +8457,9 @@
       <c r="B99" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C99" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D99" s="30"/>
       <c r="E99" s="25"/>
       <c r="F99" s="25"/>
@@ -8369,6 +8502,9 @@
       <c r="B100" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C100" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D100" s="30"/>
       <c r="E100" s="25"/>
       <c r="F100" s="25"/>
@@ -8412,6 +8548,9 @@
     <row r="101" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C101" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D101" s="30"/>
       <c r="E101" s="25"/>
@@ -8455,6 +8594,9 @@
       <c r="B102" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C102" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D102" s="30"/>
       <c r="E102" s="25"/>
       <c r="F102" s="25"/>
@@ -8496,6 +8638,9 @@
       <c r="B103" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C103" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D103" s="30"/>
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
@@ -8541,6 +8686,9 @@
     <row r="104" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C104" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D104" s="30"/>
       <c r="E104" s="25"/>
@@ -8584,6 +8732,9 @@
       <c r="B105" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C105" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D105" s="30"/>
       <c r="E105" s="25"/>
       <c r="F105" s="25"/>
@@ -8626,6 +8777,9 @@
       <c r="B106" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C106" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D106" s="30"/>
       <c r="E106" s="25"/>
       <c r="F106" s="25"/>
@@ -8668,6 +8822,9 @@
       <c r="B107" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C107" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D107" s="30"/>
       <c r="E107" s="25"/>
       <c r="F107" s="25"/>
@@ -8713,6 +8870,9 @@
     <row r="108" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C108" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D108" s="30"/>
       <c r="E108" s="25"/>
@@ -8757,6 +8917,9 @@
     <row r="109" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C109" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D109" s="30"/>
       <c r="E109" s="25"/>
@@ -8800,6 +8963,9 @@
       <c r="B110" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C110" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D110" s="30"/>
       <c r="E110" s="25"/>
       <c r="F110" s="25"/>
@@ -8846,6 +9012,9 @@
       <c r="B111" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C111" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D111" s="30"/>
       <c r="E111" s="25"/>
       <c r="F111" s="25"/>
@@ -8892,6 +9061,9 @@
       <c r="B112" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C112" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D112" s="30"/>
       <c r="E112" s="25"/>
       <c r="F112" s="25"/>
@@ -8939,6 +9111,9 @@
     <row r="113" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C113" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D113" s="30"/>
       <c r="E113" s="25"/>
@@ -8982,6 +9157,9 @@
       <c r="B114" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C114" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D114" s="30"/>
       <c r="E114" s="25"/>
       <c r="F114" s="25"/>
@@ -9024,6 +9202,9 @@
       <c r="B115" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C115" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D115" s="30"/>
       <c r="E115" s="25"/>
       <c r="F115" s="25"/>
@@ -9071,6 +9252,9 @@
     <row r="116" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C116" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D116" s="30"/>
       <c r="E116" s="25"/>
@@ -9116,6 +9300,9 @@
       <c r="B117" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C117" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D117" s="30"/>
       <c r="E117" s="25"/>
       <c r="F117" s="25"/>
@@ -9162,6 +9349,9 @@
       <c r="B118" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C118" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D118" s="30"/>
       <c r="E118" s="25"/>
       <c r="F118" s="25"/>
@@ -9211,6 +9401,9 @@
     <row r="119" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C119" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D119" s="30"/>
       <c r="E119" s="25"/>
@@ -9254,6 +9447,9 @@
       <c r="B120" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C120" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D120" s="30"/>
       <c r="E120" s="25"/>
       <c r="F120" s="25"/>
@@ -9296,6 +9492,9 @@
       <c r="B121" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C121" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D121" s="30"/>
       <c r="E121" s="25"/>
       <c r="F121" s="25"/>
@@ -9338,6 +9537,9 @@
       <c r="B122" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C122" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D122" s="30"/>
       <c r="E122" s="25"/>
       <c r="F122" s="25"/>
@@ -9380,6 +9582,9 @@
       <c r="B123" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C123" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D123" s="30"/>
       <c r="E123" s="25"/>
       <c r="F123" s="25"/>
@@ -9422,6 +9627,9 @@
       <c r="B124" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C124" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D124" s="30"/>
       <c r="E124" s="25"/>
       <c r="F124" s="25"/>
@@ -9464,6 +9672,9 @@
       <c r="B125" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C125" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D125" s="30"/>
       <c r="E125" s="25"/>
       <c r="F125" s="25"/>
@@ -9506,6 +9717,9 @@
       <c r="B126" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C126" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D126" s="30"/>
       <c r="E126" s="25"/>
       <c r="F126" s="25"/>
@@ -9551,6 +9765,9 @@
     <row r="127" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C127" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D127" s="30"/>
       <c r="E127" s="25"/>
@@ -9594,6 +9811,9 @@
       <c r="B128" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C128" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D128" s="64" t="s">
         <v>883</v>
       </c>
@@ -9640,6 +9860,9 @@
       <c r="B129" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C129" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D129" s="30"/>
       <c r="E129" s="25"/>
       <c r="F129" s="25"/>
@@ -9686,6 +9909,9 @@
       <c r="B130" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C130" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D130" s="30"/>
       <c r="E130" s="25"/>
       <c r="F130" s="25"/>
@@ -9732,6 +9958,9 @@
       <c r="B131" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C131" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D131" s="30"/>
       <c r="E131" s="25"/>
       <c r="F131" s="25"/>
@@ -9778,9 +10007,14 @@
       <c r="B132" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C132" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D132" s="30"/>
       <c r="E132" s="25"/>
-      <c r="F132" s="25"/>
+      <c r="F132" s="78" t="s">
+        <v>913</v>
+      </c>
       <c r="G132" s="25"/>
       <c r="H132" s="67" t="s">
         <v>899</v>
@@ -9826,9 +10060,14 @@
       <c r="B133" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C133" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D133" s="30"/>
       <c r="E133" s="25"/>
-      <c r="F133" s="25"/>
+      <c r="F133" s="78" t="s">
+        <v>913</v>
+      </c>
       <c r="G133" s="25"/>
       <c r="H133" s="67" t="s">
         <v>899</v>
@@ -9870,6 +10109,9 @@
       <c r="B134" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C134" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D134" s="30"/>
       <c r="E134" s="25"/>
       <c r="F134" s="25"/>
@@ -9915,6 +10157,9 @@
     <row r="135" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C135" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="25"/>
@@ -9960,6 +10205,9 @@
       <c r="B136" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C136" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D136" s="30"/>
       <c r="E136" s="25"/>
       <c r="F136" s="25"/>
@@ -10004,6 +10252,9 @@
       <c r="B137" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C137" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D137" s="30"/>
       <c r="E137" s="25"/>
       <c r="F137" s="25"/>
@@ -10048,6 +10299,9 @@
       <c r="B138" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C138" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D138" s="64" t="s">
         <v>887</v>
       </c>
@@ -10094,6 +10348,9 @@
       <c r="B139" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C139" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D139" s="30"/>
       <c r="E139" s="25"/>
       <c r="F139" s="25"/>
@@ -10139,6 +10396,9 @@
     <row r="140" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C140" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D140" s="30"/>
       <c r="E140" s="25"/>
@@ -10183,6 +10443,9 @@
     <row r="141" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C141" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="25"/>
@@ -10226,6 +10489,9 @@
       <c r="B142" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C142" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D142" s="30"/>
       <c r="E142" s="25"/>
       <c r="F142" s="25"/>
@@ -10268,6 +10534,9 @@
       <c r="B143" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C143" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D143" s="30"/>
       <c r="E143" s="25"/>
       <c r="F143" s="25"/>
@@ -10310,6 +10579,9 @@
       <c r="B144" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C144" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D144" s="30"/>
       <c r="E144" s="25"/>
       <c r="F144" s="25"/>
@@ -10352,6 +10624,9 @@
       <c r="B145" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C145" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D145" s="30"/>
       <c r="E145" s="25"/>
       <c r="F145" s="25"/>
@@ -10394,6 +10669,9 @@
       <c r="B146" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C146" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D146" s="30"/>
       <c r="E146" s="25"/>
       <c r="F146" s="25"/>
@@ -10439,6 +10717,9 @@
     <row r="147" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C147" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D147" s="30"/>
       <c r="E147" s="25"/>
@@ -10482,6 +10763,9 @@
       <c r="B148" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C148" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D148" s="30"/>
       <c r="E148" s="25"/>
       <c r="F148" s="25"/>
@@ -10524,6 +10808,9 @@
       <c r="B149" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C149" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D149" s="30"/>
       <c r="E149" s="25"/>
       <c r="F149" s="25"/>
@@ -10566,6 +10853,9 @@
       <c r="B150" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C150" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D150" s="30"/>
       <c r="E150" s="25"/>
       <c r="F150" s="25"/>
@@ -10608,6 +10898,9 @@
       <c r="B151" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C151" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D151" s="30"/>
       <c r="E151" s="25"/>
       <c r="F151" s="25"/>
@@ -10650,6 +10943,9 @@
       <c r="B152" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C152" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D152" s="30"/>
       <c r="E152" s="25"/>
       <c r="F152" s="25"/>
@@ -10692,6 +10988,9 @@
     <row r="153" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C153" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D153" s="30"/>
       <c r="E153" s="25"/>
@@ -10735,6 +11034,9 @@
       <c r="B154" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C154" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D154" s="30"/>
       <c r="E154" s="25"/>
       <c r="F154" s="25"/>
@@ -10781,6 +11083,9 @@
       <c r="B155" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C155" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D155" s="30"/>
       <c r="E155" s="25"/>
       <c r="F155" s="25"/>
@@ -10826,6 +11131,9 @@
     <row r="156" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C156" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D156" s="30"/>
       <c r="E156" s="25"/>
@@ -10872,6 +11180,9 @@
     <row r="157" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C157" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D157" s="30"/>
       <c r="E157" s="25"/>
@@ -10915,6 +11226,9 @@
       <c r="B158" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C158" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D158" s="30"/>
       <c r="E158" s="25"/>
       <c r="F158" s="25"/>
@@ -10957,6 +11271,9 @@
       <c r="B159" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C159" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D159" s="30"/>
       <c r="E159" s="25"/>
       <c r="F159" s="25"/>
@@ -11003,6 +11320,9 @@
       <c r="B160" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C160" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D160" s="30"/>
       <c r="E160" s="25"/>
       <c r="F160" s="25"/>
@@ -11050,6 +11370,9 @@
     <row r="161" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C161" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D161" s="30"/>
       <c r="E161" s="25"/>
@@ -11096,6 +11419,9 @@
     <row r="162" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C162" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D162" s="30"/>
       <c r="E162" s="25"/>
@@ -11139,6 +11465,9 @@
       <c r="B163" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C163" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D163" s="30"/>
       <c r="E163" s="25"/>
       <c r="F163" s="25"/>
@@ -11181,6 +11510,9 @@
       <c r="B164" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C164" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D164" s="30"/>
       <c r="E164" s="25"/>
       <c r="F164" s="25"/>
@@ -11223,6 +11555,9 @@
       <c r="B165" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C165" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D165" s="30"/>
       <c r="E165" s="25"/>
       <c r="F165" s="25"/>
@@ -11265,6 +11600,9 @@
       <c r="B166" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C166" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D166" s="30"/>
       <c r="E166" s="25"/>
       <c r="F166" s="25"/>
@@ -11311,6 +11649,9 @@
       <c r="B167" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C167" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D167" s="30"/>
       <c r="E167" s="25"/>
       <c r="F167" s="25"/>
@@ -11356,6 +11697,9 @@
     <row r="168" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C168" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D168" s="30"/>
       <c r="E168" s="25"/>
@@ -11402,6 +11746,9 @@
     <row r="169" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C169" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D169" s="30"/>
       <c r="E169" s="25"/>
@@ -11445,6 +11792,9 @@
       <c r="B170" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C170" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D170" s="30"/>
       <c r="E170" s="25"/>
       <c r="F170" s="25"/>
@@ -11487,6 +11837,9 @@
       <c r="B171" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C171" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D171" s="30"/>
       <c r="E171" s="25"/>
       <c r="F171" s="25"/>
@@ -11533,6 +11886,9 @@
       <c r="B172" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C172" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D172" s="64" t="s">
         <v>885</v>
       </c>
@@ -11584,6 +11940,9 @@
     <row r="173" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C173" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D173" s="30"/>
       <c r="E173" s="25"/>
@@ -11630,6 +11989,9 @@
     <row r="174" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C174" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="25"/>
@@ -11675,6 +12037,9 @@
       <c r="B175" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C175" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D175" s="30"/>
       <c r="E175" s="25"/>
       <c r="F175" s="25"/>
@@ -11720,6 +12085,9 @@
     <row r="176" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C176" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D176" s="30"/>
       <c r="E176" s="25"/>
@@ -11765,6 +12133,9 @@
       <c r="B177" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C177" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D177" s="30"/>
       <c r="E177" s="25"/>
       <c r="F177" s="25"/>
@@ -11809,6 +12180,9 @@
       <c r="B178" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C178" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D178" s="30"/>
       <c r="E178" s="25"/>
       <c r="F178" s="25"/>
@@ -11853,6 +12227,9 @@
       <c r="B179" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C179" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D179" s="30"/>
       <c r="E179" s="25"/>
       <c r="F179" s="25"/>
@@ -11902,6 +12279,9 @@
     <row r="180" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B180" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C180" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D180" s="30"/>
       <c r="E180" s="25"/>
@@ -11945,6 +12325,9 @@
       <c r="B181" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C181" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D181" s="30"/>
       <c r="E181" s="25"/>
       <c r="F181" s="25"/>
@@ -11987,6 +12370,9 @@
       <c r="B182" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C182" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D182" s="30"/>
       <c r="E182" s="25"/>
       <c r="F182" s="25"/>
@@ -12029,6 +12415,9 @@
       <c r="B183" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C183" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D183" s="30"/>
       <c r="E183" s="25"/>
       <c r="F183" s="25"/>
@@ -12074,6 +12463,9 @@
     <row r="184" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C184" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D184" s="30"/>
       <c r="E184" s="25"/>
@@ -12117,6 +12509,9 @@
       <c r="B185" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C185" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D185" s="30"/>
       <c r="E185" s="25"/>
       <c r="F185" s="25"/>
@@ -12159,6 +12554,9 @@
       <c r="B186" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C186" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D186" s="30"/>
       <c r="E186" s="25"/>
       <c r="F186" s="25"/>
@@ -12201,6 +12599,9 @@
       <c r="B187" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C187" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D187" s="30"/>
       <c r="E187" s="25"/>
       <c r="F187" s="25"/>
@@ -12246,6 +12647,9 @@
     <row r="188" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C188" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D188" s="30"/>
       <c r="E188" s="25"/>
@@ -12289,6 +12693,9 @@
       <c r="B189" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C189" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D189" s="30"/>
       <c r="E189" s="25"/>
       <c r="F189" s="25"/>
@@ -12332,6 +12739,9 @@
     <row r="190" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B190" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C190" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D190" s="30"/>
       <c r="E190" s="25"/>
@@ -12375,6 +12785,9 @@
       <c r="B191" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C191" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D191" s="30"/>
       <c r="E191" s="25"/>
       <c r="F191" s="25"/>
@@ -12417,6 +12830,9 @@
       <c r="B192" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C192" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D192" s="30"/>
       <c r="E192" s="25"/>
       <c r="F192" s="25"/>
@@ -12459,6 +12875,9 @@
       <c r="B193" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C193" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D193" s="30"/>
       <c r="E193" s="25"/>
       <c r="F193" s="25"/>
@@ -12507,6 +12926,9 @@
       <c r="B194" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C194" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D194" s="30"/>
       <c r="E194" s="25"/>
       <c r="F194" s="25"/>
@@ -12552,6 +12974,9 @@
     <row r="195" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C195" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D195" s="30"/>
       <c r="E195" s="25"/>
@@ -12597,6 +13022,9 @@
       <c r="B196" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C196" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D196" s="30"/>
       <c r="E196" s="25"/>
       <c r="F196" s="25"/>
@@ -12641,6 +13069,9 @@
       <c r="B197" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C197" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D197" s="64" t="s">
         <v>883</v>
       </c>
@@ -12688,6 +13119,9 @@
     <row r="198" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C198" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D198" s="30"/>
       <c r="E198" s="25"/>
@@ -12733,6 +13167,9 @@
       <c r="B199" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C199" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D199" s="30"/>
       <c r="E199" s="25"/>
       <c r="F199" s="25"/>
@@ -12781,6 +13218,9 @@
       <c r="B200" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C200" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D200" s="30"/>
       <c r="E200" s="25"/>
       <c r="F200" s="25"/>
@@ -12828,6 +13268,9 @@
     <row r="201" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B201" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C201" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D201" s="30"/>
       <c r="E201" s="25"/>
@@ -12871,6 +13314,9 @@
       <c r="B202" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C202" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D202" s="30"/>
       <c r="E202" s="25"/>
       <c r="F202" s="25"/>
@@ -12913,6 +13359,9 @@
       <c r="B203" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C203" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D203" s="30"/>
       <c r="E203" s="25"/>
       <c r="F203" s="25"/>
@@ -12955,6 +13404,9 @@
       <c r="B204" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C204" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D204" s="30"/>
       <c r="E204" s="25"/>
       <c r="F204" s="25"/>
@@ -12997,6 +13449,9 @@
       <c r="B205" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C205" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D205" s="30"/>
       <c r="E205" s="25"/>
       <c r="F205" s="25"/>
@@ -13042,6 +13497,9 @@
     <row r="206" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B206" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C206" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D206" s="30"/>
       <c r="E206" s="25"/>
@@ -13085,6 +13543,9 @@
       <c r="B207" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C207" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D207" s="30"/>
       <c r="E207" s="25"/>
       <c r="F207" s="25"/>
@@ -13130,6 +13591,9 @@
     <row r="208" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B208" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C208" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="25"/>
@@ -13173,6 +13637,9 @@
     <row r="209" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B209" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C209" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="25"/>
@@ -13216,6 +13683,9 @@
       <c r="B210" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C210" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D210" s="30"/>
       <c r="E210" s="25"/>
       <c r="F210" s="25"/>
@@ -13258,6 +13728,9 @@
       <c r="B211" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C211" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D211" s="30"/>
       <c r="E211" s="25"/>
       <c r="F211" s="25"/>
@@ -13300,6 +13773,9 @@
       <c r="B212" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C212" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D212" s="30"/>
       <c r="E212" s="25"/>
       <c r="F212" s="25"/>
@@ -13342,6 +13818,9 @@
       <c r="B213" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C213" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D213" s="30"/>
       <c r="E213" s="25"/>
       <c r="F213" s="25"/>
@@ -13384,6 +13863,9 @@
       <c r="B214" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C214" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D214" s="30"/>
       <c r="E214" s="25"/>
       <c r="F214" s="25"/>
@@ -13429,6 +13911,9 @@
     <row r="215" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B215" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C215" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D215" s="30"/>
       <c r="E215" s="25"/>
@@ -13481,6 +13966,9 @@
     <row r="216" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B216" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C216" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D216" s="30"/>
       <c r="E216" s="25"/>
@@ -13530,6 +14018,9 @@
       <c r="B217" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C217" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D217" s="30"/>
       <c r="E217" s="25"/>
       <c r="F217" s="25"/>
@@ -13577,6 +14068,9 @@
     <row r="218" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B218" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C218" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="25"/>
@@ -13622,6 +14116,9 @@
       <c r="B219" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C219" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D219" s="30"/>
       <c r="E219" s="25"/>
       <c r="F219" s="25"/>
@@ -13666,6 +14163,9 @@
       <c r="B220" s="68" t="s">
         <v>915</v>
       </c>
+      <c r="C220" s="66" t="s">
+        <v>893</v>
+      </c>
       <c r="D220" s="30"/>
       <c r="E220" s="25"/>
       <c r="F220" s="25"/>
@@ -13709,6 +14209,9 @@
     <row r="221" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B221" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C221" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D221" s="30"/>
       <c r="E221" s="25"/>
@@ -13753,6 +14256,9 @@
     <row r="222" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B222" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C222" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D222" s="30"/>
       <c r="E222" s="25"/>
@@ -13795,6 +14301,9 @@
     <row r="223" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B223" s="68" t="s">
         <v>915</v>
+      </c>
+      <c r="C223" s="66" t="s">
+        <v>893</v>
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="25"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
@@ -3524,8 +3524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
     </sheetView>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81D9AC9-9382-46DA-92F4-1D04C004A746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS 4.5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.5'!$A$1:$XES$1235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.5'!$B$1:$V$1235</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2810,7 +2811,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3521,13 +3522,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -9391,7 +9392,7 @@
       <c r="S118" s="7"/>
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
-      <c r="V118" s="61" t="s">
+      <c r="V118" s="46" t="s">
         <v>891</v>
       </c>
       <c r="W118" s="8"/>
@@ -55350,56 +55351,56 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N156" r:id="rId1" display="a@va@tatya#"/>
-    <hyperlink ref="N251" r:id="rId2" display="u@pa@vI@tinE$"/>
-    <hyperlink ref="N263" r:id="rId3" display="A@ta@tA@vinE$"/>
-    <hyperlink ref="N287" r:id="rId4" display="vA@ri@va@skRu@tAya#"/>
-    <hyperlink ref="N292" r:id="rId5" display="u@ccairGO#ShAya"/>
-    <hyperlink ref="N293" r:id="rId6" display="A@kra@ndaya#tE"/>
-    <hyperlink ref="N298" r:id="rId7" display="kRu@thsna@vI@tAya#"/>
-    <hyperlink ref="N305" r:id="rId8" display="ni@vyA@dhinE$"/>
-    <hyperlink ref="N306" r:id="rId9" display="A@vyA@dhinI#nAm"/>
-    <hyperlink ref="N311" r:id="rId10" display="ni@Sha@~gginE$"/>
-    <hyperlink ref="N316" r:id="rId11" display="ni@Sha@~gginE$"/>
-    <hyperlink ref="N317" r:id="rId12" display="i@Shu@dhi@matE$"/>
-    <hyperlink ref="N323" r:id="rId13" display="pa@ri@va~jca#tE"/>
-    <hyperlink ref="N328" r:id="rId14" display="ni@cE@ravE$"/>
-    <hyperlink ref="N329" r:id="rId15" display="pa@ri@ca@rAya#"/>
-    <hyperlink ref="N334" r:id="rId16" display="sRu@kA@viBya#H"/>
-    <hyperlink ref="V74" r:id="rId17" display="su@manA@ ti# su - manA$H"/>
-    <hyperlink ref="V103" r:id="rId18" display="sa@ha@sra@Sa iti# sahasra - SaH"/>
-    <hyperlink ref="V115" r:id="rId19" display="gO@pA iti# gO - pAH"/>
-    <hyperlink ref="V166" r:id="rId20" display="su@manA@ iti# su - manA$H"/>
-    <hyperlink ref="V226" r:id="rId21" display="sE@nA@nya# iti# sEnA - nyE$"/>
-    <hyperlink ref="V323" r:id="rId22" display="pa@ri@va~jca#ta@ iti# pari - va~jca#tE"/>
-    <hyperlink ref="V360" r:id="rId23" display="pra@ti@dadhA#nEBya@ iti# prati - dadhA#nEByaH"/>
-    <hyperlink ref="V408" r:id="rId24" display="vi@vidhya#ntIBya@ iti# vi - vidhya#ntIByaH"/>
-    <hyperlink ref="V516" r:id="rId25" display="pa@Su@pata#ya@ iti# paSu - pata#yE"/>
-    <hyperlink ref="V521" r:id="rId26" display="Si@ti@kaNThA@yEti# Siti - kaNThA#ya"/>
-    <hyperlink ref="V556" r:id="rId27" display="sa@M~MvRudhva#na@ iti# saM - vRudhva#nE"/>
-    <hyperlink ref="V589" r:id="rId28" display="pU@rva@jAyEti# pUrva - jAya#"/>
-    <hyperlink ref="V591" r:id="rId29" display="a@pa@ra@jAyEtya# para - jAya#"/>
-    <hyperlink ref="V676" r:id="rId30" display="i@Shu@dhi@mata@ itI#Shudhi - matE$"/>
-    <hyperlink ref="V686" r:id="rId31" display="su@dhanva#na@ iti# su - dhanva#nE"/>
-    <hyperlink ref="V736" r:id="rId32" display="vA@stu@pAyEti# vAstu - pAya#"/>
-    <hyperlink ref="V751" r:id="rId33" display="pa@Su@pata#ya@ iti# paSu - pata#yE"/>
-    <hyperlink ref="V774" r:id="rId34" display="Sa@MBava@ iti# SaM - BavE$"/>
-    <hyperlink ref="V776" r:id="rId35" display="ma@yO@Bava@ iti# mayaH - BavE$"/>
-    <hyperlink ref="V799" r:id="rId36" display="pra@tara#NA@yEti# pra - tara#NAya"/>
-    <hyperlink ref="V846" r:id="rId37" display="ga@hva@rE@ShThAyEti# gahvarE - sthAya#"/>
-    <hyperlink ref="V945" r:id="rId38" display="dvi@pada@ iti# dvi - padE$"/>
-    <hyperlink ref="V1031" r:id="rId39" display="pU@ru@Sha@Gna iti# pUruSha - GnE"/>
-    <hyperlink ref="V1049" r:id="rId40" display="dvi@barhA@ iti# dvi - barhA$H"/>
-    <hyperlink ref="V1052" r:id="rId41" display="ga@rtta@sada@miti# gartta - sada$m"/>
-    <hyperlink ref="V1090" r:id="rId42" display="su@manA@ iti# su - manA$H"/>
-    <hyperlink ref="V1095" r:id="rId43" display="ni@dhAyEti# ni - dhAya#"/>
-    <hyperlink ref="V1120" r:id="rId44" display="sa@ha@sra@dhEti# sahasra - dhA"/>
-    <hyperlink ref="V1131" r:id="rId45" display="sa@ha@sra@Sa iti# sahasra - SaH"/>
-    <hyperlink ref="V1148" r:id="rId46" display="Si@ti@kaNThA@ iti# Siti - kaNThA$H"/>
-    <hyperlink ref="V1153" r:id="rId47" display="Si@ti@kaNThA@ iti# Siti - kaNThA$H"/>
-    <hyperlink ref="V1169" r:id="rId48" display="vi@vidhya@ntIti# vi - vidhya#nti"/>
-    <hyperlink ref="V1175" r:id="rId49" display="pa@thi@rakSha#ya@ iti# pathi - rakSha#yaH"/>
-    <hyperlink ref="V1180" r:id="rId50" display="pra@cara@ntIti# pra - cara#nti"/>
+    <hyperlink ref="N156" r:id="rId1" display="a@va@tatya#" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N251" r:id="rId2" display="u@pa@vI@tinE$" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N263" r:id="rId3" display="A@ta@tA@vinE$" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N287" r:id="rId4" display="vA@ri@va@skRu@tAya#" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N292" r:id="rId5" display="u@ccairGO#ShAya" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N293" r:id="rId6" display="A@kra@ndaya#tE" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N298" r:id="rId7" display="kRu@thsna@vI@tAya#" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N305" r:id="rId8" display="ni@vyA@dhinE$" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N306" r:id="rId9" display="A@vyA@dhinI#nAm" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N311" r:id="rId10" display="ni@Sha@~gginE$" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N316" r:id="rId11" display="ni@Sha@~gginE$" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N317" r:id="rId12" display="i@Shu@dhi@matE$" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N323" r:id="rId13" display="pa@ri@va~jca#tE" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N328" r:id="rId14" display="ni@cE@ravE$" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N329" r:id="rId15" display="pa@ri@ca@rAya#" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="N334" r:id="rId16" display="sRu@kA@viBya#H" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="V74" r:id="rId17" display="su@manA@ ti# su - manA$H" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="V103" r:id="rId18" display="sa@ha@sra@Sa iti# sahasra - SaH" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="V115" r:id="rId19" display="gO@pA iti# gO - pAH" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="V166" r:id="rId20" display="su@manA@ iti# su - manA$H" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="V226" r:id="rId21" display="sE@nA@nya# iti# sEnA - nyE$" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="V323" r:id="rId22" display="pa@ri@va~jca#ta@ iti# pari - va~jca#tE" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="V360" r:id="rId23" display="pra@ti@dadhA#nEBya@ iti# prati - dadhA#nEByaH" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="V408" r:id="rId24" display="vi@vidhya#ntIBya@ iti# vi - vidhya#ntIByaH" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="V516" r:id="rId25" display="pa@Su@pata#ya@ iti# paSu - pata#yE" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="V521" r:id="rId26" display="Si@ti@kaNThA@yEti# Siti - kaNThA#ya" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="V556" r:id="rId27" display="sa@M~MvRudhva#na@ iti# saM - vRudhva#nE" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="V589" r:id="rId28" display="pU@rva@jAyEti# pUrva - jAya#" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="V591" r:id="rId29" display="a@pa@ra@jAyEtya# para - jAya#" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="V676" r:id="rId30" display="i@Shu@dhi@mata@ itI#Shudhi - matE$" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="V686" r:id="rId31" display="su@dhanva#na@ iti# su - dhanva#nE" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="V736" r:id="rId32" display="vA@stu@pAyEti# vAstu - pAya#" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="V751" r:id="rId33" display="pa@Su@pata#ya@ iti# paSu - pata#yE" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="V774" r:id="rId34" display="Sa@MBava@ iti# SaM - BavE$" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="V776" r:id="rId35" display="ma@yO@Bava@ iti# mayaH - BavE$" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="V799" r:id="rId36" display="pra@tara#NA@yEti# pra - tara#NAya" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="V846" r:id="rId37" display="ga@hva@rE@ShThAyEti# gahvarE - sthAya#" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="V945" r:id="rId38" display="dvi@pada@ iti# dvi - padE$" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="V1031" r:id="rId39" display="pU@ru@Sha@Gna iti# pUruSha - GnE" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="V1049" r:id="rId40" display="dvi@barhA@ iti# dvi - barhA$H" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="V1052" r:id="rId41" display="ga@rtta@sada@miti# gartta - sada$m" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="V1090" r:id="rId42" display="su@manA@ iti# su - manA$H" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="V1095" r:id="rId43" display="ni@dhAyEti# ni - dhAya#" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="V1120" r:id="rId44" display="sa@ha@sra@dhEti# sahasra - dhA" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="V1131" r:id="rId45" display="sa@ha@sra@Sa iti# sahasra - SaH" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="V1148" r:id="rId46" display="Si@ti@kaNThA@ iti# Siti - kaNThA$H" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="V1153" r:id="rId47" display="Si@ti@kaNThA@ iti# Siti - kaNThA$H" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="V1169" r:id="rId48" display="vi@vidhya@ntIti# vi - vidhya#nti" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="V1175" r:id="rId49" display="pa@thi@rakSha#ya@ iti# pathi - rakSha#yaH" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="V1180" r:id="rId50" display="pra@cara@ntIti# pra - cara#nti" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId51"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.5 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81D9AC9-9382-46DA-92F4-1D04C004A746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195E883C-F2D0-4AEF-9DED-82FD1D08B1AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3525,10 +3525,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
